--- a/CapIQ_AutomotiveFinancials (1).xlsx
+++ b/CapIQ_AutomotiveFinancials (1).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcfarland\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33306EEF-E865-4613-9651-6D4E0E2A188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="3820" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="7" state="veryHidden" r:id="rId1"/>
-    <sheet name="paste_value" sheetId="5" r:id="rId2"/>
+    <sheet name="paste_value" sheetId="5" r:id="rId1"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="8" state="veryHidden" r:id="rId2"/>
     <sheet name="formula" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
@@ -22,8 +23,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="Ccy">'[1]Financial Statements'!$G$3</definedName>
-    <definedName name="CIQWBGuid" hidden="1">"240a0e3d-16f3-4892-bd61-954b0a2e934e"</definedName>
-    <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"fc5f4c43-9f49-4b7a-8d21-66b22f88c7d2"</definedName>
+    <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.50.2716.4594"" }"</definedName>
     <definedName name="Conv">'[1]Financial Statements'!$G$4</definedName>
     <definedName name="IQ_ADDIN" hidden="1">"AUTO"</definedName>
     <definedName name="IQ_ANNUAL_DIVIDEND" hidden="1">"c229"</definedName>
@@ -154,7 +155,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44449.337037037</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">45206.3828935185</definedName>
     <definedName name="IQ_NAV_ACT_OR_EST" hidden="1">"c2225"</definedName>
     <definedName name="IQ_NET_INC_10K" hidden="1">"IQ_NET_INC_10K"</definedName>
     <definedName name="IQ_NET_INC_10Q" hidden="1">"IQ_NET_INC_10Q"</definedName>
@@ -233,17 +234,28 @@
     <definedName name="NumQtrs">#REF!</definedName>
     <definedName name="SPWS_WBID">"2BF5D15D-9FD9-4036-9B85-6A566AD1A1E7"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="337">
   <si>
     <t>XTRA:DAI</t>
   </si>
@@ -434,253 +446,832 @@
     <t>Machinery</t>
   </si>
   <si>
-    <t>AwABTAVMT0NBTAFI/////wFQTAEAADtDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkRVU1RSWQEAAABpYQAAAwAAACxUZWNobm9sb2d5IEhhcmR3YXJlLCBTdG9yYWdlIGFuZCBQZXJpcGhlcmFscwBJnVNlBIHZCKR2a7wEgdkIUkNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAaWEAAAIAAAAFNzQxODEBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEw+Hu9vAOB2Qh4+268BIHZCEFDSVEuTllTRTpHTS5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUkVGIERJVklERU5EUwEAAABU7qUDAwAAAAAAwd1pgfyA2QjvhW68BIHZCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABpYQAAAgAAAAUyMTEyMAEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATD4e728A4HZCHElbbwEgdkIOUNJUS5OWVNFOkdNLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOC4uLlVTRC4u</t>
-  </si>
-  <si>
-    <t>VE9UQUwgREVCVAEAAABU7qUDAgAAAAU5NDIxOQEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw4EkyggKB2QjJNHC8BIHZCENDSVEuTkFTREFRR1M6QUFQTC5JUV9BUElDLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAGlhAAADAAAAAACkU728A4HZCOxNbbwEgdkIQUNJUS5OWVNFOkdNLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAFTupQMDAAAAAADB3WmB/IDZCANgbrwEgdkIQENJUS5OWVNFOkYuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAX58BAAIAAAAGMTE0MDQ3AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATAxmDKCAoHZCES/b7wEgdkIOkNJUS5OWVNFOkYuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAX58BAAIAAAAGMTU2Nzc2AQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw4EkyggKB2QhcmW+8BIHZCDxD</t>
-  </si>
-  <si>
-    <t>SVEuVFNFOjcyMDMuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAvOAEAAIAAAANMjUyNzg2LjcyNzY4OAEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEw0yIyggKB2QjCiGy8BIHZCDZDSVEuTllTRTpGLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIwLi4uVVNELi5BU1NFVFMBAAAAX58BAAIAAAAGMjU4NTM3AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATAVTP5lAoHZCEVIcbwEgdkIRUNJUS5OWVNFOkYuSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAABfnwEAAgAAAAU5MDI4MQEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwivsxggKB2Qgi7Gu8BIHZCEBDSVEuTllTRTpGLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAF+fAQACAAAABjEwMjU4NwEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEv</t>
-  </si>
-  <si>
-    <t>MS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwivsxggKB2QhIcm+8BIHZCEBDSVEuTllTRTpGLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAF+fAQADAAAAAADwRZ1dAYHZCHvmb7wEgdkIN0NJUS5OQVNEQVFHUzpBQVBMLklRX05JLjEwMDAuMS8xLzIwMjEuLi5VU0QuLk5FVCBJTkNPTUUBAAAAaWEAAAIAAAAFNTc0MTEBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTQ2NQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTkvMjYvMjAyMAkAAAABMEvicL8DgdkIA0tvvASB2QhBQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAaWEAAAIAAAAGMjc0NTE1AQgAAAAFAAAAATEBAAAACjIwNjcyMDk0NjUDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCHHRcLwEgdkIOkNJUS5OWVNFOkdNLklRX0FSLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAVO6lAwIAAAAEODAzNQEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDI3AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwMZgyggKB2Qia/2y8BIHZCD9DSVEuTllTRTpGLklRX1RP</t>
-  </si>
-  <si>
-    <t>VEFMX0xJQUIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAX58BAAIAAAAGMjI1MzA3AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATAxmDKCAoHZCEVIcbwEgdkIMkNJUS5UU0U6NzIwMy5JUV9OSS4xMDAwLjEvMS8yMDIwLi4uVVNELi5ORVQgSU5DT01FAQAAALzgBAACAAAADDE2OTkxLjkwNDU0MgEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwWr8yggKB2Qjvr2y8BIHZCDlDSVEuTllTRTpHTS5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIERFQlQBAAAAVO6lAwIAAAAGMTExMDcyAQgAAAAFAAAAATEBAAAACjIwNzk1MjUwMjcDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATAxmDKCAoHZCEhdcLwEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAGlhAAADAAAAAACkU728A4HZCHj7brwEgdkIQENJUS5OQVNEQVFHUzpBQVBMLklRX0FSLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUB</t>
-  </si>
-  <si>
-    <t>AAAAaWEAAAIAAAAFMjMxODYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2Qikdmu8BIHZCFVDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDIxLi4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAGlhAAACAAAACTE3MDAxLjgwMgEEAAAABQAAAAE1AQAAAAoyMDY3MjA5NDY1AgAAAAUyNDE1MwYAAAABMEvicL8DgdkI/nNtvASB2Qg9Q0lRLk5ZU0U6Ri5JUV9DT01NT04uMTAwMC4xLzEvMjAyMS4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABfnwEAAgAAAAI0MQEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwh9aUmAGB2QiuEW68BIHZCD1DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAyMS4uLlVTRC4uQVNTRVRTAQAAAGlhAAACAAAABjMyMzg4OAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCPnEa7wEgdkIQkNJUS5UU0U6NzIwMy5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE4</t>
-  </si>
-  <si>
-    <t>Li4uVVNELi5QUkVGIERJVklERU5EUwEAAAC84AQAAgAAAAk4Ny44NDc1MzUBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAI5NwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMMHdaYH8gNkI8w5wvASB2QhCQ0lRLlRTRTo3MjAzLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAALzgBAADAAAAAACbx6ppAYHZCMKIbLwEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAGlhAAADAAAAAAD4e728A4HZCFbUbrwEgdkISUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAaWEAAAIAAAAFMjAyODkBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEw+Hu9vAOB2QhUg3C8BIHZCEJDSVEuVFNFOjcyMDMuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAvOAEAAIAAAAJNTQuMTc0MDgxAQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAACOTcEAAAAATAHAAAACDEvMS8yMDE3CAAA</t>
-  </si>
-  <si>
-    <t>AAkzLzMxLzIwMTYJAAAAATDB3WmB/IDZCMKIbLwEgdkIMENJUS5OWVNFOkYuSVFfTkkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTkVUIElOQ09NRQEAAABfnwEAAgAAAAQ0NTg5AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwivsxggKB2QhZw228BIHZCDpDSVEuTllTRTpGLklRX0NPR1MuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAAF+fAQACAAAABjEzMTMyMQEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMOBJMoICgdkIWcNtvASB2QhBQ0lRLk5ZU0U6R00uSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAVO6lAwIAAAACOTgBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAI5NwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATADYvt7/IDZCO+FbrwEgdkIOkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAX58BAAIAAAAENTM4NgEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEv</t>
-  </si>
-  <si>
-    <t>MS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEw40C0UAKB2Qj5xGu8BIHZCExDSVEuTllTRTpHTS5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAFTupQMCAAAABTE5OTQzAQgAAAAFAAAAATEBAAAACjIwNzk1MjUwODYDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBavzKCAoHZCJr/bLwEgdkIQkNJUS5OWVNFOkYuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIE9XTkVSIEVRVUlUWQEAAABfnwEAAgAAAAUyODc1MQEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwivsxggKB2Qg+nG28BIHZCDlDSVEuTllTRTpGLklRX0FSLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAX58BAAIAAAAEMzQyMgEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwWr8yggKB2QhFSHG8BIHZCDlDSVEuTllTRTpGLklRX0FSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAX58BAAIAAAAFMTEwNDIBCAAAAAUAAAAB</t>
-  </si>
-  <si>
-    <t>MQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMIr7MYICgdkI8/lwvASB2Qg5Q0lRLlRTRTo3MjAzLklRX1JFLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAALzgBAACAAAADTIwNjYzMi40MjM3NzYBCAAAAAUAAAABMQEAAAALLTIxNDUyNDA5NjkDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMDGYMoICgdkIWdhsvASB2QhJQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIE9XTkVSIEVRVUlUWQEAAABpYQAAAgAAAAYxMDcxNDcBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2Qh4+268BIHZCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABpYQAAAgAAAAYyMjkyMzQBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMKRTvbwDgdkIpHZrvASB2QhJQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9FUVVJVi4xMDAw</t>
-  </si>
-  <si>
-    <t>LjEvMS8yMDE3Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABpYQAAAgAAAAUyMDQ4NAEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATD4e728A4HZCHElbbwEgdkIRUNJUS5OWVNFOkYuSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAABfnwEAAgAAAAU5NTU2OQEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQwAwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwDHEyggKB2Qh4Omy8BIHZCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABpYQAAAwAAAAAApFO9vAOB2Qieq3C8BIHZCEJDSVEuTllTRTpGLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBPV05FUiBFUVVJVFkBAAAAX58BAAIAAAAFMzU3MDQBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMOBJMoICgdkIWcNtvASB2QhOQ0lRLk5ZU0U6Ri5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8y</t>
-  </si>
-  <si>
-    <t>MDIxLi4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAF+fAQACAAAACzM5NzguNjk1MDE3AQQAAAAFAAAAATUBAAAACjIwNzg4NTgyNDYCAAAABTI0MTUzBgAAAAEwWr8yggKB2QioYWy8BIHZCFJDSVEuTkFTREFRR1M6QUFQTC5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAGlhAAACAAAABTY3MTU1AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMPh7vbwDgdkIpHZrvASB2QgwQ0lRLk5ZU0U6Ri5JUV9OSS4xMDAwLjEvMS8yMDE5Li4uVVNELi5ORVQgSU5DT01FAQAAAF+fAQACAAAABDM2NzcBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAxmDKCAoHZCJrqbbwEgdkIPENJUS5OWVNFOkYuSVFfQVBJQy4xMDAwLjEvMS8yMDE2Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABfnwEAAgAAAAUyMTQyMQEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwJk+gJQGB2Qj5xGu8BIHZCDhDSVEuVFNFOjcyMDMuSVFfSU5WRU5UT1JZLjEwMDAuMS8x</t>
-  </si>
-  <si>
-    <t>LzIwMTguLi5VU0QuLklOVkVOVE9SWQEAAAC84AQAAgAAAAwyMTQyMi41NzQzMTIBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEw0yIyggKB2QihN268BIHZCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABpYQAAAwAAAAAA+Hu9vAOB2Qikdmu8BIHZCExDSVEuTllTRTpHTS5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAFTupQMCAAAABTIzOTM4AQgAAAAFAAAAATEBAAAACjIwNzk1MjUwMjcDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATAxmDKCAoHZCHElbbwEgdkIOkNJUS5OWVNFOkYuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAX58BAAIAAAAGMTQ5NTU4AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwivsxggKB2QhIcm+8BIHZCEJDSVEuVFNFOjcyMDMuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAyMS4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NF</t>
-  </si>
-  <si>
-    <t>VFMBAAAAvOAEAAIAAAANMTc2MjM1Ljc2NjEyNwEIAAAABQAAAAExAQAAAAstMjE0NTI0MDk2OQMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwMZgyggKB2QhZ2Gy8BIHZCDhDSVEuTllTRTpGLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgREVCVAEAAABfnwEAAgAAAAYxNTQyODcBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMOBJMoICgdkI0R9xvASB2Qg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVkVOVE9SWQEAAABpYQAAAgAAAAQzOTU2AQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkIVINwvASB2QhBQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAaWEAAAIAAAAGMjE1NjM5AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATD4e728A4HZCFbUbrwEgdkIQkNJUS5UU0U6NzIwMy5JUV9QUkVG</t>
-  </si>
-  <si>
-    <t>X0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUkVGIERJVklERU5EUwEAAAC84AQAAwAAAAAAtlWTg/yA2Qh75m+8BIHZCDxDSVEuVFNFOjcyMDMuSVFfQ09HUy4xMDAwLjEvMS8yMDIxLi4uVVNELi5DT1NUIE9GIEdPT0RTIFNPTEQBAAAAvOAEAAIAAAANMjE0NzEzLjQ1NDI1NQEIAAAABQAAAAExAQAAAAstMjE0NTI0MDk2OQMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMDGYMoICgdkIA2BuvASB2QhHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAaWEAAAIAAAAGMTI4NjQ1AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMKRTvbwDgdkI7E1tvASB2QhJQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABpYQAAAgAAAAU0ODg0NAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NzA1AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATCkU728A4HZCP5zbbwEgdkIQkNJUS5UU0U6NzIwMy5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8y</t>
-  </si>
-  <si>
-    <t>MDE5Li4uVVNELi5QUkVGIERJVklERU5EUwEAAAC84AQAAgAAAAkxMTUuNzI5MDIBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAI5NwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMMHdaYH8gNkI769svASB2Qg8Q0lRLk5ZU0U6Ri5JUV9BUElDLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAF+fAQACAAAABTIxODQzAQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC5JqAlAYHZCE8TbLwEgdkIP0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgREVCVAEAAABpYQAAAgAAAAU4NzAzMgEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATD4e728A4HZCFSDcLwEgdkIPENJUS5OWVNFOkYuSVFfQVBJQy4xMDAwLjEvMS8yMDIxLi4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABfnwEAAgAAAAUyMjI5MAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwOwfX1ACB2QjCiGy8BIHZCEJD</t>
-  </si>
-  <si>
-    <t>SVEuTllTRTpGLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAX58BAAIAAAAEODkzNAEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwfxGMQgKB2QhPE2y8BIHZCDlDSVEuTllTRTpGLklRX0FSLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAX58BAAIAAAAFMTExMDIBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMIr7MYICgdkI8/lwvASB2Qg4Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIERFQlQBAAAAX58BAAIAAAAGMTYyOTk4AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBavzKCAoHZCEVIcbwEgdkIOUNJUS5UU0U6NzIwMy5JUV9SRS4xMDAwLjEvMS8yMDE5Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAAC84AQAAgAAAA0xODMzNTcuMzI3MDc4AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjcDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTkIAAAA</t>
-  </si>
-  <si>
-    <t>CTMvMzEvMjAxOAkAAAABMAxxMoICgdkIoTduvASB2Qg/Q0lRLlRTRTo3MjAzLklRX0NPTU1PTi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAALzgBAACAAAACzM1ODMuMTYwMjU1AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMIfWlJgBgdkI769svASB2Qg4Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIERFQlQBAAAAX58BAAIAAAAGMTMyODU0AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCPP5cLwEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAGlhAAACAAAABjE0MzcxMwEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCHHRcLwEgdkIPUNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE5Li4uVVNELi5BU1NFVFMBAAAAaWEAAAIAAAAGMzY1NzI1AQgAAAAFAAAAATEBAAAACjIw</t>
-  </si>
-  <si>
-    <t>NjcyMDk2MjYDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkIzZ1rvASB2Qg1Q0lRLk5ZU0U6R00uSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5EVVNUUlkBAAAAVO6lAwMAAAALQXV0b21vYmlsZXMAHHZTZQSB2QhIXXC8BIHZCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABpYQAAAgAAAAYyNjU1OTUBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkInqtwvASB2QhSQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABpYQAAAgAAAAU2NjMwMQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATCkU728A4HZCM2da7wEgdkIOkNJUS5OWVNFOkYuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAX58BAAIAAAAGMTUxODAwAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAACMjgEAAAAATAH</t>
-  </si>
-  <si>
-    <t>AAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwivsxggKB2QhcmW+8BIHZCD1DSVEuTllTRTpGLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAF+fAQACAAAAAjQxAQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATCH1pSYAYHZCFnDbbwEgdkISUNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBPV05FUiBFUVVJVFkBAAAAaWEAAAIAAAAFOTA0ODgBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2QihIm+8BIHZCDZDSVEuTllTRTpGLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlZFTlRPUlkBAAAAX58BAAIAAAAFMTA3ODYBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MQMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMDGYMoICgdkIRL9vvASB2Qg2Q0lRLk5ZU0U6Ri5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5WRU5UT1JZAQAAAF+fAQACAAAABTExMTc2AQgAAAAFAAAAATEBAAAACjIwMDgw</t>
-  </si>
-  <si>
-    <t>NzYzNzkDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATDgSTKCAoHZCFyZb7wEgdkIQUNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAGlhAAACAAAABjI2MDE3NAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NzA1AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2Qhx0XC8BIHZCD5DSVEuVFNFOjcyMDMuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAAC84AQAAgAAAA00Njg3MDIuNzExMDI1AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMKrBGF4CgdkI8w5wvASB2Qg6Q0lRLk5ZU0U6R00uSVFfQVIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABU7qUDAgAAAAQ4NzAwAQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATDTIjKCAoHZCFnYbLwEgdkIP0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwg</t>
-  </si>
-  <si>
-    <t>REVCVAEAAABpYQAAAgAAAAU2NDM0MQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATD4e728A4HZCFbUbrwEgdkIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAAGlhAAACAAAABTQ4ODQ0AQgAAAAFAAAAATEBAAAACjIwNjcyMDk3MDUDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMKRTvbwDgdkI7E1tvASB2QhGQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABpYQAAAgAAAAYxNzA5OTABCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEw+Hu9vAOB2QhIXXC8BIHZCENDSVEuTkFTREFRR1M6QUFQTC5JUV9BUElDLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAGlhAAADAAAAAAD4e728A4HZCHElbbwEgdkITENJUS5OWVNFOkdNLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAFMjE2</t>
-  </si>
-  <si>
-    <t>MTUBCAAAAAUAAAABMQEAAAAKMTk0MzkyMjc4NAMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMNMiMoICgdkIWdhsvASB2Qg5Q0lRLk5ZU0U6R00uSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBERUJUAQAAAFTupQMCAAAABTc1MTIzAQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATDTIjKCAoHZCMk0cLwEgdkIRkNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAGMTkzNDM3AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMPh7vbwDgdkIcSVtvASB2Qg/Q0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBERUJUAQAAAGlhAAACAAAABjExNTY4MAEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE4CAAAAAk5LzMwLzIwMTcJAAAAATCkU728A4HZCHElbbwEgdkIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NPR1MuMTAwMC4xLzEv</t>
-  </si>
-  <si>
-    <t>MjAyMS4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAAGlhAAACAAAABjE2OTU1OQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwS+JwvwOB2QgDS2+8BIHZCDRDSVEuTllTRTpGLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTguLi5VU0QuLklORFVTVFJZAQAAAF+fAQADAAAAC0F1dG9tb2JpbGVzAEmdU2UEgdkITxNsvASB2Qg8Q0lRLlRTRTo3MjAzLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBSRVZFTlVFAQAAALzgBAACAAAADTI3Mjc3MC4zMjgyNTUBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyOAMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMFq/MoICgdkIA2BuvASB2Qg0Q0lRLk5ZU0U6Ri5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTkRVU1RSWQEAAABfnwEAAwAAAAtBdXRvbW9iaWxlcwBdgg1gBIHZCKhhbLwEgdkIS0NJUS5OWVNFOkYuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUyMjI4OAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8z</t>
-  </si>
-  <si>
-    <t>MS8yMDE5CQAAAAEwMZgyggKB2QhFSHG8BIHZCEVDSVEuTllTRTpGLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAX58BAAIAAAAFOTgxMzIBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MQMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMDGYMoICgdkIqGFsvASB2QhAQ0lRLk5ZU0U6R00uSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABU7qUDAgAAAAYxNzc2MTUBCAAAAAUAAAABMQEAAAAKMTk0MzkyMjc4NAMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMNMiMoICgdkIyTRwvASB2Qg6Q0lRLk5ZU0U6Ri5JUV9DT0dTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAABfnwEAAgAAAAYxMjQ0NDYBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCP5zbbwEgdkIPENJUS5UU0U6NzIwMy5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAAC84AQAAgAAAA0yMjY5NzMuMjYwNTgxAQgAAAAFAAAAATEBAAAACjE4NDc4</t>
-  </si>
-  <si>
-    <t>MjUxMjADAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATBl1DGCAoHZCHvmb7wEgdkIQkNJUS5OWVNFOkYuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIE9XTkVSIEVRVUlUWQEAAABfnwEAAgAAAAUzMDgxMQEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwWr8yggKB2QiuEW68BIHZCEJDSVEuTllTRTpGLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBPV05FUiBFUVVJVFkBAAAAX58BAAIAAAAFMjkyODMBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMIr7MYICgdkIPpxtvASB2Qg6Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABfnwEAAgAAAAYxNjAzMzgBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAMcTKCAoHZCES/b7wEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBSRUYg</t>
-  </si>
-  <si>
-    <t>RElWSURFTkRTAQAAAGlhAAADAAAAAACkU728A4HZCJ6rcLwEgdkIQENJUS5OWVNFOkYuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAX58BAAIAAAAGMTE2ODAxAQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATDgSTKCAoHZCFyZb7wEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAGlhAAACAAAABTg5Mzc4AQgAAAAFAAAAATEBAAAACjE4NjM5OTY2ODQDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTkvMjYvMjAxNQkAAAABMPh7vbwDgdkIcSVtvASB2QhLQ0lRLk5ZU0U6Ri5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAF+fAQACAAAABTIzNTY3AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCPP5cLwEgdkIQENJUS5OWVNFOkYuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAX58BAAMAAAAA</t>
-  </si>
-  <si>
-    <t>AGugqmkBgdkIRL9vvASB2QhDQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAABpYQAAAgAAAAYzMjM4ODgBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTQ2NQMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwS+JwvwOB2QgDS2+8BIHZCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABpYQAAAwAAAAAA+Hu9vAOB2QhW1G68BIHZCEJDSVEuTllTRTpGLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAX58BAAIAAAAENTM4NgEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwfxGMQgKB2Qgi7Gu8BIHZCD9DSVEuTllTRTpGLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAX58BAAIAAAAGMjA4NjY4AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCK+zGCAoHZCNEfcbwEgdkIMENJUS5OWVNFOkYu</t>
-  </si>
-  <si>
-    <t>SVFfTkkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uTkVUIElOQ09NRQEAAABfnwEAAgAAAAI0NwEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMDGYMoICgdkIrhFuvASB2Qg6Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABfnwEAAgAAAAYxNTU5MDABCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MQMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATAxmDKCAoHZCES/b7wEgdkIOkNJUS5OWVNFOkdNLklRX0FSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAVO6lAwIAAAAEODMzNwEIAAAABQAAAAExAQAAAAoxODczMzAyMzc3AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwivsxggKB2QhZ2Gy8BIHZCD9DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIERFQlQBAAAAaWEAAAIAAAAGMTIyMjc4AQgAAAAFAAAAATEBAAAACjIwNjcyMDk0NjUDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTkvMjYvMjAyMAkAAAABMEvicL8DgdkI+cRrvASB2QhS</t>
-  </si>
-  <si>
-    <t>Q0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABpYQAAAgAAAAU0MTk5NQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATD4e728A4HZCFbUbrwEgdkIOkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE3Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAX58BAAIAAAAENzgyOAEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwYBi0UAKB2Qgi7Gu8BIHZCENDSVEuTkFTREFRR1M6QUFQTC5JUV9BUElDLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAGlhAAADAAAAAAD4e728A4HZCHElbbwEgdkIN0NJUS5OWVNFOkYuSVFfUkUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAX58BAAIAAAAFMjI2NjgBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMAxxMoICgdkIRL9vvASB2QhCQ0lRLk5ZU0U6Ri5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIw</t>
-  </si>
-  <si>
-    <t>MTkuLi5VU0QuLkNBU0ggQU5EIEVRVUlWQUxFTlRTAQAAAF+fAQACAAAABDcxMTEBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMH8RjEICgdkIeDpsvASB2Qg6Q0lRLk5ZU0U6R00uSVFfQVIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABU7qUDAgAAAAQ2NTQ5AQgAAAAFAAAAATEBAAAACjIwNzk1MjUwMDMDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAxmDKCAoHZCJr/bLwEgdkIOUNJUS5OWVNFOkYuSVFfQVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABfnwEAAgAAAAUxMDU5OQEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw4EkyggKB2QjRH3G8BIHZCDdDSVEuTllTRTpHTS5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVNTRVRTAQAAAFTupQMCAAAABjIyMTY5MAEIAAAABQAAAAExAQAAAAoxOTQzOTIyNzg0AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwFUz+ZQKB2QhZ2Gy8BIHZCDxDSVEuTllTRTpG</t>
-  </si>
-  <si>
-    <t>LklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBBU1NFVFMBAAAAX58BAAIAAAAGMjU4NTM3AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATCqwRheAoHZCK4RbrwEgdkIQUNJUS5OWVNFOkdNLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAFTupQMCAAAAAzE1MQEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDg2AwAAAAMxNjACAAAAAjk3BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMANi+3v8gNkIXK5uvASB2Qg2Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVNTRVRTAQAAAF+fAQACAAAABjIzNzk1MQEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwFUz+ZQKB2Qjz+XC8BIHZCDZDSVEuTllTRTpGLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlZFTlRPUlkBAAAAX58BAAIAAAAEODMxOQEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwivsxggKB</t>
-  </si>
-  <si>
-    <t>2QgDS2+8BIHZCExDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9DTC4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBDVVJSRU5UIExJQUJJTElUSUVTAQAAAGlhAAACAAAABjEwNTcxOAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NzA1AwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATCkU728A4HZCP5zbbwEgdkIOkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDIxLi4uVVNELi5DQVNIICYgRVFVSVYBAAAAX58BAAIAAAAFMTA4OTQBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0NgMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMGAYtFACgdkIqGFsvASB2QhDQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAABpYQAAAgAAAAYzNjU3MjUBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2QihIm+8BIHZCD9DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIERFQlQBAAAAaWEAAAIAAAAGMTE0NDgzAQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2</t>
-  </si>
-  <si>
-    <t>MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkIzZ1rvASB2QhBQ0lRLk5ZU0U6R00uSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAVO6lAwMAAAAAAJvHqmkBgdkIA2BuvASB2QhSQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABpYQAAAgAAAAU5MDk0MwEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCPnEa7wEgdkITENJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAFODA2MTABCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEw+Hu9vAOB2QhtT2u8BIHZCEFDSVEuTllTRTpHTS5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDIxLi4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABU7qUDAwAAAAAAm8eqaQGB2Qhcrm68BIHZCDtDSVEuTllTRTpHTS5JUV9UT1RBTF9SRVYuMTAwMC4x</t>
-  </si>
-  <si>
-    <t>LzEvMjAyMC4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABU7qUDAgAAAAYxMzcyMzcBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTA4NgMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBavzKCAoHZCFyubrwEgdkINkNJUS5OWVNFOkYuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVkVOVE9SWQEAAABfnwEAAgAAAAQ4ODk4AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCK+zGCAoHZCEhyb7wEgdkIS0NJUS5OWVNFOkYuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUyNzQ3MAEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwivsxggKB2QjRH3G8BIHZCFVDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAGlhAAACAAAACTIwNTM3LjI0OAEEAAAABQAAAAE1AQAAAAoxOTg5OTA5ODE0AgAAAAUyNDE1MwYAAAABMPh7vbwDgdkIePtuvASB2QhBQ0lRLk5B</t>
-  </si>
-  <si>
-    <t>U0RBUUdTOkFBUEwuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE5Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAaWEAAAIAAAAFMjU5MTMBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2QjsTW28BIHZCFVDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAGlhAAACAAAACTIyMzAxLjMyNAEEAAAABQAAAAE1AQAAAAoxODYzOTk2Njg0AgAAAAUyNDE1MwYAAAABMPh7vbwDgdkISF1wvASB2Qg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFTU0VUUwEAAABpYQAAAgAAAAYyOTAzNDUBCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEw+Hu9vAOB2QhtT2u8BIHZCE5DSVEuTllTRTpGLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAX58BAAIAAAALMzk3My4zNTE2NTYBBAAAAAUAAAABNQEAAAAKMjAwODA3NjM3OQIAAAAFMjQxNTMGAAAAATDgSTKCAoHZCE8TbLwEgdkI</t>
-  </si>
-  <si>
-    <t>S0NJUS5OWVNFOkYuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUyNjQ4OAEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw4EkyggKB2QjRH3G8BIHZCEBDSVEuTllTRTpGLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAF+fAQADAAAAAACXcMlP/IDZCANLb7wEgdkIQ0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBBU1NFVFMBAAAAaWEAAAIAAAAGMzM4NTE2AQgAAAAFAAAAATEBAAAACjIwNjcyMDk3MDUDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMKRTvbwDgdkIoSJvvASB2Qg6Q0lRLk5ZU0U6Ri5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABfnwEAAgAAAAQ4OTM0AQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATBgGLRQAoHZCE8TbLwEgdkISUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYu</t>
-  </si>
-  <si>
-    <t>MTAwMC4xLzEvMjAxNi4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAaWEAAAIAAAAFMjExMjABCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEw+Hu9vAOB2QhIXXC8BIHZCDxDSVEuTllTRTpGLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBBU1NFVFMBAAAAX58BAAIAAAAGMjI0OTI1AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCqwRheAoHZCD6cbbwEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAGlhAAADAAAAAABL4nC/A4HZCHHRcLwEgdkIQENJUS5OWVNFOkdNLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAVO6lAwIAAAAGMTU0MDE1AQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCMk0cLwEgdkIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NPR1MuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ09TVCBPRiBHT09E</t>
-  </si>
-  <si>
-    <t>UyBTT0xEAQAAAGlhAAACAAAABjE2Mzc1NgEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2Qh4+268BIHZCD1DSVEuTllTRTpGLklRX0NPTU1PTi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAF+fAQACAAAAAjQxAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATCH1pSYAYHZCK4RbrwEgdkITkNJUS5OWVNFOkYuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABfnwEAAgAAAAszOTY5LjUxMzI1NQEEAAAABQAAAAE1AQAAAAoxODczNDQ5NzgwAgAAAAUyNDE1MwYAAAABMIr7MYICgdkI+cRrvASB2Qg+Q0lRLk5BU0RBUUdTOkFBUEwuSVFfUkUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAaWEAAAIAAAAFNzA0MDABCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2Qieq3C8BIHZCDJDSVEuVFNFOjcyMDMuSVFfTkkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uTkVU</t>
-  </si>
-  <si>
-    <t>IElOQ09NRQEAAAC84AQAAgAAAAwyMzQ4Mi43Mjc5MTQBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMAxxMoICgdkI769svASB2QhLQ0lRLk5ZU0U6Ri5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAF+fAQACAAAABTMwNzUyAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBavzKCAoHZCCdvcbwEgdkIRUNJUS5OWVNFOkYuSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAABfnwEAAgAAAAU4MjMzNgEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwivsxggKB2Qj5xGu8BIHZCDlDSVEuTllTRTpGLklRX0FSLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAX58BAAIAAAAFMTExOTUBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMAxxMoICgdkI0R9xvASB</t>
-  </si>
-  <si>
-    <t>2Qg6Q0lRLk5ZU0U6R00uSVFfQVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABU7qUDAgAAAAQ4MTY0AQgAAAAFAAAAATEBAAAACjIwMDgwNzAxMzcDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATDgSTKCAoHZCFnYbLwEgdkIPENJUS5UU0U6NzIwMy5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAyMS4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAAC84AQAAgAAAA0yNzc1NjQuOTkzNDc3AQgAAAAFAAAAATEBAAAACy0yMTQ1MjQwOTY5AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwMZgyggKB2QjJNHC8BIHZCERDSVEuVFNFOjcyMDMuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIE9XTkVSIEVRVUlUWQEAAAC84AQAAgAAAA0xODEwOTQuOTk0OTAyAQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMFq/MoICgdkI8w5wvASB2QhAQ0lRLk5ZU0U6Ri5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUkVGIERJVklERU5EUwEAAABfnwEAAwAAAAAAl3DJT/yA2QhEv2+8BIHZCDpDSVEuTllTRTpGLklRX1RPVEFMX1JFVi4xMDAwLjEv</t>
-  </si>
-  <si>
-    <t>MS8yMDIxLi4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAF+fAQACAAAABjEyNzE0NAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMFq/MoICgdkIe+ZvvASB2QhCQ0lRLk5ZU0U6Ri5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkNBU0ggQU5EIEVRVUlWQUxFTlRTAQAAAF+fAQACAAAABTEwODk0AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATB/EYxCAoHZCMKIbLwEgdkIPkNJUS5OQVNEQVFHUzpBQVBMLklRX1JFLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAGlhAAACAAAABTE0OTY2AQgAAAAFAAAAATEBAAAACjIwNjcyMDk0NjUDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTkvMjYvMjAyMAkAAAABMEvicL8DgdkIcdFwvASB2Qg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFTU0VUUwEAAABpYQAAAgAAAAYzMjE2ODYBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEw+Hu9vAOB2QhW1G68</t>
-  </si>
-  <si>
-    <t>BIHZCEBDSVEuTkFTREFRR1M6QUFQTC5JUV9BUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAGlhAAACAAAABTIyOTI2AQgAAAAFAAAAATEBAAAACjIwNjcyMDk3MDUDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMKRTvbwDgdkIzZ1rvASB2QhJQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIE9XTkVSIEVRVUlUWQEAAABpYQAAAgAAAAU2NTMzOQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCANLb7wEgdkIQkNJUS5UU0U6NzIwMy5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUkVGIERJVklERU5EUwEAAAC84AQAAgAAAAoxMzMuNDUzNjU1AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAACOTcEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATDB3WmB/IDZCKE3brwEgdkIO0NJUS5OQVNEQVFHUzpBQVBMLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTguLi5VU0QuLklORFVTVFJZAQAAAGlhAAADAAAALFRlY2hub2xvZ3kgSGFyZHdhcmUsIFN0b3JhZ2UgYW5kIFBlcmlwaGVyYWxzAEmd</t>
-  </si>
-  <si>
-    <t>U2UEgdkIePtuvASB2Qg3Q0lRLk5ZU0U6Ri5JUV9SRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAABfnwEAAgAAAAUyMTkwNgEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw4EkyggKB2QhcmW+8BIHZCD1DSVEuTkFTREFRR1M6QUFQTC5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5WRU5UT1JZAQAAAGlhAAACAAAABDIxMzIBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEw+Hu9vAOB2QhUg3C8BIHZCExDSVEuTllTRTpHTS5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAFTupQMCAAAABTE5NTI1AQgAAAAFAAAAATEBAAAACjIwMDgwNzAxMzcDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATDgSTKCAoHZCJr/bLwEgdkITENJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAGMTAwODE0AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQD</t>
-  </si>
-  <si>
-    <t>AAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMPh7vbwDgdkIpHZrvASB2Qg3Q0lRLk5ZU0U6R00uSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFTU0VUUwEAAABU7qUDAgAAAAYyMzUxOTQBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAyNwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMBVM/mUCgdkImv9svASB2Qg9Q0lRLk5ZU0U6Ri5JUV9DT01NT04uMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABfnwEAAgAAAAI0MQEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwh9aUmAGB2Qg+nG28BIHZCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAABpYQAAAgAAAAYxMzEzMzkBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2Qieq3C8BIHZCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABp</t>
-  </si>
-  <si>
-    <t>YQAAAgAAAAUyMDQ4NAEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATD4e728A4HZCHElbbwEgdkIN0NJUS5OWVNFOkYuSVFfUkUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAX58BAAIAAAAFMTQ0MTQBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMIr7MYICgdkISHJvvASB2QghQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ09NUEFOWV9OQU1FAQAAAGlhAAADAAAACkFwcGxlIEluYy4AHWryqAOB2QihIm+8BIHZCEFDSVEuTllTRTpHTS5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABU7qUDAwAAAAAAm8eqaQGB2QjvhW68BIHZCEBDSVEuTllTRTpGLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAF+fAQACAAAABjEwODQ2MQEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwivsxggKB2QhIcm+8BIHZCEBDSVEuTllTRTpGLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTkuLi5V</t>
-  </si>
-  <si>
-    <t>U0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAF+fAQADAAAAAACbx6ppAYHZCES/b7wEgdkISUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAyMS4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAaWEAAAIAAAAFMzgwMTYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTQ2NQMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwS+JwvwOB2Qj+c228BIHZCDhDSVEuTllTRTpGLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgREVCVAEAAABfnwEAAgAAAAYxNTQyMTMBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkI0R9xvASB2QhVQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABpYQAAAgAAAAgxNzc3My4wNgEEAAAABQAAAAE1AQAAAAoyMDY3MjA5NzA1AgAAAAUyNDE1MwYAAAABMKRTvbwDgdkI7E1tvASB2Qg7Q0lRLk5BU0RBUUdTOkFBUEwuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5EVVNUUlkBAAAAaWEAAAMAAAAsVGVjaG5vbG9neSBIYXJkd2FyZSwgU3RvcmFn</t>
-  </si>
-  <si>
-    <t>ZSBhbmQgUGVyaXBoZXJhbHMASZ1TZQSB2QjsTW28BIHZCENDSVEuTkFTREFRR1M6QUFQTC5JUV9BUElDLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAGlhAAADAAAAAACkU728A4HZCOxNbbwEgdkIN0NJUS5OQVNEQVFHUzpBQVBMLklRX05JLjEwMDAuMS8xLzIwMTkuLi5VU0QuLk5FVCBJTkNPTUUBAAAAaWEAAAIAAAAFNTk1MzEBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkIoSJvvASB2QhEQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ09NTU9OLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAaWEAAAIAAAAFNDUxNzQBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2QihIm+8BIHZCEZDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAGlhAAACAAAABjI0ODAyOAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NzA1AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATCkU728A4HZCM2da7wEgdkIPkNJUS5O</t>
-  </si>
-  <si>
-    <t>QVNEQVFHUzpBQVBMLklRX1JFLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAGlhAAACAAAABTk2MzY0AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMPh7vbwDgdkIcSVtvASB2Qg+Q0lRLk5BU0RBUUdTOkFBUEwuSVFfUkUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAaWEAAAIAAAAFNDU4OTgBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2Qieq3C8BIHZCEJDSVEuVFNFOjcyMDMuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAvOAEAAMAAAAAAJvHqmkBgdkI769svASB2Qg2Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVNTRVRTAQAAAF+fAQACAAAABjI1NjU0MAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQwAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwFUz+ZQKB2QjRH3G8BIHZCEBDSVEuTllTRTpGLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgU1RPQ0sg</t>
-  </si>
-  <si>
-    <t>RVFVSVRZAQAAAF+fAQADAAAAAACbx6ppAYHZCEhyb7wEgdkIQENJUS5OWVNFOkYuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAX58BAAIAAAAGMTE0NjQ5AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAxmDKCAoHZCES/b7wEgdkIPENJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAABfnwEAAgAAAAYyMzc5NTEBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMKrBGF4CgdkIWcNtvASB2Qg4Q0lRLlRTRTo3MjAzLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlZFTlRPUlkBAAAAvOAEAAIAAAAMMjM1NDguNzQ1NTczAQgAAAAFAAAAATEBAAAACy0yMTQ1MjQwOTY5AwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATAxmDKCAoHZCO+vbLwEgdkIOkNJUS5OWVNFOkYuSVFfQ09HUy4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT1NUIE9GIEdPT0RTIFNPTEQBAAAAX58BAAIAAAAGMTI2MTk1AQgAAAAFAAAAATEBAAAACjE5NDY0MjQw</t>
-  </si>
-  <si>
-    <t>MzMDAAAAAzE2MAIAAAACMzQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwivsxggKB2Qg+nG28BIHZCE5DSVEuTllTRTpGLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAX58BAAIAAAALMzk3OC41NTE3MzcBBAAAAAUAAAABNQEAAAAKMjA3ODg1ODI0MAIAAAAFMjQxNTMGAAAAATAxmDKCAoHZCHg6bLwEgdkIOkNJUS5OWVNFOkYuSVFfQ09HUy4xMDAwLjEvMS8yMDIxLi4uVVNELi5DT1NUIE9GIEdPT0RTIFNPTEQBAAAAX58BAAIAAAAGMTEyNTI4AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAACMzQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwWr8yggKB2QiuEW68BIHZCEJDSVEuTllTRTpGLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBPV05FUiBFUVVJVFkBAAAAX58BAAIAAAAFMzYwNjYBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkImuptvASB2QhSQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABp</t>
-  </si>
-  <si>
-    <t>YQAAAgAAAAYxMDA1NTcBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2QjNnWu8BIHZCEJDSVEuTllTRTpGLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAX58BAAIAAAAEODQzNwEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwfxGMQgKB2QioYWy8BIHZCD1DSVEuTllTRTpGLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAF+fAQACAAAAAjQxAQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCH1pSYAYHZCD6cbbwEgdkIQENJUS5OWVNFOkYuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAX58BAAMAAAAAAJdwyU/8gNkIe+ZvvASB2Qg3Q0lRLk5ZU0U6Ri5JUV9SRS4xMDAwLjEvMS8yMDIwLi4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAABfnwEAAgAAAAUyMDMyMAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAABDEy</t>
-  </si>
-  <si>
-    <t>MjIEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwMZgyggKB2QhEv2+8BIHZCDZDSVEuTllTRTpGLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlZFTlRPUlkBAAAAX58BAAIAAAAFMTA4MDgBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0NgMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMP9J2gX7gNkIe+ZvvASB2Qg0Q0lRLk5ZU0U6Ri5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTkRVU1RSWQEAAABfnwEAAwAAAAtBdXRvbW9iaWxlcwAcdlNlBIHZCHg6bLwEgdkIOkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DQVNIICYgRVFVSVYBAAAAX58BAAIAAAAEODQzNwEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEw40C0UAKB2Qh4Omy8BIHZCEJDSVEuVFNFOjcyMDMuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAvOAEAAMAAAAAAMHdaYH8gNkIyTRwvASB2QhCQ0lRLlRTRTo3MjAzLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAALzgBAADAAAAAACbx6pp</t>
-  </si>
-  <si>
-    <t>AYHZCANgbrwEgdkIQENJUS5OWVNFOkYuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAX58BAAMAAAAAAJvHqmkBgdkIXJlvvASB2QhBQ0lRLk5ZU0U6R00uSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAVO6lAwMAAAAAAJvHqmkBgdkIXK5uvASB2QhBQ0lRLk5ZU0U6R00uSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAVO6lAwMAAAAAAJvHqmkBgdkIXK5uvASB2QhOQ0lRLk5ZU0U6Ri5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAF+fAQACAAAACzM5NjQuOTMwMzI1AQQAAAAFAAAAATUBAAAACjIwNzg4NTgyNDECAAAABTI0MTUzBgAAAAEwMZgyggKB2Qh4Omy8BIHZCD1DSVEuTkFTREFRR1M6QUFQTC5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5WRU5UT1JZAQAAAGlhAAACAAAABDQxMDYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2Qieq3C8BIHZCDRDSVEuTllTRTpGLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTcuLi5VU0Qu</t>
-  </si>
-  <si>
-    <t>LklORFVTVFJZAQAAAF+fAQADAAAAC0F1dG9tb2JpbGVzAEmdU2UEgdkITxNsvASB2QhAQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABpYQAAAgAAAAUxNTc1NAEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATD4e728A4HZCG1Pa7wEgdkISUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAaWEAAAIAAAAFMjU5MTMBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwpFO9vAOB2QjsTW28BIHZCEBDSVEuTllTRTpGLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAF+fAQADAAAAAACXcMlP/IDZCFyZb7wEgdkIQUNJUS5OWVNFOkdNLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAFTupQMCAAAAAzE4MAEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDI3AwAAAAMxNjACAAAAAjk3BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMANi</t>
-  </si>
-  <si>
-    <t>+3v8gNkIXK5uvASB2QhAQ0lRLk5ZU0U6Ri5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUkVGIERJVklERU5EUwEAAABfnwEAAwAAAAAAl3DJT/yA2QhIcm+8BIHZCEBDSVEuTllTRTpGLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAF+fAQACAAAABjExNjc0NAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwWr8yggKB2Qh75m+8BIHZCD1DSVEuTllTRTpGLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE5Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAF+fAQACAAAAAjQxAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATCH1pSYAYHZCJrqbbwEgdkIQENJUS5OWVNFOkYuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAX58BAAMAAAAAAJdwyU/8gNkIXJlvvASB2QhAQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVIuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABpYQAAAgAAAAUxNjg0OQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjAC</t>
-  </si>
-  <si>
-    <t>AAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATD4e728A4HZCG1Pa7wEgdkIRENJUS5OQVNEQVFHUzpBQVBMLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE5Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAGlhAAACAAAABTQwMjAxAQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkIePtuvASB2Qg8Q0lRLlRTRTo3MjAzLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAALzgBAACAAAADTI0NzUwOC40NjExMTIBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMNMiMoICgdkI8w5wvASB2Qg4Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIERFQlQBAAAAX58BAAIAAAAGMTQyOTcwAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCK+zGCAoHZCPP5cLwEgdkIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAAGlhAAAC</t>
-  </si>
-  <si>
-    <t>AAAABTIwMjg5AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMPh7vbwDgdkIVINwvASB2Qg8Q0lRLk5ZU0U6Ri5JUV9BUElDLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAF+fAQACAAAABTIxNjMwAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATAmT6AlAYHZCCLsa7wEgdkIRkNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAGMjU4NTc4AQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkIzZ1rvASB2Qg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOVkVOVE9SWQEAAABpYQAAAgAAAAQ0ODU1AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMKRTvbwDgdkIcSVtvASB2QhAQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVIuMTAwMC4x</t>
-  </si>
-  <si>
-    <t>LzEvMjAyMS4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABpYQAAAgAAAAUxNjEyMAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCM2da7wEgdkIQkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE3Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABfnwEAAgAAAAQ3ODI4AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATB/EYxCAoHZCE8TbLwEgdkIQkNJUS5UU0U6NzIwMy5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAAC84AQAAgAAAA0xNDk0ODIuNDM0ODE3AQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMGXUMYICgdkIoTduvASB2Qg6Q0lRLk5ZU0U6Ri5JUV9DT0dTLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAABfnwEAAgAAAAYxMzYyNjkBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAA</t>
-  </si>
-  <si>
-    <t>ATAxmDKCAoHZCJrqbbwEgdkINkNJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFTU0VUUwEAAABfnwEAAgAAAAYyMjQ5MjUBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMBVM/mUCgdkI8/lwvASB2Qg3Q0lRLk5ZU0U6Ri5JUV9SRS4xMDAwLjEvMS8yMDIxLi4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAABfnwEAAgAAAAUxODI0MwEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQ2AwAAAAMxNjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwWr8yggKB2Qh75m+8BIHZCENDSVEuTkFTREFRR1M6QUFQTC5JUV9BUElDLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAGlhAAADAAAAAAD4e728A4HZCFSDcLwEgdkIO0NJUS5OWVNFOkdNLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAFTupQMCAAAABjE0NTU4OAEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMOBJMoICgdkI74VuvASB2Qg3Q0lRLk5ZU0U6R00uSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTYu</t>
-  </si>
-  <si>
-    <t>Li5VU0QuLkFTU0VUUwEAAABU7qUDAgAAAAYxOTQzMzgBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMBVM/mUCgdkIWdhsvASB2QhAQ0lRLk5ZU0U6R00uSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABU7qUDAgAAAAYxODQ1NjIBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkISF1wvASB2Qg8Q0lRLk5ZU0U6Ri5JUV9BUElDLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAF+fAQACAAAABTIyMDA2AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAmT6AlAYHZCHg6bLwEgdkIQUNJUS5OWVNFOkdNLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAFTupQMDAAAAAACbx6ppAYHZCO+FbrwEgdkIPENJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAABfnwEAAgAAAAYyNjcyNjEBCAAAAAUAAAABMQEA</t>
-  </si>
-  <si>
-    <t>AAAKMjA3ODg1ODI0NgMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMKrBGF4CgdkIrhFuvASB2Qg6Q0lRLk5ZU0U6Ri5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABfnwEAAgAAAAQ3MTExAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATBgGLRQAoHZCE8TbLwEgdkINENJUS5OWVNFOkYuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5EVVNUUlkBAAAAX58BAAMAAAALQXV0b21vYmlsZXMAv0uOcASB2Qh75m+8BIHZCD9DSVEuTllTRTpGLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAyMS4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAX58BAAIAAAAGMjM2NDUwAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBavzKCAoHZCCdvcbwEgdkIP0NJUS5OWVNFOkYuSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABfnwEAAgAAAAYyMjA0NzQBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAx</t>
-  </si>
-  <si>
-    <t>OQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkIRUhxvASB2QhFQ0lRLk5ZU0U6Ri5JUV9UT1RBTF9DTC4xMDAwLjEvMS8yMDIxLi4uVVNELi5UT1RBTCBDVVJSRU5UIExJQUJJTElUSUVTAQAAAF+fAQACAAAABTk3MTkyAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBavzKCAoHZCMKIbLwEgdkIGkNJUS5OWVNFOkYuSVFfQ09NUEFOWV9OQU1FAQAAAF+fAQADAAAAEkZvcmQgTW90b3IgQ29tcGFueQBl1DGCAoHZCK4RbrwEgdkIHENJUS5UU0U6NzIwMy5JUV9DT01QQU5ZX05BTUUBAAAAvOAEAAMAAAAYVG95b3RhIE1vdG9yIENvcnBvcmF0aW9uAGXUMYICgdkI8w5wvASB2Qg8Q0lRLlRTRTo3MjAzLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAALzgBAACAAAADTI3NjYzMC4yMDk0MjEBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMAxxMoICgdkIoTduvASB2Qg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFTU0VUUwEAAABpYQAAAgAAAAYzMzg1MTYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYw</t>
-  </si>
-  <si>
-    <t>AgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2QjNnWu8BIHZCD9DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIERFQlQBAAAAaWEAAAIAAAAGMTA4MDQ3AQgAAAAFAAAAATEBAAAACjIwNjcyMDk3MDUDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMKRTvbwDgdkIzZ1rvASB2QhHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAaWEAAAMAAAAAAKRTvbwDgdkIcdFwvASB2Qg4Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIERFQlQBAAAAX58BAAIAAAAGMTU2NzIxAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATAxmDKCAoHZCEVIcbwEgdkIN0NJUS5OQVNEQVFHUzpBQVBMLklRX05JLjEwMDAuMS8xLzIwMjAuLi5VU0QuLk5FVCBJTkNPTUUBAAAAaWEAAAIAAAAFNTUyNTYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTcwNQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMKRTvbwD</t>
-  </si>
-  <si>
-    <t>gdkIoSJvvASB2Qg7Q0lRLk5ZU0U6R00uSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAVO6lAwIAAAAGMTQ5MTg0AQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEw0yIyggKB2QjvhW68BIHZCDlDSVEuTllTRTpHTS5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIERFQlQBAAAAVO6lAwIAAAAGMTA0NTczAQgAAAAFAAAAATEBAAAACjIwNzk1MjUwODYDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBavzKCAoHZCEhdcLwEgdkIOkNJUS5OWVNFOkdNLklRX0FSLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAVO6lAwIAAAAENjc5NwEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDg2AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwWr8yggKB2Qia/2y8BIHZCEZDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAGlhAAACAAAABjI1ODU0OQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAA</t>
-  </si>
-  <si>
-    <t>CDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCPnEa7wEgdkIPENJUS5OWVNFOkYuSVFfQVBJQy4xMDAwLjEvMS8yMDIwLi4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABfnwEAAgAAAAUyMjE2NQEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwrjy5HQGB2QioYWy8BIHZCEBDSVEuTllTRTpHTS5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAFTupQMCAAAABjE4MjA4MAEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDg2AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwWr8yggKB2QhIXXC8BIHZCDpDSVEuTllTRTpGLklRX0NPR1MuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAAF+fAQACAAAABjEzMzg4OQEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQxAwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMDGYMoICgdkImuptvASB2Qg+Q0lRLk5BU0RBUUdTOkFBUEwuSVFfUkUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAaWEAAAIAAAAFOTgzMzABCAAAAAUAAAABMQEAAAAKMTk4</t>
-  </si>
-  <si>
-    <t>OTkwOTgxNAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwpFO9vAOB2QhUg3C8BIHZCExDSVEuTllTRTpHTS5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAFTupQMCAAAABTIwMzAxAQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCFnYbLwEgdkIVUNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAaWEAAAIAAAAJMTg5ODEuNTkyAQQAAAAFAAAAATUBAAAACjIwNjcyMDk2MjYCAAAABTI0MTUzBgAAAAEwpFO9vAOB2QjsTW28BIHZCDZDSVEuTllTRTpGLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIxLi4uVVNELi5BU1NFVFMBAAAAX58BAAIAAAAGMjY3MjYxAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATAVTP5lAoHZCCdvcbwEgdkIRUNJUS5OWVNFOkYuSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElF</t>
-  </si>
-  <si>
-    <t>UwEAAABfnwEAAgAAAAU5NDYwMAEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw4EkyggKB2QhPE2y8BIHZCDBDSVEuTllTRTpGLklRX05JLjEwMDAuMS8xLzIwMTYuLi5VU0QuLk5FVCBJTkNPTUUBAAAAX58BAAIAAAAENzM3MwEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMIr7MYICgdkIPpxtvASB2Qg7Q0lRLk5ZU0U6R00uSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAVO6lAwIAAAAGMTQ3MDQ5AQgAAAAFAAAAATEBAAAACjIwNzk1MjUwMDMDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwMZgyggKB2Qhcrm68BIHZCDtDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkRVU1RSWQEAAABpYQAAAwAAACxUZWNobm9sb2d5IEhhcmR3YXJlLCBTdG9yYWdlIGFuZCBQZXJpcGhlcmFscwBJnVNlBIHZCPnEa7wEgdkIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NPR1MuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAAGlhAAACAAAABjE2MTc4MgEIAAAA</t>
-  </si>
-  <si>
-    <t>BQAAAAExAQAAAAoyMDY3MjA5NzA1AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwpFO9vAOB2QihIm+8BIHZCD9DSVEuTllTRTpGLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAX58BAAIAAAAGMjIyNzkyAQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATDgSTKCAoHZCNEfcbwEgdkIO0NJUS5OQVNEQVFHUzpBQVBMLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklORFVTVFJZAQAAAGlhAAADAAAALFRlY2hub2xvZ3kgSGFyZHdhcmUsIFN0b3JhZ2UgYW5kIFBlcmlwaGVyYWxzAEmdU2UEgdkI/nNtvASB2Qg5Q0lRLk5ZU0U6Ri5JUV9BUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAF+fAQACAAAABDkyMzcBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MQMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMDGYMoICgdkIRUhxvASB2Qg/Q0lRLlRTRTo3MjAzLklRX0NPTU1PTi4xMDAwLjEvMS8yMDIxLi4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAALzgBAACAAAACzM2ODkuOTg3MzUxAQgAAAAFAAAAATEB</t>
-  </si>
-  <si>
-    <t>AAAACy0yMTQ1MjQwOTY5AwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATCH1pSYAYHZCANgbrwEgdkIVUNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAaWEAAAIAAAAJMjEzMjkuMjUyAQQAAAAFAAAAATUBAAAACjE5MTkzMzQ0ODQCAAAABTI0MTUzBgAAAAEw+Hu9vAOB2Qikdmu8BIHZCDtDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkRVU1RSWQEAAABpYQAAAwAAACxUZWNobm9sb2d5IEhhcmR3YXJlLCBTdG9yYWdlIGFuZCBQZXJpcGhlcmFscwBJnVNlBIHZCFbUbrwEgdkIPENJUS5UU0U6NzIwMy5JUV9DT0dTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAAC84AQAAgAAAAwyMTEwNzcuNDY4NDkBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyOAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMFq/MoICgdkI769svASB2QhAQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABpYQAAAgAAAAUxNzg3NAEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAA</t>
-  </si>
-  <si>
-    <t>AAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE4CAAAAAk5LzMwLzIwMTcJAAAAATD4e728A4HZCHj7brwEgdkITENJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAFNzkwMDYBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEw+Hu9vAOB2QhW1G68BIHZCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAABpYQAAAgAAAAYxMDY4NjkBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEw+Hu9vAOB2QhUg3C8BIHZCEJDSVEuVFNFOjcyMDMuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAvOAEAAIAAAANMTU5OTQzLjQ1NTMxNAEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATDTIjKCAoHZCKE3brwEgdkIOUNJUS5UU0U6NzIwMy5JUV9SRS4xMDAwLjEvMS8yMDE3Li4uVVNE</t>
-  </si>
-  <si>
-    <t>Li5SRVRBSU5FRCBFQVJOSU5HUwEAAAC84AQAAgAAAA0xNDk0NjguMTMxNDA3AQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMNMiMoICgdkIoTduvASB2Qg8Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAAF+fAQACAAAABjI1ODQ5NgEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwqsEYXgKB2QhZw228BIHZCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDIxLi4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABpYQAAAwAAAAAAS+JwvwOB2Qhx0XC8BIHZCERDSVEuTkFTREFRR1M6QUFQTC5JUV9DT01NT04uMTAwMC4xLzEvMjAyMS4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABpYQAAAgAAAAU1MDc3OQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCANLb7wEgdkIO0NJUS5OWVNFOkdNLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDIxLi4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAFTupQMCAAAA</t>
-  </si>
-  <si>
-    <t>BjEyMjQ4NQEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDI3AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMDGYMoICgdkIVtRuvASB2Qg8Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAAF+fAQACAAAABjI1NjU0MAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQwAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwqsEYXgKB2Qia6m28BIHZCEJDSVEuVFNFOjcyMDMuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAvOAEAAMAAAAAAJvHqmkBgdkI8w5wvASB2QgwQ0lRLk5ZU0U6Ri5JUV9OSS4xMDAwLjEvMS8yMDE4Li4uVVNELi5ORVQgSU5DT01FAQAAAF+fAQACAAAABDc3MzEBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATDgSTKCAoHZCFnDbbwEgdkIOUNJUS5OWVNFOkdNLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgREVCVAEAAABU7qUDAgAAAAYxMDQ5NTEBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAx</t>
-  </si>
-  <si>
-    <t>OQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkIyTRwvASB2QhOQ0lRLk5ZU0U6Ri5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAF+fAQACAAAACzM5NzQuMjk3MTY5AQQAAAAFAAAAATUBAAAACjE5NDY0MjQwMzMCAAAABTI0MTUzBgAAAAEwivsxggKB2Qgi7Gu8BIHZCEJDSVEuVFNFOjcyMDMuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAvOAEAAMAAAAAAJvHqmkBgdkIyTRwvASB2QhHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAaWEAAAIAAAAGMTYyODE5AQgAAAAFAAAAATEBAAAACjIwNjcyMDk3MDUDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMKRTvbwDgdkIcdFwvASB2QgwQ0lRLk5ZU0U6Ri5JUV9OSS4xMDAwLjEvMS8yMDIxLi4uVVNELi5ORVQgSU5DT01FAQAAAF+fAQACAAAABS0xMjc5AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDYDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwWr8yggKB2QihN268BIHZCEBDSVEuTllTRTpHTS5JUV9UT1RBTF9MSUFCLjEwMDAu</t>
-  </si>
-  <si>
-    <t>MS8xLzIwMjEuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAFTupQMCAAAABjE4NTUxNwEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDI3AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwMZgyggKB2QhIXXC8BIHZCDtDSVEuTllTRTpHTS5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABU7qUDAgAAAAYxMzU3MjUBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCANgbrwEgdkIN0NJUS5OWVNFOkYuSVFfUkUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAX58BAAIAAAAFMTU2MzQBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMIr7MYICgdkISHJvvASB2QhCQ0lRLk5ZU0U6Ri5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1dORVIgRVFVSVRZAQAAAF+fAQACAAAABTMzMjMwAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDEDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATAxmDKCAoHZCJrqbbwE</t>
-  </si>
-  <si>
-    <t>gdkIMkNJUS5UU0U6NzIwMy5JUV9OSS4xMDAwLjEvMS8yMDIxLi4uVVNELi5ORVQgSU5DT01FAQAAALzgBAACAAAADDE4OTIyLjg4MzM3OQEIAAAABQAAAAExAQAAAAstMjE0NTI0MDk2OQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMDGYMoICgdkIA2BuvASB2Qg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFTU0VUUwEAAABpYQAAAgAAAAYzNzUzMTkBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEw+Hu9vAOB2Qikdmu8BIHZCEFDSVEuTllTRTpHTS5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUkVGIERJVklERU5EUwEAAABU7qUDAgAAAAIxNgEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAAAjk3BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMANi+3v8gNkI74VuvASB2QhAQ0lRLk5ZU0U6R00uSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABU7qUDAgAAAAYxNzYyODIBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxOAgA</t>
-  </si>
-  <si>
-    <t>AAAKMTIvMzEvMjAxNwkAAAABMOBJMoICgdkIyTRwvASB2QhLQ0lRLk5ZU0U6Ri5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAF+fAQACAAAABTIzMDM2AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAxmDKCAoHZCEVIcbwEgdkINkNJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFTU0VUUwEAAABfnwEAAgAAAAYyNTg0OTYBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMBVM/mUCgdkI0R9xvASB2QhDQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVBJQy4xMDAwLjEvMS8yMDIxLi4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABpYQAAAwAAAAAAS+JwvwOB2Qj+c228BIHZCDZDSVEuTllTRTpGLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTlZFTlRPUlkBAAAAX58BAAIAAAAFMTEyMjABCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkIXJlvvASB2Qg3Q0lRLk5ZU0U6</t>
-  </si>
-  <si>
-    <t>R00uSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFTU0VUUwEAAABU7qUDAgAAAAYyMjgwMzcBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTA4NgMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMBVM/mUCgdkImv9svASB2Qg3Q0lRLk5ZU0U6R00uSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFTU0VUUwEAAABU7qUDAgAAAAYyMjczMzkBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMBVM/mUCgdkImv9svASB2QhMQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAyMS4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAABpYQAAAgAAAAYxMDUzOTIBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTQ2NQMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwS+JwvwOB2Qj+c228BIHZCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABpYQAAAgAAAAUzODAxNgEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDIxCAAA</t>
-  </si>
-  <si>
-    <t>AAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCP5zbbwEgdkITENJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAGMTE1OTI5AQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKRTvbwDgdkI7E1tvASB2QhHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAaWEAAAMAAAAAAKRTvbwDgdkIpHZrvASB2QhCQ0lRLlRTRTo3MjAzLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAALzgBAADAAAAAACbx6ppAYHZCPMOcLwEgdkINENJUS5OWVNFOkYuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5EVVNUUlkBAAAAX58BAAMAAAALQXV0b21vYmlsZXMASZ1TZQSB2Qgi7Gu8BIHZCD9DSVEuTllTRTpGLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAX58BAAIAAAAGMTk2MTc0AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJ</t>
-  </si>
-  <si>
-    <t>AAAAATCK+zGCAoHZCPP5cLwEgdkIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAGlhAAADAAAAAACkU728A4HZCJ6rcLwEgdkIQENJUS5OWVNFOkYuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAX58BAAMAAAAAAJvHqmkBgdkISHJvvASB2Qg5Q0lRLk5ZU0U6R00uSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBERUJUAQAAAFTupQMCAAAABTYzMTExAQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCK+zGCAoHZCMk0cLwEgdkIPUNJUS5OQVNEQVFHUzpBQVBMLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlZFTlRPUlkBAAAAaWEAAAIAAAAENDA2MQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NDY1AwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBL4nC/A4HZCHHRcLwEgdkITENJUS5OWVNFOkdNLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAFMjI0NDUBCAAAAAUAAAABMQEAAAAK</t>
-  </si>
-  <si>
-    <t>MjA3OTUyNTAwMwMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMDGYMoICgdkImv9svASB2Qg3Q0lRLk5ZU0U6R00uSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFTU0VUUwEAAABU7qUDAgAAAAYyMTI0ODIBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMBVM/mUCgdkIWdhsvASB2QhGQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABpYQAAAgAAAAYyNDEyNzIBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwpFO9vAOB2QhUg3C8BIHZCA==</t>
+    <t>ST Investments</t>
+  </si>
+  <si>
+    <t>PPE (net)</t>
+  </si>
+  <si>
+    <t>LT_investments</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Interest Exp (net)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inc Tax </t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>BAABTAVMT0NBTAFI/////wFQIAQAADtDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTkRVU1RSWQEAAABpYQAAAwAAACxUZWNobm9sb2d5IEhhcmR3YXJlLCBTdG9yYWdlIGFuZCBQZXJpcGhlcmFscwAUv2uus+PbCLi0xxy149sIOkNJUS5LT1NFOkEwMDUzODAuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5EVVNUUlkBAAAATFkNAAMAAAALQXV0b21vYmlsZXMAFL9rrrPj2wir28cctePbCDVDSVEuTllTRTpHTS5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTkRVU1RSWQEAAABU7qUDAwAAAAtBdXRvbW9iaWxlcwAUv2uus+PbCMcCyBy149sINkNJUS5OWVNFOkhNQy5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkRVU1RSWQEAAACVQQQAAwAAAAtBdXRvbW9iaWxlcwAUv2uus+PbCOxQyBy149sINUNJUS5OWVNFOkhELklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklORFVTVFJZAQAAAJdABAADAAAAEFNwZWNpYWx0eSBSZXRhaWwAo6UTrrPj2wj0xcgctePbCDpDSVEuS09TRTpBMDA1MzgwLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklORFVTVFJZAQAAAExZDQADAAAAC0F1dG9tb2JpbGVzAKOlE66z49sI9MXIHLXj2wg2Q0lRLlRTRTo3MjY5LklRX0lORFVTVFJZLjEwMDAuMS8x</t>
+  </si>
+  <si>
+    <t>LzIwMjAuLi5VU0QuLklORFVTVFJZAQAAAA8uCgADAAAAC0F1dG9tb2JpbGVzAKOlE66z49sII+3IHLXj2wg6Q0lRLktPU0U6QTAwNTM4MC5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTkRVU1RSWQEAAABMWQ0AAwAAAAtBdXRvbW9iaWxlcwCjpROus+PbCCPtyBy149sIO0NJUS5OQVNEQVFHUzpBQVBMLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTguLi5VU0QuLklORFVTVFJZAQAAAGlhAAADAAAALFRlY2hub2xvZ3kgSGFyZHdhcmUsIFN0b3JhZ2UgYW5kIFBlcmlwaGVyYWxzAKOlE66z49sIdGLJHLXj2wg2Q0lRLlRTRTo4MDU4LklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklORFVTVFJZAQAAAIH/BwADAAAAIlRyYWRpbmcgQ29tcGFuaWVzIGFuZCBEaXN0cmlidXRvcnMAo6UTrrPj2wh0YskctePbCDRDSVEuTllTRTpGLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklORFVTVFJZAQAAAF+fAQADAAAAC0F1dG9tb2JpbGVzAKOlE66z49sIYInJHLXj2wg7Q0lRLk5BU0RBUUdTOlRTTEEuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5EVVNUUlkBAAAAEMaiAQMAAAALQXV0b21vYmlsZXMAo6UTrrPj2whZ18kctePbCDtDSVEuTkFTREFRR1M6VFNMQS5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkRVU1RSWQEAAAAQxqIBAwAA</t>
+  </si>
+  <si>
+    <t>AAtBdXRvbW9iaWxlcwCjpROus+PbCFnXyRy149sIOkNJUS5LT1NFOkEwMDAyNzAuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5EVVNUUlkBAAAAttwlAAMAAAALQXV0b21vYmlsZXMAo6UTrrPj2whZ18kctePbCDZDSVEuVFNFOjgwNTguSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5EVVNUUlkBAAAAgf8HAAMAAAAiVHJhZGluZyBDb21wYW5pZXMgYW5kIERpc3RyaWJ1dG9ycwCjpROus+PbCKj+yRy149sIO0NJUS5OQVNEQVFHUzpUU0xBLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklORFVTVFJZAQAAABDGogEDAAAAC0F1dG9tb2JpbGVzAKOlE66z49sI5SXKHLXj2wg5Q0lRLlRTRTo3MjAzLklRX1JFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAALzgBAACAAAADTE5ODQyNS4zNjE2NjcBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyOAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwuDltrrPj2wi4tMcctePbCERDSVEuTkFTREFRR1M6QUFQTC5JUV9DT01NT04uMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABpYQAAAgAAAAUzNTg2NwEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDE4</t>
+  </si>
+  <si>
+    <t>CAAAAAk5LzMwLzIwMTcJAAAAATC4OW2us+PbCLi0xxy149sINkNJUS5OWVNFOkYuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOVkVOVE9SWQEAAABfnwEAAgAAAAUxMDc4NgEIAAAABQAAAAExAQAAAAstMjExMzY5MjQ2MQMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sIoI3HHLXj2wg5Q0lRLlRTRTo4MDU4LklRX1JFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAIH/BwACAAAADDMyNTEzLjM5OTU5MQEIAAAABQAAAAExAQAAAAoxODkzOTk3OTU0AwAAAAMxNjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCKvbxxy149sISUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAaWEAAAIAAAAFMjAyODkBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwuDltrrPj2wir28cctePbCDxDSVEuTllTRTpITUMuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAlUEEAAIAAAANMTExMDc2Ljc1MDI1MwEIAAAABQAAAAExAQAA</t>
+  </si>
+  <si>
+    <t>AAoxODQ3NzcyNTA2AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwuDltrrPj2wi4tMcctePbCD1DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQVNTRVRTAQAAAGlhAAACAAAABjI5MDM0NQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATC4OW2us+PbCKvbxxy149sIRENJUS5UU0U6NzI2OS5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNBU0ggQU5EIEVRVUlWQUxFTlRTAQAAAA8uCgACAAAACzYyMjMuNzg0ODQ3AQgAAAAFAAAAATEBAAAACjE4NDkwMjY3MjcDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMLg5ba6z49sIq9vHHLXj2wg9Q0lRLk5BU0RBUUdTOkFBUEwuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVkVOVE9SWQEAAABpYQAAAgAAAAQyMzQ5AQgAAAAFAAAAATEBAAAACjE4NjM5OTY2ODQDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTkvMjYvMjAxNQkAAAABMLg5ba6z49sIuLTHHLXj2wg6Q0lRLk5ZU0U6Ri5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0gg</t>
+  </si>
+  <si>
+    <t>JiBFUVVJVgEAAABfnwEAAgAAAAQ3MTExAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATC4OW2us+PbCLi0xxy149sIRENJUS5UU0U6NzIwMy5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNBU0ggQU5EIEVRVUlWQUxFTlRTAQAAALzgBAACAAAADDIwMjQyLjcyNjc2MQEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCKvbxxy149sIPUNJUS5OQVNEQVFHUzpBQVBMLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlZFTlRPUlkBAAAAaWEAAAIAAAAENDg1NQEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE4CAAAAAk5LzMwLzIwMTcJAAAAATC4OW2us+PbCKvbxxy149sIQ0NJUS5OQVNEQVFHUzpBQVBMLklRX0FQSUMuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAaWEAAAMAAAAAALg5ba6z49sIq9vHHLXj2wg6Q0lRLk5ZU0U6R00uSVFfQVIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABU7qUDAgAAAAQ4NzAwAQgAAAAFAAAAATEBAAAA</t>
+  </si>
+  <si>
+    <t>CjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCKvbxxy149sIN0NJUS5OQVNEQVFHUzpBQVBMLklRX05JLjEwMDAuMS8xLzIwMTguLi5VU0QuLk5FVCBJTkNPTUUBAAAAaWEAAAIAAAAFNDgzNTEBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMLg5ba6z49sIq9vHHLXj2whBQ0lRLk5ZU0U6SE1DLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAlUEEAAIAAAALOTk2NTcuNDAwMjkBCAAAAAUAAAABMQEAAAAKMTg5Mzg0Nzc3MgMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwuDltrrPj2wir28cctePbCERDSVEuTllTRTpITUMuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAACVQQQAAgAAAAwxODg4Ny42Nzc0MTMBCAAAAAUAAAABMQEAAAAKMTk2ODc5NzUyMgMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwuDltrrPj2wir28cctePbCDhDSVEuVFNFOjcyMDMuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMjAuLi5VU0Qu</t>
+  </si>
+  <si>
+    <t>LklOVkVOVE9SWQEAAAC84AQAAgAAAAwyMzk3Mi41Mjg4MjEBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyOAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwuDltrrPj2wir28cctePbCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABpYQAAAwAAAAAAuDltrrPj2wir28cctePbCD5DSVEuTllTRTpITUMuSVFfQVBJQy4xMDAwLjEvMS8yMDE5Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAACVQQQAAgAAAAsxNjExLjIwNDgyMgEIAAAABQAAAAExAQAAAAoyMDQxODc4NDk4AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCKvbxxy149sIPENJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAABfnwEAAgAAAAYyNTY1NDABCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sIq9vHHLXj2wg6Q0lRLlRTRTo3MjcwLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgREVCVAEAAABSVw0AAgAAAAsxNTEyLjc2MjQ4</t>
+  </si>
+  <si>
+    <t>MQEIAAAABQAAAAExAQAAAAoxODYwNDExNjY5AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATC4OW2us+PbCKvbxxy149sITUNJUS5UU0U6NzI3MC5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAFJXDQACAAAACjg1ODguMjQwODcBCAAAAAUAAAABMQEAAAAKMTk2OTQ0NzQzOQMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwuDltrrPj2wir28cctePbCERDSVEuWFRSQTpEQUkuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKbg5ba6z49sIxwLIHLXj2wg9Q0lRLktPU0U6QTAwMDI3MC5JUV9SRS4xMDAwLjEvMS8yMDE2Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAAC23CUAAgAAAAwxNzg3OC45NjgxMDYBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIxwLIHLXj2whGQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAAC23CUA</t>
+  </si>
+  <si>
+    <t>AgAAAAwxODY3MC45MzQ4OTcBCAAAAAUAAAABMQEAAAAKMjA4MzY4NTIyOQMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sIq9vHHLXj2whAQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVIuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABpYQAAAgAAAAUxNjg0OQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATC4OW2us+PbCMcCyBy149sIRkNJUS5LT1NFOkEwMDAyNzAuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAttwlAAMAAAAAALg5ba6z49sIq9vHHLXj2wg7Q0lRLk5ZU0U6R00uSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAVO6lAwIAAAAGMTM3MjM3AQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sIxwLIHLXj2wg9Q0lRLk5ZU0U6Ri5JUV9DT01NT04uMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABfnwEAAgAAAAI0MQEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAA</t>
+  </si>
+  <si>
+    <t>AAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wjHAsgctePbCDpDSVEuVFNFOjgwNTguSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBERUJUAQAAAIH/BwACAAAADDUzMzYwLjczMTExMwEIAAAABQAAAAExAQAAAAoxNzk3NDc0MDQ1AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATC4OW2us+PbCMcCyBy149sINkNJUS5LT1NFOkEwMDAyNzAuSVFfTkkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTkVUIElOQ09NRQEAAAC23CUAAgAAAAsyMjg4LjExNjkyNAEIAAAABQAAAAExAQAAAAoxODc1ODc1MTc1AwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sIxwLIHLXj2whBQ0lRLk5BU0RBUUdTOlRTTEEuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAEMaiAQIAAAAIMzM2Ny45MTQBCAAAAAUAAAABMQEAAAAKMjAxMzkwNzQ3MAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sIxwLIHLXj2whHQ0lRLlRTRTo3MjAzLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklM</t>
+  </si>
+  <si>
+    <t>SVRJRVMBAAAAvOAEAAIAAAANMTY3NTcxLjEyOTgyNAEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCMcCyBy149sISUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAaWEAAAIAAAAFNDg4NDQBCAAAAAUAAAABMQEAAAALLTIxMjQ2NTk3NDMDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMLg5ba6z49sIxwLIHLXj2whBQ0lRLlRTRTo3MjY5LklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAADy4KAAIAAAAMMTUyMTUuNzM4MTg2AQgAAAAFAAAAATEBAAAACjE5NzAyMTMwMDkDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMLg5ba6z49sIxwLIHLXj2wg7Q0lRLlRTRTo4MDU4LklRX0FSLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAgf8HAAIAAAAMMjcwMTUuMjkxODg1AQgAAAAFAAAAATEBAAAACjE4OTM5OTc5NTQDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMLg5ba6z</t>
+  </si>
+  <si>
+    <t>49sIxwLIHLXj2whDQ0lRLk5ZU0U6R00uSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABU7qUDAgAAAAUxNTc2OQEIAAAABQAAAAExAQAAAAstMjExMzg4MDIzMwMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sIxwLIHLXj2wg/Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAF+fAQACAAAABjIwODY2OAEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwuDltrrPj2wjHAsgctePbCDhDSVEuTllTRTpGLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgREVCVAEAAABfnwEAAgAAAAYxNTQyMTMBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sIxwLIHLXj2wg5Q0lRLk5ZU0U6SE1DLklRX1JFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAJVBBAACAAAADDYwMjA1LjMyODI1NwEIAAAABQAAAAExAQAAAAoxOTY4Nzk3NTIyAwAAAAMxNjACAAAABDEyMjIE</t>
+  </si>
+  <si>
+    <t>AAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCMcCyBy149sIPUNJUS5OWVNFOkdNLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBBU1NFVFMBAAAAVO6lAwIAAAAGMjI4MDM3AQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wjHAsgctePbCEdDSVEuTkFTREFRR1M6VFNMQS5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAAAQxqIBAwAAAAAAuDltrrPj2wigKcgctePbCE9DSVEuTllTRTpHTS5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAFTupQMCAAAACzE1NDQuNDkyNjA4AQQAAAAFAAAAATUBAAAACjE4NzMzMDIzNzcCAAAABTI0MTUzBgAAAAEwuDltrrPj2wjHAsgctePbCDpDSVEuTllTRTpGLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAF+fAQACAAAABjE1Njc3NgEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sIoCnIHLXj2whGQ0lRLktP</t>
+  </si>
+  <si>
+    <t>U0U6QTAwNTM4MC5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUkVGIERJVklERU5EUwEAAABMWQ0AAgAAAAozNzQuNTM1Nzk3AQgAAAAFAAAAATEBAAAACjIwODM3OTczNTUDAAAAAzE2MAIAAAACOTcEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wigKcgctePbCDlDSVEuVFNFOjcyNjkuSVFfUkUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAADy4KAAIAAAALODEzMS41MDU1MDgBCAAAAAUAAAABMQEAAAAKMTc5OTI0MzQ4MgMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwuDltrrPj2wigKcgctePbCEVDSVEuS09TRTpBMDAwMjcwLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAttwlAAIAAAAMMjM4MDguMTI2NDg5AQgAAAAFAAAAATEBAAAACjE5NDgyMjY0MjADAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCKApyBy149sIRkNJUS5OWVNFOkdNLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAVO6lAwIAAAAFNzEyMTcBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYw</t>
+  </si>
+  <si>
+    <t>AgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIxwLIHLXj2whHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAaWEAAAMAAAAAALg5ba6z49sIoCnIHLXj2wg4Q0lRLk5ZU0U6R00uSVFfUkUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAVO6lAwIAAAAFMjY4NjABCAAAAAUAAAABMQEAAAALLTIxMTM4ODAyMzMDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATC4OW2us+PbCKApyBy149sIQUNJUS5OQVNEQVFHUzpUU0xBLklRX0NPR1MuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAABDGogECAAAABDk1MzYBCAAAAAUAAAABMQEAAAAKMjAxMzkwNzQ3MAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCKApyBy149sIOUNJUS5PTTpWT0xWIEIuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOVkVOVE9SWQEAAAA3xAQAAgAAAAs2MzgwLjgzMTcxNQEIAAAABQAAAAExAQAAAAoxOTQ5NDk1NzkyAwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3</t>
+  </si>
+  <si>
+    <t>CQAAAAEwuDltrrPj2wigKcgctePbCE9DSVEuTllTRTpHTS5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAFTupQMCAAAACzE0OTcuOTY0NTU3AQQAAAAFAAAAATUBAAAACjE5NDM5MjI3ODQCAAAABTI0MTUzBgAAAAEwuDltrrPj2wigKcgctePbCFJDSVEuTkFTREFRR1M6VFNMQS5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAABDGogECAAAACDMzNjcuOTE0AQgAAAAFAAAAATEBAAAACjIwMTM5MDc0NzADAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCKApyBy149sIUENJUS5UU0U6NzI3MC5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAFJXDQACAAAACjc2Ny4xNjA2MDUBBAAAAAUAAAABNQEAAAAKMTk2OTQ0NzQzOQIAAAAFMjQxNTMGAAAAATC4OW2us+PbCKApyBy149sIPENJUS5UU0U6NzI2OS5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAAAPLgoAAgAAAAwyODMwNy43NTA1OTYBCAAAAAUAAAABMQEAAAAKMTc5OTI0MzQ4MgMAAAADMTYwAgAAAAIyOAQAAAAB</t>
+  </si>
+  <si>
+    <t>MAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMLg5ba6z49sIoCnIHLXj2wg6Q0lRLlRTRTo3MjcwLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgREVCVAEAAABSVw0AAgAAAAsxMzI5LjY4NjExOQEIAAAABQAAAAExAQAAAAoxODYwNDExNTg5AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCKApyBy149sIQkNJUS5LT1NFOkEwMDAyNzAuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAAC23CUAAgAAAAwzOTA3My44MDgwNjcBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIoCnIHLXj2whFQ0lRLktPU0U6QTAwNTM4MC5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAExZDQACAAAADDgzNjkzLjY2ODk2OAEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wigKcgctePbCEdDSVEuTkFTREFRR1M6QUFQTC5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUkVGIERJ</t>
+  </si>
+  <si>
+    <t>VklERU5EUwEAAABpYQAAAwAAAAAAuDltrrPj2wigKcgctePbCEZDSVEuS09TRTpBMDAwMjcwLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAALbcJQACAAAADDE1NDkxLjQwMTEzOQEIAAAABQAAAAExAQAAAAoxODMxNjQ0MTE0AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wjsUMgctePbCDdDSVEuTllTRTpGLklRX1JFLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAF+fAQACAAAABTE1NjM0AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCKApyBy149sIQ0NJUS5PTTpWT0xWIEIuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAN8QEAAMAAAAAALg5ba6z49sIoCnIHLXj2wg8Q0lRLlRTRTo4MDU4LklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAIH/BwACAAAADDYzOTE3LjczNjA3MgEIAAAABQAAAAExAQAAAAoxNzk3NDc0MDQ1AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwuDltrrPj2wigKcgc</t>
+  </si>
+  <si>
+    <t>tePbCD1DSVEuS09TRTpBMDAwMjcwLklRX1JFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAALbcJQACAAAADDIyNTM2LjAyMDk3MwEIAAAABQAAAAExAQAAAAoxOTQ4MjI2NDIwAwAAAAMxNjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwuDltrrPj2wjsUMgctePbCFBDSVEuVFNFOjgwNTguSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAACB/wcAAgAAAAsxNjIwLjM4MzYyNwEEAAAABQAAAAE1AQAAAAoxNzk3NDc0MDQ1AgAAAAUyNDE1MwYAAAABMLg5ba6z49sI7FDIHLXj2whHQ0lRLk5BU0RBUUdTOlRTTEEuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAEMaiAQMAAAAAALg5ba6z49sI7FDIHLXj2whCQ0lRLlRTRTo3MjAzLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAALzgBAACAAAADDE3MDkyMC45MjUxOQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCOxQyBy149sIPENJUS5UU0U6ODA1OC5JUV9DT0dTLjEwMDAuMS8xLzIwMTYu</t>
+  </si>
+  <si>
+    <t>Li5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAACB/wcAAgAAAAw1Mzg1Ni43MDU3ODcBCAAAAAUAAAABMQEAAAAKMTc5NzQ3NDA0NQMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMLg5ba6z49sI7FDIHLXj2wg+Q0lRLlRTRTo4MDU4LklRX0FQSUMuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAgf8HAAIAAAALMTk3OS45MTkzMTIBCAAAAAUAAAABMQEAAAAKMTg5Mzk5Nzk1NAMAAAADMTYwAgAAAAQxMDg0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwuDltrrPj2wjsUMgctePbCEFDSVEuVFNFOjcyMDMuSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAAC84AQAAgAAAA0yNTA3MDguNDA1NjQ0AQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMLg5ba6z49sI7FDIHLXj2wgwQ0lRLk5ZU0U6Ri5JUV9OSS4xMDAwLjEvMS8yMDE3Li4uVVNELi5ORVQgSU5DT01FAQAAAF+fAQACAAAABDQ1ODkBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCOxQyBy1</t>
+  </si>
+  <si>
+    <t>49sIOkNJUS5OWVNFOkYuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAX58BAAIAAAAGMTU1OTAwAQgAAAAFAAAAATEBAAAACy0yMTEzNjkyNDYxAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sI7FDIHLXj2whMQ0lRLk5ZU0U6R00uSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABU7qUDAgAAAAUyMTYxNQEIAAAABQAAAAExAQAAAAoxOTQzOTIyNzg0AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwuDltrrPj2wjsUMgctePbCEFDSVEuTkFTREFRR1M6VFNMQS5JUV9DT0dTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAAAQxqIBAgAAAAgzMTIyLjUyMgEIAAAABQAAAAExAQAAAAoxODc1NzY5MDgyAwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sI7FDIHLXj2whMQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAABpYQAAAgAAAAYxMDA4MTQBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMA</t>
+  </si>
+  <si>
+    <t>AAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwuDltrrPj2wjsUMgctePbCEBDSVEuTllTRTpGLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAF+fAQACAAAABjExNDA0NwEIAAAABQAAAAExAQAAAAstMjExMzY5MjQ2MQMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sI7FDIHLXj2whCQ0lRLlRTRTo4MDU4LklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAIH/BwACAAAADDU4MDAyLjM3NzU1MgEIAAAABQAAAAExAQAAAAoxODkzOTk3OTU0AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCOxQyBy149sIOENJUS5UU0U6NzIwMy5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVNTRVRTAQAAALzgBAACAAAADTQyMjEwMy45MDU5MDcBCAAAAAUAAAABMQEAAAAKMTg5NDE1MDEzNgMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwuDltrrPj2wjUd8gctePbCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9DT0dTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNPU1QgT0Yg</t>
+  </si>
+  <si>
+    <t>R09PRFMgU09MRAEAAABpYQAAAgAAAAYxNDAwODkBCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTkvMjYvMjAxNQkAAAABMLg5ba6z49sI1HfIHLXj2wg8Q0lRLlRTRTo4MDU4LklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAIH/BwACAAAADDcxMjUyLjcxMjc1OAEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwuDltrrPj2wjsUMgctePbCDxDSVEuS09TRTpBMDAwMjcwLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE3Li4uVVNELi5BU1NFVFMBAAAAttwlAAIAAAAMNDIyNzAuNzA1ODE2AQgAAAAFAAAAATEBAAAACjE4NzU4NzUxNzUDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCOxQyBy149sIOUNJUS5UU0U6NzIwMy5JUV9SRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAAC84AQAAgAAAA0xNDk0NjguMTMxNDA3AQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMLg5ba6z49sI7FDIHLXj2whCQ0lRLk5Z</t>
+  </si>
+  <si>
+    <t>U0U6Ri5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggQU5EIEVRVUlWQUxFTlRTAQAAAF+fAQACAAAABDcxMTEBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sI7FDIHLXj2whCQ0lRLlRTRTo3MjAzLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAALzgBAACAAAACTExNS43MjkwMgEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAAAjk3BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwuDltrrPj2wjUd8gctePbCE5DSVEuTllTRTpGLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAX58BAAIAAAALMzk3OC41NTE3MzcBBAAAAAUAAAABNQEAAAAKMjA3ODg1ODI0MAIAAAAFMjQxNTMGAAAAATC4OW2us+PbCNR3yBy149sISENJUS5LT1NFOkEwMDUzODAuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABMWQ0AAgAAAAs2MjMwLjI2MjU5NAEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2</t>
+  </si>
+  <si>
+    <t>CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wjUd8gctePbCDhDSVEuVFNFOjcyMDMuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFTU0VUUwEAAAC84AQAAgAAAA00Njg3MDIuNzExMDI1AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMLg5ba6z49sI1HfIHLXj2whGQ0lRLk5ZU0U6R00uSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAABU7qUDAgAAAAU4NTE4MQEIAAAABQAAAAExAQAAAAoxOTQzOTIyNzg0AwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwuDltrrPj2wjUd8gctePbCFBDSVEuVFNFOjcyMDMuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAAC84AQAAgAAAAwxNDE2Mi4xOTU4MzUBBAAAAAUAAAABNQEAAAAKMjA0MjMyMjQyOAIAAAAFMjQxNTMGAAAAATC4OW2us+PbCNR3yBy149sIPkNJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBERUJUAQAAAExZDQACAAAADDU1MTc5Ljk3OTQyMwEIAAAABQAAAAExAQAAAAoxODMwMzgx</t>
+  </si>
+  <si>
+    <t>Njc5AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wjUd8gctePbCDxDSVEuTllTRTpGLklRX0FQSUMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAX58BAAIAAAAFMjE0MjEBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDg0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sI1HfIHLXj2wg+Q0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIERFQlQBAAAAttwlAAIAAAALNTgwMi45NTIyOTgBCAAAAAUAAAABMQEAAAAKMjA4MzY4NTIyOQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sI1HfIHLXj2wg8Q0lRLk5ZU0U6Ri5JUV9BUElDLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAF+fAQACAAAABTIxODQzAQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCNR3yBy149sINkNJUS5OWVNFOkYuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVkVOVE9SWQEAAABfnwEA</t>
+  </si>
+  <si>
+    <t>AgAAAAQ4ODk4AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCNR3yBy149sIPENJUS5UU0U6NzI2OS5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAAAPLgoAAgAAAAs0NDI0Ljk0NjQwMQEIAAAABQAAAAExAQAAAAoxNzk5MjQzNDgyAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATC4OW2us+PbCNR3yBy149sIOkNJUS5PTTpWT0xWIEIuSVFfUkUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAN8QEAAIAAAAMMTIzNDUuNjg5NTQ0AQgAAAAFAAAAATEBAAAACjE5NDk0OTU3OTIDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCNR3yBy149sIQkNJUS5UU0U6NzI2OS5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAAAPLgoAAwAAAAAAuDltrrPj2wjUd8gctePbCEBDSVEuS09TRTpBMDAwMjcwLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAALbcJQACAAAADDQzNzg1LjUwMDk1MwEIAAAABQAAAAExAQAAAAoxODc1</t>
+  </si>
+  <si>
+    <t>ODc1MTc1AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sI5Z7IHLXj2whGQ0lRLktPU0U6QTAwNTM4MC5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAABMWQ0AAgAAAAw2OTI0OS4wMDEwNDcBCAAAAAUAAAABMQEAAAAKMTk0ODcxMDU4NgMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sI5Z7IHLXj2wg7Q0lRLlRTRTo3MjAzLklRX0FSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAvOAEAAIAAAAMMTc1NzMuNjMxNDgyAQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMLg5ba6z49sI1HfIHLXj2whVQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABpYQAAAgAAAAkyMTMyOS4yNTIBBAAAAAUAAAABNQEAAAAKMTkxOTMzNDQ4NAIAAAAFMjQxNTMGAAAAATC4OW2us+PbCNR3yBy149sIQkNJUS5YVFJBOkRBSS5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBDVVJSRU5U</t>
+  </si>
+  <si>
+    <t>IEFTU0VUUwUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKbg5ba6z49sI1HfIHLXj2wg+Q0lRLlRTRTo3MjAzLklRX0FQSUMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAvOAEAAIAAAALNDU1OS4xNjMzNTQBCAAAAAUAAAABMQEAAAAKMTg0NzgyNTEyMAMAAAADMTYwAgAAAAQxMDg0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwuDltrrPj2wjlnsgctePbCEJDSVEuVFNFOjcyNzAuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAUlcNAAMAAAAAALg5ba6z49sI5Z7IHLXj2wg9Q0lRLk9NOlZPTFYgQi5JUV9DT0dTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAAA3xAQAAgAAAAwzMzg4MS4wMTA4OTgBCAAAAAUAAAABMQEAAAAKMjA4MjQxNTYwMgMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATC4OW2us+PbCOWeyBy149sISENJUS5LT1NFOkEwMDAyNzAuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE5Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAAC23CUAAgAAAAsyMDU5LjQyOTA5MwEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE5</t>
+  </si>
+  <si>
+    <t>CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wjlnsgctePbCDlDSVEuVFNFOjgwNTguSVFfUkUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAgf8HAAIAAAAMMjg3MTAuNDAyNzY4AQgAAAAFAAAAATEBAAAACjE4NTExMTAxMzQDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMLg5ba6z49sI5Z7IHLXj2wg8Q0lRLlRTRTo3MjAzLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAALzgBAACAAAADDI1MTgwLjE0NTQyNQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATC4OW2us+PbCOWeyBy149sIQkNJUS5OWVNFOkhNQy5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAACVQQQAAwAAAAAAuDltrrPj2wjlnsgctePbCEJDSVEuVFNFOjgwNTguSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAgf8HAAMAAAAAALg5ba6z49sI5Z7IHLXj2whEQ0lRLlRTRTo4MDU4LklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAgf8HAAIAAAAMMTAy</t>
+  </si>
+  <si>
+    <t>NzMuNjY4MzE2AQgAAAAFAAAAATEBAAAACjE4OTM5OTc5NTQDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMLg5ba6z49sI5Z7IHLXj2wg7Q0lRLlRTRTo3MjAzLklRX0FSLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAvOAEAAIAAAAMMTc4MDEuMjU0MDk1AQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMLg5ba6z49sI5Z7IHLXj2wg+Q0lRLk5BU0RBUUdTOkFBUEwuSVFfUkUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAaWEAAAIAAAAFOTIyODQBCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEwuDltrrPj2wjlnsgctePbCDZDSVEuTllTRTpGLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE4Li4uVVNELi5BU1NFVFMBAAAAX58BAAIAAAAGMjU4NDk2AQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCOWeyBy149sIQ0NJUS5OWVNFOkdNLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAx</t>
+  </si>
+  <si>
+    <t>OC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAVO6lAwIAAAAFMTEyMTIBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sI5Z7IHLXj2wg9Q0lRLk5ZU0U6SEQuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAACXQAQAAgAAAAU0MTk3MwEIAAAABQAAAAExAQAAAAoxODc5NTU1NTczAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkxLzMxLzIwMTYJAAAAATC4OW2us+PbCOWeyBy149sISUNJUS5OQVNEQVFHUzpUU0xBLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAEMaiAQIAAAAIMTE5Ni45MDgBCAAAAAUAAAABMQEAAAAKMTg3NTc2OTA4MgMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sI5Z7IHLXj2whDQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVBJQy4xMDAwLjEvMS8yMDE5Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABpYQAAAwAAAAAAuDltrrPj2wj0xcgctePbCDxDSVEuVFNFOjgwNTguSVFfQ09HUy4xMDAwLjEvMS8yMDE5Li4uVVNELi5DT1NUIE9GIEdPT0RTIFNPTEQBAAAA</t>
+  </si>
+  <si>
+    <t>gf8HAAIAAAALNTM0NjYuMjIzNTIBCAAAAAUAAAABMQEAAAAKMTk2OTA5MzE4NAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMLg5ba6z49sI9MXIHLXj2whNQ0lRLlRTRTo3MjAzLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAvOAEAAIAAAAMNDE0NTIuNTUyNDI2AQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMLg5ba6z49sI5Z7IHLXj2whNQ0lRLk5ZU0U6SE1DLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAlUEEAAIAAAAMMjMyNTMuNzU1NjMzAQgAAAAFAAAAATEBAAAACjIwNDE4Nzg0OTgDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMLg5ba6z49sI5Z7IHLXj2wg8Q0lRLlRTRTo3MjAzLklRX0NPR1MuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAALzgBAACAAAADTE3NDMxNy41NDY1NjYBCAAAAAUAAAABMQEAAAAKMTg0NzgyNTEyMAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkA</t>
+  </si>
+  <si>
+    <t>AAABMLg5ba6z49sI9MXIHLXj2whHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAaWEAAAIAAAAGMTYyODE5AQgAAAAFAAAAATEBAAAACy0yMTI0NjU5NzQzAwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATC4OW2us+PbCOWeyBy149sIQENJUS5OWVNFOkYuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAX58BAAMAAAAAALg5ba6z49sI9MXIHLXj2whCQ0lRLlRTRTo3MjY5LklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAA8uCgADAAAAAAC4OW2us+PbCPTFyBy149sIQENJUS5OWVNFOkhELklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAl0AEAAIAAAAFNDU4ODEBCAAAAAUAAAABMQEAAAAKMjA4NTczOTg2MgMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAIMi8zLzIwMTkJAAAAATC4OW2us+PbCPTFyBy149sIQkNJUS5UU0U6NzIwMy5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUkVGIERJVklERU5EUwEAAAC84AQAAgAAAAk4Ny44NDc1MzUBCAAAAAUAAAAB</t>
+  </si>
+  <si>
+    <t>MQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAI5NwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMLg5ba6z49sI9MXIHLXj2wg8Q0lRLlRTRTo4MDU4LklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAIH/BwACAAAADDU3NjMwLjE0NDM2MgEIAAAABQAAAAExAQAAAAoxODkzOTk3OTU0AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwuDltrrPj2wj0xcgctePbCDxDSVEuVFNFOjcyMDMuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAvOAEAAIAAAANMjQ3NTA4LjQ2MTExMgEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwo6UTrrPj2wj0xcgctePbCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9DT0dTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAABpYQAAAgAAAAYxNjE3ODIBCAAAAAUAAAABMQEAAAALLTIxMjQ2NTk3NDMDAAAAAzE2MAIAAAACMzQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATCjpROus+PbCPTFyBy149sIPENJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0Qu</t>
+  </si>
+  <si>
+    <t>LlRPVEFMIEFTU0VUUwEAAABfnwEAAgAAAAYyMzc5NTEBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMKOlE66z49sI9MXIHLXj2wgyQ0lRLlRTRTo4MDU4LklRX05JLjEwMDAuMS8xLzIwMTYuLi5VU0QuLk5FVCBJTkNPTUUBAAAAgf8HAAIAAAALMzMzOC4zOTQ5MzIBCAAAAAUAAAABMQEAAAAKMTc5NzQ3NDA0NQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMKOlE66z49sI9MXIHLXj2wg8Q0lRLk5ZU0U6SE1DLklRX0NPR1MuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAAJVBBAACAAAADDg2MDk3LjA0MzExOAEIAAAABQAAAAExAQAAAAoxODQ3NzcyNTA2AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwo6UTrrPj2wj0xcgctePbCDhDSVEuTllTRTpGLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgREVCVAEAAABfnwEAAgAAAAYxNTQyODcBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMKOlE66z49sI9MXIHLXj2whDQ0lRLk5BU0RBUUdTOkFBUEwuSVFf</t>
+  </si>
+  <si>
+    <t>QVBJQy4xMDAwLjEvMS8yMDE4Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABpYQAAAwAAAAAAo6UTrrPj2wj0xcgctePbCDhDSVEuTllTRTpITUMuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFTU0VUUwEAAACVQQQAAgAAAA0xNTM1NjEuNDQxNDgxAQgAAAAFAAAAATEBAAAACjE4NDc3NzI1MDYDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMKOlE66z49sII+3IHLXj2wg9Q0lRLk5ZU0U6R00uSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAABU7qUDAgAAAAYxOTQzMzgBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sI9MXIHLXj2whAQ0lRLktPU0U6QTAwMDI3MC5JUV9DT0dTLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAAC23CUAAgAAAAw0MTgxOS44NTg4NDQBCAAAAAUAAAABMQEAAAAKMTk0ODIyNjQyMAMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATCjpROus+PbCPTFyBy149sIP0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9U</t>
+  </si>
+  <si>
+    <t>QUwgREVCVAEAAABpYQAAAgAAAAYxMTU2ODABCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwo6UTrrPj2wj0xcgctePbCEJDSVEuS09TRTpBMDA1MzgwLklRX0FQSUMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAATFkNAAIAAAAKMjk5MS42MjQ2MwEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2wgj7cgctePbCD9DSVEuTllTRTpGLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAX58BAAIAAAAGMjI1MzA3AQgAAAAFAAAAATEBAAAACy0yMTEzNjkyNDYxAwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwo6UTrrPj2wgj7cgctePbCD1DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVNTRVRTAQAAAGlhAAACAAAABjM2NTcyNQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATCjpROus+PbCCPtyBy149sIUUNJUS5L</t>
+  </si>
+  <si>
+    <t>T1NFOkEwMDAyNzAuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAAC23CUAAgAAAAs3OTAyLjA2NjI0MwEIAAAABQAAAAExAQAAAAoyMDgzNjg1MjI5AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwo6UTrrPj2wgj7cgctePbCEBDSVEuTkFTREFRR1M6VFNMQS5JUV9BUi4xMDAwLjEvMS8yMDE2Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAABDGogECAAAABzE2OC45NjUBCAAAAAUAAAABMQEAAAAKMTg3NTc2OTA4MgMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sII+3IHLXj2wg5Q0lRLk5ZU0U6R00uSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBERUJUAQAAAFTupQMCAAAABTk0MjE5AQgAAAAFAAAAATEBAAAACjIwMDgwNzAxMzcDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATCjpROus+PbCCPtyBy149sIOUNJUS5PTTpWT0xWIEIuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVkVOVE9SWQEAAAA3xAQAAgAAAAs1MjM1LjI2MzQ0NQEIAAAABQAAAAExAQAAAAoxODMzNDc2ODg4AwAAAAMxNjACAAAABDEw</t>
+  </si>
+  <si>
+    <t>NDMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2wgj7cgctePbCERDSVEuVFNFOjcyNzAuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABSVw0AAgAAAAs1OTA4LjcxNzU3NwEIAAAABQAAAAExAQAAAAoxODYwNDExNTg5AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATCjpROus+PbCCPtyBy149sIOENJUS5YVFJBOkRBSS5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5WRU5UT1JZBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpo6UTrrPj2wgj7cgctePbCD5DSVEuVFNFOjcyMDMuSVFfQVBJQy4xMDAwLjEvMS8yMDE3Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAAC84AQAAgAAAAs0ODc4LjYxMzE2NgEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATCjpROus+PbCCPtyBy149sIQkNJUS5YVFJBOkRBSS5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKaOlE66z49sII+3IHLXj2wg4Q0lRLlRTRTo4MDU4LklRX1RPVEFMX0FT</t>
+  </si>
+  <si>
+    <t>U0VUUy4xMDAwLjEvMS8yMDE2Li4uVVNELi5BU1NFVFMBAAAAgf8HAAIAAAANMTM5Nzk4LjAzNTkyNgEIAAAABQAAAAExAQAAAAoxNzk3NDc0MDQ1AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATCjpROus+PbCCPtyBy149sIOkNJUS5UU0U6NzIwMy5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIERFQlQBAAAAvOAEAAIAAAANMTY0Nzk0LjE2MzExNAEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATCjpROus+PbCCPtyBy149sIS0NJUS5OWVNFOkYuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUyNjQ4OAEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwo6UTrrPj2wgj7cgctePbCEJDSVEuTllTRTpITUMuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAlUEEAAMAAAAAAKOlE66z49sICBTJHLXj2whCQ0lRLlRTRTo3MjcwLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTkuLi5VU0Qu</t>
+  </si>
+  <si>
+    <t>LlBSRUYgRElWSURFTkRTAQAAAFJXDQADAAAAAACjpROus+PbCCPtyBy149sIQENJUS5LT1NFOkEwMDAyNzAuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAttwlAAIAAAAMNTAzNjUuMDQxMjA0AQgAAAAFAAAAATEBAAAACjIwODM2ODUyMjkDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwo6UTrrPj2wgj7cgctePbCD9DSVEuVFNFOjgwNTguSVFfQ09NTU9OLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAgf8HAAIAAAALMTgzMy42MDU0MDkBCAAAAAUAAAABMQEAAAAKMTg5Mzk5Nzk1NAMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwo6UTrrPj2wgIFMkctePbCD1DSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQVNTRVRTAQAAABDGogECAAAABTM0MzA5AQgAAAAFAAAAATEBAAAACy0yMTEzNTc4OTE4AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwo6UTrrPj2wgIFMkctePbCD5DSVEuVFNFOjcyMDMuSVFfQVBJQy4xMDAwLjEvMS8yMDIwLi4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAAC84AQAAgAAAAs0Mzk2LjM3</t>
+  </si>
+  <si>
+    <t>MjAzNAEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATCjpROus+PbCAgUyRy149sIQUNJUS5UU0U6ODA1OC5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAIH/BwACAAAADDg4MDk4LjM3NjI0NgEIAAAABQAAAAExAQAAAAoxODUxMTEwMTM0AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATCjpROus+PbCAgUyRy149sIOkNJUS5UU0U6ODA1OC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIERFQlQBAAAAgf8HAAIAAAAMNDg0ODUuMjkwMTgzAQgAAAAFAAAAATEBAAAACjE5NjkwOTMxODQDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMKOlE66z49sICBTJHLXj2wg+Q0lRLlRTRTo3MjAzLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBBU1NFVFMBAAAAvOAEAAIAAAANNDIyMTAzLjkwNTkwNwEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATCjpROus+PbCAgUyRy149sIQUNJUS5OQVNEQVFHUzpBQVBMLklR</t>
+  </si>
+  <si>
+    <t>X0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAAGlhAAACAAAABTIwNDg0AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMKOlE66z49sICBTJHLXj2whVQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAAAQxqIBAgAAAAsyNTkwLjgyMjMwNQEEAAAABQAAAAE1AQAAAAoyMDc5MTI4NjI1AgAAAAUyNDE1MwYAAAABMKOlE66z49sICBTJHLXj2wg9Q0lRLk9NOlZPTFYgQi5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAAA3xAQAAgAAAAs1MjgxLjE2NzkyNwEIAAAABQAAAAExAQAAAAoyMDE3NTAzNzk5AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwo6UTrrPj2wgIFMkctePbCEJDSVEuTllTRTpITUMuSVFfUFJFRl9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFJFRiBTVE9DSyBFUVVJVFkBAAAAlUEEAAMAAAAAAKOlE66z49sICBTJHLXj2wg/Q0lRLlhUUkE6REFJLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZBQAAAAAA</t>
+  </si>
+  <si>
+    <t>AAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpo6UTrrPj2wgIFMkctePbCENDSVEuS09TRTpBMDA1MzgwLklRX0NPTU1PTi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAExZDQACAAAACzExMTEuNzczNTk4AQgAAAAFAAAAATEBAAAACjIwODM3OTczNTUDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATCjpROus+PbCAgUyRy149sIO0NJUS5YVFJBOkRBSS5JUV9BUi4xMDAwLjEvMS8yMDE5Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpo6UTrrPj2wgIFMkctePbCD5DSVEuTllTRTpITUMuSVFfQVBJQy4xMDAwLjEvMS8yMDE2Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAACVQQQAAgAAAAsxNDI2LjEwMjIwMwEIAAAABQAAAAExAQAAAAoxODQ3NzcyNTA2AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATCjpROus+PbCAgUyRy149sIP0NJUS5UU0U6ODA1OC5JUV9DT01NT04uMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAACB/wcAAgAAAAoxODE5LjU3MDk0AQgAAAAFAAAAATEBAAAACjE4NTExMTAxMzQDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTcIAAAA</t>
+  </si>
+  <si>
+    <t>CTMvMzEvMjAxNgkAAAABMKOlE66z49sIBzvJHLXj2whCQ0lRLlRTRTo3MjAzLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAALzgBAACAAAADTE1OTk0My40NTUzMTQBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwo6UTrrPj2wgHO8kctePbCDpDSVEuWFRSQTpEQUkuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBERUJUBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpo6UTrrPj2wgIFMkctePbCEJDSVEuTllTRTpITUMuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAlUEEAAMAAAAAAKOlE66z49sIBzvJHLXj2whHQ0lRLk5ZU0U6SE1DLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAlUEEAAIAAAAMNDQxNzkuMTMyNDY2AQgAAAAFAAAAATEBAAAACjE4NDc3NzI1MDYDAAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMKOlE66z49sICBTJHLXj2whCQ0lRLlRTRTo3MjY5LklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJF</t>
+  </si>
+  <si>
+    <t>TlQgQVNTRVRTAQAAAA8uCgACAAAACzE2NzQwLjgwMzczAQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMKOlE66z49sIBzvJHLXj2whCQ0lRLlRTRTo4MDU4LklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAIH/BwADAAAAAACjpROus+PbCAc7yRy149sIPENJUS5UU0U6NzIwMy5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAAC84AQAAgAAAAwyMjUwOC41ODM1MjUBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwo6UTrrPj2wgHO8kctePbCFBDSVEuWFRSQTpEQUkuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1VUIFNIUgUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKaOlE66z49sIBzvJHLXj2wg8Q0lRLk5ZU0U6SE1DLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAJVBBAACAAAADTEyOTk0OS43MTgyNTkBCAAAAAUAAAABMQEAAAAKMTg5Mzg0Nzc3MgMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAI</t>
+  </si>
+  <si>
+    <t>MS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMKOlE66z49sIBzvJHLXj2wg4Q0lRLlRTRTo4MDU4LklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE5Li4uVVNELi5BU1NFVFMBAAAAgf8HAAIAAAANMTUxMDAwLjMyNzI4OAEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATCjpROus+PbCAc7yRy149sIPkNJUS5UU0U6NzIwMy5JUV9BUElDLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAALzgBAACAAAACzQ1OTAuMTk4NDE5AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjcDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMKOlE66z49sIBzvJHLXj2wg2Q0lRLk5ZU0U6Ri5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5WRU5UT1JZAQAAAF+fAQACAAAABTExMjIwAQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATCjpROus+PbCAc7yRy149sIPkNJUS5OWVNFOkhELklRX0NPTU1PTi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAJdABAACAAAAAjg4AQgAAAAFAAAAATEBAAAACjE5NTE1</t>
+  </si>
+  <si>
+    <t>NDIxMjgDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTEvMjkvMjAxNwkAAAABMKOlE66z49sIBzvJHLXj2whDQ0lRLktPU0U6QTAwNTM4MC5JUV9DT01NT04uMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABMWQ0AAgAAAAsxMDkwLjc0MjkyNwEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2wgHO8kctePbCFBDSVEuVFNFOjgwNTguSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAACB/wcAAgAAAAsxNTg1LjkyOTI0OQEEAAAABQAAAAE1AQAAAAoxOTY5MDkzMTg0AgAAAAUyNDE1MwYAAAABMKOlE66z49sIBzvJHLXj2wg7Q0lRLk5ZU0U6R00uSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAVO6lAwIAAAAFMTIxMzgBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sIdGLJHLXj2whBQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAaWEA</t>
+  </si>
+  <si>
+    <t>AAIAAAAFMjExMjABCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEwo6UTrrPj2wh0YskctePbCDhDSVEuTllTRTpGLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgREVCVAEAAABfnwEAAgAAAAYxMzI4NTQBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sIBzvJHLXj2wg8Q0lRLlRTRTo3MjY5LklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAA8uCgACAAAADDM0OTM4LjE0NTMwNgEIAAAABQAAAAExAQAAAAoxOTcwMjEzMDA5AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwo6UTrrPj2wh0YskctePbCEdDSVEuVFNFOjgwNTguSVFfVE9UQUxfQ0wuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAACB/wcAAgAAAAw0NjUwOS4xNzY0NDcBCAAAAAUAAAABMQEAAAAKMjA0MTk0MzM4MAMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwo6UTrrPj2wgHO8kctePbCDlDSVEuTllTRTpGLklRX0FSLjEw</t>
+  </si>
+  <si>
+    <t>MDAuMS8xLzIwMjAuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAX58BAAIAAAAEOTIzNwEIAAAABQAAAAExAQAAAAstMjExMzY5MjQ2MQMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMKOlE66z49sIBzvJHLXj2whAQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAAC23CUAAgAAAAw0ODY1OS4xNzIwOTMBCAAAAAUAAAABMQEAAAAKMjAyMTUzMDYyMwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATCjpROus+PbCHRiyRy149sIO0NJUS5OWVNFOkhNQy5JUV9BUi4xMDAwLjEvMS8yMDE4Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAJVBBAACAAAACzY4NTIuMjUxMjI0AQgAAAAFAAAAATEBAAAACjE5Njg3OTc1MjIDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMKOlE66z49sIdGLJHLXj2wg7Q0lRLk5ZU0U6SE1DLklRX0FSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAlUEEAAIAAAALNjgzOS41Nzg0MzMBCAAAAAUAAAABMQEAAAAKMTg0Nzc3MjUwNgMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8y</t>
+  </si>
+  <si>
+    <t>MDE1CQAAAAEwo6UTrrPj2wh0YskctePbCEJDSVEuVFNFOjcyMDMuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAvOAEAAIAAAAKMTMzLjQ1MzY1NQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAAAjk3BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwo6UTrrPj2wh0YskctePbCDxDSVEuVFNFOjcyNjkuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIICYgRVFVSVYBAAAADy4KAAIAAAALNjIyMy43ODQ4NDcBCAAAAAUAAAABMQEAAAAKMTg0OTAyNjcyNwMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwo6UTrrPj2wh0YskctePbCDpDSVEuTllTRTpIRC5JUV9BUi4xMDAwLjEvMS8yMDE2Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAJdABAACAAAABDE0ODQBCAAAAAUAAAABMQEAAAAKMTgzMzE2OTk0NQMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAIMi8xLzIwMTUJAAAAATCjpROus+PbCHRiyRy149sIPENJUS5UU0U6NzI3MC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABSVw0AAgAAAAsxOTA3LjAwMDYyMQEIAAAABQAAAAExAQAAAAoxNzQ0OTQ2MzE4AwAA</t>
+  </si>
+  <si>
+    <t>AAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATCjpROus+PbCHRiyRy149sIOkNJUS5OWVNFOkhELklRX0FSLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAl0AEAAIAAAAEMTU3MAEIAAAABQAAAAExAQAAAAoxOTUxNTQyMTI4AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkxLzI5LzIwMTcJAAAAATCjpROus+PbCHRiyRy149sIQUNJUS5OWVNFOkhNQy5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAJVBBAACAAAADTEwNDY1Ni43NDQyODIBCAAAAAUAAAABMQEAAAAKMjA0MTg3ODQ5OAMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwo6UTrrPj2wh0YskctePbCDhDSVEuVFNFOjgwNTguSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFTU0VUUwEAAACB/wcAAgAAAA0xMzI3NTQuMTQxNDE1AQgAAAAFAAAAATEBAAAACjE4NTExMTAxMzQDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMKOlE66z49sIdGLJHLXj2whQQ0lRLk5ZU0U6SE1DLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTYuLi5VU0Qu</t>
+  </si>
+  <si>
+    <t>LlRPVEFMIE9VVCBTSFIBAAAAlUEEAAIAAAALNTQwNi44NjA3NzgBBAAAAAUAAAABNQEAAAAKMTg0Nzc3MjUwNgIAAAAFMjQxNTMGAAAAATCjpROus+PbCHRiyRy149sIO0NJUS5UU0U6ODA1OC5JUV9BUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAIH/BwACAAAADDMxOTQyLjMyMzcyMQEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATCjpROus+PbCHRiyRy149sITUNJUS5UU0U6NzIwMy5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAALzgBAACAAAADDQ1OTk0LjEyNjc0OQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATCjpROus+PbCHRiyRy149sINkNJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFTU0VUUwEAAABfnwEAAgAAAAYyNTg1MzcBCAAAAAUAAAABMQEAAAALLTIxMTM2OTI0NjEDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATCjpROus+PbCGCJyRy149sIS0NJUS5LT1NFOkEwMDAyNzAuSVFfVE9UQUxf</t>
+  </si>
+  <si>
+    <t>Q0wuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBMSUFCSUxJVElFUwEAAAC23CUAAgAAAAwxMjM4OS42MTcxOTQBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sIdGLJHLXj2wg8Q0lRLk5ZU0U6SE1DLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAAJVBBAACAAAADDE1NjQxLjI5NTEzMgEIAAAABQAAAAExAQAAAAoxODkzODQ3NzcyAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATCjpROus+PbCHRiyRy149sIQENJUS5LT1NFOkEwMDUzODAuSVFfQ09HUy4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT1NUIE9GIEdPT0RTIFNPTEQBAAAATFkNAAIAAAAMNjMwOTUuMjU3NzgxAQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMKOlE66z49sIYInJHLXj2wg7Q0lRLk5ZU0U6R00uSVFfQ09HUy4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT1NUIE9GIEdPT0RTIFNPTEQBAAAAVO6lAwIAAAAGMTIxNTg0AQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAACMzQEAAAAATAHAAAACDEvMS8y</t>
+  </si>
+  <si>
+    <t>MDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwo6UTrrPj2wh0YskctePbCEBDSVEuTkFTREFRR1M6QUFQTC5JUV9BUi4xMDAwLjEvMS8yMDE4Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAGlhAAACAAAABTE3ODc0AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMKOlE66z49sIYInJHLXj2whDQ0lRLktPU0U6QTAwMDI3MC5JUV9DT01NT04uMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAAC23CUAAgAAAAsxOTIxLjY4NjQyMQEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDExMDMEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwo6UTrrPj2whgickctePbCFBDSVEuTllTRTpITUMuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAACVQQQAAgAAAAs1Mjc4LjY4NDE1NQEEAAAABQAAAAE1AQAAAAstMjE0NTMxMTU0NQIAAAAFMjQxNTMGAAAAATCjpROus+PbCGCJyRy149sIQ0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBBU1NFVFMBAAAAaWEAAAIAAAAGMzc1MzE5AQgAAAAFAAAAATEBAAAACjE5</t>
+  </si>
+  <si>
+    <t>ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMKOlE66z49sIYInJHLXj2whCQ0lRLlRTRTo4MDU4LklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAIH/BwADAAAAAACjpROus+PbCGCJyRy149sIVUNJUS5OQVNEQVFHUzpUU0xBLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAEMaiAQIAAAAKMjcyMC4xMjM3OQEEAAAABQAAAAE1AQAAAAstMjExMzU3ODkxOAIAAAAFMjQxNTMGAAAAATCjpROus+PbCGCJyRy149sIQUNJUS5OWVNFOkdNLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAFTupQMCAAAABTY4NzQ0AQgAAAAFAAAAATEBAAAACjIwMDgwNzAxMzcDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATCjpROus+PbCGCJyRy149sIPUNJUS5OWVNFOkhELklRX0FQSUMuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAl0AEAAIAAAAEOTc4NwEIAAAABQAAAAExAQAAAAoxOTUxNTQyMTI4AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkxLzI5LzIw</t>
+  </si>
+  <si>
+    <t>MTcJAAAAATCjpROus+PbCGCJyRy149sIVUNJUS5OQVNEQVFHUzpUU0xBLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAEMaiAQIAAAAKMTk4MC44NDUwNwEEAAAABQAAAAE1AQAAAAoxODc1NzY5MDgyAgAAAAUyNDE1MwYAAAABMKOlE66z49sIYInJHLXj2wg+Q0lRLlRTRTo3MjAzLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBBU1NFVFMBAAAAvOAEAAIAAAANNDY4NzAyLjcxMTAyNQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATCjpROus+PbCGCJyRy149sIUkNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAaWEAAAIAAAAGMTAwNTU3AQgAAAAFAAAAATEBAAAACy0yMTI0NjU5NzQzAwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATCjpROus+PbCGCJyRy149sISENJUS5LT1NFOkEwMDUzODAuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAABMWQ0AAgAAAAo4MjU3Ljg1MDk0AQgAAAAF</t>
+  </si>
+  <si>
+    <t>AAAAATEBAAAACjE5NDg3MTA1ODYDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATCjpROus+PbCGCJyRy149sIOkNJUS5OWVNFOkYuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAX58BAAIAAAAGMTYwMzM4AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwo6UTrrPj2wiGsMkctePbCDJDSVEuTllTRTpITUMuSVFfTkkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTkVUIElOQ09NRQEAAACVQQQAAgAAAAszMDY2LjMxMzQ5NwEIAAAABQAAAAExAQAAAAoxODkzODQ3NzcyAwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwo6UTrrPj2wiGsMkctePbCD1DSVEuS09TRTpBMDA1MzgwLklRX1JFLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAExZDQACAAAADDUzNDYxLjIyNDMwMwEIAAAABQAAAAExAQAAAAstMjA1Njk0NTMyOQMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMKOlE66z49sIYInJHLXj2wg4Q0lRLlRTRTo4MDU4LklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlZFTlRP</t>
+  </si>
+  <si>
+    <t>UlkBAAAAgf8HAAIAAAAMMTA5NTMuMzYxMjc0AQgAAAAFAAAAATEBAAAACjIwNDE5NDMzODADAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMKOlE66z49sIYInJHLXj2whVQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABpYQAAAgAAAAkyMDUzNy4yNDgBBAAAAAUAAAABNQEAAAAKMTk4OTkwOTgxNAIAAAAFMjQxNTMGAAAAATCjpROus+PbCGCJyRy149sIOkNJUS5OWVNFOkYuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAX58BAAIAAAAGMTUxODAwAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwo6UTrrPj2whgickctePbCEBDSVEuTkFTREFRR1M6QUFQTC5JUV9BUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAGlhAAACAAAABTIyOTI2AQgAAAAFAAAAATEBAAAACy0yMTI0NjU5NzQzAwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATCjpROus+PbCIawyRy149sIQUNJUS5OWVNFOkdNLklRX1BSRUZfRElWX09USEVSLjEw</t>
+  </si>
+  <si>
+    <t>MDAuMS8xLzIwMTkuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAFTupQMCAAAAAjk4AQgAAAAFAAAAATEBAAAACjIwNzk1MjUwMDMDAAAAAzE2MAIAAAACOTcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwo6UTrrPj2wiGsMkctePbCEBDSVEuTkFTREFRR1M6VFNMQS5JUV9BUi4xMDAwLjEvMS8yMDE4Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAABDGogECAAAABzUxNS4zODEBCAAAAAUAAAABMQEAAAAKMjAxMzkwNzQ3MAMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMKOlE66z49sIhrDJHLXj2whHQ0lRLlRTRTo4MDU4LklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAgf8HAAIAAAALNDE5NTMuNzQwNTQBCAAAAAUAAAABMQEAAAAKMTg5Mzk5Nzk1NAMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwo6UTrrPj2wiGsMkctePbCDtDSVEuTllTRTpIRC5JUV9DT0dTLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAACXQAQAAgAAAAU1NDc4NwEIAAAABQAAAAExAQAAAAoxODMzMTY5OTQ1AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAIMi8xLzIwMTUJAAAAATCj</t>
+  </si>
+  <si>
+    <t>pROus+PbCIawyRy149sIQ0NJUS5OQVNEQVFHUzpBQVBMLklRX0FQSUMuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAaWEAAAMAAAAAAKOlE66z49sIhrDJHLXj2wg4Q0lRLlRTRTo4MDU4LklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE4Li4uVVNELi5BU1NFVFMBAAAAgf8HAAIAAAANMTQxMjg3LjUwODg0NgEIAAAABQAAAAExAQAAAAoxODkzOTk3OTU0AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATCjpROus+PbCIawyRy149sIPENJUS5UU0U6NzI3MC5JUV9DT0dTLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAABSVw0AAgAAAAwyMjk5OS45MTYzNDgBCAAAAAUAAAABMQEAAAAKMTg5NDU2Nzc1MgMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMKOlE66z49sIhrDJHLXj2wg+Q0lRLk5ZU0U6SE1DLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBBU1NFVFMBAAAAlUEEAAIAAAAMMTgyMTg2Ljk0ODk4AQgAAAAFAAAAATEBAAAACjIwNDE4Nzg0OTgDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMKOlE66z49sIhrDJHLXj2whCQ0lRLk5ZU0U6SE1DLklRX1RP</t>
+  </si>
+  <si>
+    <t>VEFMX0NBLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAJVBBAACAAAADDUyNDcyLjIwNzA1MgEIAAAABQAAAAExAQAAAAoxODQ3NzcyNTA2AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATCjpROus+PbCIawyRy149sIQENJUS5LT1NFOkEwMDAyNzAuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAttwlAAIAAAAMNDIwODMuMjI2NjE4AQgAAAAFAAAAATEBAAAACjE4MzE2NDQxMTQDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2wiGsMkctePbCD9DSVEuVFNFOjgwNTguSVFfQ09NTU9OLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAgf8HAAIAAAALMTg0NS4wMjI5NTYBCAAAAAUAAAABMQEAAAAKMjA0MTk0MzM4MAMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwo6UTrrPj2wiGsMkctePbCDpDSVEuVFNFOjcyMDMuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBERUJUAQAAALzgBAACAAAADTE4MzgxMi4zMzk4MjQBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyOAMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAA</t>
+  </si>
+  <si>
+    <t>AAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwo6UTrrPj2wiGsMkctePbCEBDSVEuTkFTREFRR1M6QUFQTC5JUV9BUi4xMDAwLjEvMS8yMDE5Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAGlhAAACAAAABTIzMTg2AQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKOlE66z49sIhrDJHLXj2whCQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAALbcJQACAAAADDQ4OTUyLjkyODAwMQEIAAAABQAAAAExAQAAAAoxOTQ4MjI2NDIwAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwo6UTrrPj2wiGsMkctePbCDlDSVEuTllTRTpHTS5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIERFQlQBAAAAVO6lAwIAAAAFNzUxMjMBCAAAAAUAAAABMQEAAAAKMTk0MzkyMjc4NAMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMKOlE66z49sIWdfJHLXj2wg/Q0lRLktPU0U6QTAwMDI3MC5JUV9BUi4xMDAwLjEvMS8yMDIwLi4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAALbcJQACAAAACzE4NjYuMzYwMTc5</t>
+  </si>
+  <si>
+    <t>AQgAAAAFAAAAATEBAAAACjIwODM2ODUyMjkDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATCjpROus+PbCFnXyRy149sIQUNJUS5OQVNEQVFHUzpUU0xBLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAABDGogECAAAACDExOTYuOTA4AQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCjpROus+PbCIawyRy149sIP0NJUS5OWVNFOkYuSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAABfnwEAAgAAAAYxOTYxNzQBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMjc2BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sIWdfJHLXj2whAQ0lRLktPU0U6QTAwMDI3MC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNBU0ggJiBFUVVJVgEAAAC23CUAAgAAAAsxNDYxLjk0NjA2NQEIAAAABQAAAAExAQAAAAoxOTQ4MjI2NDIwAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwo6UTrrPj2wiGsMkctePbCD1DSVEuTllTRTpHTS5JUV9BUElDLjEwMDAu</t>
+  </si>
+  <si>
+    <t>MS8xLzIwMTguLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAFTupQMCAAAABTI1MzcxAQgAAAAFAAAAATEBAAAACjIwMDgwNzAxMzcDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATCjpROus+PbCFnXyRy149sIRENJUS5OQVNEQVFHUzpUU0xBLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAABDGogECAAAABTAuMTYxAQgAAAAFAAAAATEBAAAACjE5NDU4NzM1NTEDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCjpROus+PbCFnXyRy149sIQENJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAATFkNAAIAAAAMNzgxNDYuMzQ5OTM1AQgAAAAFAAAAATEBAAAACjE4MzAzODE2NzkDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2whZ18kctePbCD1DSVEuTkFTREFRR1M6QUFQTC5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5WRU5UT1JZAQAAAGlhAAACAAAABDM5NTYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4</t>
+  </si>
+  <si>
+    <t>CQAAAAEwo6UTrrPj2whZ18kctePbCDtDSVEuTllTRTpHTS5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABU7qUDAgAAAAQ5Nzc0AQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCjpROus+PbCFnXyRy149sIOkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAX58BAAIAAAAEODkzNAEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwo6UTrrPj2whZ18kctePbCERDSVEuTllTRTpITUMuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DQVNIIEFORCBFUVVJVkFMRU5UUwEAAACVQQQAAgAAAAwyMjUwOC4wODUyMjMBCAAAAAUAAAABMQEAAAALLTIxNDUzMTE1NDUDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMKOlE66z49sIWdfJHLXj2wg5Q0lRLlRTRTo4MDU4LklRX1JFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAIH/BwACAAAADDM3NTExLjU2OTAyOQEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMx</t>
+  </si>
+  <si>
+    <t>NjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATCjpROus+PbCFnXyRy149sIOkNJUS5OWVNFOkdNLklRX0FSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAVO6lAwIAAAAEODMzNwEIAAAABQAAAAExAQAAAAoxODczMzAyMzc3AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2whZ18kctePbCDhDSVEuTllTRTpITUMuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVkVOVE9SWQEAAACVQQQAAgAAAAwxMTY4OC4yNTE1MjEBCAAAAAUAAAABMQEAAAAKMTg5Mzg0Nzc3MgMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwo6UTrrPj2whZ18kctePbCEVDSVEuS09TRTpBMDAwMjcwLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAttwlAAIAAAAMMjAxOTIuNzQ2NDg1AQgAAAAFAAAAATEBAAAACjE4NzU4NzUxNzUDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCjpROus+PbCFnXyRy149sIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NPR1MuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xE</t>
+  </si>
+  <si>
+    <t>AQAAAGlhAAACAAAABjE2Mzc1NgEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJOS8yOS8yMDE4CQAAAAEwo6UTrrPj2whZ18kctePbCFFDSVEuS09TRTpBMDAwMjcwLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAttwlAAIAAAALNzY0NS45MzcyMzIBCAAAAAUAAAABMQEAAAAKMjAyMTUzMDYyMwMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMKOlE66z49sIqP7JHLXj2whCQ0lRLk5ZU0U6SE1DLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAJVBBAADAAAAAACjpROus+PbCFnXyRy149sIQENJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAATFkNAAIAAAAMNzc3ODguNzE4OTQ0AQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMKOlE66z49sIWdfJHLXj2wg5Q0lRLlRTRTo4MDU4LklRX1JFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAIH/BwACAAAADDM5MzE4</t>
+  </si>
+  <si>
+    <t>LjkzMjEwNQEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATCjpROus+PbCKj+yRy149sIOENJUS5UU0U6NzIwMy5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5WRU5UT1JZAQAAALzgBAACAAAADDE3ODE0Ljk2ODI2NQEIAAAABQAAAAExAQAAAAoxODQ3ODI1MTIwAwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATCjpROus+PbCKj+yRy149sIPkNJUS5OWVNFOkdNLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAFTupQMCAAAAAjE1AQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCjpROus+PbCKj+yRy149sIR0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAGlhAAACAAAABjEyODY0NQEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAk5LzMwLzIwMTcJAAAAATCjpROus+PbCKj+yRy149sIPUNJUS5OWVNFOkYuSVFfQ09NTU9OLjEwMDAuMS8x</t>
+  </si>
+  <si>
+    <t>LzIwMTkuLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAX58BAAIAAAACNDEBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMKOlE66z49sIqP7JHLXj2whFQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAALbcJQACAAAADDE4NTA1LjI3MDkzMQEIAAAABQAAAAExAQAAAAoxODMxNjQ0MTE0AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2wio/skctePbCExDSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9DTC4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBDVVJSRU5UIExJQUJJTElUSUVTAQAAABDGogECAAAACDU4MzUuNzg5AQgAAAAFAAAAATEBAAAACjE5NDU4NzM1NTEDAAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCjpROus+PbCKj+yRy149sITENJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAGMTE1OTI5AQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTAwOQQAAAAB</t>
+  </si>
+  <si>
+    <t>MAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMKOlE66z49sIqP7JHLXj2whBQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAaWEAAAIAAAAFMjAyODkBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwo6UTrrPj2wio/skctePbCDdDSVEuTkFTREFRR1M6VFNMQS5JUV9OSS4xMDAwLjEvMS8yMDE2Li4uVVNELi5ORVQgSU5DT01FAQAAABDGogECAAAACC04ODguNjYzAQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwo6UTrrPj2wio/skctePbCD9DSVEuVFNFOjgwNTguSVFfQ09NTU9OLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAgf8HAAIAAAALMTcwMy44NjcwMjMBCAAAAAUAAAABMQEAAAAKMTc5NzQ3NDA0NQMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwo6UTrrPj2wio/skctePbCDBDSVEuTllTRTpGLklRX05JLjEwMDAuMS8xLzIwMTYuLi5VU0QuLk5FVCBJTkNPTUUBAAAAX58BAAIAAAAENzM3MwEIAAAABQAAAAExAQAAAAoxODczNDQ5</t>
+  </si>
+  <si>
+    <t>NzgwAwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMKOlE66z49sIqP7JHLXj2whCQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAALbcJQACAAAACzQ2NTE4LjQwNTQ2AQgAAAAFAAAAATEBAAAACjIwMjE1MzA2MjMDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATCjpROus+PbCOUlyhy149sIQ0NJUS5OQVNEQVFHUzpUU0xBLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBBU1NFVFMBAAAAEMaiAQIAAAAJMjI2NjQuMDc2AQgAAAAFAAAAATEBAAAACjE5NDU4NzM1NTEDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATCjpROus+PbCKj+yRy149sIOENJUS5OWVNFOkdNLklRX1JFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAFTupQMCAAAABTIwMjg1AQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATCjpROus+PbCKj+yRy149sIT0NJUS5OWVNFOkdNLklRX1RPVEFMX09VVFNUQU5ESU5HX0ZJTElOR19EQVRFLjEwMDAuMS8x</t>
+  </si>
+  <si>
+    <t>LzIwMTkuLi5VU0QuLlRPVEFMIE9VVCBTSFIBAAAAVO6lAwIAAAALMTQwOS40Nzg5MjYBBAAAAAUAAAABNQEAAAAKMjA3OTUyNTAwMwIAAAAFMjQxNTMGAAAAATCjpROus+PbCKj+yRy149sIOENJUS5UU0U6NzI2OS5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5WRU5UT1JZAQAAAA8uCgACAAAACjMzMjIuOTYwNDcBCAAAAAUAAAABMQEAAAAKMTg5NTAwMjQxOAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwo6UTrrPj2wio/skctePbCEJDSVEuS09TRTpBMDAwMjcwLklRX0FQSUMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAttwlAAIAAAALMTU0MS4yMjE5NDIBCAAAAAUAAAABMQEAAAAKMjAyMTUzMDYyMwMAAAADMTYwAgAAAAQxMDg0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMKOlE66z49sI5SXKHLXj2wg9Q0lRLk5ZU0U6SEQuSVFfQVBJQy4xMDAwLjEvMS8yMDE2Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAACXQAQAAgAAAAQ4ODg1AQgAAAAFAAAAATEBAAAACjE4MzMxNjk5NDUDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACDIvMS8yMDE1CQAAAAEwo6UTrrPj2wjlJcoctePbCEFDSVEuTllTRTpIRC5JUV9QUkVGX0RJVl9PVEhF</t>
+  </si>
+  <si>
+    <t>Ui4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUkVGIERJVklERU5EUwEAAACXQAQAAwAAAAAAo6UTrrPj2wjlJcoctePbCDtDSVEuTllTRTpIRC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAACXQAQAAgAAAAQzNTk1AQgAAAAFAAAAATEBAAAACjIwMjM3NTc0NTYDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTEvMjgvMjAxOAkAAAABMKOlE66z49sI5SXKHLXj2wg8Q0lRLlRTRTo3MjAzLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAALzgBAACAAAADDIwNjMxLjQ2OTM0NwEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATCjpROus+PbCOUlyhy149sINkNJUS5OWVNFOkYuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMjEuLi5VU0QuLklOVkVOVE9SWQEAAABfnwEAAgAAAAUxMDgwOAEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMBKWrK6z49sIKYh3NgPk2wg0Q0lRLk5ZU0U6Ri5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTkRVU1RSWQEAAABfnwEAAwAAAAtBdXRvbW9iaWxlcwAUv2uu</t>
+  </si>
+  <si>
+    <t>s+PbCJDKxhy149sIOkNJUS5LT1NFOkEwMDAyNzAuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5EVVNUUlkBAAAAttwlAAMAAAALQXV0b21vYmlsZXMAFL9rrrPj2wiQysYctePbCDZDSVEuVFNFOjcyMDMuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5EVVNUUlkBAAAAvOAEAAMAAAALQXV0b21vYmlsZXMAFL9rrrPj2wgwGMcctePbCDRDSVEuTllTRTpGLklRX0lORFVTVFJZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklORFVTVFJZAQAAAF+fAQADAAAAC0F1dG9tb2JpbGVzABS/a66z49sIVT/HHLXj2wg1Q0lRLk5ZU0U6R00uSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5EVVNUUlkBAAAAVO6lAwMAAAALQXV0b21vYmlsZXMAFL9rrrPj2whVP8cctePbCDVDSVEuTllTRTpHTS5JUV9JTkRVU1RSWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkRVU1RSWQEAAABU7qUDAwAAAAtBdXRvbW9iaWxlcwAUv2uus+PbCLZmxxy149sINENJUS5OWVNFOkYuSVFfSU5EVVNUUlkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5EVVNUUlkBAAAAX58BAAMAAAALQXV0b21vYmlsZXMAFL9rrrPj2wigjccctePbCDhDSVEuVFNFOjgwNTguSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVkVOVE9SWQEAAACB/wcAAgAAAAs5MjAwLjM1NTU4NQEIAAAABQAAAAExAQAA</t>
+  </si>
+  <si>
+    <t>AAoxODUxMTEwMTM0AwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATAUv2uus+PbCCNVxhy149sIRENJUS5UU0U6ODA1OC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNBU0ggQU5EIEVRVUlWQUxFTlRTAQAAAIH/BwACAAAADDEwNDczLjYyMTE5MwEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATAUv2uus+PbCCNVxhy149sIN0NJUS5OQVNEQVFHUzpBQVBMLklRX05JLjEwMDAuMS8xLzIwMTYuLi5VU0QuLk5FVCBJTkNPTUUBAAAAaWEAAAIAAAAFNTMzOTQBCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTkvMjYvMjAxNQkAAAABMBS/a66z49sII1XGHLXj2wg7Q0lRLk5ZU0U6SEQuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAl0AEAAIAAAAFODg1MTkBCAAAAAUAAAABMQEAAAAKMTg3OTU1NTU3MwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTEvMzEvMjAxNgkAAAABMBS/a66z49sII1XGHLXj2whHQ0lRLk5BU0RBUUdTOlRTTEEuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFJF</t>
+  </si>
+  <si>
+    <t>RiBESVZJREVORFMBAAAAEMaiAQMAAAAAABS/a66z49sII1XGHLXj2whAQ0lRLk5ZU0U6SEQuSVFfVE9UQUxfTElBQi4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBMSUFCSUxJVElFUwEAAACXQAQAAgAAAAUzMDYyNAEIAAAABQAAAAExAQAAAAoxODMzMTY5OTQ1AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAgyLzEvMjAxNQkAAAABMBS/a66z49sII1XGHLXj2whGQ0lRLktPU0U6QTAwNTM4MC5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUkVGIERJVklERU5EUwEAAABMWQ0AAgAAAAo2NDkuMjg5NjQyAQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAAAjk3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMBS/a66z49sII1XGHLXj2whBQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAEMaiAQIAAAAINzAwMC4xMzIBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATAUv2uus+PbCCNVxhy149sIQUNJUS5OWVNFOkdNLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAFTupQMDAAAAAAAUv2uu</t>
+  </si>
+  <si>
+    <t>s+PbCCNVxhy149sIS0NJUS5OWVNFOkYuSVFfQ0FTSF9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UIENBU0ggJiBTVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUyNzQ3MAEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwFL9rrrPj2wgjVcYctePbCEtDSVEuS09TRTpBMDA1MzgwLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAATFkNAAIAAAAMNDQ0MDkuMDkzNTgyAQgAAAAFAAAAATEBAAAACjIwMTk2NzQ5OTEDAAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAUv2uus+PbCCNVxhy149sIRkNJUS5OWVNFOkhELklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAl0AEAAIAAAAFMTYxOTQBCAAAAAUAAAABMQEAAAAKMjAyMzc1NzQ1NgMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMS8yOC8yMDE4CQAAAAEwFL9rrrPj2wgjVcYctePbCENDSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAABDGogECAAAACDgwNjcuOTM5</t>
+  </si>
+  <si>
+    <t>AQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATAUv2uus+PbCCNVxhy149sIOkNJUS5UU0U6NzIwMy5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIERFQlQBAAAAvOAEAAIAAAANMTczODIzLjAwNzA5MgEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATAUv2uus+PbCCNVxhy149sIQUNJUS5OQVNEQVFHUzpBQVBMLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ0FTSCAmIEVRVUlWAQAAAGlhAAACAAAABTI1OTEzAQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMBS/a66z49sII1XGHLXj2whDQ0lRLktPU0U6QTAwNTM4MC5JUV9DT01NT04uMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEAAABMWQ0AAgAAAAsxMDY2LjE1NDMwNAEIAAAABQAAAAExAQAAAAstMjA1Njk0NTMyOQMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMBS/a66z49sII1XGHLXj2wg8Q0lRLktPU0U6QTAwNTM4MC5JUV9JTlZF</t>
+  </si>
+  <si>
+    <t>TlRPUlkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5WRU5UT1JZAQAAAExZDQACAAAACzk2MjMuMDM4Njk0AQgAAAAFAAAAATEBAAAACjE5NDg3MTA1ODYDAAAAAzE2MAIAAAAEMTA0MwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATAUv2uus+PbCCNVxhy149sIQUNJUS5OQVNEQVFHUzpUU0xBLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAABDGogECAAAABTIxNDYxAQgAAAAFAAAAATEBAAAACjIwNzkxMjg2MjUDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwFL9rrrPj2wgufMYctePbCD1DSVEuTllTRTpHTS5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAAFTupQMCAAAABjIyMTY5MAEIAAAABQAAAAExAQAAAAoxOTQzOTIyNzg0AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwFL9rrrPj2wgufMYctePbCDlDSVEuTllTRTpGLklRX0FSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAX58BAAIAAAAFMTEwNDIBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMBS/</t>
+  </si>
+  <si>
+    <t>a66z49sII1XGHLXj2wg/Q0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBERUJUAQAAABDGogECAAAABTE0NTc2AQgAAAAFAAAAATEBAAAACy0yMTEzNTc4OTE4AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwRjltrrPj2wgufMYctePbCDBDSVEuTllTRTpGLklRX05JLjEwMDAuMS8xLzIwMjAuLi5VU0QuLk5FVCBJTkNPTUUBAAAAX58BAAIAAAACNDcBCAAAAAUAAAABMQEAAAALLTIxMTM2OTI0NjEDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wgufMYctePbCDtDSVEuVFNFOjgwNTguSVFfQVIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAACB/wcAAgAAAAwzMTcwNS41ODAzMzUBCAAAAAUAAAABMQEAAAAKMTk2OTA5MzE4NAMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwuDltrrPj2wgufMYctePbCFBDSVEuVFNFOjcyMDMuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAAC84AQAAgAAAAsxNTE4OC4zNzkzNQEEAAAABQAAAAE1AQAAAAoxODk0MTUwMTM2AgAAAAUyNDE1</t>
+  </si>
+  <si>
+    <t>MwYAAAABMLg5ba6z49sILnzGHLXj2whVQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABpYQAAAgAAAAkyMjMwMS4zMjQBBAAAAAUAAAABNQEAAAAKMTg2Mzk5NjY4NAIAAAAFMjQxNTMGAAAAATC4OW2us+PbCC58xhy149sIN0NJUS5OWVNFOkYuSVFfUkUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAX58BAAIAAAAFMjE5MDYBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sILnzGHLXj2whUQ0lRLktPU0U6QTAwNTM4MC5JUV9UT1RBTF9PVVRTVEFORElOR19GSUxJTkdfREFURS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBPVVQgU0hSAQAAAExZDQACAAAACjIyOS45NjE4ODgBBAAAAAUAAAABNQEAAAALLTIwNTY5NDUzMjkCAAAABTI0MTUzBgAAAAEwuDltrrPj2wgufMYctePbCDtDSVEuTllTRTpHTS5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABU7qUDAgAAAAYxNDU1ODgBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIw</t>
+  </si>
+  <si>
+    <t>MTcJAAAAATC4OW2us+PbCC58xhy149sIQENJUS5OWVNFOkYuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAX58BAAIAAAAGMTA4NDYxAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCC58xhy149sIRENJUS5OQVNEQVFHUzpUU0xBLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAABDGogECAAAABTAuMTMxAQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATC4OW2us+PbCC58xhy149sIQENJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAATFkNAAIAAAAMOTAyMTcuODQwMzA0AQgAAAAFAAAAATEBAAAACjE5NDg3MTA1ODYDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwuDltrrPj2wgufMYctePbCD5DSVEuTkFTREFRR1M6VFNMQS5JUV9SRS4xMDAwLjEvMS8yMDIwLi4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAAAQxqIBAgAAAAUtNjA4MwEIAAAABQAAAAExAQAAAAstMjEx</t>
+  </si>
+  <si>
+    <t>MzU3ODkxOAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sILnzGHLXj2wg+Q0lRLk5ZU0U6R00uSVFfQ09NTU9OLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAVO6lAwIAAAACMTQBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sILnzGHLXj2whAQ0lRLk5ZU0U6Ri5JUV9QUkVGX0RJVl9PVEhFUi4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUkVGIERJVklERU5EUwEAAABfnwEAAwAAAAAAuDltrrPj2wh6o8YctePbCD5DSVEuVFNFOjgwNTguSVFfQVBJQy4xMDAwLjEvMS8yMDE5Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAACB/wcAAgAAAAsyMTYwLjE5MDMwMQEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCC58xhy149sIO0NJUS5UU0U6NzIwMy5JUV9BUi4xMDAwLjEvMS8yMDE4Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAALzgBAACAAAADDE4OTc3LjAyMjcwNgEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8y</t>
+  </si>
+  <si>
+    <t>MDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCHqjxhy149sIOUNJUS5OWVNFOkYuSVFfQVIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQUNDT1VOVFMgUkVDRUlWQUJMRQEAAABfnwEAAgAAAAUxMTE5NQEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQwAwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wh6o8YctePbCEZDSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAABDGogECAAAABTI2MTk5AQgAAAAFAAAAATEBAAAACy0yMTEzNTc4OTE4AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wh6o8YctePbCDxDSVEuTllTRTpGLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBBU1NFVFMBAAAAX58BAAIAAAAGMjU4NDk2AQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCHqjxhy149sIPkNJUS5UU0U6NzIwMy5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAALzgBAACAAAADTQzNzIyMS40MDU2NjEBCAAAAAUAAAAB</t>
+  </si>
+  <si>
+    <t>MQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwuDltrrPj2wh6o8YctePbCDxDSVEuTllTRTpGLklRX0FQSUMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAX58BAAIAAAAFMjIwMDYBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDg0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sIeqPGHLXj2wg3Q0lRLk5BU0RBUUdTOkFBUEwuSVFfTkkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTkVUIElOQ09NRQEAAABpYQAAAgAAAAU0NTY4NwEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAAAjE1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEwuDltrrPj2wh6o8YctePbCD9DSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIERFQlQBAAAAEMaiAQIAAAAIODU4OC4xMTUBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sIeqPGHLXj2whBQ0lRLlRTRTo4MDU4LklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgTElBQklM</t>
+  </si>
+  <si>
+    <t>SVRJRVMBAAAAgf8HAAIAAAAMODkzMDQuOTMzNjQxAQgAAAAFAAAAATEBAAAACjIwNDE5NDMzODADAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMLg5ba6z49sIeqPGHLXj2whBQ0lRLk5ZU0U6SEQuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAl0AEAAMAAAAAALg5ba6z49sIeqPGHLXj2wg2Q0lRLk5ZU0U6Ri5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5WRU5UT1JZAQAAAF+fAQACAAAABDgzMTkBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIeqPGHLXj2whHQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfQ0EuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgQ1VSUkVOVCBBU1NFVFMBAAAAEMaiAQIAAAAFMTIxMDMBCAAAAAUAAAABMQEAAAALLTIxMTM1Nzg5MTgDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATC4OW2us+PbCHqjxhy149sIOkNJUS5OWVNFOkYuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE2Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAX58BAAIAAAAENTM4NgEIAAAABQAAAAExAQAAAAoxODcz</t>
+  </si>
+  <si>
+    <t>NDQ5NzgwAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wh6o8YctePbCFJDSVEuTkFTREFRR1M6QUFQTC5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAAAGlhAAACAAAABTY3MTU1AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMLg5ba6z49sIeqPGHLXj2wg7Q0lRLk5ZU0U6R00uSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAVO6lAwIAAAAGMTM1NzI1AQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wh6o8YctePbCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABpYQAAAgAAAAYyMTU2MzkBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMLg5ba6z49sIeqPGHLXj2wg/Q0lRLlRTRTo3MjAzLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE5Li4uVVNELi5D</t>
+  </si>
+  <si>
+    <t>T01NT04gU1RPQ0sgRVFVSVRZAQAAALzgBAACAAAACzM3MzguNTI0NzI5AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjcDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMLg5ba6z49sIeqPGHLXj2whBQ0lRLlRTRTo4MDU4LklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAgf8HAAIAAAAMOTIwMDguNjQ4MDE5AQgAAAAFAAAAATEBAAAACjE5NjkwOTMxODQDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMLg5ba6z49sIeqPGHLXj2whHQ0lRLk5BU0RBUUdTOkFBUEwuSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAaWEAAAMAAAAAALg5ba6z49sIkMrGHLXj2wg+Q0lRLk5BU0RBUUdTOkFBUEwuSVFfUkUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAaWEAAAIAAAAFOTgzMzABCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwuDltrrPj2wiQysYctePbCERDSVEuTkFTREFRR1M6VFNMQS5JUV9DT01NT04uMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ09NTU9OIFNUT0NLIEVRVUlUWQEA</t>
+  </si>
+  <si>
+    <t>AAAQxqIBAwAAAAAAuDltrrPj2wh6o8YctePbCD5DSVEuVFNFOjgwNTguSVFfQVBJQy4xMDAwLjEvMS8yMDIwLi4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAACB/wcAAgAAAAsyMDYwLjY0NDI4MwEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATC4OW2us+PbCJDKxhy149sIOENJUS5UU0U6NzIwMy5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQVNTRVRTAQAAALzgBAACAAAADTM5Nzc4MS43Mzk2NTUBCAAAAAUAAAABMQEAAAAKMTg0NzgyNTEyMAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwuDltrrPj2wiQysYctePbCDpDSVEuVFNFOjgwNTguSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBERUJUAQAAAIH/BwACAAAADDU0MjAyLjM4Mjc1NAEIAAAABQAAAAExAQAAAAoxODUxMTEwMTM0AwAAAAMxNjACAAAABDQxNzMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATC4OW2us+PbCJDKxhy149sIMUNJUS5OWVNFOkdNLklRX05JLjEwMDAuMS8xLzIwMTguLi5VU0QuLk5FVCBJTkNPTUUBAAAAVO6lAwIAAAAFLTM4NjQBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAA</t>
+  </si>
+  <si>
+    <t>AAIxNQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATC4OW2us+PbCJDKxhy149sISUNJUS5OQVNEQVFHUzpUU0xBLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAEMaiAQIAAAAIMzM5My4yMTYBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sIkMrGHLXj2wg9Q0lRLktPU0U6QTAwNTM4MC5JUV9SRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAABMWQ0AAgAAAAw2MzAyOS45MjY5MDUBCAAAAAUAAAABMQEAAAAKMTk0ODcxMDU4NgMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sIkMrGHLXj2whGQ0lRLktPU0U6QTAwNTM4MC5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAABMWQ0AAgAAAAo1NzM4Ni4xODc2AQgAAAAFAAAAATEBAAAACjE4MzAzODE2NzkDAAAAAzE2MAIAAAAEMTAwOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATC4OW2us+PbCJDKxhy149sIQUNJUS5OQVNEQVFHUzpUU0xBLklRX0NPR1MuMTAwMC4xLzEvMjAxOS4uLlVTRC4u</t>
+  </si>
+  <si>
+    <t>Q09TVCBPRiBHT09EUyBTT0xEAQAAABDGogECAAAABTE3NDE5AQgAAAAFAAAAATEBAAAACjIwNzkxMjg2MjUDAAAAAzE2MAIAAAACMzQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wiQysYctePbCEZDSVEuS09TRTpBMDA1MzgwLklRX1BSRUZfRElWX09USEVSLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgRElWSURFTkRTAQAAAExZDQACAAAACjc4Ny45NDM3NTMBCAAAAAUAAAABMQEAAAAKMTgzMDM4MTY3OQMAAAADMTYwAgAAAAI5NwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATC4OW2us+PbCJDKxhy149sIMkNJUS5YVFJBOkRBSS5JUV9OSS4xMDAwLjEvMS8yMDE3Li4uVVNELi5ORVQgSU5DT01FBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpuDltrrPj2wiQysYctePbCEhDSVEuS09TRTpBMDA1MzgwLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAATFkNAAIAAAALNjU1My44MzE0MTcBCAAAAAUAAAABMQEAAAALLTIwNTY5NDUzMjkDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCJDKxhy149sIPkNJUS5OWVNFOkhELklRX0NPTU1PTi4xMDAwLjEvMS8yMDE5Li4uVVNELi5DT01NT04gU1RPQ0sgRVFV</t>
+  </si>
+  <si>
+    <t>SVRZAQAAAJdABAACAAAAAjg5AQgAAAAFAAAAATEBAAAACjIwMjM3NTc0NTYDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTEvMjgvMjAxOAkAAAABMLg5ba6z49sIwfHGHLXj2wg/Q0lRLktPU0U6QTAwMDI3MC5JUV9BUi4xMDAwLjEvMS8yMDE2Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAALbcJQACAAAACjIwMzAuMDkxNzkBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDIxBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIwfHGHLXj2whVQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAAAQxqIBAgAAAAoyNDI1LjA1NjQyAQQAAAAFAAAAATUBAAAACjE5NDU4NzM1NTECAAAABTI0MTUzBgAAAAEwuDltrrPj2wiQysYctePbCDtDSVEuTllTRTpHTS5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABU7qUDAgAAAAUxNTk0NAEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wjB8cYctePbCDFDSVEuTllTRTpIRC5JUV9OSS4xMDAwLjEvMS8yMDE2Li4u</t>
+  </si>
+  <si>
+    <t>VVNELi5ORVQgSU5DT01FAQAAAJdABAACAAAABDYzNDUBCAAAAAUAAAABMQEAAAAKMTgzMzE2OTk0NQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACDIvMS8yMDE1CQAAAAEwuDltrrPj2wiQysYctePbCEJDSVEuS09TRTpBMDA1MzgwLklRX0FQSUMuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAATFkNAAIAAAALMzQ5MC44NDkzNzUBCAAAAAUAAAABMQEAAAALLTIwNTY5NDUzMjkDAAAAAzE2MAIAAAAEMTA4NAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCJDKxhy149sIQENJUS5OWVNFOkdNLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAVO6lAwIAAAAGMTc3NjE1AQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTI3NgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCMHxxhy149sIMENJUS5OWVNFOkYuSVFfTkkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uTkVUIElOQ09NRQEAAABfnwEAAgAAAAQ3NzMxAQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwuDltrrPj2wjB8cYctePbCEZDSVEuS09TRTpBMDA1Mzgw</t>
+  </si>
+  <si>
+    <t>LklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAAExZDQACAAAACjE3Ny45NjY4MjUBCAAAAAUAAAABMQEAAAAKMjA4Mzc5NzM1NQMAAAADMTYwAgAAAAQxMDA1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sIwfHGHLXj2wg9Q0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFTU0VUUwEAAAAQxqIBAgAAAAkyMjY2NC4wNzYBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sIwfHGHLXj2whBQ0lRLlRTRTo3MjAzLklRX1RPVEFMX0xJQUIuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgTElBQklMSVRJRVMBAAAAvOAEAAIAAAANMjc0MTQ0LjQ4ODQxNwEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATC4OW2us+PbCMHxxhy149sIOkNJUS5OWVNFOkdNLklRX0FSLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAVO6lAwIAAAAENjU0OQEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEv</t>
+  </si>
+  <si>
+    <t>MS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wjB8cYctePbCD9DSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIERFQlQBAAAAaWEAAAIAAAAGMTE0NDgzAQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMLg5ba6z49sIwfHGHLXj2whAQ0lRLktPU0U6QTAwNTM4MC5JUV9DQVNIX0VRVUlWLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkNBU0ggJiBFUVVJVgEAAABMWQ0AAgAAAAs4MTg2LjUwNTA0MgEIAAAABQAAAAExAQAAAAoyMDE5Njc0OTkxAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wjB8cYctePbCEtDSVEuTllTRTpGLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAX58BAAIAAAAFMjM1NjcBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIwfHGHLXj2whCQ0lRLlRTRTo3MjAzLklRX1BSRUZfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBSRUYgU1RPQ0sgRVFVSVRZAQAAALzgBAAD</t>
+  </si>
+  <si>
+    <t>AAAAAAC4OW2us+PbCMHxxhy149sITENJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAaWEAAAIAAAAFODA2MTABCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDA5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEwuDltrrPj2wjB8cYctePbCDZDSVEuS09TRTpBMDA1MzgwLklRX05JLjEwMDAuMS8xLzIwMTkuLi5VU0QuLk5FVCBJTkNPTUUBAAAATFkNAAIAAAALMTM1NC42NjgxMjMBCAAAAAUAAAABMQEAAAAKMjAxOTY3NDk5MQMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATC4OW2us+PbCMHxxhy149sIPUNJUS5OQVNEQVFHUzpBQVBMLklRX0lOVkVOVE9SWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTlZFTlRPUlkBAAAAaWEAAAIAAAAEMjEzMgEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATC4OW2us+PbCDAYxxy149sIMkNJUS5UU0U6ODA1OC5JUV9OSS4xMDAwLjEvMS8yMDE5Li4uVVNELi5ORVQgSU5DT01FAQAAAIH/BwACAAAACzUyNzQuNDUwNjA1AQgAAAAFAAAAATEBAAAACjE5NjkwOTMxODQDAAAAAzE2MAIAAAAC</t>
+  </si>
+  <si>
+    <t>MTUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCMHxxhy149sIPkNJUS5OQVNEQVFHUzpBQVBMLklRX1JFLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlJFVEFJTkVEIEVBUk5JTkdTAQAAAGlhAAACAAAABTk2MzY0AQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMLg5ba6z49sIwfHGHLXj2wg2Q0lRLktPU0U6QTAwNTM4MC5JUV9OSS4xMDAwLjEvMS8yMDIwLi4uVVNELi5ORVQgSU5DT01FAQAAAExZDQACAAAACzI1ODEuMjY3NzgzAQgAAAAFAAAAATEBAAAACjIwODM3OTczNTUDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wjB8cYctePbCEBDSVEuTllTRTpHTS5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAFTupQMCAAAABjE4NDU2MgEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wjB8cYctePbCD5DSVEuTkFTREFRR1M6VFNMQS5JUV9SRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAAAQxqIBAgAAAAktNDk3NC4yOTkB</t>
+  </si>
+  <si>
+    <t>CAAAAAUAAAABMQEAAAAKMjAxMzkwNzQ3MAMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sIMBjHHLXj2whVQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABpYQAAAgAAAAgxNzc3My4wNgEEAAAABQAAAAE1AQAAAAstMjEyNDY1OTc0MwIAAAAFMjQxNTMGAAAAATC4OW2us+PbCDAYxxy149sIPENJUS5LT1NFOkEwMDUzODAuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVkVOVE9SWQEAAABMWQ0AAgAAAAs3ODE3LjI5MDk1MgEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDEwNDMEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wgwGMcctePbCEZDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAAGlhAAACAAAABjE3MDk5MAEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATC4OW2us+PbCDAYxxy149sITENJUS5OQVNEQVFHUzpUU0xBLklRX1RPVEFMX0NMLjEwMDAuMS8xLzIwMTgu</t>
+  </si>
+  <si>
+    <t>Li5VU0QuLlRPVEFMIENVUlJFTlQgTElBQklMSVRJRVMBAAAAEMaiAQIAAAAHNzY3NC43NAEIAAAABQAAAAExAQAAAAoyMDEzOTA3NDcwAwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwuDltrrPj2wgwGMcctePbCEBDSVEuTkFTREFRR1M6VFNMQS5JUV9BUi4xMDAwLjEvMS8yMDE5Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAABDGogECAAAAAzk0OQEIAAAABQAAAAExAQAAAAoyMDc5MTI4NjI1AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wgwGMcctePbCEFDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABpYQAAAgAAAAYyNjAxNzQBCAAAAAUAAAABMQEAAAALLTIxMjQ2NTk3NDMDAAAAAzE2MAIAAAACMjgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATC4OW2us+PbCDAYxxy149sIQUNJUS5UU0U6NzIwMy5JUV9UT1RBTF9MSUFCLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIExJQUJJTElUSUVTAQAAALzgBAACAAAADDI5MDc0MS4wMDUyNQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEyNzYEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJ</t>
+  </si>
+  <si>
+    <t>AAAAATC4OW2us+PbCDAYxxy149sIPkNJUS5UU0U6ODA1OC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAAIH/BwACAAAADTE1MTAwMC4zMjcyODgBCAAAAAUAAAABMQEAAAAKMTk2OTA5MzE4NAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwuDltrrPj2wgwGMcctePbCEJDSVEuTllTRTpGLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAX58BAAIAAAAENTM4NgEIAAAABQAAAAExAQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwuDltrrPj2wgwGMcctePbCDFDSVEuTllTRTpHTS5JUV9OSS4xMDAwLjEvMS8yMDE2Li4uVVNELi5ORVQgSU5DT01FAQAAAFTupQMCAAAABDk2ODcBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYwAgAAAAIxNQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATC4OW2us+PbCDAYxxy149sIQUNJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBSRVZFTlVFAQAAAGlhAAACAAAABjIyOTIzNAEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAAAAMxNjACAAAAAjI4</t>
+  </si>
+  <si>
+    <t>BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwuDltrrPj2wgwGMcctePbCD5DSVEuTkFTREFRR1M6QUFQTC5JUV9SRS4xMDAwLjEvMS8yMDE5Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAABpYQAAAgAAAAU3MDQwMAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEyMjIEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATC4OW2us+PbCDAYxxy149sINkNJUS5OWVNFOkYuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFTU0VUUwEAAABfnwEAAgAAAAYyMzc5NTEBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sIMBjHHLXj2wg9Q0lRLk5ZU0U6R00uSVFfQVBJQy4xMDAwLjEvMS8yMDE3Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABU7qUDAgAAAAUyNjk4MwEIAAAABQAAAAExAQAAAAoxOTQzOTIyNzg0AwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwuDltrrPj2whVP8cctePbCDtDSVEuTllTRTpHTS5JUV9UT1RBTF9SRVYuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgUkVWRU5VRQEAAABU7qUDAgAAAAYxNDcwNDkBCAAAAAUAAAABMQEAAAAK</t>
+  </si>
+  <si>
+    <t>MjA3OTUyNTAwMwMAAAADMTYwAgAAAAIyOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATC4OW2us+PbCDAYxxy149sIP0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgREVCVAEAAABpYQAAAgAAAAYxMDgwNDcBCAAAAAUAAAABMQEAAAALLTIxMjQ2NTk3NDMDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMLg5ba6z49sIMBjHHLXj2wg+Q0lRLk5BU0RBUUdTOlRTTEEuSVFfUkUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAEMaiAQIAAAAJLTIzMjIuMzIzAQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATC4OW2us+PbCDAYxxy149sIOENJUS5OWVNFOkYuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBERUJUAQAAAF+fAQACAAAABjE1NjcyMQEIAAAABQAAAAExAQAAAAstMjExMzY5MjQ2MQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sIVT/HHLXj2wg6Q0lRLlRTRTo3MjAzLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgREVC</t>
+  </si>
+  <si>
+    <t>VAEAAAC84AQAAgAAAA0xNjExMDcuNjc4ODE3AQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMLg5ba6z49sIMBjHHLXj2whCQ0lRLlRTRTo4MDU4LklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAIH/BwACAAAADDYzODI3LjEzOTIyMgEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCDAYxxy149sIOUNJUS5YVFJBOkRBSS5JUV9SRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKbg5ba6z49sIVT/HHLXj2wg8Q0lRLlhUUkE6REFJLklRX1RPVEFMX1JFVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBSRVZFTlVFBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpuDltrrPj2whVP8cctePbCDxDSVEuS09TRTpBMDA1MzgwLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE5Li4uVVNELi5BU1NFVFMBAAAATFkNAAIAAAANMTYyMjc3LjgyMzAwNQEIAAAABQAAAAExAQAAAAoyMDE5Njc0OTkxAwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5</t>
+  </si>
+  <si>
+    <t>CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2whVP8cctePbCEFDSVEuTllTRTpIRC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAACXQAQAAwAAAAAAuDltrrPj2whVP8cctePbCEhDSVEuS09TRTpBMDAwMjcwLklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAttwlAAIAAAALMTQ2MS45NDYwNjUBCAAAAAUAAAABMQEAAAAKMTk0ODIyNjQyMAMAAAADMTYwAgAAAAQxMDk2BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sIVT/HHLXj2whBQ0lRLk5BU0RBUUdTOlRTTEEuSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDE5Li4uVVNELi5DQVNIICYgRVFVSVYBAAAAEMaiAQIAAAAEMzY4NgEIAAAABQAAAAExAQAAAAoyMDc5MTI4NjI1AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2whVP8cctePbCD1DSVEuTllTRTpHTS5JUV9BUElDLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBEIElOIENBUElUQUwgQ09NTU9OAQAAAFTupQMCAAAABTI2MDc0AQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj</t>
+  </si>
+  <si>
+    <t>2whVP8cctePbCD1DSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVNTRVRTAQAAABDGogECAAAABTI5NzQwAQgAAAAFAAAAATEBAAAACjIwNzkxMjg2MjUDAAAAAzE2MAIAAAAEMTAwNwQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATC4OW2us+PbCFU/xxy149sIOkNJUS5OWVNFOkdNLklRX0FSLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFDQ09VTlRTIFJFQ0VJVkFCTEUBAAAAVO6lAwIAAAAEODE2NAEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAABDEwMjEEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwuDltrrPj2whVP8cctePbCEJDSVEuS09TRTpBMDAwMjcwLklRX0FQSUMuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUEQgSU4gQ0FQSVRBTCBDT01NT04BAAAAttwlAAIAAAALMTQ3NS4zNTMwMDMBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDg0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sIVT/HHLXj2whDQ0lRLk5BU0RBUUdTOlRTTEEuSVFfQVBJQy4xMDAwLjEvMS8yMDE3Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAAAQxqIBAgAAAAg3NzczLjcyNwEIAAAABQAAAAExAQAAAAoxOTQ1ODczNTUxAwAAAAMxNjACAAAA</t>
+  </si>
+  <si>
+    <t>BDEwODQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwuDltrrPj2wi2ZscctePbCDhDSVEuVFNFOjcyMDMuSVFfSU5WRU5UT1JZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVkVOVE9SWQEAAAC84AQAAgAAAAwyMzkxNC4wMjU4OTYBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwuDltrrPj2whVP8cctePbCDtDSVEuTllTRTpHTS5JUV9DT0dTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAABU7qUDAgAAAAYxMTA2NTEBCAAAAAUAAAABMQEAAAALLTIxMTM4ODAyMzMDAAAAAzE2MAIAAAACMzQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2whVP8cctePbCENDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9BU1NFVFMuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgQVNTRVRTAQAAAGlhAAACAAAABjM2NTcyNQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATC4OW2us+PbCFU/xxy149sIQkNJUS5LT1NFOkEwMDUzODAuSVFfQVBJQy4xMDAwLjEvMS8yMDE5Li4uVVNELi5QRCBJTiBDQVBJVEFMIENPTU1PTgEAAABMWQ0AAgAA</t>
+  </si>
+  <si>
+    <t>AAszNzczLjgyODcwMQEIAAAABQAAAAExAQAAAAoyMDE5Njc0OTkxAwAAAAMxNjACAAAABDEwODQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wi2ZscctePbCD5DSVEuS09TRTpBMDA1MzgwLklRX1RPVEFMX0RFQlQuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgREVCVAEAAABMWQ0AAgAAAAw3MTE0OC4zOTAyODcBCAAAAAUAAAABMQEAAAAKMjA4Mzc5NzM1NQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sItmbHHLXj2whDQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfQVNTRVRTLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEFTU0VUUwEAAAAQxqIBAgAAAAUzNDMwOQEIAAAABQAAAAExAQAAAAstMjExMzU3ODkxOAMAAAADMTYwAgAAAAQxMDA3BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMLg5ba6z49sItmbHHLXj2whFQ0lRLk5ZU0U6Ri5JUV9UT1RBTF9DTC4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBDVVJSRU5UIExJQUJJTElUSUVTAQAAAF+fAQACAAAABTgyMzM2AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAEMTAwOQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATC4OW2us+PbCLZmxxy149sITkNJUS5OWVNF</t>
+  </si>
+  <si>
+    <t>OkYuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklMSU5HX0RBVEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABfnwEAAgAAAAszOTc0LjI5NzE2OQEEAAAABQAAAAE1AQAAAAoxOTQ2NDI0MDMzAgAAAAUyNDE1MwYAAAABMLg5ba6z49sItmbHHLXj2wgxQ0lRLk5ZU0U6R00uSVFfTkkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTkVUIElOQ09NRQEAAABU7qUDAgAAAAQ5NDI3AQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwuDltrrPj2wi2ZscctePbCD1DSVEuTllTRTpGLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE3Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAAF+fAQACAAAAAjQxAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTEwMwQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCLZmxxy149sIQ0NJUS5OWVNFOkhELklRX0NBU0hfRVFVSVYuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQ0FTSCBBTkQgRVFVSVZBTEVOVFMBAAAAl0AEAAIAAAAEMTcyMwEIAAAABQAAAAExAQAAAAoxODMzMTY5OTQ1AwAAAAMxNjACAAAABDEwOTYEAAAAATAHAAAACDEvMS8yMDE2CAAAAAgyLzEvMjAxNQkAAAABMLg5ba6z49sItmbHHLXj2wg5Q0lRLk5Z</t>
+  </si>
+  <si>
+    <t>U0U6SEQuSVFfVE9UQUxfREVCVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBERUJUAQAAAJdABAACAAAABTIzNjAxAQgAAAAFAAAAATEBAAAACjE5NTE1NDIxMjgDAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTEvMjkvMjAxNwkAAAABMLg5ba6z49sItmbHHLXj2wg4Q0lRLlhUUkE6REFJLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDIwLi4uVVNELi5BU1NFVFMFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcim4OW2us+PbCLZmxxy149sIQkNJUS5UU0U6NzI3MC5JUV9UT1RBTF9DQS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBDVVJSRU5UIEFTU0VUUwEAAABSVw0AAgAAAAwxNTg3OC4zNjM0NzMBCAAAAAUAAAABMQEAAAAKMTg2MDQxMTY2OQMAAAADMTYwAgAAAAQxMDA4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwuDltrrPj2wi2ZscctePbCEBDSVEuT006Vk9MViBCLklRX0NPTU1PTi4xMDAwLjEvMS8yMDE4Li4uVVNELi5DT01NT04gU1RPQ0sgRVFVSVRZAQAAADfEBAACAAAACjMxMi4wMTA5NTUBCAAAAAUAAAABMQEAAAAKMTk0OTQ5NTc5MgMAAAADMTYwAgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sItmbHHLXj2whLQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9DTC4x</t>
+  </si>
+  <si>
+    <t>MDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBDVVJSRU5UIExJQUJJTElUSUVTAQAAALbcJQACAAAADDE0OTY0LjczNzA2MgEIAAAABQAAAAExAQAAAAoyMDgzNjg1MjI5AwAAAAMxNjACAAAABDEwMDkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wi2ZscctePbCD9DSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIERFQlQBAAAAEMaiAQIAAAAFMTM4MjgBCAAAAAUAAAABMQEAAAAKMjA3OTEyODYyNQMAAAADMTYwAgAAAAQ0MTczBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sIoI3HHLXj2wg8Q0lRLktPU0U6QTAwMDI3MC5JUV9JTlZFTlRPUlkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5WRU5UT1JZAQAAALbcJQACAAAACjY1MzkuNDg5NjQBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMLg5ba6z49sItmbHHLXj2wg/Q0lRLktPU0U6QTAwNTM4MC5JUV9BUi4xMDAwLjEvMS8yMDE5Li4uVVNELi5BQ0NPVU5UUyBSRUNFSVZBQkxFAQAAAExZDQACAAAACzQyMjguMTMwMTU4AQgAAAAFAAAAATEBAAAACjIwMTk2NzQ5OTEDAAAAAzE2MAIAAAAEMTAyMQQAAAABMAcAAAAIMS8xLzIw</t>
+  </si>
+  <si>
+    <t>MTkIAAAACjEyLzMxLzIwMTgJAAAAATC4OW2us+PbCLZmxxy149sIO0NJUS5OWVNFOkdNLklRX0NPR1MuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAAFTupQMCAAAABjEyMDY1NgEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sIoI3HHLXj2whAQ0lRLktPU0U6QTAwMDI3MC5JUV9DT0dTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAAC23CUAAgAAAAwzNTE3MC4yMTc5MjgBCAAAAAUAAAABMQEAAAAKMTg3NTg3NTE3NQMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCKCNxxy149sIUkNJUS5OQVNEQVFHUzpUU0xBLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAEMaiAQIAAAAIMzM5My4yMTYBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAQxMDAyBAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMLg5ba6z49sItmbHHLXj2wg4Q0lRLlRTRTo3MjAzLklRX1RPVEFMX0FTU0VUUy4xMDAwLjEvMS8yMDE5Li4uVVNELi5BU1NFVFMBAAAAvOAEAAIAAAANNDczNjkw</t>
+  </si>
+  <si>
+    <t>LjA0NjQ0NgEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEwMDcEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCKCNxxy149sIQUNJUS5OWVNFOkdNLklRX1RPVEFMX0NBLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIENVUlJFTlQgQVNTRVRTAQAAAFTupQMCAAAABTc0OTkyAQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAABDEwMDgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwuDltrrPj2wigjccctePbCD5DSVEuTkFTREFRR1M6QUFQTC5JUV9SRS4xMDAwLjEvMS8yMDIwLi4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAABpYQAAAgAAAAU0NTg5OAEIAAAABQAAAAExAQAAAAstMjEyNDY1OTc0MwMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwuDltrrPj2wigjccctePbCDJDSVEuVFNFOjcyNzAuSVFfTkkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTkVUIElOQ09NRQEAAABSVw0AAgAAAAozODg2LjIwNDg4AQgAAAAFAAAAATEBAAAACjE4NjA0MTE2NjkDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATC4OW2us+PbCKCNxxy149sIVENJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfT1VUU1RBTkRJTkdfRklM</t>
+  </si>
+  <si>
+    <t>SU5HX0RBVEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgT1VUIFNIUgEAAABMWQ0AAgAAAAoyMjQuMTQyNzYyAQQAAAAFAAAAATUBAAAACjIwODM3OTczNTUCAAAABTI0MTUzBgAAAAEwuDltrrPj2wigjccctePbCEJDSVEuVFNFOjgwNTguSVFfUFJFRl9ESVZfT1RIRVIuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFJFRiBESVZJREVORFMBAAAAgf8HAAMAAAAAALg5ba6z49sIoI3HHLXj2wg4Q0lRLk5ZU0U6R00uSVFfUkUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUkVUQUlORUQgRUFSTklOR1MBAAAAVO6lAwIAAAAFMjIzMjIBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAQxMjIyBAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMLg5ba6z49sIoI3HHLXj2wg6Q0lRLk5ZU0U6Ri5JUV9DT0dTLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkNPU1QgT0YgR09PRFMgU09MRAEAAABfnwEAAgAAAAYxMjYxOTUBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATC4OW2us+PbCKCNxxy149sIPUNJUS5OWVNFOkYuSVFfQ09NTU9OLjEwMDAuMS8xLzIwMTguLi5VU0QuLkNPTU1PTiBTVE9DSyBFUVVJVFkBAAAAX58BAAIAAAACNDEBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYw</t>
+  </si>
+  <si>
+    <t>AgAAAAQxMTAzBAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMLg5ba6z49sIoI3HHLXj2wgyQ0lRLlRTRTo3MjAzLklRX05JLjEwMDAuMS8xLzIwMTkuLi5VU0QuLk5FVCBJTkNPTUUBAAAAvOAEAAIAAAAMMjM0ODIuNzI3OTE0AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjcDAAAAAzE2MAIAAAACMTUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATC4OW2us+PbCKCNxxy149sIOkNJUS5UU0U6ODA1OC5JUV9UT1RBTF9ERUJULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIERFQlQBAAAAgf8HAAIAAAAMNDg1MjcuODkzMTA3AQgAAAAFAAAAATEBAAAACjIwNDE5NDMzODADAAAAAzE2MAIAAAAENDE3MwQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMLg5ba6z49sIoI3HHLXj2wg8Q0lRLlRTRTo3MjAzLklRX0NPR1MuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQ09TVCBPRiBHT09EUyBTT0xEAQAAALzgBAACAAAADTIxMjgwMC40ODA4NjcBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAIzNAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMLg5ba6z49sIoI3HHLXj2whLQ0lRLk5ZU0U6Ri5JUV9DQVNIX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1QgQ0FTSCAmIFNUIElOVkVTVE1FTlRTAQAA</t>
+  </si>
+  <si>
+    <t>AF+fAQACAAAABTIzMDM2AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTAwMgQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATC4OW2us+PbCKCNxxy149sIOUNJUS5UU0U6NzIwMy5JUV9SRS4xMDAwLjEvMS8yMDE2Li4uVVNELi5SRVRBSU5FRCBFQVJOSU5HUwEAAAC84AQAAgAAAA0xMjk5NDMuNzIyODczAQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAEMTIyMgQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMLg5ba6z49sIoI3HHLXj2wg7Q0lRLk5ZU0U6R00uSVFfQ0FTSF9FUVVJVi4xMDAwLjEvMS8yMDIwLi4uVVNELi5DQVNIICYgRVFVSVYBAAAAVO6lAwIAAAAFMTU3NjkBCAAAAAUAAAABMQEAAAALLTIxMTM4ODAyMzMDAAAAAzE2MAIAAAAEMTA5NgQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATC4OW2us+PbCKCNxxy149sIUkNJUS5OQVNEQVFHUzpUU0xBLklRX0NBU0hfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVCBDQVNIICYgU1QgSU5WRVNUTUVOVFMBAAAAEMaiAQIAAAAEMzY4NgEIAAAABQAAAAExAQAAAAoyMDc5MTI4NjI1AwAAAAMxNjACAAAABDEwMDIEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwuDltrrPj2wi4tMcctePbCEdDSVEuTkFT</t>
+  </si>
+  <si>
+    <t>REFRR1M6QUFQTC5JUV9QUkVGX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUkVGIFNUT0NLIEVRVUlUWQEAAABpYQAAAwAAAAAAuDltrrPj2wi4tMcctePbCDxDSVEuVFNFOjgwNTguSVFfVE9UQUxfUkVWLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIFJFVkVOVUUBAAAAgf8HAAIAAAANMTQ1MzI3LjcwMDYyOAEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAAAjI4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwuDltrrPj2wi4tMcctePbCDxDSVEuTllTRTpGLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAX58BAAIAAAAFMjg3NTEBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMBTLMvm049sI5SXKHLXj2wg9Q0lRLk5ZU0U6R00uSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABU7qUDAgAAAAU0MDMyMwEIAAAABQAAAAExAQAAAAoxODczMzAyMzc3AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwFMsy+bTj2wjlJcoctePbCENDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAx</t>
+  </si>
+  <si>
+    <t>OS4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAGlhAAACAAAABjEwNzE0NwEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATAUyzL5tOPbCOUlyhy149sIQkNJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABMWQ0AAgAAAAw2OTk4MC41MDg1OTQBCAAAAAUAAAABMQEAAAAKMTk0ODcxMDU4NgMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMBTLMvm049sI5SXKHLXj2wg8Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAF+fAQACAAAABTMzMjMwAQgAAAAFAAAAATEBAAAACy0yMTEzNjkyNDYxAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwFMsy+bTj2wg7S8octePbCD5DSVEuTllTRTpITUMuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACVQQQAAgAAAAw2MTUyOC42MzY5MzMBCAAAAAUAAAABMQEAAAAKMTg0Nzc3MjUwNgMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwFMsy</t>
+  </si>
+  <si>
+    <t>+bTj2wg7S8octePbCD5DSVEuVFNFOjgwNTguSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACB/wcAAgAAAAw1MDQ2Ny4xNjQ5MjYBCAAAAAUAAAABMQEAAAAKMTc5NzQ3NDA0NQMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwFMsy+bTj2wjlJcoctePbCENDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAGlhAAACAAAABjEyODI0OQEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATAUyzL5tOPbCOUlyhy149sIQkNJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABMWQ0AAgAAAAw2NjE0Ni43MTc4OTcBCAAAAAUAAAABMQEAAAAKMjA4Mzc5NzM1NQMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMBTLMvm049sIO0vKHLXj2wg8Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAF+fAQACAAAABTM1NzA0AQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkD</t>
+  </si>
+  <si>
+    <t>AAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATAUyzL5tOPbCDtLyhy149sIPUNJUS5OWVNFOkdNLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAVO6lAwIAAAAFNDQwNzUBCAAAAAUAAAABMQEAAAAKMTk0MzkyMjc4NAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMBTLMvm049sI5SXKHLXj2wg+Q0lRLlRTRTo4MDU4LklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAgf8HAAIAAAAMNTE5MTkuMzgxOTQ1AQgAAAAFAAAAATEBAAAACjE4OTM5OTc5NTQDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMBTLMvm049sI5SXKHLXj2whDQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAAQxqIBAgAAAAQ4MTEwAQgAAAAFAAAAATEBAAAACy0yMTEzNTc4OTE4AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwFMsy+bTj2wg7S8octePbCD1DSVEuTllTRTpIRC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgRVFV</t>
+  </si>
+  <si>
+    <t>SVRZAQAAAJdABAACAAAABDE0NTQBCAAAAAUAAAABMQEAAAAKMjAyMzc1NzQ1NgMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMS8yOC8yMDE4CQAAAAEwFMsy+bTj2wg7S8octePbCD1DSVEuTllTRTpHTS5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAFTupQMCAAAABTQyNzc3AQgAAAAFAAAAATEBAAAACjIwNzk1MjUwMDMDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAUyzL5tOPbCDtLyhy149sIPENJUS5OWVNFOkYuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABfnwEAAgAAAAUzMDgxMQEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMBTLMvm049sIBQe4wQLk2whDQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAAQxqIBAgAAAAg1NjMyLjMyMgEIAAAABQAAAAExAQAAAAoyMDEzOTA3NDcwAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwFMsy+bTj2wg7S8octePbCD5DSVEuVFNFOjcyMDMuSVFf</t>
+  </si>
+  <si>
+    <t>VE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAC84AQAAgAAAA0xODI5NDkuMDQxMTk3AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjcDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMBTLMvm049sIO0vKHLXj2whDQ0lRLk5BU0RBUUdTOlRTTEEuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAAQxqIBAgAAAAg1OTA1LjEyNQEIAAAABQAAAAExAQAAAAoxOTQ1ODczNTUxAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwFMsy+bTj2wg7S8octePbCDxDSVEuTllTRTpGLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAX58BAAIAAAAFMzYwNjYBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMBTLMvm049sIO0vKHLXj2wg9Q0lRLk5ZU0U6R00uSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTguLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABU7qUDAgAAAAUzNjIwMAEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE4CAAA</t>
+  </si>
+  <si>
+    <t>AAoxMi8zMS8yMDE3CQAAAAEwFMsy+bTj2wg7S8octePbCD5DSVEuVFNFOjgwNTguSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACB/wcAAgAAAAw1OTg5NC41OTI1MTYBCAAAAAUAAAABMQEAAAAKMjA0MTk0MzM4MAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwFMsy+bTj2wg7S8octePbCEJDSVEuS09TRTpBMDA1MzgwLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAATFkNAAIAAAAMNTY4MzUuNjgwODA3AQgAAAAFAAAAATEBAAAACjE4MzAzODE2NzkDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATAUyzL5tOPbCDtLyhy149sIQkNJUS5LT1NFOkEwMDAyNzAuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAC23CUAAgAAAAwyMjA3Ny45NTkzMzEBCAAAAAUAAAABMQEAAAAKMTg3NTg3NTE3NQMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMBTLMvm049sIO0vKHLXj2wg+Q0lRLlRTRTo3MjcwLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBFUVVJVFkBAAAAUlcNAAIAAAAMMTQ1</t>
+  </si>
+  <si>
+    <t>NTQuODY4MjQ4AQgAAAAFAAAAATEBAAAACjE5Njk0NDc0MzkDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMBTLMvm049sIO0vKHLXj2whCQ0lRLktPU0U6QTAwMDI3MC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAALbcJQACAAAADDI1MTAwLjM3MDUwNwEIAAAABQAAAAExAQAAAAoyMDgzNjg1MjI5AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwFMsy+bTj2wg7S8octePbCD5DSVEuVFNFOjgwNTguSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACB/wcAAgAAAAw0NDY1NS43NjUxNjkBCAAAAAUAAAABMQEAAAAKMTg1MTExMDEzNAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwFMsy+bTj2wg7S8octePbCD5DSVEuTllTRTpITUMuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACVQQQAAgAAAAw3NzUzMC4yMDQ2OTkBCAAAAAUAAAABMQEAAAAKMjA0MTg3ODQ5OAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwFMsy+bTj2whZ+80ctePbCD1DSVEuTllTRTpI</t>
+  </si>
+  <si>
+    <t>RC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAJdABAACAAAABDYzMTYBCAAAAAUAAAABMQEAAAAKMTg3OTU1NTU3MwMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMS8zMS8yMDE2CQAAAAEwFMsy+bTj2whZ+80ctePbCD5DSVEuVFNFOjcyNjkuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAAPLgoAAgAAAAwxMDU3MC41MDUwNDMBCAAAAAUAAAABMQEAAAAKMTc5OTI0MzQ4MgMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwFMsy+bTj2wg7S8octePbCD5DSVEuWFRSQTpEQUkuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKRTLMvm049sIaCLOHLXj2wg+Q0lRLk5ZU0U6SE1DLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAlUEEAAIAAAAMNjI1ODIuNjYwMDU2AQgAAAAFAAAAATEBAAAACjE4OTM4NDc3NzIDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMBTLMvm049sIaCLOHLXj2wg+Q0lRLlRTRTo3MjY5LklRX1RPVEFMX0VRVUlUWS4x</t>
+  </si>
+  <si>
+    <t>MDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAADy4KAAIAAAAMMTI0MzkuODIwODE0AQgAAAAFAAAAATEBAAAACjE4NDkwMjY3MjcDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMBTLMvm049sIO0vKHLXj2wg/Q0lRLk9NOlZPTFYgQi5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAADfEBAACAAAADDE1MTY1LjkxNDI4NAEIAAAABQAAAAExAQAAAAoyMDgyNDE1NjAyAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwFMsy+bTj2whoIs4ctePbCENDSVEuTkFTREFRR1M6QUFQTC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAGlhAAACAAAABjExOTM1NQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATAUyzL5tOPbCFn7zRy149sIPkNJUS5UU0U6NzIwMy5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAALzgBAACAAAADTE0NzA3My4zMzQwMTEBCAAAAAUAAAABMQEAAAAKMTg0NzgyNTEyMAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggA</t>
+  </si>
+  <si>
+    <t>AAAJMy8zMS8yMDE1CQAAAAEwFMsy+bTj2whoIs4ctePbCD5DSVEuVFNFOjcyNjkuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAAPLgoAAgAAAAwxNTAyMC4yNTM5OTUBCAAAAAUAAAABMQEAAAAKMTg5NTAwMjQxOAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwFMsy+bTj2whoIs4ctePbCENDSVEuTkFTREFRR1M6VFNMQS5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAABDGogECAAAACDEwODMuNzA0AQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATAUyzL5tOPbCGgizhy149sIQkNJUS5LT1NFOkEwMDAyNzAuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAC23CUAAgAAAAwyMDU2OC41MzcxMzYBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMBTLMvm049sIaCLOHLXj2wg+Q0lRLlhUUkE6REFJLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBFUVVJVFkFAAAAAAAAAAgAAAAUKEludmFs</t>
+  </si>
+  <si>
+    <t>aWQgSWRlbnRpZmllcikUyzL5tOPbCGgizhy149sIPkNJUS5UU0U6NzI3MC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAFJXDQACAAAACzg1OTAuMDQxMDA2AQgAAAAFAAAAATEBAAAACjE3NDQ5NDYzMTgDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMBTLMvm049sIaCLOHLXj2wg+Q0lRLlRTRTo3MjcwLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAUlcNAAIAAAAMMTIwMDkuNzA5MzIxAQgAAAAFAAAAATEBAAAACjE4NjA0MTE2NjkDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMBTLMvm049sIaCLOHLXj2wg9Q0lRLk5ZU0U6R00uSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABU7qUDAgAAAAU0NTk1NwEIAAAABQAAAAExAQAAAAstMjExMzg4MDIzMwMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMBTLMvm049sIaCLOHLXj2whDQ0lRLk5BU0RBUUdTOkFBUEwuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABpYQAAAgAAAAU5MDQ4OAEIAAAABQAAAAExAQAA</t>
+  </si>
+  <si>
+    <t>AAstMjEyNDY1OTc0MwMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwFMsy+bTj2whoIs4ctePbCD5DSVEuVFNFOjgwNTguSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACB/wcAAgAAAAw1ODk5MS42NzkyNjkBCAAAAAUAAAABMQEAAAAKMTk2OTA5MzE4NAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwFMsy+bTj2whoIs4ctePbCEJDSVEuS09TRTpBMDA1MzgwLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAATFkNAAIAAAAMNjYzNzguNjQyNzk5AQgAAAAFAAAAATEBAAAACjIwMTk2NzQ5OTEDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATAUyzL5tOPbCGgizhy149sIP0NJUS5PTTpWT0xWIEIuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAA3xAQAAgAAAAwxMDE0MS41NjA4MTkBCAAAAAUAAAABMQEAAAAKMTgzMzQ3Njg4OAMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMBTLMvm049sIaCLOHLXj2wg+Q0lRLlhUUkE6REFJLklRX1RPVEFMX0VRVUlUWS4x</t>
+  </si>
+  <si>
+    <t>MDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBFUVVJVFkFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcikUyzL5tOPbCGgizhy149sIPkNJUS5YVFJBOkRBSS5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgRVFVSVRZBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpFMsy+bTj2whoIs4ctePbCD9DSVEuT006Vk9MViBCLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAN8QEAAIAAAALMTMxNjkuNjk2NTUBCAAAAAUAAAABMQEAAAAKMTk0OTQ5NTc5MgMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMBTLMvm049sIaCLOHLXj2wg/Q0lRLk9NOlZPTFYgQi5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAADfEBAACAAAADDE0MTU5LjIxOTM0MwEIAAAABQAAAAExAQAAAAoyMDE3NTAzNzk5AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwFMsy+bTj2whoIs4ctePbCD9DSVEuT006Vk9MViBCLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE3Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAN8QEAAIAAAAMMTA3NzAuMzQwODc2AQgAAAAFAAAAATEBAAAACjE5MDgzODUx</t>
+  </si>
+  <si>
+    <t>ODADAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATAUyzL5tOPbCGgizhy149sIPkNJUS5UU0U6NzI3MC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAFJXDQACAAAADDEzMTM4LjAwOTE2NgEIAAAABQAAAAExAQAAAAoxODYwNDExNTg5AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATAUyzL5tOPbCHlJzhy149sIPkNJUS5UU0U6NzIwMy5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAALzgBAACAAAADTE2MzA3Ni45MTcyNDQBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwFMsy+bTj2wh5Sc4ctePbCD1DSVEuTllTRTpIRC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNi4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAJdABAACAAAABDkzMjIBCAAAAAUAAAABMQEAAAAKMTgzMzE2OTk0NQMAAAADMTYwAgAAAAQxMjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAIMi8xLzIwMTUJAAAAATAUyzL5tOPbCHlJzhy149sIQ0NJUS5OQVNEQVFHUzpBQVBMLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5U</t>
+  </si>
+  <si>
+    <t>T1RBTCBFUVVJVFkBAAAAaWEAAAIAAAAGMTM0MDQ3AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMBTLMvm049sIeUnOHLXj2wg+Q0lRLlRTRTo3MjY5LklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE2Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAADy4KAAIAAAAMMTQxNzkuNDE1MjMxAQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMBTLMvm049sIeUnOHLXj2wg9Q0lRLk5ZU0U6SEQuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAACXQAQAAgAAAAUtMTg3OAEIAAAABQAAAAExAQAAAAoyMDg1NzM5ODYyAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAgyLzMvMjAxOQkAAAABMBTLMvm049sIeUnOHLXj2wg+Q0lRLk5ZU0U6SE1DLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBFUVVJVFkBAAAAlUEEAAIAAAALNzczMDEuNTk0OTYBCAAAAAUAAAABMQEAAAALLTIxNDUzMTE1NDUDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMBTLMvm049sIeUnOHLXj2whCQ0lR</t>
+  </si>
+  <si>
+    <t>LktPU0U6QTAwMDI3MC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAALbcJQACAAAADDI0NDcyLjAxMzY1MQEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwFMsy+bTj2wh5Sc4ctePbCEJDSVEuS09TRTpBMDAwMjcwLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAttwlAAIAAAAMMjUxNDQuODAxNTEyAQgAAAAFAAAAATEBAAAACjE5NDgyMjY0MjADAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATAUyzL5tOPbCHlJzhy149sIQkNJUS5LT1NFOkEwMDUzODAuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAABMWQ0AAgAAAAw2MDA5Mi4zNzI2MTQBCAAAAAUAAAABMQEAAAALLTIwNTY5NDUzMjkDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATAUyzL5tOPbCHlJzhy149sIPkNJUS5UU0U6NzI2OS5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAyMC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAA8uCgACAAAADDE1NDg1LjE5MDM5MwEIAAAABQAAAAExAQAAAAoxOTcwMjEz</t>
+  </si>
+  <si>
+    <t>MDA5AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATAUyzL5tOPbCHlJzhy149sIPUNJUS5OWVNFOkhELklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE4Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAl0AEAAIAAAAENDMzMwEIAAAABQAAAAExAQAAAAoxOTUxNTQyMTI4AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkxLzI5LzIwMTcJAAAAATAUyzL5tOPbCHlJzhy149sIQ0NJUS5OQVNEQVFHUzpUU0xBLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDE5Li4uVVNELi5UT1RBTCBFUVVJVFkBAAAAEMaiAQIAAAAENjMxMwEIAAAABQAAAAExAQAAAAoyMDc5MTI4NjI1AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwFMsy+bTj2wh5Sc4ctePbCD5DSVEuVFNFOjcyMDMuSVFfVE9UQUxfRVFVSVRZLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlRPVEFMIEVRVUlUWQEAAAC84AQAAgAAAA0xNTY3MTQuMTg4Mzk3AQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMBTLMvm049sIeUnOHLXj2wg+Q0lRLlRTRTo3MjAzLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDIwLi4uVVNELi5UT1RBTCBF</t>
+  </si>
+  <si>
+    <t>UVVJVFkBAAAAvOAEAAIAAAANMTgxMDk0Ljk5NDkwMgEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATAUyzL5tOPbCHlJzhy149sIPkNJUS5UU0U6NzI3MC5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOS4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAFJXDQACAAAADDE0Njk4LjIwNjk5NQEIAAAABQAAAAExAQAAAAoxODk0NTY3NzUyAwAAAAMxNjACAAAABDEyNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATAUyzL5tOPbCHlJzhy149sIPkNJUS5OWVNFOkhNQy5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAJVBBAACAAAACzY3ODg5LjAyMzQ0AQgAAAAFAAAAATEBAAAACjE5Njg3OTc1MjIDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMBTLMvm049sIeUnOHLXj2wg8Q0lRLk5ZU0U6Ri5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxNy4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAF+fAQACAAAABTI5MjgzAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATAUyzL5tOPbCHlJzhy149sIPkNJ</t>
+  </si>
+  <si>
+    <t>US5YVFJBOkRBSS5JUV9UT1RBTF9FUVVJVFkuMTAwMC4xLzEvMjAxOC4uLlVTRC4uVE9UQUwgRVFVSVRZBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpFMsy+bTj2wh5Sc4ctePbCDBDSVEuTllTRTpGLklRX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi4BAAAAX58BAAIAAAAFLTE2NTEBCAAAAAUAAAABMQEAAAALLTIwNjIzODI2MDQDAAAAAzE2MAIAAAACODIEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwo6LLhf3j2wj7JO6F/ePbCDRDSVEuTllTRTpGLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uAQAAAF+fAQACAAAABS0xMTk5AQgAAAAFAAAAATEBAAAACy0yMDYyMzgyNjA0AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATCRF7KU/ePbCHWJVAH+49sIQ0NJUS5OWVNFOkYuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlRFUkVTVCBFWFAgKCkBAAAAX58BAAIAAAAFLTExOTkBCAAAAAUAAAABMQEAAAALLTIwNjIzODI2MDQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMANVnPr949sIxxm/+v3j2whGQ0lRLk5ZU0U6Ri5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjEuLi5VU0Qu</t>
+  </si>
+  <si>
+    <t>LklOVEVSRVNUIEVYUCAoTkVUKQEAAABfnwEAAgAAAAUtMTE5OQEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwvl4b/v3j2wgsoj3+/ePbCCtDSVEuTllTRTpGLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uAQAAAF+fAQACAAAAAzE2MAEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATB/7XMI/uPbCGjmVbcC5NsIMkNJUS5OWVNFOkYuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkMgVEFYAQAAAF+fAQACAAAAAzE2MAEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATB1b0kO/uPbCHBlaQ7+49sIMUNJUS5OWVNFOkYuSVFfTlBQRS4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUEUgKE5FVCkBAAAAX58BAAIAAAAFMzk0OTYBCAAAAAUAAAABMQEAAAALLTIxMTM2OTI0NjEDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCCTuK07+49sIMkNJUS5OWVNFOkYuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTkMgVEFYAQAA</t>
+  </si>
+  <si>
+    <t>AF+fAQACAAAAAzQwMgEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIJO4rTv7j2wgvQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uQVABAAAAaWEAAAIAAAAFNDIyOTYBCAAAAAUAAAABMQEAAAALLTIwNzMyMDM1MDgDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTkvMjYvMjAyMAkAAAABMENt403+49sIJO4rTv7j2wg4Q0lRLk5BU0RBUUdTOkFBUEwuSVFfTlBQRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUEUgKE5FVCkBAAAAaWEAAAIAAAAFMzM3ODMBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwQ23jTf7j2wgk7itO/uPbCDlDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOQyBUQVgBAAAAaWEAAAIAAAAFMTkxMjEBCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTkvMjYvMjAxNQkAAAABMENt403+49sIJO4rTv7j2wgpQ0lRLk5ZU0U6R00uSVFfQVAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVABAAAAVO6lAwIAAAAFMjIyOTcB</t>
+  </si>
+  <si>
+    <t>CAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIJO4rTv7j2wgyQ0lRLk5ZU0U6R00uSVFfTlBQRS4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUEUgKE5FVCkBAAAAVO6lAwIAAAAFMzEyMjkBCAAAAAUAAAABMQEAAAAKMTg3MzMwMjM3NwMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMENt403+49sIJO4rTv7j2wg0Q0lRLlRTRTo3MjAzLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAAC84AQAAgAAAAo1OTU1LjYzNTU5AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCCTuK07+49sIKkNJUS5UU0U6NzIwMy5JUV9BUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5BUAEAAAC84AQAAgAAAAwyMTI2Ni41OTc0NzcBCAAAAAUAAAABMQEAAAAKMTg5NDE1MDEzNgMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwQ23jTf7j2wgk7itO/uPbCDhDSVEuTkFTREFRR1M6VFNMQS5JUV9OUFBFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBQRSAoTkVUKQEAAAAQxqIBAgAAAAUyMDE5OQEI</t>
+  </si>
+  <si>
+    <t>AAAABQAAAAExAQAAAAstMjExMzU3ODkxOAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMENt403+49sIJO4rTv7j2wg5Q0lRLk5BU0RBUUdTOlRTTEEuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTkMgVEFYAQAAABDGogECAAAAAjMyAQgAAAAFAAAAATEBAAAACjIwMTM5MDc0NzADAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwQ23jTf7j2wgk7itO/uPbCCpDSVEuVFNFOjgwNTguSVFfQVAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uQVABAAAAgf8HAAIAAAAMMjM2NzAuNjc2Mzk4AQgAAAAFAAAAATEBAAAACy0yMTQ1MDExMjY1AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCCTuK07+49sIM0NJUS5UU0U6ODA1OC5JUV9OUFBFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBQRSAoTkVUKQEAAACB/wcAAgAAAAwyMjI4NC40MzA4MjgBCAAAAAUAAAABMQEAAAAKMTg5Mzk5Nzk1NAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwQ23jTf7j2wgSxytO/uPbCDRDSVEuVFNFOjgwNTguSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkMgVEFYAQAAAIH/BwACAAAACzE0MDIu</t>
+  </si>
+  <si>
+    <t>ODc1MjY3AQgAAAAFAAAAATEBAAAACjE3OTc0NzQwNDUDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATBDbeNN/uPbCCTuK07+49sILkNJUS5LT1NFOkEwMDUzODAuSVFfQVAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVABAAAATFkNAAIAAAALNjg3Ni44MzA0MTYBCAAAAAUAAAABMQEAAAAKMjAxOTY3NDk5MQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIJO4rTv7j2wg3Q0lRLktPU0U6QTAwNTM4MC5JUV9OUFBFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBQRSAoTkVUKQEAAABMWQ0AAgAAAAwzOTQ0Ni4zNzY1MDYBCAAAAAUAAAABMQEAAAAKMTgzMDM4MTY3OQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMENt403+49sIJO4rTv7j2wg4Q0lRLktPU0U6QTAwMDI3MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOQyBUQVgBAAAAttwlAAIAAAAKNjEwLjE3ODI4MwEIAAAABQAAAAExAQAAAAoyMDgzNjg1MjI5AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMENt403+49sIEscrTv7j2wguQ0lRLktPU0U6QTAwMDI3MC5JUV9BUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5BUAEAAAC2</t>
+  </si>
+  <si>
+    <t>3CUAAgAAAAs1MDkwLjIwODc0OQEIAAAABQAAAAExAQAAAAoxODc1ODc1MTc1AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wgSxytO/uPbCDJDSVEuTllTRTpIRC5JUV9OUFBFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBQRSAoTkVUKQEAAACXQAQAAgAAAAUyMjM3NQEIAAAABQAAAAExAQAAAAoyMDg1NzM5ODYyAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAgyLzMvMjAxOQkAAAABMENt403+49sIEscrTv7j2wgzQ0lRLk5ZU0U6SEQuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTkMgVEFYAQAAAJdABAACAAAABDQ1MzQBCAAAAAUAAAABMQEAAAAKMTk1MTU0MjEyOAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTEvMjkvMjAxNwkAAAABMENt403+49sIEscrTv7j2wgqQ0lRLk5ZU0U6SE1DLklRX0FQLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFQAQAAAJVBBAACAAAACzg5MDcuNTM5MzE5AQgAAAAFAAAAATEBAAAACy0yMDkwODIyNjYxAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCBLHK07+49sIM0NJUS5OWVNFOkhNQy5JUV9OUFBFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBQRSAoTkVUKQEAAACVQQQAAgAAAAwy</t>
+  </si>
+  <si>
+    <t>ODcwMi45NDIxMzUBCAAAAAUAAAABMQEAAAAKMTk2ODc5NzUyMgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwQ23jTf7j2wgSxytO/uPbCDRDSVEuTllTRTpITUMuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkMgVEFYAQAAAJVBBAACAAAACjIwNDIuOTk1MjkBCAAAAAUAAAABMQEAAAAKMTg0Nzc3MjUwNgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIEscrTv7j2wgqQ0lRLlRTRTo3MjY5LklRX0FQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFQAQAAAA8uCgACAAAACzQ4MjMuMTA2NDg1AQgAAAAFAAAAATEBAAAACjE4OTUwMDI0MTgDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMENt403+49sIEscrTv7j2wgzQ0lRLlRTRTo3MjY5LklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpAQAAAA8uCgACAAAACzY2MzIuOTg2MjEzAQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIEscrTv7j2wg0Q0lRLlRTRTo3MjcwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAABSVw0A</t>
+  </si>
+  <si>
+    <t>AgAAAAo0MzcuNjc3MDkyAQgAAAAFAAAAATEBAAAACjE5Njk0NDc0MzkDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCBLHK07+49sIKkNJUS5UU0U6NzI3MC5JUV9BUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5BUAEAAABSVw0AAgAAAAsyOTA2Ljk1MDc0MgEIAAAABQAAAAExAQAAAAoxODYwNDExNjY5AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCBLHK07+49sIM0NJUS5YVFJBOkRBSS5JUV9OUFBFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBQRSAoTkVUKQUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIEscrTv7j2wg0Q0lRLlhUUkE6REFJLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5DIFRBWAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIEscrTv7j2wgrQ0lRLk9NOlZPTFYgQi5JUV9BUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5BUAEAAAA3xAQAAgAAAAs3MTg1LjU2MDkxMQEIAAAABQAAAAExAQAAAAstMjExMDQxNjk4MQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIEscrTv7j2wg0Q0lRLk9NOlZPTFYgQi5JUV9OUFBFLjEwMDAuMS8xLzIw</t>
+  </si>
+  <si>
+    <t>MTguLi5VU0QuLlBQRSAoTkVUKQEAAAA3xAQAAgAAAAwxMTU5My4yNzE1ODMBCAAAAAUAAAABMQEAAAAKMTk0OTQ5NTc5MgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIEscrTv7j2wg1Q0lRLk9NOlZPTFYgQi5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOQyBUQVgBAAAAN8QEAAIAAAAKNjMwLjIxMjI4MQEIAAAABQAAAAExAQAAAAoxODMzNDc2ODg4AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMENt403+49sIEscrTv7j2wg5Q0lRLk5BU0RBUUdTOlRTTEEuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYAQAAABDGogECAAAABjI2LjY5OAEIAAAABQAAAAExAQAAAAoxOTQ1ODczNTUxAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMENt403+49sIBqArTv7j2wgzQ0lRLk5ZU0U6SEQuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYAQAAAJdABAACAAAABDQwMTIBCAAAAAUAAAABMQEAAAAKMTg3OTU1NTU3MwMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTEvMzEvMjAxNgkAAAABMENt403+49sIBqArTv7j2wgqQ0lRLlRTRTo3MjY5LklRX0FQLjEwMDAu</t>
+  </si>
+  <si>
+    <t>MS8xLzIwMTguLi5VU0QuLkFQAQAAAA8uCgACAAAACzQ1ODQuMTUyNTM1AQgAAAAFAAAAATEBAAAACjE4NDkwMjY3MjcDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMENt403+49sIBqArTv7j2wg0Q0lRLlRTRTo3MjcwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5DIFRBWAEAAABSVw0AAgAAAAo3MTEuODQwMzQzAQgAAAAFAAAAATEBAAAACjE4OTQ1Njc3NTIDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATBDbeNN/uPbCBLHK07+49sIPENJUS5OWVNFOkdNLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABU7qUDAgAAAAQ0MTc0AQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wgGoCtO/uPbCExDSVEuS09TRTpBMDAwMjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAALbcJQACAAAACTc3LjA1OTY4MwEIAAAABQAAAAExAQAAAAoxODMxNjQ0MTE0AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATBDbeNN/uPbCAag</t>
+  </si>
+  <si>
+    <t>K07+49sISENJUS5OWVNFOkhNQy5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACVQQQAAgAAAAkzNjUuMjkxOTMBCAAAAAUAAAABMQEAAAALLTIxNDUzMTE1NDUDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwQ23jTf7j2wgGoCtO/uPbCDFDSVEuTllTRTpGLklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpAQAAAF+fAQACAAAABTMyMTc3AQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATBDbeNN/uPbCAagK07+49sIKkNJUS5UU0U6NzIwMy5JUV9BUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5BUAEAAAC84AQAAgAAAAwyMTg4MC44Njc1NzMBCAAAAAUAAAABMQEAAAALLTIwOTA4MTAzOTcDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMENt403+49sIBqArTv7j2wg4Q0lRLktPU0U6QTAwNTM4MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOQyBUQVgBAAAATFkNAAIAAAALLTEwMC45NTg2MDEBCAAAAAUAAAABMQEAAAAKMTk0ODcxMDU4NgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEy</t>
+  </si>
+  <si>
+    <t>LzMxLzIwMTcJAAAAATBDbeNN/uPbCAagK07+49sILkNJUS5LT1NFOkEwMDAyNzAuSVFfQVAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uQVABAAAAttwlAAIAAAAKNjcxMC4xMDY5MwEIAAAABQAAAAExAQAAAAstMjEwODMzNTQ5MgMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIBqArTv7j2wgpQ0lRLk5ZU0U6SEQuSVFfQVAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVABAAAAl0AEAAIAAAAENzI0NAEIAAAABQAAAAExAQAAAAoyMDIzNzU3NDU2AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkxLzI4LzIwMTgJAAAAATBDbeNN/uPbCAagK07+49sINENJUS5UU0U6NzI3MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOQyBUQVgBAAAAUlcNAAIAAAALMTA1OC44OTY1OTYBCAAAAAUAAAABMQEAAAAKMTc0NDk0NjMxOAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIBqArTv7j2wgrQ0lRLk9NOlZPTFYgQi5JUV9BUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5BUAEAAAA3xAQAAgAAAAo2MDM2LjAzNTUyAQgAAAAFAAAAATEBAAAACjE5MDgzODUxODADAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBD</t>
+  </si>
+  <si>
+    <t>beNN/uPbCAagK07+49sITUNJUS5OQVNEQVFHUzpBQVBMLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAGlhAAACAAAABDI1NDMBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATBDbeNN/uPbCAagK07+49sIPUNJUS5UU0U6NzIwMy5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAvOAEAAIAAAAMMjAxNjguNjg0NTE5AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjgDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMENt403+49sIBqArTv7j2whNQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAEMaiAQIAAAAILTExNy4zNDMBCAAAAAUAAAABMQEAAAAKMTg3NTc2OTA4MgMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2wj2eCtO/uPbCExDSVEuS09TRTpBMDAwMjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAALbcJQACAAAACi0z</t>
+  </si>
+  <si>
+    <t>OC41MzA4OTQBCAAAAAUAAAABMQEAAAAKMTk0ODIyNjQyMAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwQ23jTf7j2wj2eCtO/uPbCD1DSVEuTllTRTpITUMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJVBBAACAAAACjc3Mi42MzEwNjgBCAAAAAUAAAABMQEAAAAKMTg0Nzc3MjUwNgMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwQ23jTf7j2wgGoCtO/uPbCD1DSVEuVFNFOjcyNjkuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAA8uCgACAAAACzI2MDQuMjE4NDY2AQgAAAAFAAAAATEBAAAACjE3OTkyNDM0ODIDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMENt403+49sIBqArTv7j2wg9Q0lRLlhUUkE6REFJLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5MVF9JTlZFU1RNRU5UUwUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sI9ngrTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAN8QEAAIAAAALMTUxOC4wODQwMDMBCAAAAAUAAAAB</t>
+  </si>
+  <si>
+    <t>MQEAAAAKMjAxNzUwMzc5OQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sI9ngrTv7j2wgxQ0lRLk5ZU0U6Ri5JUV9OUFBFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBQRSAoTkVUKQEAAABfnwEAAgAAAAUzNjkwMQEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwQ23jTf7j2wj2eCtO/uPbCDhDSVEuTkFTREFRR1M6QUFQTC5JUV9OUFBFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBQRSAoTkVUKQEAAABpYQAAAgAAAAUyMjQ3MQEIAAAABQAAAAExAQAAAAoxODYzOTk2Njg0AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAk5LzI2LzIwMTUJAAAAATBDbeNN/uPbCPZ4K07+49sIL0NJUS5OQVNEQVFHUzpUU0xBLklRX0FQLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFQAQAAABDGogECAAAABDYwNTEBCAAAAAUAAAABMQEAAAALLTIwNjI2ODEwNjUDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBDbeNN/uPbCPZ4K07+49sIKkNJUS5UU0U6ODA1OC5JUV9BUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5BUAEAAACB/wcAAgAAAAwyNTU5NC40MDgyNTUBCAAAAAUAAAABMQEAAAAKMTk2</t>
+  </si>
+  <si>
+    <t>OTA5MzE4NAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j2wj2eCtO/uPbCClDSVEuTllTRTpIRC5JUV9BUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5BUAEAAACXQAQAAgAAAAQ3Nzg3AQgAAAAFAAAAATEBAAAACy0yMTA3MjIwNzUzAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAgyLzIvMjAyMAkAAAABMENt403+49sI9ngrTv7j2wgzQ0lRLk5ZU0U6SE1DLklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpAQAAAJVBBAACAAAACzI2NTgxLjQ3Mzk4AQgAAAAFAAAAATEBAAAACjE4NDc3NzI1MDYDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sI9ngrTv7j2wgzQ0lRLlRTRTo3MjcwLklRX05QUEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFBFIChORVQpAQAAAFJXDQACAAAACzY0NzQuMDkwNTg4AQgAAAAFAAAAATEBAAAACjE5Njk0NDc0MzkDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMENt403+49sI9ngrTv7j2wgzQ0lRLlhUUkE6REFJLklRX05QUEUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFBFIChORVQpBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wj2eCtO</t>
+  </si>
+  <si>
+    <t>/uPbCDRDSVEuWFRSQTpEQUkuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkMgVEFYBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wj2eCtO/uPbCEFDSVEuS09TRTpBMDA1MzgwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABMWQ0AAgAAAAwxNzQ3Mi44MDYzODcBCAAAAAUAAAABMQEAAAAKMjAxOTY3NDk5MQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sI9ngrTv7j2whHQ0lRLk5ZU0U6SEQuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAl0AEAAIAAAAELTkzNgEIAAAABQAAAAExAQAAAAoxOTUxNTQyMTI4AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTEvMjkvMjAxNwkAAAABMENt403+49sI5VErTv7j2wg9Q0lRLk5ZU0U6SE1DLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAACVQQQAAgAAAAsxMzQwLjE1MjQ4NgEIAAAABQAAAAExAQAAAAoxOTY4Nzk3NTIyAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCOVRK07+49sIPUNJUS5UU0U6NzI2OS5J</t>
+  </si>
+  <si>
+    <t>UV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAADy4KAAIAAAALNTM1NC43MDEwNjgBCAAAAAUAAAABMQEAAAAKMTg5NTAwMjQxOAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j2wj2eCtO/uPbCD1DSVEuWFRSQTpEQUkuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlNUIElOVkVTVE1FTlRTBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wj2eCtO/uPbCDtDSVEuTllTRTpGLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABfnwEAAgAAAAQzNzE5AQgAAAAFAAAAATEBAAAACy0yMTEzNjkyNDYxAwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wjlUStO/uPbCDtDSVEuTllTRTpGLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUxOTY0MgEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wjlUStO/uPbCE1DSVEuTkFTREFRR1M6QUFQTC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8x</t>
+  </si>
+  <si>
+    <t>LzIwMjEuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABpYQAAAgAAAAM4OTABCAAAAAUAAAABMQEAAAALLTIwNzMyMDM1MDgDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwQ23jTf7j2wjlUStO/uPbCEJDSVEuTkFTREFRR1M6QUFQTC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAaWEAAAIAAAAGMTk0NzE0AQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAxNwkAAAABMENt403+49sI5VErTv7j2wg8Q0lRLk5ZU0U6R00uSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAFTupQMCAAAABDkwNDYBCAAAAAUAAAABMQEAAAALLTIwNjI2NjAzMjkDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBDbeNN/uPbCOVRK07+49sIR0NJUS5OWVNFOkdNLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAFTupQMCAAAABC0zMjABCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwQ23j</t>
+  </si>
+  <si>
+    <t>Tf7j2wjlUStO/uPbCDxDSVEuTllTRTpHTS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAEODIxNQEIAAAABQAAAAExAQAAAAoxODczMzAyMzc3AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2wjlUStO/uPbCD1DSVEuVFNFOjcyMDMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAALzgBAACAAAADDIzMDQ2Ljk2Njg2NQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATBDbeNN/uPbCOVRK07+49sISENJUS5UU0U6NzIwMy5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAC84AQAAgAAAAsxMDg5Ljg4MDY5MQEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMENt403+49sI5VErTv7j2whCQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAABDGogECAAAAATEBCAAAAAUAAAABMQEAAAALLTIxMTM1Nzg5MTgDAAAA</t>
+  </si>
+  <si>
+    <t>AzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCOVRK07+49sIQkNJUS5OQVNEQVFHUzpUU0xBLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAQxqIBAwAAAAAAQ23jTf7j2wjlUStO/uPbCEhDSVEuVFNFOjgwNTguSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAgf8HAAIAAAAKOTU5LjQ2MTc2NgEIAAAABQAAAAExAQAAAAstMjE0NTAxMTI2NQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCOVRK07+49sIPUNJUS5UU0U6ODA1OC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAgf8HAAIAAAAMNDUxMzcuMTQ4NjU5AQgAAAAFAAAAATEBAAAACjE4OTM5OTc5NTQDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMENt403+49sI0iorTv7j2whBQ0lRLktPU0U6QTAwNTM4MC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAATFkNAAIAAAALNjY5OS45NTY4NzIBCAAAAAUAAAABMQEAAAALLTIwNTcxMTYxOTcDAAAAAzE2MAIAAAAEMTA2OQQA</t>
+  </si>
+  <si>
+    <t>AAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBDbeNN/uPbCOVRK07+49sITENJUS5LT1NFOkEwMDUzODAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAATFkNAAIAAAAKMjEyLjk3ODI1OAEIAAAABQAAAAExAQAAAAoyMDE5Njc0OTkxAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATBDbeNN/uPbCOVRK07+49sIQUNJUS5LT1NFOkEwMDUzODAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAExZDQACAAAADDE2NjU4LjkxOTkxNgEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2wjlUStO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAC23CUAAgAAAAs0MTk0LjE1Mzk1NQEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwQ23jTf7j2wjSKitO/uPbCExDSVEuS09TRTpBMDAwMjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAx</t>
+  </si>
+  <si>
+    <t>Ny4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAALbcJQACAAAACTE0LjIzNDY5NQEIAAAABQAAAAExAQAAAAoxODc1ODc1MTc1AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCNIqK07+49sIPENJUS5OWVNFOkhELklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAACXQAQAAwAAAAAAQ23jTf7j2wjSKitO/uPbCDxDSVEuTllTRTpIRC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAl0AEAAMAAAAAAENt403+49sI0iorTv7j2whIQ0lRLk5ZU0U6SE1DLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAJVBBAACAAAACjI3OC4wMzM4NzkBCAAAAAUAAAABMQEAAAALLTIwOTA4MjI2NjEDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwQ23jTf7j2wjSKitO/uPbCD1DSVEuTllTRTpITUMuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAJVBBAACAAAACzg2MjYuNjcyNzc1AQgAAAAFAAAAATEBAAAACjE5Njg3OTc1MjIDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEv</t>
+  </si>
+  <si>
+    <t>MjAxNwkAAAABMENt403+49sI0iorTv7j2wg9Q0lRLlRTRTo3MjY5LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAPLgoAAgAAAAsxMTAyLjA2MTM1MwEIAAAABQAAAAExAQAAAAoyMDQzNzY0NTgzAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCNIqK07+49sISENJUS5UU0U6NzI2OS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAAPLgoAAgAAAAoyNTguNzQ0ODkyAQgAAAAFAAAAATEBAAAACjE4OTUwMDI0MTgDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j2wjSKitO/uPbCD1DSVEuVFNFOjcyNjkuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAA8uCgACAAAACzM1MTQuMjM0NTg5AQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sI0iorTv7j2wg9Q0lRLlRTRTo3MjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABSVw0AAgAAAAsyMjg0LjAwNzQ1MgEIAAAABQAA</t>
+  </si>
+  <si>
+    <t>AAExAQAAAAoxODk0NTY3NzUyAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATBDbeNN/uPbCNIqK07+49sISENJUS5UU0U6NzI3MC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABSVw0AAgAAAAkyMy45NDk4MDMBCAAAAAUAAAABMQEAAAAKMTg2MDQxMTY2OQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCNIqK07+49sIPUNJUS5YVFJBOkRBSS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilDbeNN/uPbCNIqK07+49sIPUNJUS5YVFJBOkRBSS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uU1QgSU5WRVNUTUVOVFMFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilDbeNN/uPbCNIqK07+49sISUNJUS5PTTpWT0xWIEIuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAN8QEAAIAAAALLTEyNy44NTA0NTYBCAAAAAUAAAABMQEAAAALLTIxMTA0MTY5ODEDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkA</t>
+  </si>
+  <si>
+    <t>AAABMENt403+49sI0iorTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAN8QEAAIAAAALMTcwOC4xMTk0ODkBCAAAAAUAAAABMQEAAAAKMTk0OTQ5NTc5MgMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sI0iorTv7j2wg4Q0lRLk5BU0RBUUdTOkFBUEwuSVFfTlBQRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUEUgKE5FVCkBAAAAaWEAAAIAAAAFMjcwMTABCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEwQ23jTf7j2wjSKitO/uPbCDNDSVEuVFNFOjcyMDMuSVFfTlBQRS4xMDAwLjEvMS8yMDIxLi4uVVNELi5QUEUgKE5FVCkBAAAAvOAEAAIAAAAMNjEwMTYuNjU2ODgzAQgAAAAFAAAAATEBAAAACy0yMDkwODEwMzk3AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCMUDK07+49sINENJUS5UU0U6NzIwMy5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAAvOAEAAIAAAALNDc0OS4zNjIzMDgBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAI3NQQAAAABMAcA</t>
+  </si>
+  <si>
+    <t>AAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMENt403+49sIxQMrTv7j2wg4Q0lRLk5BU0RBUUdTOlRTTEEuSVFfTlBQRS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUEUgKE5FVCkBAAAAEMaiAQIAAAAFMTk2OTEBCAAAAAUAAAABMQEAAAAKMjA3OTEyODYyNQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIxQMrTv7j2wgqQ0lRLlRTRTo4MDU4LklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAAIH/BwACAAAADDI1ODM2LjYwMjQwMwEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCMUDK07+49sIOENJUS5LT1NFOkEwMDUzODAuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkMgVEFYAQAAAExZDQACAAAACDE1NS4wMTk1AQgAAAAFAAAAATEBAAAACy0yMDU3MTE2MTk3AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIxQMrTv7j2wgyQ0lRLk5ZU0U6SEQuSVFfTlBQRS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUEUgKE5FVCkBAAAAl0AEAAIAAAAFMjIwNzUBCAAAAAUAAAABMQEAAAAKMjAyMzc1NzQ1NgMAAAADMTYwAgAAAAQxMDA0BAAAAAEw</t>
+  </si>
+  <si>
+    <t>BwAAAAgxLzEvMjAxOQgAAAAJMS8yOC8yMDE4CQAAAAEwQ23jTf7j2wjFAytO/uPbCDRDSVEuVFNFOjcyNjkuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkMgVEFYAQAAAA8uCgACAAAACTc3NS4yNDU4NQEIAAAABQAAAAExAQAAAAoyMDQzNzY0NTgzAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwQ23jTf7j2wjFAytO/uPbCDRDSVEuWFRSQTpEQUkuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wjFAytO/uPbCDRDSVEuT006Vk9MViBCLklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFBFIChORVQpAQAAADfEBAACAAAACzk5NzAuNTMwMzY1AQgAAAAFAAAAATEBAAAACjE5MDgzODUxODADAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCMUDK07+49sIO0NJUS5OWVNFOkYuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAF+fAQACAAAABDI5NTkBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIxQMrTv7j2whHQ0lRLk5Z</t>
+  </si>
+  <si>
+    <t>U0U6R00uSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAVO6lAwIAAAAELTMwOQEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATBDbeNN/uPbCMUDK07+49sISENJUS5UU0U6ODA1OC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACB/wcAAgAAAAoxMTcxLjUxODc4AQgAAAAFAAAAATEBAAAACjIwNDE5NDMzODADAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwQ23jTf7j2wjFAytO/uPbCDxDSVEuTllTRTpIRC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAl0AEAAMAAAAAAENt403+49sIxQMrTv7j2wg9Q0lRLlRTRTo3MjcwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABSVw0AAgAAAAsxNTQ2LjM0Njc5NgEIAAAABQAAAAExAQAAAAoyMDQzMTUyNzU5AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCMUDK07+49sIPUNJUS5YVFJBOkRBSS5JUV9MVF9JTlZFU1QuMTAwMC4x</t>
+  </si>
+  <si>
+    <t>LzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilDbeNN/uPbCMUDK07+49sIMkNJUS5OWVNFOkdNLklRX05QUEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFBFIChORVQpAQAAAFTupQMCAAAABTM5ODUwAQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wjFAytO/uPbCC9DSVEuTkFTREFRR1M6VFNMQS5JUV9BUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5BUAEAAAAQxqIBAgAAAAQzNDA1AQgAAAAFAAAAATEBAAAACjIwNzkxMjg2MjUDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATBDbeNN/uPbCLvcKk7+49sIN0NJUS5LT1NFOkEwMDUzODAuSVFfTlBQRS4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUEUgKE5FVCkBAAAATFkNAAIAAAAMNDczMjMuMzkzNjkyAQgAAAAFAAAAATEBAAAACjIwODM3OTczNTUDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCLvcKk7+49sIN0NJUS5LT1NFOkEwMDAyNzAuSVFfTlBQRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUEUgKE5FVCkBAAAAttwlAAIAAAAMMTI3ODAuNTA4ODY4AQgAAAAFAAAA</t>
+  </si>
+  <si>
+    <t>ATEBAAAACjE5NDgyMjY0MjADAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATBDbeNN/uPbCMUDK07+49sINENJUS5OWVNFOkhNQy5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOQyBUQVgBAAAAlUEEAAIAAAALMjczNS4yMTMzNDUBCAAAAAUAAAABMQEAAAALLTIxNDUzMTE1NDUDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCMUDK07+49sIKkNJUS5YVFJBOkRBSS5JUV9BUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5BUAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIu9wqTv7j2wg8Q0lRLk5ZU0U6R00uSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAFTupQMCAAAABDcxMDcBCAAAAAUAAAABMQEAAAALLTIxMTM4ODAyMzMDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCLvcKk7+49sIQkNJUS5OQVNEQVFHUzpUU0xBLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAQxqIBAwAAAAAAQ23jTf7j2wi73CpO/uPbCExDSVEuS09TRTpBMDAwMjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAy</t>
+  </si>
+  <si>
+    <t>MS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAALbcJQACAAAACi01NS45NDkzNzQBCAAAAAUAAAABMQEAAAALLTIxMDgzMzU0OTIDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIu9wqTv7j2wg8Q0lRLk5ZU0U6SEQuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJdABAADAAAAAABDbeNN/uPbCLvcKk7+49sIPUNJUS5UU0U6NzI3MC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAUlcNAAIAAAAKOTcxLjE1Njk2NQEIAAAABQAAAAExAQAAAAoxODYwNDExNTg5AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCLvcKk7+49sIPkNJUS5PTTpWT0xWIEIuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAADfEBAACAAAACTE4LjAwNDEwOQEIAAAABQAAAAExAQAAAAoyMDE3NTAzNzk5AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwQ23jTf7j2wi73CpO/uPbCDlDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOQyBUQVgBAAAAaWEAAAIAAAAFMTU2</t>
+  </si>
+  <si>
+    <t>ODUBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMENt403+49sIu9wqTv7j2wgqQ0lRLlRTRTo3MjAzLklRX0FQLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFQAQAAALzgBAACAAAADDIzMDE2Ljg3OTI2OQEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCLvcKk7+49sIKUNJUS5OWVNFOkhELklRX0FQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFQAQAAAJdABAACAAAABDU4MDcBCAAAAAUAAAABMQEAAAAKMTgzMzE2OTk0NQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAIMi8xLzIwMTUJAAAAATBDbeNN/uPbCLvcKk7+49sIKkNJUS5UU0U6NzI2OS5JUV9BUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5BUAEAAAAPLgoAAgAAAAszNTk5LjkwMDYyMQEIAAAABQAAAAExAQAAAAoxOTcwMjEzMDA5AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCLvcKk7+49sIM0NJUS5UU0U6NzI2OS5JUV9OUFBFLjEwMDAuMS8xLzIwMTcuLi5VU0QuLlBQRSAoTkVUKQEAAAAPLgoAAgAAAAs2NzM3Ljk0OTE0NQEIAAAABQAAAAExAQAAAAoxNzk5</t>
+  </si>
+  <si>
+    <t>MjQzNDgyAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCLvcKk7+49sIKkNJUS5YVFJBOkRBSS5JUV9BUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5BUAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIpbUqTv7j2whCQ0lRLk5BU0RBUUdTOkFBUEwuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAGlhAAACAAAABjE3MDc5OQEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATBDbeNN/uPbCLvcKk7+49sIR0NJUS5OWVNFOkhELklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAJdABAACAAAABC00OTMBCAAAAAUAAAABMQEAAAAKMTgzMzE2OTk0NQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAgyLzEvMjAxNQkAAAABMENt403+49sIu9wqTv7j2wg9Q0lRLlRTRTo3MjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABSVw0AAgAAAAsxMDgyLjYwMDgxNQEIAAAABQAAAAExAQAAAAoxOTY5NDQ3NDM5AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEv</t>
+  </si>
+  <si>
+    <t>MS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCLvcKk7+49sIKENJUS5OWVNFOkYuSVFfQVAuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQVABAAAAX58BAAIAAAAFMjA2NzMBCAAAAAUAAAABMQEAAAALLTIxMTM2OTI0NjEDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCKW1Kk7+49sIMUNJUS5OWVNFOkYuSVFfTlBQRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUEUgKE5FVCkBAAAAX58BAAIAAAAFMzM2OTIBCAAAAAUAAAABMQEAAAAKMTk0NjQyNDAzMwMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMENt403+49sIpbUqTv7j2wg5Q0lRLk5BU0RBUUdTOkFBUEwuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkMgVEFYAQAAAGlhAAACAAAABDk2ODABCAAAAAUAAAABMQEAAAALLTIwNzMyMDM1MDgDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATBDbeNN/uPbCKW1Kk7+49sIL0NJUS5OQVNEQVFHUzpBQVBMLklRX0FQLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFQAQAAAGlhAAACAAAABTQ0MjQyAQgAAAAFAAAAATEBAAAACjE5ODk5MDk4MTQDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTkvMzAvMjAx</t>
+  </si>
+  <si>
+    <t>NwkAAAABMENt403+49sIpbUqTv7j2wgyQ0lRLk5ZU0U6R00uSVFfTlBQRS4xMDAwLjEvMS8yMDIxLi4uVVNELi5QUEUgKE5FVCkBAAAAVO6lAwIAAAAFMzg2MzIBCAAAAAUAAAABMQEAAAALLTIwNjI2NjAzMjkDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBDbeNN/uPbCKW1Kk7+49sIM0NJUS5OWVNFOkdNLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5DIFRBWAEAAABU7qUDAgAAAAM0NzQBCAAAAAUAAAABMQEAAAAKMjA3OTUyNTAwMwMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATBDbeNN/uPbCKW1Kk7+49sIKUNJUS5OWVNFOkdNLklRX0FQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFQAQAAAFTupQMCAAAABTI0MDYyAQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATBDbeNN/uPbCKW1Kk7+49sIM0NJUS5UU0U6NzIwMy5JUV9OUFBFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQEAAAC84AQAAgAAAAw1NTU3MS4zNzg3NDQBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyNwMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j</t>
+  </si>
+  <si>
+    <t>2wiltSpO/uPbCDRDSVEuVFNFOjcyMDMuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYAQAAALzgBAACAAAACzc4MTYuNTYyNDgyAQgAAAAFAAAAATEBAAAACjE4OTQxNTAxMzYDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCKW1Kk7+49sIL0NJUS5OQVNEQVFHUzpUU0xBLklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAABDGogECAAAABDM3NzEBCAAAAAUAAAABMQEAAAALLTIxMTM1Nzg5MTgDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCKW1Kk7+49sIOENJUS5OQVNEQVFHUzpUU0xBLklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFBFIChORVQpAQAAABDGogECAAAACTE1MDM2LjkxNwEIAAAABQAAAAExAQAAAAoxOTQ1ODczNTUxAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wiltSpO/uPbCDRDSVEuVFNFOjgwNTguSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkMgVEFYAQAAAIH/BwACAAAACjUyNy4wNjI3MTkBCAAAAAUAAAABMQEAAAALLTIxNDUwMTEyNjUDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAA</t>
+  </si>
+  <si>
+    <t>ATBDbeNN/uPbCKW1Kk7+49sIKkNJUS5UU0U6ODA1OC5JUV9BUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5BUAEAAACB/wcAAgAAAAwyMjQzMS45Mjg1ODgBCAAAAAUAAAABMQEAAAAKMTg5Mzk5Nzk1NAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwQ23jTf7j2wiltSpO/uPbCDdDSVEuS09TRTpBMDA1MzgwLklRX05QUEUuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFBFIChORVQpAQAAAExZDQACAAAADDUwOTM0LjI5NjkwOQEIAAAABQAAAAExAQAAAAstMjA1NzExNjE5NwMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIpbUqTv7j2wg4Q0lRLktPU0U6QTAwNTM4MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAATFkNAAIAAAAKNzk0LjU3NzI5MQEIAAAABQAAAAExAQAAAAoyMDE5Njc0OTkxAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIpbUqTv7j2wguQ0lRLktPU0U6QTAwNTM4MC5JUV9BUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5BUAEAAABMWQ0AAgAAAAs2MDE3LjUyNTAxMwEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAox</t>
+  </si>
+  <si>
+    <t>Mi8zMS8yMDE1CQAAAAEwQ23jTf7j2wiltSpO/uPbCDdDSVEuS09TRTpBMDAwMjcwLklRX05QUEUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFBFIChORVQpAQAAALbcJQACAAAADDEzMjk3LjM3NTA5NAEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwQ23jTf7j2wiVjipO/uPbCDhDSVEuS09TRTpBMDAwMjcwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5DIFRBWAEAAAC23CUAAgAAAAk1NzAuOTc3NjQBCAAAAAUAAAABMQEAAAAKMTg3NTg3NTE3NQMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCJWOKk7+49sIKUNJUS5OWVNFOkhELklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAAJdABAACAAAABDc3NTUBCAAAAAUAAAABMQEAAAAKMjA4NTczOTg2MgMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAIMi8zLzIwMTkJAAAAATBDbeNN/uPbCJWOKk7+49sIMkNJUS5OWVNFOkhELklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFBFIChORVQpAQAAAJdABAACAAAABTIyMTkxAQgAAAAFAAAAATEBAAAACjE4Nzk1NTU1NzMDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTEv</t>
+  </si>
+  <si>
+    <t>MzEvMjAxNgkAAAABMENt403+49sIlY4qTv7j2wg0Q0lRLk5ZU0U6SE1DLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5DIFRBWAEAAACVQQQAAgAAAAsyNjAyLjA1MjEzMQEIAAAABQAAAAExAQAAAAstMjA5MDgyMjY2MQMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMENt403+49sIlY4qTv7j2wgqQ0lRLk5ZU0U6SE1DLklRX0FQLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFQAQAAAJVBBAACAAAADDEwNjEyLjk1MDgzMgEIAAAABQAAAAExAQAAAAoxOTY4Nzk3NTIyAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCJWOKk7+49sIM0NJUS5UU0U6NzI2OS5JUV9OUFBFLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlBQRSAoTkVUKQEAAAAPLgoAAgAAAAs4NTUxLjM2NTYyNQEIAAAABQAAAAExAQAAAAoyMDQzNzY0NTgzAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCJWOKk7+49sINENJUS5UU0U6NzI2OS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAADy4KAAIAAAALMTAyMi40ODQ4NjYBCAAAAAUAAAABMQEAAAAKMTg5NTAwMjQxOAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTkI</t>
+  </si>
+  <si>
+    <t>AAAACTMvMzEvMjAxOAkAAAABMENt403+49sIlY4qTv7j2wgqQ0lRLlRTRTo3MjY5LklRX0FQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFQAQAAAA8uCgACAAAACzM5OTkuOTE2NzM5AQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIlY4qTv7j2wgzQ0lRLlRTRTo3MjcwLklRX05QUEUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFBFIChORVQpAQAAAFJXDQACAAAACjY2MjAuMjkxMjYBCAAAAAUAAAABMQEAAAAKMTg5NDU2Nzc1MgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j2wiVjipO/uPbCDRDSVEuVFNFOjcyNzAuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYAQAAAFJXDQACAAAACzE2MjUuNTI1MDI1AQgAAAAFAAAAATEBAAAACjE4NjA0MTE2NjkDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCJWOKk7+49sIKkNJUS5YVFJBOkRBSS5JUV9BUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5BUAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIlY4qTv7j2wgzQ0lRLlhUUkE6REFJLklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4u</t>
+  </si>
+  <si>
+    <t>UFBFIChORVQpBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wiVjipO/uPbCDVDSVEuT006Vk9MViBCLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5DIFRBWAEAAAA3xAQAAgAAAAo3MTEuNDU3MzQ3AQgAAAAFAAAAATEBAAAACy0yMTEwNDE2OTgxAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIlY4qTv7j2wgrQ0lRLk9NOlZPTFYgQi5JUV9BUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5BUAEAAAA3xAQAAgAAAAo3OTI4LjY2OTkzAQgAAAAFAAAAATEBAAAACjE5NDk0OTU3OTIDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATBDbeNN/uPbCJWOKk7+49sISENJUS5YVFJBOkRBSS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIlY4qTv7j2wgqQ0lRLlRTRTo3MjcwLklRX0FQLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFQAQAAAFJXDQACAAAACjMxMjQuNjkxMTQBCAAAAAUAAAABMQEAAAAKMjA0MzE1Mjc1OQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwQ23jTf7j2wh+ZypO</t>
+  </si>
+  <si>
+    <t>/uPbCDVDSVEuT006Vk9MViBCLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAAA3xAQAAgAAAAsxMTA2LjUyMzYzOAEIAAAABQAAAAExAQAAAAoyMDgyNDE1NjAyAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMENt403+49sIfmcqTv7j2whGQ0lRLk5ZU0U6Ri5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABfnwEAAgAAAAQtNzI5AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIlY4qTv7j2whIQ0lRLlRTRTo3MjAzLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAALzgBAACAAAACjE3NDYuNzk4NDcBCAAAAAUAAAABMQEAAAALLTIwOTA4MTAzOTcDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwQ23jTf7j2wiVjipO/uPbCEJDSVEuTkFTREFRR1M6VFNMQS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAEMaiAQMAAAAAAENt403+49sIfmcqTv7j2whIQ0lRLlRTRTo4MDU4LklRX05FVF9JTlRF</t>
+  </si>
+  <si>
+    <t>UkVTVF9FWFAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAIH/BwACAAAACjY0My4xMjkxOTkBCAAAAAUAAAABMQEAAAAKMTg1MTExMDEzNAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCH5nKk7+49sIQUNJUS5LT1NFOkEwMDUzODAuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAExZDQACAAAACzYxMjEuMDAzNDk3AQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wh+ZypO/uPbCEdDSVEuTllTRTpIRC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACXQAQAAgAAAAQtOTgzAQgAAAAFAAAAATEBAAAACjIwMjM3NTc0NTYDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMS8yOC8yMDE4CQAAAAEwQ23jTf7j2wh+ZypO/uPbCEhDSVEuWFRSQTpEQUkuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilDbeNN/uPbCH5nKk7+49sISUNJUS5PTTpWT0xWIEIu</t>
+  </si>
+  <si>
+    <t>SVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAN8QEAAIAAAALLTE2NC42OTkyNzIBCAAAAAUAAAABMQEAAAAKMTkwODM4NTE4MAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wh+ZypO/uPbCDhDSVEuTkFTREFRR1M6QUFQTC5JUV9OUFBFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQEAAABpYQAAAgAAAAU0MTMwNAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATBDbeNN/uPbCH5nKk7+49sIMkNJUS5OWVNFOkdNLklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFBFIChORVQpAQAAAFTupQMCAAAABTMyNjAzAQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCH5nKk7+49sIOENJUS5OQVNEQVFHUzpUU0xBLklRX05QUEUuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFBFIChORVQpAQAAABDGogECAAAABTIzMzc1AQgAAAAFAAAAATEBAAAACy0yMDYyNjgxMDY1AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEw</t>
+  </si>
+  <si>
+    <t>Q23jTf7j2wh+ZypO/uPbCC5DSVEuS09TRTpBMDA1MzgwLklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAAExZDQACAAAACzY2NDMuMTI0Njg5AQgAAAAFAAAAATEBAAAACjIwODM3OTczNTUDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCH5nKk7+49sIMkNJUS5OWVNFOkhELklRX05QUEUuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFBFIChORVQpAQAAAJdABAACAAAABTI4MzY1AQgAAAAFAAAAATEBAAAACy0yMTA3MjIwNzUzAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAgyLzIvMjAyMAkAAAABMENt403+49sIfmcqTv7j2wgzQ0lRLlhUUkE6REFJLklRX05QUEUuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFBFIChORVQpBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wh+ZypO/uPbCDVDSVEuT006Vk9MViBCLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5DIFRBWAEAAAA3xAQAAgAAAAo2NjEuODgxNzU2AQgAAAAFAAAAATEBAAAACjE5MDgzODUxODADAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wh0QCpO/uPbCD1DSVEuVFNFOjgwNTguSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlNUIElO</t>
+  </si>
+  <si>
+    <t>VkVTVE1FTlRTAQAAAIH/BwACAAAACzMxNzQuMzk3OTI5AQgAAAAFAAAAATEBAAAACjE3OTc0NzQwNDUDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIdEAqTv7j2whBQ0lRLktPU0U6QTAwNTM4MC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAATFkNAAIAAAAMMTcwOTcuMDIyMjM2AQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwQ23jTf7j2wh+ZypO/uPbCEhDSVEuWFRSQTpEQUkuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilDbeNN/uPbCH5nKk7+49sIKUNJUS5OWVNFOkdNLklRX0FQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFQAQAAAFTupQMCAAAABTIzMzMzAQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCHRAKk7+49sIOENJUS5OQVNEQVFHUzpUU0xBLklRX05QUEUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFBFIChORVQpAQAAABDGogECAAAACTIwNDkxLjYx</t>
+  </si>
+  <si>
+    <t>NgEIAAAABQAAAAExAQAAAAoyMDEzOTA3NDcwAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwQ23jTf7j2wh0QCpO/uPbCDhDSVEuS09TRTpBMDA1MzgwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAABMWQ0AAgAAAAo4NDcuMjMwOTE2AQgAAAAFAAAAATEBAAAACjIwODM3OTczNTUDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wh0QCpO/uPbCDdDSVEuS09TRTpBMDAwMjcwLklRX05QUEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFBFIChORVQpAQAAALbcJQACAAAADDEzNjM5LjUwMjE5MgEIAAAABQAAAAExAQAAAAoyMDgzNjg1MjI5AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wh0QCpO/uPbCDRDSVEuVFNFOjcyNzAuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTkMgVEFYAQAAAFJXDQACAAAACjk5Ni43OTgyMjEBCAAAAAUAAAABMQEAAAAKMTg2MDQxMTU4OQMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMENt403+49sIdEAqTv7j2wg9Q0lRLlRTRTo4MDU4LklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5MVF9J</t>
+  </si>
+  <si>
+    <t>TlZFU1RNRU5UUwEAAACB/wcAAgAAAAw0NjgzOC4xMDkzMzgBCAAAAAUAAAABMQEAAAALLTIxNDUwMTEyNjUDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMENt403+49sIdEAqTv7j2whIQ0lRLlRTRTo4MDU4LklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAIH/BwACAAAACzEzMjMuODE4Njc4AQgAAAAFAAAAATEBAAAACjE3OTc0NzQwNDUDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwQ23jTf7j2wh0QCpO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC23CUAAgAAAAwxMTAzMy45MDM2MTgBCAAAAAUAAAABMQEAAAAKMTg3NTg3NTE3NQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMENt403+49sIdEAqTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAN8QEAAIAAAALMjE3NC4zMTAwODgBCAAAAAUAAAABMQEAAAALLTIxMTA0MTY5ODEDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIw</t>
+  </si>
+  <si>
+    <t>MjAJAAAAATBDbeNN/uPbCHRAKk7+49sIRkNJUS5OWVNFOkYuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAX58BAAIAAAAELTU0NgEIAAAABQAAAAExAQAAAAstMjExMzY5MjQ2MQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wh0QCpO/uPbCDtDSVEuTllTRTpGLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABfnwEAAgAAAAQzNTIzAQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCHRAKk7+49sIQkNJUS5OQVNEQVFHUzpBQVBMLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABpYQAAAgAAAAU1MTcxMwEIAAAABQAAAAExAQAAAAstMjEyNDY1OTc0MwMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJOS8yOC8yMDE5CQAAAAEwQ23jTf7j2wh0QCpO/uPbCE1DSVEuTkFTREFRR1M6QUFQTC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABpYQAAAgAAAAQyODc4AQgAAAAFAAAAATEBAAAA</t>
+  </si>
+  <si>
+    <t>CjE5ODk5MDk4MTQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwQ23jTf7j2whlGSpO/uPbCDxDSVEuTllTRTpHTS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAENjgyNQEIAAAABQAAAAExAQAAAAstMjA2MjY2MDMyOQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIdEAqTv7j2wg8Q0lRLk5ZU0U6R00uSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAFTupQMCAAAABDgzMTMBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIdEAqTv7j2whHQ0lRLk5ZU0U6R00uSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAVO6lAwIAAAAELTI1NgEIAAAABQAAAAExAQAAAAoxODczMzAyMzc3AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATBDbeNN/uPbCHRAKk7+49sIPUNJUS5UU0U6NzIwMy5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNU</t>
+  </si>
+  <si>
+    <t>TUVOVFMBAAAAvOAEAAIAAAANMTA2NzYwLjkyMDI2OAEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATBDbeNN/uPbCGUZKk7+49sIPUNJUS5UU0U6NzIwMy5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAvOAEAAIAAAAMMjAwMDkuMTg0NDkzAQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIZRkqTv7j2whNQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAEMaiAQIAAAAELTY4MQEIAAAABQAAAAExAQAAAAstMjExMzU3ODkxOAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2whlGSpO/uPbCEJDSVEuTkFTREFRR1M6VFNMQS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAEMaiAQMAAAAAAENt403+49sIZRkqTv7j2wg9Q0lRLlRTRTo4MDU4LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAACB/wcAAgAAAAsx</t>
+  </si>
+  <si>
+    <t>OTMzLjQ4OTY5OAEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCGUZKk7+49sISENJUS5UU0U6ODA1OC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACB/wcAAgAAAAo3NDMuMDY3Mjc2AQgAAAAFAAAAATEBAAAACjE4OTM5OTc5NTQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwQ23jTf7j2whlGSpO/uPbCEFDSVEuS09TRTpBMDA1MzgwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABMWQ0AAgAAAAwyMDgzMC45NjE1NTIBCAAAAAUAAAABMQEAAAALLTIwNTcxMTYxOTcDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATBDbeNN/uPbCGUZKk7+49sIQUNJUS5LT1NFOkEwMDUzODAuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAExZDQACAAAACzcyNjQuMTc5NjAzAQgAAAAFAAAAATEBAAAACjE5NDg3MTA1ODYDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATBDbeNN/uPbCGUZKk7+49sI</t>
+  </si>
+  <si>
+    <t>TENJUS5LT1NFOkEwMDUzODAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAATFkNAAIAAAAKMjA4LjU4MjA2OQEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATBDbeNN/uPbCGUZKk7+49sIQUNJUS5LT1NFOkEwMDAyNzAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAALbcJQACAAAADDEyMzAzLjcxNjY5NwEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwQ23jTf7j2whlGSpO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAC23CUAAgAAAAs0ODg0LjQ2MDQ0NgEIAAAABQAAAAExAQAAAAoxODMxNjQ0MTE0AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2whlGSpO/uPbCEdDSVEuTllTRTpIRC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACXQAQAAgAAAAQtOTU4AQgAAAAFAAAAATEBAAAA</t>
+  </si>
+  <si>
+    <t>CjIwODU3Mzk4NjIDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAIMi8zLzIwMTkJAAAAATBDbeNN/uPbCGUZKk7+49sIPENJUS5OWVNFOkhELklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAACXQAQAAwAAAAAAQ23jTf7j2whlGSpO/uPbCD1DSVEuTllTRTpITUMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJVBBAACAAAACzE0NzMuNDU5MDI5AQgAAAAFAAAAATEBAAAACy0yMTQ1MzExNTQ1AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCGUZKk7+49sISENJUS5OWVNFOkhNQy5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACVQQQAAgAAAAoyMjIuODc4OTI3AQgAAAAFAAAAATEBAAAACjE5Njg3OTc1MjIDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwQ23jTf7j2whlGSpO/uPbCD1DSVEuVFNFOjcyNjkuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAA8uCgACAAAACzY1MzcuNDUzMTQ4AQgAAAAFAAAAATEBAAAACjIwNDM3NjQ1ODMDAAAAAzE2MAIAAAAEMTA1NAQA</t>
+  </si>
+  <si>
+    <t>AAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMENt403+49sIZRkqTv7j2wg9Q0lRLlRTRTo3MjY5LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAPLgoAAgAAAAszMDM4LjE3MDQ0OQEIAAAABQAAAAExAQAAAAoxODQ5MDI2NzI3AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCFPyKU7+49sISENJUS5UU0U6NzI2OS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAAPLgoAAgAAAAoxMzEuODk0MzI3AQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwQ23jTf7j2whT8ilO/uPbCD1DSVEuVFNFOjcyNzAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAFJXDQACAAAACjIxMjIuODU2ODQBCAAAAAUAAAABMQEAAAAKMTg5NDU2Nzc1MgMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j2whT8ilO/uPbCD1DSVEuVFNFOjcyNzAuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAFJX</t>
+  </si>
+  <si>
+    <t>DQACAAAACzM3MDYuNDUwNjExAQgAAAAFAAAAATEBAAAACjE3NDQ5NDYzMTgDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIU/IpTv7j2whIQ0lRLlhUUkE6REFJLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2whT8ilO/uPbCD1DSVEuWFRSQTpEQUkuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLkxUX0lOVkVTVE1FTlRTBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2whT8ilO/uPbCD5DSVEuT006Vk9MViBCLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAA3xAQAAgAAAAgyMS40MDg5OQEIAAAABQAAAAExAQAAAAoyMDgyNDE1NjAyAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2whT8ilO/uPbCElDSVEuT006Vk9MViBCLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAADfEBAACAAAACy0xODkuNzIzMTg1AQgAAAAFAAAAATEBAAAACjE5NDk0OTU3OTIDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAA</t>
+  </si>
+  <si>
+    <t>AAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIU/IpTv7j2wgvQ0lRLk5BU0RBUUdTOlRTTEEuSVFfQVAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVABAAAAEMaiAQIAAAAIMTg2MC4zNDEBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMENt403+49sIU/IpTv7j2wgzQ0lRLlRTRTo4MDU4LklRX05QUEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFBFIChORVQpAQAAAIH/BwACAAAADDE5NTczLjcwMjEzNQEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCFPyKU7+49sINENJUS5UU0U6ODA1OC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOQyBUQVgBAAAAgf8HAAIAAAALMTA4OC40ODQzMjEBCAAAAAUAAAABMQEAAAAKMTg5Mzk5Nzk1NAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMENt403+49sIU/IpTv7j2wguQ0lRLktPU0U6QTAwNTM4MC5JUV9BUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5BUAEAAABMWQ0AAgAAAAs4MDc5Ljk2NDI1MQEIAAAABQAAAAExAQAAAAstMjA1NzExNjE5NwMAAAADMTYwAgAAAAQxMDE4BAAA</t>
+  </si>
+  <si>
+    <t>AAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMENt403+49sIU/IpTv7j2wg3Q0lRLktPU0U6QTAwNTM4MC5JUV9OUFBFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBQRSAoTkVUKQEAAABMWQ0AAgAAAAw0NzMyNC43MjI3MzEBCAAAAAUAAAABMQEAAAAKMTk0ODcxMDU4NgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIU/IpTv7j2wg3Q0lRLktPU0U6QTAwMDI3MC5JUV9OUFBFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBQRSAoTkVUKQEAAAC23CUAAgAAAAwxMTA4My4xNjgzNDIBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMENt403+49sIU/IpTv7j2wgzQ0lRLk5ZU0U6SEQuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTkMgVEFYAQAAAJdABAACAAAABDM0MzUBCAAAAAUAAAABMQEAAAAKMjA4NTczOTg2MgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACDIvMy8yMDE5CQAAAAEwQ23jTf7j2whT8ilO/uPbCDNDSVEuTllTRTpITUMuSVFfTlBQRS4xMDAwLjEvMS8yMDIwLi4uVVNELi5QUEUgKE5FVCkBAAAAlUEEAAIAAAAMMjY5MDkuNDgzODc5AQgAAAAFAAAAATEBAAAACy0yMTQ1MzExNTQ1</t>
+  </si>
+  <si>
+    <t>AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCFPyKU7+49sINENJUS5OWVNFOkhNQy5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOQyBUQVgBAAAAlUEEAAIAAAALMjkzOC4wNDQ4ODcBCAAAAAUAAAABMQEAAAAKMTk2ODc5NzUyMgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMENt403+49sIP8spTv7j2wgzQ0lRLlRTRTo3MjY5LklRX05QUEUuMTAwMC4xLzEvMjAxOC4uLlVTRC4uUFBFIChORVQpAQAAAA8uCgACAAAACzY3ODMuMzU0MzYyAQgAAAAFAAAAATEBAAAACjE4NDkwMjY3MjcDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMENt403+49sIP8spTv7j2wg0Q0lRLlRTRTo3MjY5LklRX0lOQ19UQVguMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5DIFRBWAEAAAAPLgoAAgAAAAo1NDYuODcwNTgzAQgAAAAFAAAAATEBAAAACjE3NDU1MjgwMDQDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATBDbeNN/uPbCD/LKU7+49sINENJUS5YVFJBOkRBSS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOQyBUQVgFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcilDbeNN</t>
+  </si>
+  <si>
+    <t>/uPbCD/LKU7+49sIKkNJUS5YVFJBOkRBSS5JUV9BUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5BUAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKUNt403+49sIP8spTv7j2wg0Q0lRLk9NOlZPTFYgQi5JUV9OUFBFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBQRSAoTkVUKQEAAAA3xAQAAgAAAAwxMDM1NS4xMDAxODYBCAAAAAUAAAABMQEAAAAKMjA4MjQxNTYwMgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMENt403+49sIP8spTv7j2wg1Q0lRLk9NOlZPTFYgQi5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOQyBUQVgBAAAAN8QEAAIAAAAKODMyLjkyNTA5NQEIAAAABQAAAAExAQAAAAoxOTQ5NDk1NzkyAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIP8spTv7j2wg9Q0lRLlRTRTo3MjY5LklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAAPLgoAAgAAAAszMzk5LjUxNTc0NgEIAAAABQAAAAExAQAAAAoxODQ5MDI2NzI3AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCD/LKU7+49sIPUNJUS5UU0U6NzI3MC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4u</t>
+  </si>
+  <si>
+    <t>LlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAUlcNAAIAAAALMTUxNS4wMDk2MTQBCAAAAAUAAAABMQEAAAAKMTc0NDk0NjMxOAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwQ23jTf7j2wg/yylO/uPbCD1DSVEuWFRSQTpEQUkuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpQ23jTf7j2wg/yylO/uPbCD5DSVEuT006Vk9MViBCLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAA3xAQAAgAAAAsxNTIwLjAzODI3NgEIAAAABQAAAAExAQAAAAoyMDgyNDE1NjAyAwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wg/yylO/uPbCD5DSVEuT006Vk9MViBCLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAA3xAQAAgAAAAoxMzQuNzMzOTE5AQgAAAAFAAAAATEBAAAACjE5MDgzODUxODADAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATBDbeNN/uPbCD/LKU7+49sIMUNJUS5OWVNFOkYuSVFfTlBQRS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUEUgKE5FVCkBAAAAX58B</t>
+  </si>
+  <si>
+    <t>AAIAAAAFMzc4ODMBCAAAAAUAAAABMQEAAAAKMjA3ODg1ODI0MAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIP8spTv7j2wgyQ0lRLk5ZU0U6Ri5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOQyBUQVgBAAAAX58BAAIAAAAEMjE4NAEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMENt403+49sIP8spTv7j2wgvQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVAuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQVABAAAAaWEAAAIAAAAFNDYyMzYBCAAAAAUAAAABMQEAAAALLTIxMjQ2NTk3NDMDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMENt403+49sIP8spTv7j2wgzQ0lRLk5ZU0U6R00uSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTkMgVEFYAQAAAFTupQMCAAAABDE3NzQBCAAAAAUAAAABMQEAAAALLTIwNjI2NjAzMjkDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwQ23jTf7j2wg/yylO/uPbCClDSVEuTllTRTpHTS5JUV9BUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5BUAEAAABU7qUDAgAAAAUyMzkyOQEIAAAABQAAAAExAQAA</t>
+  </si>
+  <si>
+    <t>AAoyMDA4MDcwMTM3AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwQ23jTf7j2wgxpClO/uPbCCpDSVEuVFNFOjcyMDMuSVFfQVAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQVABAAAAvOAEAAIAAAAMMjAwODkuOTA3ODg4AQgAAAAFAAAAATEBAAAACjE4NDc4MjUxMjADAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIMaQpTv7j2wgzQ0lRLlRTRTo4MDU4LklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFBFIChORVQpAQAAAIH/BwACAAAADDIwNDQ2LjYzNDg5NAEIAAAABQAAAAExAQAAAAoxODUxMTEwMTM0AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCDGkKU7+49sILkNJUS5LT1NFOkEwMDUzODAuSVFfQVAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQVABAAAATFkNAAIAAAALNjA2OS41NjgzNTUBCAAAAAUAAAABMQEAAAAKMTk0ODcxMDU4NgMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIP8spTv7j2wguQ0lRLktPU0U6QTAwMDI3MC5JUV9BUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5BUAEAAAC23CUAAgAAAAs1MDAxLjYxNDQ0OAEIAAAABQAAAAExAQAA</t>
+  </si>
+  <si>
+    <t>AAoxODMxNjQ0MTE0AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2wgxpClO/uPbCDNDSVEuTllTRTpITUMuSVFfTlBQRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUEUgKE5FVCkBAAAAlUEEAAIAAAAMMjc5NDIuMDA2NTc2AQgAAAAFAAAAATEBAAAACjE4OTM4NDc3NzIDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMENt403+49sIMaQpTv7j2wgqQ0lRLlRTRTo3MjcwLklRX0FQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFQAQAAAFJXDQACAAAACzMyNjguNzgwNzk2AQgAAAAFAAAAATEBAAAACjE3NDQ5NDYzMTgDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMENt403+49sIMaQpTv7j2wgrQ0lRLk9NOlZPTFYgQi5JUV9BUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5BUAEAAAA3xAQAAgAAAAs3MTI4LjEyMzE1NAEIAAAABQAAAAExAQAAAAoyMDgyNDE1NjAyAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwQ23jTf7j2wgxpClO/uPbCDtDSVEuTllTRTpGLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUxODE4MQEIAAAABQAAAAEx</t>
+  </si>
+  <si>
+    <t>AQAAAAoxODczNDQ5NzgwAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2wgxpClO/uPbCD1DSVEuVFNFOjcyMDMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAALzgBAACAAAADDIyNjI0LjE5NzY0OQEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCDGkKU7+49sIQkNJUS5OQVNEQVFHUzpUU0xBLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAAQxqIBAgAAAAIxMgEIAAAABQAAAAExAQAAAAoyMDc5MTI4NjI1AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwQ23jTf7j2wgxpClO/uPbCD1DSVEuVFNFOjgwNTguSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAIH/BwACAAAADDQ0MzI0LjAyNzkxMQEIAAAABQAAAAExAQAAAAoxODUxMTEwMTM0AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATBDbeNN/uPbCDGkKU7+49sIQUNJUS5LT1NFOkEwMDAyNzAuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIw</t>
+  </si>
+  <si>
+    <t>MTguLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAALbcJQACAAAACjczMDguOTM5MzIBCAAAAAUAAAABMQEAAAAKMTk0ODIyNjQyMAMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIMaQpTv7j2wg9Q0lRLlRTRTo3MjY5LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAPLgoAAgAAAAsxNzA2LjAzNzMwOQEIAAAABQAAAAExAQAAAAoxOTcwMjEzMDA5AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCDGkKU7+49sISUNJUS5PTTpWT0xWIEIuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAN8QEAAIAAAAKLTExNC40MzEwNQEIAAAABQAAAAExAQAAAAoyMDgyNDE1NjAyAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCDGkKU7+49sIOUNJUS5OQVNEQVFHUzpBQVBMLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAABpYQAAAgAAAAUxMDQ4MQEIAAAABQAAAAExAQAAAAstMjEyNDY1OTc0MwMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAAB</t>
+  </si>
+  <si>
+    <t>MENt403+49sIMaQpTv7j2wg0Q0lRLlRTRTo3MjAzLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5DIFRBWAEAAAC84AQAAgAAAAs3NDQ2LjE5NTY2MwEIAAAABQAAAAExAQAAAAoxODQ3ODI1MTIwAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwQ23jTf7j2wgpfSlO/uPbCCpDSVEuVFNFOjgwNTguSVFfQVAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVABAAAAgf8HAAIAAAAMMTkwNjIuNDUwMTkzAQgAAAAFAAAAATEBAAAACjE4NTExMTAxMzQDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMENt403+49sIKX0pTv7j2wgyQ0lRLk5ZU0U6SEQuSVFfTlBQRS4xMDAwLjEvMS8yMDE2Li4uVVNELi5QUEUgKE5FVCkBAAAAl0AEAAIAAAAFMjI3MjABCAAAAAUAAAABMQEAAAAKMTgzMzE2OTk0NQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAIMi8xLzIwMTUJAAAAATBDbeNN/uPbCCl9KU7+49sIM0NJUS5UU0U6NzI2OS5JUV9OUFBFLjEwMDAuMS8xLzIwMjAuLi5VU0QuLlBQRSAoTkVUKQEAAAAPLgoAAgAAAAs4MTYwLjU5ODk3NAEIAAAABQAAAAExAQAAAAoxOTcwMjEzMDA5AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBD</t>
+  </si>
+  <si>
+    <t>beNN/uPbCDGkKU7+49sIM0NJUS5UU0U6NzI3MC5JUV9OUFBFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBQRSAoTkVUKQEAAABSVw0AAgAAAAs1ODk0Ljc1MzQ1MgEIAAAABQAAAAExAQAAAAoxODYwNDExNTg5AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATBDbeNN/uPbCCl9KU7+49sIO0NJUS5OWVNFOkYuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAF+fAQACAAAABDMyNDQBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMENt403+49sIKX0pTv7j2wg9Q0lRLlRTRTo4MDU4LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAACB/wcAAgAAAAsyMjg3Ljc5MjU4NQEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATBDbeNN/uPbCCl9KU7+49sIQUNJUS5LT1NFOkEwMDAyNzAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAALbcJQACAAAADDEyNjA3LjAzNzkzNAEIAAAABQAAAAExAQAAAAoxOTQ4MjI2NDIwAwAAAAMxNjACAAAABDEw</t>
+  </si>
+  <si>
+    <t>NTQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwQ23jTf7j2wgpfSlO/uPbCEhDSVEuTllTRTpITUMuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAlUEEAAIAAAAKMTI3LjA5MTQ4NgEIAAAABQAAAAExAQAAAAoxODkzODQ3NzcyAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMENt403+49sIKX0pTv7j2whIQ0lRLlRTRTo3MjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAFJXDQACAAAACjEwNy4zMDI4NDMBCAAAAAUAAAABMQEAAAAKMjA0MzE1Mjc1OQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATBDbeNN/uPbCCl9KU7+49sIMkNJUS5OWVNFOkYuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTkMgVEFYAQAAAF+fAQACAAAAAzY1MAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQwAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMENt403+49sIKX0pTv7j2wgpQ0lRLk5ZU0U6R00uSVFfQVAuMTAwMC4xLzEvMjAyMC4uLlVTRC4uQVABAAAAVO6lAwIAAAAFMjEwMTgBCAAAAAUAAAABMQEA</t>
+  </si>
+  <si>
+    <t>AAALLTIxMTM4ODAyMzMDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATBDbeNN/uPbCCl9KU7+49sIM0NJUS5UU0U6ODA1OC5JUV9OUFBFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQEAAACB/wcAAgAAAAsxOTgzMS40MTE4OQEIAAAABQAAAAExAQAAAAoxOTY5MDkzMTg0AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATBDbeNN/uPbCCl9KU7+49sILkNJUS5LT1NFOkEwMDAyNzAuSVFfQVAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQVABAAAAttwlAAIAAAALNDc4Ni41NTQ0NDMBCAAAAAUAAAABMQEAAAAKMTk0ODIyNjQyMAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIKX0pTv7j2wgzQ0lRLk5ZU0U6SEQuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTkMgVEFYAQAAAJdABAACAAAABDUwNjgBCAAAAAUAAAABMQEAAAAKMjAyMzc1NzQ1NgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTEvMjgvMjAxOAkAAAABMENt403+49sIKX0pTv7j2wg0Q0lRLlhUUkE6REFJLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5DIFRBWAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVy</t>
+  </si>
+  <si>
+    <t>KUNt403+49sIKX0pTv7j2wg7Q0lRLk5ZU0U6Ri5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAX58BAAIAAAAFMTc1NTQBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMENt403+49sIZlYpTv7j2whCQ0lRLk5BU0RBUUdTOkFBUEwuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAGlhAAACAAAABTIwNDgxAQgAAAAFAAAAATEBAAAACjE4NjM5OTY2ODQDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTkvMjYvMjAxNQkAAAABMENt403+49sIZlYpTv7j2wg8Q0lRLk5ZU0U6R00uSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAFTupQMCAAAABDgwNTIBCAAAAAUAAAABMQEAAAAKMTk0MzkyMjc4NAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMENt403+49sIKX0pTv7j2whCQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAABDGogEDAAAAAABDbeNN/uPbCCl9KU7+49sIPUNJUS5UU0U6ODA1OC5JUV9MVF9JTlZFU1QuMTAw</t>
+  </si>
+  <si>
+    <t>MC4xLzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAgf8HAAIAAAALNTAxOTUuMzQxNTgBCAAAAAUAAAABMQEAAAAKMTk2OTA5MzE4NAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwQ23jTf7j2whmVilO/uPbCDxDSVEuTllTRTpIRC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAl0AEAAIAAAADMTIwAQgAAAAFAAAAATEBAAAACy0yMTA3MjIwNzUzAwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAgyLzIvMjAyMAkAAAABMENt403+49sIZlYpTv7j2whIQ0lRLlRTRTo3MjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAFJXDQACAAAACDI0Ljg0MzA1AQgAAAAFAAAAATEBAAAACjE4NjA0MTE1ODkDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwQ23jTf7j2whmVilO/uPbCDJDSVEuTllTRTpGLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5DIFRBWAEAAABfnwEAAgAAAAQyODgxAQgAAAAFAAAAATEBAAAACjE4NzM0NDk3ODADAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwQ23jTf7j2whmVilO</t>
+  </si>
+  <si>
+    <t>/uPbCDNDSVEuTllTRTpHTS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOQyBUQVgBAAAAVO6lAwIAAAADNzY5AQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMENt403+49sIZlYpTv7j2wgzQ0lRLlRTRTo3MjAzLklRX05QUEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFBFIChORVQpAQAAALzgBAACAAAADDU1NzU3LjYyODQ2OQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATBDbeNN/uPbCGZWKU7+49sIM0NJUS5UU0U6ODA1OC5JUV9OUFBFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBQRSAoTkVUKQEAAACB/wcAAgAAAAwxOTk2Mi4xNzIyNDEBCAAAAAUAAAABMQEAAAAKMTc5NzQ3NDA0NQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwQ23jTf7j2whmVilO/uPbCDhDSVEuS09TRTpBMDAwMjcwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5DIFRBWAEAAAC23CUAAgAAAAoxNjEuMDQyMzA4AQgAAAAFAAAAATEBAAAACjE5NDgyMjY0MjADAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEw</t>
+  </si>
+  <si>
+    <t>Q23jTf7j2whmVilO/uPbCDNDSVEuTllTRTpIRC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOQyBUQVgBAAAAl0AEAAIAAAAEMzYzMQEIAAAABQAAAAExAQAAAAoxODMzMTY5OTQ1AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAIMi8xLzIwMTUJAAAAATArl+NN/uPbCGZWKU7+49sIKkNJUS5OWVNFOkhNQy5JUV9BUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5BUAEAAACVQQQAAgAAAAwxMTUzMC43ODUzNDkBCAAAAAUAAAABMQEAAAAKMjA0MTg3ODQ5OAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2whmVilO/uPbCCpDSVEuWFRSQTpEQUkuSVFfQVAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uQVAFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcikrl+NN/uPbCGZWKU7+49sITENJUS5LT1NFOkEwMDAyNzAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAttwlAAIAAAAIMy42ODczNDEBCAAAAAUAAAABMQEAAAAKMjA4MzY4NTIyOQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwK5fjTf7j2whmVilO/uPbCD1DSVEuTllTRTpITUMuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0Qu</t>
+  </si>
+  <si>
+    <t>LkxUX0lOVkVTVE1FTlRTAQAAAJVBBAACAAAADDEwMTk2LjgyNzY4NAEIAAAABQAAAAExAQAAAAstMjA5MDgyMjY2MQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwK5fjTf7j2wgHLylO/uPbCEhDSVEuTllTRTpITUMuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAlUEEAAIAAAAJMTAyLjg5MTkxAQgAAAAFAAAAATEBAAAACjE4NDc3NzI1MDYDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwK5fjTf7j2wgHLylO/uPbCD1DSVEuVFNFOjcyNzAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAFJXDQACAAAACzEwMDAuMzczNzU0AQgAAAAFAAAAATEBAAAACjE4NjA0MTE2NjkDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMCuX403+49sIBy8pTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAN8QEAAIAAAAJMjEuNzQ1NDc4AQgAAAAFAAAAATEBAAAACjE5NDk0OTU3OTIDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAA</t>
+  </si>
+  <si>
+    <t>ATArl+NN/uPbCAcvKU7+49sIMkNJUS5OWVNFOkYuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTkMgVEFYAQAAAF+fAQACAAAABC03MjQBCAAAAAUAAAABMQEAAAALLTIxMTM2OTI0NjEDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwK5fjTf7j2wgHLylO/uPbCChDSVEuTllTRTpGLklRX0FQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFQAQAAAF+fAQACAAAABTIxMjk2AQgAAAAFAAAAATEBAAAACjE5NDY0MjQwMzMDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATArl+NN/uPbCAcvKU7+49sIOENJUS5OQVNEQVFHUzpBQVBMLklRX05QUEUuMTAwMC4xLzEvMjAyMC4uLlVTRC4uUFBFIChORVQpAQAAAGlhAAACAAAABTM3Mzc4AQgAAAAFAAAAATEBAAAACy0yMTI0NjU5NzQzAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAk5LzI4LzIwMTkJAAAAATArl+NN/uPbCAcvKU7+49sIOUNJUS5OQVNEQVFHUzpBQVBMLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5DIFRBWAEAAABpYQAAAgAAAAUxNTczOAEIAAAABQAAAAExAQAAAAoxOTg5OTA5ODE0AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwK5fjTf7j2wgH</t>
+  </si>
+  <si>
+    <t>LylO/uPbCClDSVEuTllTRTpHTS5JUV9BUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5BUAEAAABU7qUDAgAAAAUxOTkyOAEIAAAABQAAAAExAQAAAAstMjA2MjY2MDMyOQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMCuX403+49sIBy8pTv7j2wgyQ0lRLk5ZU0U6R00uSVFfTlBQRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUEUgKE5FVCkBAAAAVO6lAwIAAAAFMzYyNTMBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMCuX403+49sIBy8pTv7j2wgzQ0lRLk5ZU0U6R00uSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkMgVEFYAQAAAFTupQMCAAAABS0xMjE5AQgAAAAFAAAAATEBAAAACjE4NzMzMDIzNzcDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwK5fjTf7j2wgHLylO/uPbCCpDSVEuVFNFOjcyMDMuSVFfQVAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVABAAAAvOAEAAIAAAAMMjQzNTUuMzIzNDA4AQgAAAAFAAAAATEBAAAACjIwNDIzMjI0MjcDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMCuX403+49sIBy8pTv7j2wgzQ0lRLlRTRTo3MjAz</t>
+  </si>
+  <si>
+    <t>LklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpAQAAALzgBAACAAAADDQ0NTU4LjMyMjQwNQEIAAAABQAAAAExAQAAAAoxODQ3ODI1MTIwAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATArl+NN/uPbCAcvKU7+49sIOUNJUS5OQVNEQVFHUzpUU0xBLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAAAQxqIBAgAAAAMxMTABCAAAAAUAAAABMQEAAAALLTIxMTM1Nzg5MTgDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwK5fjTf7j2wgHLylO/uPbCDhDSVEuS09TRTpBMDA1MzgwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5DIFRBWAEAAABMWQ0AAgAAAAsxNjU3LjI4Mjg1OAEIAAAABQAAAAExAQAAAAoxODMwMzgxNjc5AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMCuX403+49sIBy8pTv7j2wguQ0lRLktPU0U6QTAwMDI3MC5JUV9BUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5BUAEAAAC23CUAAgAAAAs1NjA5LjY1MDI5NQEIAAAABQAAAAExAQAAAAoyMDIxNTMwNjIzAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wgHLylO/uPb</t>
+  </si>
+  <si>
+    <t>CClDSVEuTllTRTpIRC5JUV9BUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5BUAEAAACXQAQAAgAAAAQ2NTY1AQgAAAAFAAAAATEBAAAACjE4Nzk1NTU1NzMDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTEvMzEvMjAxNgkAAAABMCuX403+49sI9QcpTv7j2wgqQ0lRLlRTRTo3MjY5LklRX0FQLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkFQAQAAAA8uCgACAAAACzMwNjUuNjAzMDE2AQgAAAAFAAAAATEBAAAACjIwNDM3NjQ1ODMDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMCuX403+49sI9QcpTv7j2wgqQ0lRLlRTRTo3MjcwLklRX0FQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFQAQAAAFJXDQACAAAACzM2MjUuMDY0OTA1AQgAAAAFAAAAATEBAAAACjE4OTQ1Njc3NTIDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMCuX403+49sI9QcpTv7j2wgzQ0lRLlRTRTo3MjcwLklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpAQAAAFJXDQACAAAACjQyODkuNDk5MjEBCAAAAAUAAAABMQEAAAAKMTc0NDk0NjMxOAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwK5fjTf7j2wj1BylO/uPbCD1DSVEuVFNFOjcyNzAuSVFfU1Rf</t>
+  </si>
+  <si>
+    <t>SU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAFJXDQACAAAACjE4OTkuMzQyMTEBCAAAAAUAAAABMQEAAAAKMjA0MzE1Mjc1OQMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwK5fjTf7j2wj1BylO/uPbCEhDSVEuVFNFOjcyNzAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAUlcNAAIAAAAJNjQuMDkzMDMxAQgAAAAFAAAAATEBAAAACjE4OTQ1Njc3NTIDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2wj1BylO/uPbCDhDSVEuS09TRTpBMDAwMjcwLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5DIFRBWAEAAAC23CUAAgAAAAkyODAuODkwMjQBCAAAAAUAAAABMQEAAAAKMjAyMTUzMDYyMwMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATArl+NN/uPbCPUHKU7+49sIM0NJUS5YVFJBOkRBSS5JUV9OUFBFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKSuX403+49sI9QcpTv7j2whCQ0lRLk5BU0RBUUdTOkFBUEwuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5V</t>
+  </si>
+  <si>
+    <t>U0QuLkxUX0lOVkVTVE1FTlRTAQAAAGlhAAACAAAABjE3MDQzMAEIAAAABQAAAAExAQAAAAoxOTE5MzM0NDg0AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAk5LzI0LzIwMTYJAAAAATArl+NN/uPbCPUHKU7+49sISENJUS5UU0U6NzIwMy5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAC84AQAAgAAAAsxMDM1LjUxMTMxMwEIAAAABQAAAAExAQAAAAoxODQ3ODI1MTIwAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMCuX403+49sI9QcpTv7j2whBQ0lRLktPU0U6QTAwNTM4MC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAATFkNAAIAAAALNjM5My4xMDc4OTUBCAAAAAUAAAABMQEAAAAKMjA4Mzc5NzM1NQMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMCuX403+49sI9QcpTv7j2whBQ0lRLktPU0U6QTAwMDI3MC5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAttwlAAIAAAAMMTM5NzcuMzU4MDAyAQgAAAAFAAAAATEBAAAACy0yMTA4MzM1NDkyAwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8z</t>
+  </si>
+  <si>
+    <t>MS8yMDIwCQAAAAEwK5fjTf7j2wj1BylO/uPbCDxDSVEuTllTRTpIRC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAl0AEAAMAAAAAACuX403+49sI4+AoTv7j2whIQ0lRLlRTRTo3MjY5LklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAA8uCgACAAAACjEwOC4xMTY1OTQBCAAAAAUAAAABMQEAAAAKMTg0OTAyNjcyNwMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATArl+NN/uPbCPUHKU7+49sISENJUS5UU0U6NzI3MC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABSVw0AAgAAAAgxMC4yMDA4NQEIAAAABQAAAAExAQAAAAoxNzQ0OTQ2MzE4AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMCuX403+49sI9QcpTv7j2wg9Q0lRLlhUUkE6REFJLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5TVCBJTlZFU1RNRU5UUwUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKSuX403+49sI9QcpTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAA</t>
+  </si>
+  <si>
+    <t>N8QEAAIAAAALMTU0OC42MTM4MjIBCAAAAAUAAAABMQEAAAAKMTkwODM4NTE4MAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMCuX403+49sI4+AoTv7j2wgvQ0lRLk5BU0RBUUdTOkFBUEwuSVFfQVAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVABAAAAaWEAAAIAAAAFMzcyOTQBCAAAAAUAAAABMQEAAAAKMTkxOTMzNDQ4NAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJOS8yNC8yMDE2CQAAAAEwK5fjTf7j2wjj4ChO/uPbCDNDSVEuVFNFOjcyMDMuSVFfTlBQRS4xMDAwLjEvMS8yMDE4Li4uVVNELi5QUEUgKE5FVCkBAAAAvOAEAAIAAAAMNTExMjguNDEzMzIzAQgAAAAFAAAAATEBAAAACjE5NjkwNDc3NzMDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMCuX403+49sI4+AoTv7j2wg0Q0lRLlRTRTo4MDU4LklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5DIFRBWAEAAACB/wcAAgAAAAsxODU5LjI5OTY0NQEIAAAABQAAAAExAQAAAAoyMDQxOTQzMzgwAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwK5fjTf7j2wjj4ChO/uPbCCpDSVEuTllTRTpITUMuSVFfQVAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVABAAAAlUEE</t>
+  </si>
+  <si>
+    <t>AAIAAAAMMTAwMzkuNTI0MjkxAQgAAAAFAAAAATEBAAAACjE4OTM4NDc3NzIDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMCuX403+49sI4+AoTv7j2wgzQ0lRLlhUUkE6REFJLklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpK5fjTf7j2wjj4ChO/uPbCDxDSVEuTllTRTpHTS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAFMTE4NDEBCAAAAAUAAAABMQEAAAAKMTk0MzkyMjc4NAMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMCuX403+49sI4+AoTv7j2wg9Q0lRLlRTRTo3MjAzLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC84AQAAgAAAAw5NTkxNC45ODc5ODYBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwK5fjTf7j2wjj4ChO/uPbCD1DSVEuTllTRTpITUMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJVBBAACAAAACzIwMDcuMjIxOTc3AQgAAAAFAAAAATEBAAAA</t>
+  </si>
+  <si>
+    <t>CjIwNDE4Nzg0OTgDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMCuX403+49sI4+AoTv7j2wg9Q0lRLlRTRTo3MjY5LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAPLgoAAgAAAAsyNDg4LjE3MTgzNQEIAAAABQAAAAExAQAAAAoxNzk5MjQzNDgyAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATArl+NN/uPbCOPgKE7+49sIPUNJUS5YVFJBOkRBSS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uU1QgSU5WRVNUTUVOVFMFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcikrl+NN/uPbCOPgKE7+49sIPUNJUS5YVFJBOkRBSS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uTFRfSU5WRVNUTUVOVFMFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcikrl+NN/uPbCOPgKE7+49sIKENJUS5OWVNFOkYuSVFfQVAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQVABAAAAX58BAAIAAAAFMjAyNzIBCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMCuX403+49sI1bkoTv7j2wg0Q0lRLlRTRTo3MjAzLklRX0lOQ19UQVguMTAwMC4xLzEv</t>
+  </si>
+  <si>
+    <t>MjAyMS4uLlVTRC4uSU5DIFRBWAEAAAC84AQAAgAAAAs2MzM2LjQ3MTc0NAEIAAAABQAAAAExAQAAAAstMjA5MDgxMDM5NwMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMCuX403+49sI4+AoTv7j2wg5Q0lRLk5BU0RBUUdTOlRTTEEuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE5Li4uVVNELi5JTkMgVEFYAQAAABDGogECAAAAAjU4AQgAAAAFAAAAATEBAAAACjIwNzkxMjg2MjUDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wjj4ChO/uPbCDRDSVEuVFNFOjgwNTguSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYAQAAAIH/BwACAAAACjM1NC41ODM0NjYBCAAAAAUAAAABMQEAAAAKMTg1MTExMDEzNAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMCuX403+49sI4+AoTv7j2wg4Q0lRLktPU0U6QTAwMDI3MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjEuLi5VU0QuLklOQyBUQVgBAAAAttwlAAIAAAAKMzI1LjA3ODQ3MgEIAAAABQAAAAExAQAAAAstMjEwODMzNTQ5MgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATArl+NN/uPbCNW5KE7+49sIM0NJUS5OWVNFOkhNQy5JUV9OUFBF</t>
+  </si>
+  <si>
+    <t>LjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQEAAACVQQQAAgAAAAwyODgzNS4xMTI3MDcBCAAAAAUAAAABMQEAAAAKMjA0MTg3ODQ5OAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2wjVuShO/uPbCCpDSVEuVFNFOjcyNzAuSVFfQVAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQVABAAAAUlcNAAIAAAALMzEzNi42NTQ3NTYBCAAAAAUAAAABMQEAAAAKMTg2MDQxMTU4OQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwK5fjTf7j2wjVuShO/uPbCEZDSVEuTllTRTpGLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAF+fAQACAAAABC01NDABCAAAAAUAAAABMQEAAAAKMTg3MzQ0OTc4MAMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwK5fjTf7j2wjVuShO/uPbCEhDSVEuVFNFOjcyMDMuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAvOAEAAIAAAALMTE2Mi42MDA5MTQBCAAAAAUAAAABMQEAAAAKMTk2OTA0Nzc3MwMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAA</t>
+  </si>
+  <si>
+    <t>ATArl+NN/uPbCNW5KE7+49sITENJUS5LT1NFOkEwMDUzODAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAATFkNAAIAAAAKMTk3LjU5NDUzMgEIAAAABQAAAAExAQAAAAoyMDgzNzk3MzU1AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATArl+NN/uPbCNW5KE7+49sIPENJUS5OWVNFOkhELklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAACXQAQAAwAAAAAAK5fjTf7j2wjVuShO/uPbCEhDSVEuVFNFOjcyNjkuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAADy4KAAIAAAAJNDU3LjExNTc3AQgAAAAFAAAAATEBAAAACjE5NzAyMTMwMDkDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwK5fjTf7j2wjVuShO/uPbCD1DSVEuWFRSQTpEQUkuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlNUIElOVkVTVE1FTlRTBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpK5fjTf7j2wjVuShO/uPbCD5DSVEuT006Vk9MViBCLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAA3xAQA</t>
+  </si>
+  <si>
+    <t>AgAAAAozOTYuMTMzNDM0AQgAAAAFAAAAATEBAAAACjE4MzM0NzY4ODgDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATArl+NN/uPbCNW5KE7+49sIL0NJUS5OQVNEQVFHUzpBQVBMLklRX0FQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLkFQAQAAAGlhAAACAAAABTU1ODg4AQgAAAAFAAAAATEBAAAACjIwNjcyMDk2MjYDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMCuX403+49sI1bkoTv7j2wg0Q0lRLlRTRTo3MjAzLklRX0lOQ19UQVguMTAwMC4xLzEvMjAxOC4uLlVTRC4uSU5DIFRBWAEAAAC84AQAAgAAAAs1NjQwLjM1ODgyOQEIAAAABQAAAAExAQAAAAoxOTY5MDQ3NzczAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMy8zMS8yMDE3CQAAAAEwK5fjTf7j2wjVuShO/uPbCDlDSVEuTkFTREFRR1M6VFNMQS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOQyBUQVgBAAAAEMaiAQIAAAAGMTMuMDM5AQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwK5fjTf7j2wjVuShO/uPbCC5DSVEuS09TRTpBMDA1MzgwLklRX0FQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLkFQAQAAAExZDQAC</t>
+  </si>
+  <si>
+    <t>AAAACzU4MDIuODA5ODQ5AQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwK5fjTf7j2wjVuShO/uPbCDJDSVEuTllTRTpIRC5JUV9OUFBFLjEwMDAuMS8xLzIwMTguLi5VU0QuLlBQRSAoTkVUKQEAAACXQAQAAgAAAAUyMTkxNAEIAAAABQAAAAExAQAAAAoxOTUxNTQyMTI4AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkxLzI5LzIwMTcJAAAAATArl+NN/uPbCNW5KE7+49sINENJUS5UU0U6NzI2OS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOQyBUQVgBAAAADy4KAAIAAAAKNTU1LjAyMjA5MwEIAAAABQAAAAExAQAAAAoxOTcwMjEzMDA5AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwK5fjTf7j2wjVuShO/uPbCCpDSVEuVFNFOjcyNjkuSVFfQVAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uQVABAAAADy4KAAIAAAAJNDE1My40MjYzAQgAAAAFAAAAATEBAAAACjE3OTkyNDM0ODIDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMCuX403+49sIwJIoTv7j2wg0Q0lRLk9NOlZPTFYgQi5JUV9OUFBFLjEwMDAuMS8xLzIwMTYuLi5VU0QuLlBQRSAoTkVUKQEAAAA3xAQAAgAA</t>
+  </si>
+  <si>
+    <t>AAwxMDE5Ny43MTEzMTEBCAAAAAUAAAABMQEAAAAKMTgzMzQ3Njg4OAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMCuX403+49sIwJIoTv7j2whBQ0lRLktPU0U6QTAwNTM4MC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAATFkNAAIAAAALNTg3Ni41MTAzODMBCAAAAAUAAAABMQEAAAAKMTgzMDM4MTY3OQMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMCuX403+49sIwJIoTv7j2whIQ0lRLlRTRTo3MjcwLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMC4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAFJXDQACAAAACjExNi4wNzI1NTMBCAAAAAUAAAABMQEAAAAKMTk2OTQ0NzQzOQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATArl+NN/uPbCMCSKE7+49sIO0NJUS5OWVNFOkYuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAF+fAQACAAAABTE1OTI1AQgAAAAFAAAAATEBAAAACjIwNzg4NTgyNDADAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATArl+NN/uPbCMCSKE7+49sIRkNJUS5OWVNF</t>
+  </si>
+  <si>
+    <t>OkYuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAX58BAAIAAAAELTczMwEIAAAABQAAAAExAQAAAAoxOTQ2NDI0MDMzAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATArl+NN/uPbCMCSKE7+49sIQkNJUS5OQVNEQVFHUzpBQVBMLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABpYQAAAgAAAAYxMDUzNDEBCAAAAAUAAAABMQEAAAALLTIxMjQ2NTk3NDMDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMCuX403+49sIwJIoTv7j2whCQ0lRLk5BU0RBUUdTOkFBUEwuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTcuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAGlhAAACAAAABTQ2NjcxAQgAAAAFAAAAATEBAAAACjE5MTkzMzQ0ODQDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTkvMjQvMjAxNgkAAAABMCuX403+49sIwJIoTv7j2whHQ0lRLk5ZU0U6R00uSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAVO6lAwIAAAAELTg1NwEIAAAABQAAAAExAQAAAAstMjA2MjY2MDMyOQMAAAADMTYwAgAAAAMzNjgEAAAA</t>
+  </si>
+  <si>
+    <t>ATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwK5fjTf7j2wjAkihO/uPbCDxDSVEuTllTRTpHTS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAENzg4NgEIAAAABQAAAAExAQAAAAoyMDA4MDcwMTM3AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwK5fjTf7j2wjAkihO/uPbCD1DSVEuVFNFOjcyMDMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAALzgBAADAAAAAAArl+NN/uPbCMCSKE7+49sISENJUS5UU0U6NzIwMy5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAC84AQAAgAAAAsxNDMwLjc3MDc0NwEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI3AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMCuX403+49sIwJIoTv7j2wg9Q0lRLlRTRTo3MjAzLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC84AQAAgAAAAw4ODA4MS4yNTg1MDgBCAAAAAUAAAABMQEAAAAKMTg0NzgyNTEyMAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAA</t>
+  </si>
+  <si>
+    <t>AAEwK5fjTf7j2wjAkihO/uPbCEJDSVEuTkFTREFRR1M6VFNMQS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAEMaiAQMAAAAAACuX403+49sIwJIoTv7j2whNQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAEMaiAQIAAAAILTE4My4yODUBCAAAAAUAAAABMQEAAAAKMTk0NTg3MzU1MQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwK5fjTf7j2wjAkihO/uPbCD1DSVEuVFNFOjgwNTguSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAIH/BwACAAAACzQ4NTc0LjEzNDQyAQgAAAAFAAAAATEBAAAACjIwNDE5NDMzODADAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMCuX403+49sIwJIoTv7j2wg9Q0lRLlRTRTo4MDU4LklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAACB/wcAAgAAAAsyMjMzLjE4Nzg2NwEIAAAABQAAAAExAQAAAAoxODUxMTEwMTM0AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATArl+NN/uPbCBtsKE7+49sI</t>
+  </si>
+  <si>
+    <t>TENJUS5LT1NFOkEwMDUzODAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAATFkNAAIAAAAJNjQuODkyMDEyAQgAAAAFAAAAATEBAAAACy0yMDU3MTE2MTk3AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATArl+NN/uPbCBtsKE7+49sIQUNJUS5LT1NFOkEwMDUzODAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAExZDQACAAAADDE4NjE4LjIwNTY5NAEIAAAABQAAAAExAQAAAAoxOTQ4NzEwNTg2AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwK5fjTf7j2wgbbChO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAC23CUAAgAAAAsyNzg2LjQ1OTQ5NQEIAAAABQAAAAExAQAAAAstMjEwODMzNTQ5MgMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMCuX403+49sIG2woTv7j2whMQ0lRLktPU0U6QTAwMDI3MC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAC23CUAAgAAAAkxMS42NzAzMzcBCAAA</t>
+  </si>
+  <si>
+    <t>AAUAAAABMQEAAAAKMjAyMTUzMDYyMwMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wgbbChO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC23CUAAgAAAAwxMDAxOC40NDg3NzkBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMCuX403+49sIG2woTv7j2wg8Q0lRLk5ZU0U6SEQuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJdABAADAAAAAAArl+NN/uPbCBtsKE7+49sIR0NJUS5OWVNFOkhELklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxNy4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAJdABAACAAAABC03NTMBCAAAAAUAAAABMQEAAAAKMTg3OTU1NTU3MwMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkxLzMxLzIwMTYJAAAAATArl+NN/uPbCBtsKE7+49sIPUNJUS5OWVNFOkhNQy5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAlUEEAAIAAAAMMTAxOTkuMzMxODc4AQgAAAAFAAAAATEBAAAACy0yMTQ1MzExNTQ1AwAAAAMx</t>
+  </si>
+  <si>
+    <t>NjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATArl+NN/uPbCBtsKE7+49sIPUNJUS5OWVNFOkhNQy5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAlUEEAAIAAAAKOTE3LjAwNzc5MQEIAAAABQAAAAExAQAAAAoxODkzODQ3NzcyAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATArl+NN/uPbCBtsKE7+49sISENJUS5UU0U6NzI2OS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjEuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAAPLgoAAgAAAAoyMTUuNzk1MjU2AQgAAAAFAAAAATEBAAAACjIwNDM3NjQ1ODMDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwK5fjTf7j2wgbbChO/uPbCDdDSVEuS09TRTpBMDAwMjcwLklRX05QUEUuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFBFIChORVQpAQAAALbcJQACAAAADDE0MzE2LjA0NDMxNgEIAAAABQAAAAExAQAAAAstMjEwODMzNTQ5MgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMCuX403+49sIG2woTv7j2wgqQ0lRLk5ZU0U6SE1DLklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAAJVBBAACAAAADDEw</t>
+  </si>
+  <si>
+    <t>NjkyLjkxNTQ3NAEIAAAABQAAAAExAQAAAAstMjE0NTMxMTU0NQMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwK5fjTf7j2wgbbChO/uPbCDNDSVEuVFNFOjcyNzAuSVFfTlBQRS4xMDAwLjEvMS8yMDIxLi4uVVNELi5QUEUgKE5FVCkBAAAAUlcNAAIAAAALNzYyNS4yMzk2NzIBCAAAAAUAAAABMQEAAAAKMjA0MzE1Mjc1OQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwK5fjTf7j2wgbbChO/uPbCE1DSVEuTkFTREFRR1M6QUFQTC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABpYQAAAgAAAAQxMzg1AQgAAAAFAAAAATEBAAAACy0yMTI0NjU5NzQzAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTkvMjgvMjAxOQkAAAABMCuX403+49sIG2woTv7j2wg9Q0lRLlRTRTo3MjAzLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIxLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC84AQAAgAAAAwzOTkzOS40NDU0MTUBCAAAAAUAAAABMQEAAAALLTIwOTA4MTAzOTcDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMvMzEvMjAyMAkAAAABMCuX403+49sIG2woTv7j2whCQ0lRLk5BU0RBUUdTOlRTTEEu</t>
+  </si>
+  <si>
+    <t>SVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAABDGogEDAAAAAAArl+NN/uPbCKFEKE7+49sITENJUS5LT1NFOkEwMDUzODAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAATFkNAAIAAAAKMTI4LjYzOTEzNwEIAAAABQAAAAExAQAAAAoxOTQ4NzEwNTg2AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATArl+NN/uPbCKFEKE7+49sIPUNJUS5OWVNFOkhNQy5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAlUEEAAIAAAALODI2MC45OTEwODUBCAAAAAUAAAABMQEAAAAKMTg5Mzg0Nzc3MgMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwK5fjTf7j2wihRChO/uPbCD1DSVEuVFNFOjcyNzAuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAFJXDQACAAAACzI4NzUuMTQ4MDI1AQgAAAAFAAAAATEBAAAACjE4NjA0MTE1ODkDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMCuX403+49sIG2woTv7j2wgoQ0lRLk5ZU0U6Ri5JUV9BUC4xMDAwLjEvMS8yMDE5Li4uVVNE</t>
+  </si>
+  <si>
+    <t>Li5BUAEAAABfnwEAAgAAAAUyMTUyMAEIAAAABQAAAAExAQAAAAoyMDc4ODU4MjQwAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wihRChO/uPbCDNDSVEuTllTRTpHTS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOQyBUQVgBAAAAVO6lAwIAAAAFMTE1MzMBCAAAAAUAAAABMQEAAAAKMjAwODA3MDEzNwMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATArl+NN/uPbCKFEKE7+49sIOENJUS5OQVNEQVFHUzpUU0xBLklRX05QUEUuMTAwMC4xLzEvMjAxNi4uLlVTRC4uUFBFIChORVQpAQAAABDGogECAAAACDUxOTQuNzM3AQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATArl+NN/uPbCKFEKE7+49sIOENJUS5LT1NFOkEwMDAyNzAuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTkMgVEFYAQAAALbcJQACAAAACjM5OS4xMjEyMjcBCAAAAAUAAAABMQEAAAAKMTgzMTY0NDExNAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATArl+NN/uPbCKFEKE7+49sINENJUS5UU0U6NzI2OS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTgu</t>
+  </si>
+  <si>
+    <t>Li5VU0QuLklOQyBUQVgBAAAADy4KAAIAAAAJODc1LjE4Mzg3AQgAAAAFAAAAATEBAAAACjE4NDkwMjY3MjcDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE4CAAAAAkzLzMxLzIwMTcJAAAAATArl+NN/uPbCKFEKE7+49sIQkNJUS5OQVNEQVFHUzpBQVBMLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE5Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABpYQAAAgAAAAU0MDM4OAEIAAAABQAAAAExAQAAAAoyMDY3MjA5NjI2AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATArl+NN/uPbCKFEKE7+49sITUNJUS5OQVNEQVFHUzpUU0xBLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAABDGogECAAAABC02MjkBCAAAAAUAAAABMQEAAAAKMjA3OTEyODYyNQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wihRChO/uPbCEFDSVEuS09TRTpBMDA1MzgwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABMWQ0AAgAAAAwxOTE0Ni4zMTg2NDgBCAAAAAUAAAABMQEAAAAKMjA4Mzc5NzM1NQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAAB</t>
+  </si>
+  <si>
+    <t>MCuX403+49sIoUQoTv7j2wg8Q0lRLk5ZU0U6SEQuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAJdABAADAAAAAAArl+NN/uPbCJAdKE7+49sIPUNJUS5UU0U6NzI2OS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAADy4KAAIAAAALNjA4Mi4wNzcyNDMBCAAAAAUAAAABMQEAAAAKMTk3MDIxMzAwOQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwK5fjTf7j2wihRChO/uPbCC9DSVEuTkFTREFRR1M6VFNMQS5JUV9BUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5BUAEAAAAQxqIBAgAAAAc5MTYuMTQ4AQgAAAAFAAAAATEBAAAACjE4NzU3NjkwODIDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACjEyLzMxLzIwMTUJAAAAATArl+NN/uPbCKFEKE7+49sIN0NJUS5LT1NFOkEwMDUzODAuSVFfTlBQRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUEUgKE5FVCkBAAAATFkNAAIAAAAMNDIxMzIuNTgzNTA4AQgAAAAFAAAAATEBAAAACy0yMDU2OTQ1MzI5AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwK5fjTf7j2wihRChO/uPbCDRDSVEuTllTRTpITUMuSVFfSU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4u</t>
+  </si>
+  <si>
+    <t>VVNELi5JTkMgVEFYAQAAAJVBBAACAAAACzIwMzguOTEwNTUzAQgAAAAFAAAAATEBAAAACjE4OTM4NDc3NzIDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATArl+NN/uPbCJAdKE7+49sINENJUS5UU0U6NzI3MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjEuLi5VU0QuLklOQyBUQVgBAAAAUlcNAAIAAAAKNTExLjc0NzAxOAEIAAAABQAAAAExAQAAAAoyMDQzMTUyNzU5AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJMy8zMS8yMDIwCQAAAAEwK5fjTf7j2wiQHShO/uPbCDRDSVEuT006Vk9MViBCLklRX05QUEUuMTAwMC4xLzEvMjAxOS4uLlVTRC4uUFBFIChORVQpAQAAADfEBAACAAAADDExMTEwLjExMDg4NAEIAAAABQAAAAExAQAAAAoyMDE3NTAzNzk5AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wiQHShO/uPbCEdDSVEuTllTRTpHTS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABU7qUDAgAAAAQtMzUzAQgAAAAFAAAAATEBAAAACy0yMTEzODgwMjMzAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATArl+NN/uPbCJAdKE7+49sIQkNJUS5OQVNEQVFH</t>
+  </si>
+  <si>
+    <t>UzpUU0xBLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAQxqIBAwAAAAAAK5fjTf7j2wiQHShO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAC23CUAAgAAAAsyNzQ2LjgwMTQxOAEIAAAABQAAAAExAQAAAAoyMDgzNjg1MjI5AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIwCAAAAAoxMi8zMS8yMDE5CQAAAAEwK5fjTf7j2wiQHShO/uPbCD1DSVEuTllTRTpITUMuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAJVBBAACAAAADDEwNTA4LjY1ODI4MgEIAAAABQAAAAExAQAAAAoyMDQxODc4NDk4AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATArl+NN/uPbCJAdKE7+49sIK0NJUS5PTTpWT0xWIEIuSVFfQVAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uQVABAAAAN8QEAAIAAAAKODE3OC43MDQyOQEIAAAABQAAAAExAQAAAAoyMDE3NTAzNzk5AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wiQHShO/uPbCD1DSVEuVFNFOjgwNTguSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLlNUIElOVkVT</t>
+  </si>
+  <si>
+    <t>VE1FTlRTAQAAAIH/BwACAAAACzIzODEuMTM5MDQ5AQgAAAAFAAAAATEBAAAACjE4OTM5OTc5NTQDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTgIAAAACTMvMzEvMjAxNwkAAAABMCuX403+49sIhvYnTv7j2wg8Q0lRLk5ZU0U6SEQuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJdABAADAAAAAAArl+NN/uPbCIb2J07+49sIPUNJUS5UU0U6NzI2OS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAADy4KAAIAAAALNTcxNC4yMDEyOTYBCAAAAAUAAAABMQEAAAAKMTc0NTUyODAwNAMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwK5fjTf7j2wiQHShO/uPbCEhDSVEuWFRSQTpEQUkuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkFAAAAAAAAAAgAAAAUKEludmFsaWQgSWRlbnRpZmllcikrl+NN/uPbCJAdKE7+49sISUNJUS5PTTpWT0xWIEIuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAN8QEAAIAAAAKMjk2LjM4OTMwOQEIAAAABQAAAAExAQAAAAoxODMzNDc2ODg4AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIw</t>
+  </si>
+  <si>
+    <t>MTYIAAAACjEyLzMxLzIwMTUJAAAAATArl+NN/uPbCIb2J07+49sIO0NJUS5OWVNFOkYuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAF+fAQACAAAABDM0NDgBCAAAAAUAAAABMQEAAAAKMjAwODA3NjM3OQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMCuX403+49sIhvYnTv7j2whCQ0lRLk5BU0RBUUdTOkFBUEwuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAGlhAAACAAAABTUyOTI3AQgAAAAFAAAAATEBAAAACy0yMDczMjAzNTA4AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIxCAAAAAk5LzI2LzIwMjAJAAAAATArl+NN/uPbCIb2J07+49sITUNJUS5OQVNEQVFHUzpBQVBMLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAGlhAAACAAAABDI0NDYBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE5CAAAAAk5LzI5LzIwMTgJAAAAATArl+NN/uPbCIb2J07+49sIQkNJUS5OQVNEQVFHUzpBQVBMLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE2Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAABpYQAAAgAAAAYxNjQwNjUBCAAA</t>
+  </si>
+  <si>
+    <t>AAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEwK5fjTf7j2wiG9idO/uPbCDxDSVEuTllTRTpHTS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAENjUwMQEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wiG9idO/uPbCEdDSVEuTllTRTpHTS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABU7qUDAgAAAAQtMzgxAQgAAAAFAAAAATEBAAAACjE5NDM5MjI3ODQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMCuX403+49sIhvYnTv7j2wg9Q0lRLlRTRTo3MjAzLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC84AQAAgAAAAw5ODQ0MS4zOTIxNjUBCAAAAAUAAAABMQEAAAAKMjA0MjMyMjQyOAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAJMy8zMS8yMDE5CQAAAAEwK5fjTf7j2wiG9idO/uPbCD1DSVEuVFNFOjcyMDMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIw</t>
+  </si>
+  <si>
+    <t>MTcuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAALzgBAACAAAADDE5OTU3LjgyMjE3MQEIAAAABQAAAAExAQAAAAoxODk0MTUwMTM2AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3CAAAAAkzLzMxLzIwMTYJAAAAATArl+NN/uPbCIb2J07+49sITUNJUS5OQVNEQVFHUzpUU0xBLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAABDGogECAAAABC03MTgBCAAAAAUAAAABMQEAAAALLTIwNjI2ODEwNjUDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMCuX403+49sIhvYnTv7j2whCQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTguLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAABDGogECAAAABTUuMzA0AQgAAAAFAAAAATEBAAAACjIwMTM5MDc0NzADAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATArl+NN/uPbCIb2J07+49sIPUNJUS5UU0U6ODA1OC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAgf8HAAIAAAALMTM5Ny4yNTEwNDcBCAAAAAUAAAABMQEAAAALLTIxNDUwMTEyNjUDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACTMv</t>
+  </si>
+  <si>
+    <t>MzEvMjAyMAkAAAABMCuX403+49sIhvYnTv7j2whIQ0lRLlRTRTo4MDU4LklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAAIH/BwACAAAACzExOTQuODY4NDcxAQgAAAAFAAAAATEBAAAACjE5NjkwOTMxODQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2whwzydO/uPbCD1DSVEuVFNFOjgwNTguSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAIH/BwACAAAADDQ2NDY3LjI3MzE4OQEIAAAABQAAAAExAQAAAAoxNzk3NDc0MDQ1AwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE2CAAAAAkzLzMxLzIwMTUJAAAAATArl+NN/uPbCHDPJ07+49sIQUNJUS5LT1NFOkEwMDUzODAuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMTkuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAExZDQACAAAACzcyMjYuNTEzODQyAQgAAAAFAAAAATEBAAAACjIwMTk2NzQ5OTEDAAAAAzE2MAIAAAAEMTA2OQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACjEyLzMxLzIwMTgJAAAAATArl+NN/uPbCHDPJ07+49sITENJUS5LT1NFOkEwMDUzODAuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAATFkN</t>
+  </si>
+  <si>
+    <t>AAIAAAAKMTE2Ljc4NDgwMgEIAAAABQAAAAExAQAAAAstMjA1Njk0NTMyOQMAAAADMTYwAgAAAAMzNjgEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwK5fjTf7j2wiG9idO/uPbCEFDSVEuS09TRTpBMDAwMjcwLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAAC23CUAAgAAAAwxMjU5Ni45MTE0OTYBCAAAAAUAAAABMQEAAAAKMjA4MzY4NTIyOQMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAxOQkAAAABMCuX403+49sIcM8nTv7j2whBQ0lRLktPU0U6QTAwMDI3MC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNy4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAttwlAAIAAAALNDM5Mi45NjYyMDIBCAAAAAUAAAABMQEAAAAKMTg3NTg3NTE3NQMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMCuX403+49sIcM8nTv7j2whHQ0lRLk5ZU0U6SEQuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIxLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAl0AEAAIAAAAFLTExMjgBCAAAAAUAAAABMQEAAAALLTIxMDcyMjA3NTMDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAIMi8yLzIwMjAJAAAAATArl+NN/uPbCHDPJ07+49sI</t>
+  </si>
+  <si>
+    <t>PENJUS5OWVNFOkhELklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5MVF9JTlZFU1RNRU5UUwEAAACXQAQAAwAAAAAAK5fjTf7j2whwzydO/uPbCD1DSVEuTllTRTpITUMuSVFfU1RfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNUIElOVkVTVE1FTlRTAQAAAJVBBAACAAAACzE3NjYuMjU5MDc2AQgAAAAFAAAAATEBAAAACy0yMDkwODIyNjYxAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATArl+NN/uPbCHDPJ07+49sISENJUS5OWVNFOkhNQy5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAACVQQQAAgAAAAozMTAuMTkyNTY3AQgAAAAFAAAAATEBAAAACjIwNDE4Nzg0OTgDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2whwzydO/uPbCD1DSVEuTllTRTpITUMuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMTYuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAJVBBAACAAAACzgwNDYuOTU0MDcyAQgAAAAFAAAAATEBAAAACjE4NDc3NzI1MDYDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMCuX403+49sIcM8nTv7j2wg9Q0lRLlRTRTo3MjY5LklRX1NUX0lOVkVTVC4x</t>
+  </si>
+  <si>
+    <t>MDAwLjEvMS8yMDE5Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAAAPLgoAAgAAAAsyNDE2Ljk3NjcxNgEIAAAABQAAAAExAQAAAAoxODk1MDAyNDE4AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE5CAAAAAkzLzMxLzIwMTgJAAAAATArl+NN/uPbCHDPJ07+49sISENJUS5UU0U6NzI2OS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAAAPLgoAAgAAAAoxMjkuMDg1MDc4AQgAAAAFAAAAATEBAAAACjE3OTkyNDM0ODIDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwK5fjTf7j2whhqCdO/uPbCD1DSVEuVFNFOjcyNzAuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjAuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAFJXDQACAAAACzIyOTUuMjcxMTE1AQgAAAAFAAAAATEBAAAACjE5Njk0NDc0MzkDAAAAAzE2MAIAAAAEMTA1NAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMCuX403+49sIYagnTv7j2wg9Q0lRLlRTRTo3MjcwLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABSVw0AAgAAAAs0NDU1LjA3Mjc3OQEIAAAABQAAAAExAQAAAAoxODYwNDExNjY5AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE3</t>
+  </si>
+  <si>
+    <t>CAAAAAkzLzMxLzIwMTYJAAAAATArl+NN/uPbCGGoJ07+49sISENJUS5YVFJBOkRBSS5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMjEuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKSuX403+49sIYagnTv7j2wg9Q0lRLlhUUkE6REFJLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE4Li4uVVNELi5MVF9JTlZFU1RNRU5UUwUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKSuX403+49sIYagnTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMS4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAN8QEAAIAAAAJMjUuOTM1Mzc4AQgAAAAFAAAAATEBAAAACy0yMTEwNDE2OTgxAwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwK5fjTf7j2whhqCdO/uPbCElDSVEuT006Vk9MViBCLklRX05FVF9JTlRFUkVTVF9FWFAuMTAwMC4xLzEvMjAxOS4uLlVTRC4uSU5URVJFU1QgRVhQIChORVQpAQAAADfEBAACAAAACy0xNjAuNDYxNjI1AQgAAAAFAAAAATEBAAAACjIwMTc1MDM3OTkDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMCuX403+49sIYagnTv7j2wg+Q0lRLk9NOlZPTFYgQi5JUV9MVF9JTlZFU1QuMTAw</t>
+  </si>
+  <si>
+    <t>MC4xLzEvMjAxNi4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAN8QEAAIAAAALMTU0OS4xMTM5MDkBCAAAAAUAAAABMQEAAAAKMTgzMzQ3Njg4OAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAKMTIvMzEvMjAxNQkAAAABMCuX403+49sIYagnTv7j2wgoQ0lRLk5ZU0U6Ri5JUV9BUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5BUAEAAABfnwEAAgAAAAUyMzI4MgEIAAAABQAAAAExAQAAAAoyMDA4MDc2Mzc5AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwK5fjTf7j2whhqCdO/uPbCDhDSVEuTkFTREFRR1M6QUFQTC5JUV9OUFBFLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlBQRSAoTkVUKQEAAABpYQAAAgAAAAU0NTMzNgEIAAAABQAAAAExAQAAAAstMjA3MzIwMzUwOAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwK5fjTf7j2whhqCdO/uPbCDlDSVEuTkFTREFRR1M6QUFQTC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAAaWEAAAIAAAAFMTMzNzIBCAAAAAUAAAABMQEAAAAKMjA2NzIwOTYyNgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTkvMjkvMjAxOAkAAAABMCuX403+49sIYagnTv7j2wgvQ0lRLk5BU0RBUUdTOkFBUEwuSVFf</t>
+  </si>
+  <si>
+    <t>QVAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQVABAAAAaWEAAAIAAAAFMzU0OTABCAAAAAUAAAABMQEAAAAKMTg2Mzk5NjY4NAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEwK5fjTf7j2whhqCdO/uPbCDJDSVEuTllTRTpHTS5JUV9OUFBFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQEAAABU7qUDAgAAAAUzODc1OAEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2whVgSdO/uPbCDNDSVEuTllTRTpHTS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOQyBUQVgBAAAAVO6lAwIAAAAEMjczOQEIAAAABQAAAAExAQAAAAoxOTQzOTIyNzg0AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAKMTIvMzEvMjAxNgkAAAABMCuX403+49sIVYEnTv7j2wgqQ0lRLlRTRTo3MjAzLklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAALzgBAACAAAADDIzODc4LjU2NjE4NQEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDIwCAAAAAkzLzMxLzIwMTkJAAAAATArl+NN/uPbCGGoJ07+49sIM0NJUS5UU0U6NzIwMy5JUV9OUFBFLjEwMDAuMS8xLzIwMTcuLi5V</t>
+  </si>
+  <si>
+    <t>U0QuLlBQRSAoTkVUKQEAAAC84AQAAgAAAAw0ODI5My40MDI5NTUBCAAAAAUAAAABMQEAAAAKMTg5NDE1MDEzNgMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwK5fjTf7j2whhqCdO/uPbCDlDSVEuTkFTREFRR1M6VFNMQS5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjEuLi5VU0QuLklOQyBUQVgBAAAAEMaiAQIAAAADMjkyAQgAAAAFAAAAATEBAAAACy0yMDYyNjgxMDY1AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMCuX403+49sIVYEnTv7j2wgvQ0lRLk5BU0RBUUdTOlRTTEEuSVFfQVAuMTAwMC4xLzEvMjAxOC4uLlVTRC4uQVABAAAAEMaiAQIAAAAHMjM5MC4yNQEIAAAABQAAAAExAQAAAAoyMDEzOTA3NDcwAwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE4CAAAAAoxMi8zMS8yMDE3CQAAAAEwK5fjTf7j2whVgSdO/uPbCDNDSVEuVFNFOjgwNTguSVFfTlBQRS4xMDAwLjEvMS8yMDIxLi4uVVNELi5QUEUgKE5FVCkBAAAAgf8HAAIAAAAMMzQwMzQuOTU0NTA5AQgAAAAFAAAAATEBAAAACy0yMTQ1MDExMjY1AwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATArl+NN/uPbCFWBJ07+49sINENJUS5UU0U6ODA1OC5JUV9JTkNfVEFYLjEwMDAu</t>
+  </si>
+  <si>
+    <t>MS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAAgf8HAAIAAAALMTkwNC44NjMzMjYBCAAAAAUAAAABMQEAAAAKMTk2OTA5MzE4NAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTkIAAAACTMvMzEvMjAxOAkAAAABMCuX403+49sIVYEnTv7j2wgqQ0lRLlRTRTo4MDU4LklRX0FQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLkFQAQAAAIH/BwACAAAACzIwODE0Ljc1MTY0AQgAAAAFAAAAATEBAAAACjE3OTc0NzQwNDUDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMTYIAAAACTMvMzEvMjAxNQkAAAABMCuX403+49sIVYEnTv7j2wg3Q0lRLktPU0U6QTAwNTM4MC5JUV9OUFBFLjEwMDAuMS8xLzIwMTkuLi5VU0QuLlBQRSAoTkVUKQEAAABMWQ0AAgAAAAw0NTc4Ni4xMDcwOTQBCAAAAAUAAAABMQEAAAAKMjAxOTY3NDk5MQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMCuX403+49sIVYEnTv7j2wg4Q0lRLktPU0U6QTAwNTM4MC5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTcuLi5VU0QuLklOQyBUQVgBAAAATFkNAAIAAAALMTMxOC41NzUzMDYBCAAAAAUAAAABMQEAAAALLTIwNTY5NDUzMjkDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDE3CAAAAAoxMi8zMS8yMDE2CQAAAAEwK5fjTf7j2whVgSdO/uPbCC5DSVEuS09TRTpBMDAw</t>
+  </si>
+  <si>
+    <t>MjcwLklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAALbcJQACAAAACzU4NjEuMjQ5MDEyAQgAAAAFAAAAATEBAAAACjIwODM2ODUyMjkDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACjEyLzMxLzIwMTkJAAAAATArl+NN/uPbCFWBJ07+49sIN0NJUS5LT1NFOkEwMDAyNzAuSVFfTlBQRS4xMDAwLjEvMS8yMDE3Li4uVVNELi5QUEUgKE5FVCkBAAAAttwlAAIAAAAMMTEyMDguMDA3NjMzAQgAAAAFAAAAATEBAAAACjE4NzU4NzUxNzUDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACjEyLzMxLzIwMTYJAAAAATArl+NN/uPbCFWBJ07+49sIM0NJUS5OWVNFOkhELklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5DIFRBWAEAAACXQAQAAgAAAAQzNDczAQgAAAAFAAAAATEBAAAACy0yMTA3MjIwNzUzAwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAIMi8yLzIwMjAJAAAAATArl+NN/uPbCFWBJ07+49sIKUNJUS5OWVNFOkhELklRX0FQLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFQAQAAAJdABAACAAAABDcwMDABCAAAAAUAAAABMQEAAAAKMTk1MTU0MjEyOAMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJMS8yOS8yMDE3CQAAAAEwK5fjTf7j2whVgSdO/uPbCDNDSVEuTllTRTpITUMuSVFfTlBQRS4x</t>
+  </si>
+  <si>
+    <t>MDAwLjEvMS8yMDIxLi4uVVNELi5QUEUgKE5FVCkBAAAAlUEEAAIAAAAMMjgzNjEuMDM1NTM4AQgAAAAFAAAAATEBAAAACy0yMDkwODIyNjYxAwAAAAMxNjACAAAABDEwMDQEAAAAATAHAAAACDEvMS8yMDIxCAAAAAkzLzMxLzIwMjAJAAAAATArl+NN/uPbCFWBJ07+49sINENJUS5OWVNFOkhNQy5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAAlUEEAAIAAAAKLTEyOC42NzU2OAEIAAAABQAAAAExAQAAAAoyMDQxODc4NDk4AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2whBWidO/uPbCCpDSVEuTllTRTpITUMuSVFfQVAuMTAwMC4xLzEvMjAxNi4uLlVTRC4uQVABAAAAlUEEAAIAAAALOTY0OC42MjA5MDkBCAAAAAUAAAABMQEAAAAKMTg0Nzc3MjUwNgMAAAADMTYwAgAAAAQxMDE4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJMy8zMS8yMDE1CQAAAAEwK5fjTf7j2whBWidO/uPbCDNDSVEuVFNFOjcyNjkuSVFfTlBQRS4xMDAwLjEvMS8yMDE5Li4uVVNELi5QUEUgKE5FVCkBAAAADy4KAAIAAAALNzU3Mi43NjA1ODcBCAAAAAUAAAABMQEAAAAKMTg5NTAwMjQxOAMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAJMy8zMS8yMDE4CQAAAAEwK5fjTf7j2whBWidO/uPbCDRDSVEuVFNFOjcyNjkuSVFf</t>
+  </si>
+  <si>
+    <t>SU5DX1RBWC4xMDAwLjEvMS8yMDE3Li4uVVNELi5JTkMgVEFYAQAAAA8uCgACAAAACjgyMS43MzM2NzYBCAAAAAUAAAABMQEAAAAKMTc5OTI0MzQ4MgMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMCuX403+49sIVYEnTv7j2wgqQ0lRLlRTRTo3MjcwLklRX0FQLjEwMDAuMS8xLzIwMjAuLi5VU0QuLkFQAQAAAFJXDQACAAAACzM0MTguNDQ1ODg0AQgAAAAFAAAAATEBAAAACjE5Njk0NDc0MzkDAAAAAzE2MAIAAAAEMTAxOAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMCuX403+49sIQVonTv7j2wgzQ0lRLlRTRTo3MjcwLklRX05QUEUuMTAwMC4xLzEvMjAxNy4uLlVTRC4uUFBFIChORVQpAQAAAFJXDQACAAAACzUwOTYuNDEzMDg1AQgAAAAFAAAAATEBAAAACjE4NjA0MTE2NjkDAAAAAzE2MAIAAAAEMTAwNAQAAAABMAcAAAAIMS8xLzIwMTcIAAAACTMvMzEvMjAxNgkAAAABMCuX403+49sIQVonTv7j2wg0Q0lRLlhUUkE6REFJLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uSU5DIFRBWAUAAAAAAAAACAAAABQoSW52YWxpZCBJZGVudGlmaWVyKSuX403+49sIQVonTv7j2wgqQ0lRLlhUUkE6REFJLklRX0FQLjEwMDAuMS8xLzIwMTguLi5VU0QuLkFQBQAAAAAAAAAIAAAAFChJbnZhbGlkIElkZW50aWZpZXIpK5fjTf7j2whB</t>
+  </si>
+  <si>
+    <t>WidO/uPbCDRDSVEuT006Vk9MViBCLklRX05QUEUuMTAwMC4xLzEvMjAyMS4uLlVTRC4uUFBFIChORVQpAQAAADfEBAACAAAADDEwNTk0LjE3NTgyOQEIAAAABQAAAAExAQAAAAstMjExMDQxNjk4MQMAAAADMTYwAgAAAAQxMDA0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMCuX403+49sIQVonTv7j2wg1Q0lRLk9NOlZPTFYgQi5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMTkuLi5VU0QuLklOQyBUQVgBAAAAN8QEAAIAAAAKNzYzLjQ4Njc2NgEIAAAABQAAAAExAQAAAAoyMDE3NTAzNzk5AwAAAAMxNjACAAAAAjc1BAAAAAEwBwAAAAgxLzEvMjAxOQgAAAAKMTIvMzEvMjAxOAkAAAABMCuX403+49sIQVonTv7j2wgrQ0lRLk9NOlZPTFYgQi5JUV9BUC4xMDAwLjEvMS8yMDE2Li4uVVNELi5BUAEAAAA3xAQAAgAAAAs2NTQ0Ljk2Nzc2NAEIAAAABQAAAAExAQAAAAoxODMzNDc2ODg4AwAAAAMxNjACAAAABDEwMTgEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwK5fjTf7j2whBWidO/uPbCDtDSVEuTllTRTpGLklRX1NUX0lOVkVTVC4xMDAwLjEvMS8yMDIwLi4uVVNELi5TVCBJTlZFU1RNRU5UUwEAAABfnwEAAgAAAAUxMzg1MQEIAAAABQAAAAExAQAAAAstMjExMzY5MjQ2MQMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAyMAgAAAAKMTIvMzEvMjAx</t>
+  </si>
+  <si>
+    <t>OQkAAAABMCuX403+49sIQVonTv7j2whGQ0lRLk5ZU0U6Ri5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTguLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABfnwEAAgAAAAQtODQ3AQgAAAAFAAAAATEBAAAACjIwMDgwNzYzNzkDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAKMTIvMzEvMjAxNwkAAAABMCuX403+49sIMDMnTv7j2whCQ0lRLk5BU0RBUUdTOkFBUEwuSVFfTFRfSU5WRVNULjEwMDAuMS8xLzIwMjEuLi5VU0QuLkxUX0lOVkVTVE1FTlRTAQAAAGlhAAACAAAABjEwMDg4NwEIAAAABQAAAAExAQAAAAstMjA3MzIwMzUwOAMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAJOS8yNi8yMDIwCQAAAAEwK5fjTf7j2wgwMydO/uPbCEJDSVEuTkFTREFRR1M6QUFQTC5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxOC4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAaWEAAAIAAAAFNTM4OTIBCAAAAAUAAAABMQEAAAAKMTk4OTkwOTgxNAMAAAADMTYwAgAAAAQxMDY5BAAAAAEwBwAAAAgxLzEvMjAxOAgAAAAJOS8zMC8yMDE3CQAAAAEwK5fjTf7j2wgwMydO/uPbCE1DSVEuTkFTREFRR1M6QUFQTC5JUV9ORVRfSU5URVJFU1RfRVhQLjEwMDAuMS8xLzIwMTYuLi5VU0QuLklOVEVSRVNUIEVYUCAoTkVUKQEAAABpYQAAAgAAAAQyMTg4AQgAAAAFAAAA</t>
+  </si>
+  <si>
+    <t>ATEBAAAACjE4NjM5OTY2ODQDAAAAAzE2MAIAAAADMzY4BAAAAAEwBwAAAAgxLzEvMjAxNggAAAAJOS8yNi8yMDE1CQAAAAEwK5fjTf7j2whBWidO/uPbCDxDSVEuTllTRTpHTS5JUV9MVF9JTlZFU1QuMTAwMC4xLzEvMjAxOS4uLlVTRC4uTFRfSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAEODc0NAEIAAAABQAAAAExAQAAAAoyMDc5NTI1MDAzAwAAAAMxNjACAAAABDEwNTQEAAAAATAHAAAACDEvMS8yMDE5CAAAAAoxMi8zMS8yMDE4CQAAAAEwK5fjTf7j2wgwMydO/uPbCDxDSVEuTllTRTpHTS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAxNi4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAVO6lAwIAAAAENzU4MgEIAAAABQAAAAExAQAAAAoxODczMzAyMzc3AwAAAAMxNjACAAAABDEwNjkEAAAAATAHAAAACDEvMS8yMDE2CAAAAAoxMi8zMS8yMDE1CQAAAAEwK5fjTf7j2wgwMydO/uPbCEhDSVEuVFNFOjcyMDMuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDIwLi4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAvOAEAAIAAAAKMTc4MS41ODEwMwEIAAAABQAAAAExAQAAAAoyMDQyMzIyNDI4AwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMjAIAAAACTMvMzEvMjAxOQkAAAABMCuX403+49sIMDMnTv7j2wg9Q0lRLlRTRTo3MjAzLklRX0xUX0lOVkVTVC4xMDAwLjEvMS8yMDE3Li4uVVNE</t>
+  </si>
+  <si>
+    <t>Li5MVF9JTlZFU1RNRU5UUwEAAAC84AQAAgAAAAw5MTcyNy41NTAxNjYBCAAAAAUAAAABMQEAAAAKMTg5NDE1MDEzNgMAAAADMTYwAgAAAAQxMDU0BAAAAAEwBwAAAAgxLzEvMjAxNwgAAAAJMy8zMS8yMDE2CQAAAAEwK5fjTf7j2wgwMydO/uPbCEJDSVEuTkFTREFRR1M6VFNMQS5JUV9TVF9JTlZFU1QuMTAwMC4xLzEvMjAyMC4uLlVTRC4uU1QgSU5WRVNUTUVOVFMBAAAAEMaiAQMAAAAAACuX403+49sIMDMnTv7j2whNQ0lRLk5BU0RBUUdTOlRTTEEuSVFfTkVUX0lOVEVSRVNUX0VYUC4xMDAwLjEvMS8yMDE4Li4uVVNELi5JTlRFUkVTVCBFWFAgKE5FVCkBAAAAEMaiAQIAAAAELTQ1OAEIAAAABQAAAAExAQAAAAoyMDEzOTA3NDcwAwAAAAMxNjACAAAAAzM2OAQAAAABMAcAAAAIMS8xLzIwMTgIAAAACjEyLzMxLzIwMTcJAAAAATArl+NN/uPbCDAzJ07+49sIKUNJUS5USUNLRVIuSVFfRUZGRUNUX1RBWF9SQVRFLkRBVEUuLi4uVVNEBQAAAAAAAAAIAAAAFShJbnZhbGlkIFRpbWUgUGVyaW9kKfYYgKwC5NsIfGymrALk2wguQ0lRLk5ZU0U6Ri5JUV9JTkNfVEFYLjEwMDAuMS8xLzIwMjEuLi5VU0QuLlNHQQEAAABfnwEAAgAAAAMxNjABCAAAAAUAAAABMQEAAAALLTIwNjIzODI2MDQDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwTgtrsgLk2whGLZSyAuTb</t>
+  </si>
+  <si>
+    <t>CC9DSVEuTllTRTpGLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uQ09HUwEAAABfnwEAAgAAAAMxNjABCAAAAAUAAAABMQEAAAALLTIwNjIzODI2MDQDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwUGqktQLk2wi2i8q1AuTbCDdDSVEuTllTRTpGLklRX0lOQ19UQVguMTAwMC4xLzEvMjAyMS4uLlVTRC4uVE9UQUwgRVFVSVRZAQAAAF+fAQACAAAAAzE2MAEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATAP21a6AuTbCK7geroC5NsIKkNJUS5OWVNFOkYuSVFfSU5DX1RBWC4uMS8xLzIwMjEuLi5VU0QuLlNHQQEAAABfnwEAAgAAAAMxNjABCAAAAAUAAAABMQEAAAALLTIwNjIzNzY3MzIDAAAAAzE2MAIAAAACNzUEAAAAATAHAAAACDEvMS8yMDIxCAAAAAoxMi8zMS8yMDIwCQAAAAEwvRC93gLk2whBGN/eAuTbCDBDSVEuTllTRTpGLklRX1RPVEFMX0VRVUlUWS4xMDAwLjEvMS8yMDIxLi4uVVNELi4BAAAAX58BAAIAAAAFMzA4MTEBCAAAAAUAAAABMQEAAAALLTIwNjIzODI2MDQDAAAAAzE2MAIAAAAEMTI3NQQAAAABMAcAAAAIMS8xLzIwMjEIAAAACjEyLzMxLzIwMjAJAAAAATAkunsBA+TbCG5woQED5NsILUNJUS5OWVNFOkYuSVFfSU5WRU5UT1JZ</t>
+  </si>
+  <si>
+    <t>LjEwMDAuMS8xLzIwMjEuLi5VU0QuLgEAAABfnwEAAgAAAAUxMDgwOAEIAAAABQAAAAExAQAAAAstMjA2MjM4MjYwNAMAAAADMTYwAgAAAAQxMDQzBAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMDhG4jMD5NsIG4UDNAPk2wgsQ0lRLk5ZU0U6Ri5JUV9DT0dTLjEwMDAuMS8xLzIwMjEuLi5VU0QuLkNPR1MBAAAAX58BAAIAAAAGMTEyNTI4AQgAAAAFAAAAATEBAAAACy0yMDYyMzgyNjA0AwAAAAMxNjACAAAAAjM0BAAAAAEwBwAAAAgxLzEvMjAyMQgAAAAKMTIvMzEvMjAyMAkAAAABMG8b80sD5NsI6SUkTAPk2wg=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -713,13 +1304,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +1328,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Financial Statements"/>
@@ -782,7 +1372,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Key Stats"/>
@@ -1259,271 +1849,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>142</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1603,7 +1932,7 @@
       <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1624,7 +1953,7 @@
       <c r="V1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1633,10 +1962,10 @@
       <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2125,7 +2454,7 @@
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2205,7 +2534,7 @@
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2285,7 +2614,7 @@
       <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2365,7 +2694,7 @@
       <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2445,7 +2774,7 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2525,7 +2854,7 @@
       <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3565,7 +3894,7 @@
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3805,7 +4134,7 @@
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5485,7 +5814,7 @@
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5565,7 +5894,7 @@
       <c r="A51" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5645,7 +5974,7 @@
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5725,7 +6054,7 @@
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5805,7 +6134,7 @@
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5885,7 +6214,7 @@
       <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5965,7 +6294,7 @@
       <c r="A56" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -6045,7 +6374,7 @@
       <c r="A57" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -6125,7 +6454,7 @@
       <c r="A58" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -6205,7 +6534,7 @@
       <c r="A59" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -6285,7 +6614,7 @@
       <c r="A60" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -6365,7 +6694,7 @@
       <c r="A61" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -7885,7 +8214,7 @@
       <c r="A80" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -7965,7 +8294,7 @@
       <c r="A81" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -8045,7 +8374,7 @@
       <c r="A82" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -8125,7 +8454,7 @@
       <c r="A83" t="s">
         <v>45</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -8205,7 +8534,7 @@
       <c r="A84" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -8285,7 +8614,7 @@
       <c r="A85" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -8359,6 +8688,821 @@
       </c>
       <c r="Z85" t="s">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47CCEAB-FA05-42BA-84C6-26A5D124ABC8}">
+  <dimension ref="A1:IV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>203</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>206</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>207</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>208</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>209</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>210</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>212</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>213</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>218</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>224</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>226</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>228</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>229</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>230</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>231</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>232</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>233</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>234</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>235</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>236</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>238</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>239</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>240</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>241</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>244</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>245</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>246</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>247</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>248</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>249</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>250</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>251</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>252</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>253</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>254</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>255</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>256</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>257</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>258</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>259</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>260</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>261</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>262</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>263</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>264</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>265</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>266</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>267</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>268</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>269</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>270</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>271</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>272</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>273</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>274</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>275</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>276</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>277</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>278</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>279</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>280</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>281</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>282</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>283</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>284</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>285</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>286</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>287</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>288</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>289</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>290</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>291</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>292</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>293</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>294</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>295</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>296</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>297</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>298</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>299</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>300</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>301</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>302</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>303</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>304</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>305</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>306</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>307</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>308</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>310</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>311</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>312</v>
+      </c>
+      <c r="II1" t="s">
+        <v>313</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>314</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>315</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>316</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>317</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>318</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>319</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>320</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>321</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>322</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>323</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>324</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>325</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -8367,11 +9511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8391,7 +9535,7 @@
     <col min="23" max="25" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -8437,14 +9581,14 @@
       <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
@@ -8458,7 +9602,7 @@
       <c r="V1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -8467,14 +9611,41 @@
       <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>47</v>
+      <c r="AA1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B2,"IQ_COMPANY_NAME")</f>
         <v>Ford Motor Company</v>
@@ -8567,7 +9738,7 @@
       </c>
       <c r="X2" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_AR", IQ_FY, $D2, , , "USD", , X$1)</f>
-        <v>3422</v>
+        <v>9993</v>
       </c>
       <c r="Y2" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_INVENTORY", IQ_FY, $D2, , , "USD", , Y$1)</f>
@@ -8576,9 +9747,72 @@
       <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_ST_INVEST", IQ_FY, $D2, , , "USD", , AA$1)</f>
+        <v>19858</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_NPPE", IQ_FY, $D2, , , "USD", , AB$1)</f>
+        <v>39674</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_LT_INVEST", IQ_FY, $D2, , , "USD", , AC$1)</f>
+        <v>6601</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_AP", IQ_FY, $D2, , , "USD", , AD$1)</f>
+        <v>22204</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_NET_INTEREST_EXP", IQ_FY, $D2, , , "USD", , AE$1)</f>
+        <v>-1199</v>
+      </c>
+      <c r="AF2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_INC_TAX", IQ_FY, $D2, , , "USD", , AF$1)</f>
+        <v>160</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_INC_TAX", IQ_SGA, $D2, , , "USD", , AG$1)</f>
+        <v>160</v>
+      </c>
+      <c r="AH2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_COGS", IQ_FY, $D2, , , "USD", , AH$1)</f>
+        <v>112528</v>
+      </c>
+      <c r="AI2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AI$1)</f>
+        <v>30811</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_INVENTORY", IQ_FY, $D2, , , "USD", , AJ$1)</f>
+        <v>10808</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AK$1)</f>
+        <v>30811</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AL$1)</f>
+        <v>30811</v>
+      </c>
+      <c r="AM2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AM$1)</f>
+        <v>30811</v>
+      </c>
+      <c r="AN2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AN$1)</f>
+        <v>30811</v>
+      </c>
+      <c r="AO2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AO$1)</f>
+        <v>30811</v>
+      </c>
+      <c r="AP2" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B2, "IQ_TOTAL_EQUITY", IQ_FY, $D2, , , "USD", , AP$1)</f>
+        <v>30811</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B3,"IQ_COMPANY_NAME")</f>
         <v>Ford Motor Company</v>
@@ -8681,8 +9915,32 @@
       <c r="Z3" t="s">
         <v>48</v>
       </c>
+      <c r="AA3" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B3, "IQ_ST_INVEST", IQ_FY, $D3, , , "USD", , AA$1)</f>
+        <v>13851</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B3, "IQ_NPPE", IQ_FY, $D3, , , "USD", , AB$1)</f>
+        <v>39496</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B3, "IQ_LT_INVEST", IQ_FY, $D3, , , "USD", , AC$1)</f>
+        <v>3719</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B3, "IQ_AP", IQ_FY, $D3, , , "USD", , AD$1)</f>
+        <v>20673</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B3, "IQ_NET_INTEREST_EXP", IQ_FY, $D3, , , "USD", , AE$1)</f>
+        <v>-546</v>
+      </c>
+      <c r="AF3" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B3, "IQ_INC_TAX", IQ_FY, $D3, , , "USD", , AF$1)</f>
+        <v>-724</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B4,"IQ_COMPANY_NAME")</f>
         <v>Ford Motor Company</v>
@@ -8785,8 +10043,32 @@
       <c r="Z4" t="s">
         <v>48</v>
       </c>
+      <c r="AA4" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B4, "IQ_ST_INVEST", IQ_FY, $D4, , , "USD", , AA$1)</f>
+        <v>15925</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B4, "IQ_NPPE", IQ_FY, $D4, , , "USD", , AB$1)</f>
+        <v>37883</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B4, "IQ_LT_INVEST", IQ_FY, $D4, , , "USD", , AC$1)</f>
+        <v>2959</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B4, "IQ_AP", IQ_FY, $D4, , , "USD", , AD$1)</f>
+        <v>21520</v>
+      </c>
+      <c r="AE4" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B4, "IQ_NET_INTEREST_EXP", IQ_FY, $D4, , , "USD", , AE$1)</f>
+        <v>-729</v>
+      </c>
+      <c r="AF4" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B4, "IQ_INC_TAX", IQ_FY, $D4, , , "USD", , AF$1)</f>
+        <v>650</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B5,"IQ_COMPANY_NAME")</f>
         <v>Ford Motor Company</v>
@@ -8889,8 +10171,32 @@
       <c r="Z5" t="s">
         <v>48</v>
       </c>
+      <c r="AA5" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B5, "IQ_ST_INVEST", IQ_FY, $D5, , , "USD", , AA$1)</f>
+        <v>17554</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B5, "IQ_NPPE", IQ_FY, $D5, , , "USD", , AB$1)</f>
+        <v>36901</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B5, "IQ_LT_INVEST", IQ_FY, $D5, , , "USD", , AC$1)</f>
+        <v>3448</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B5, "IQ_AP", IQ_FY, $D5, , , "USD", , AD$1)</f>
+        <v>23282</v>
+      </c>
+      <c r="AE5" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B5, "IQ_NET_INTEREST_EXP", IQ_FY, $D5, , , "USD", , AE$1)</f>
+        <v>-847</v>
+      </c>
+      <c r="AF5" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B5, "IQ_INC_TAX", IQ_FY, $D5, , , "USD", , AF$1)</f>
+        <v>402</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B6,"IQ_COMPANY_NAME")</f>
         <v>Ford Motor Company</v>
@@ -8993,8 +10299,32 @@
       <c r="Z6" t="s">
         <v>48</v>
       </c>
+      <c r="AA6" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B6, "IQ_ST_INVEST", IQ_FY, $D6, , , "USD", , AA$1)</f>
+        <v>19642</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B6, "IQ_NPPE", IQ_FY, $D6, , , "USD", , AB$1)</f>
+        <v>33692</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B6, "IQ_LT_INVEST", IQ_FY, $D6, , , "USD", , AC$1)</f>
+        <v>3523</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B6, "IQ_AP", IQ_FY, $D6, , , "USD", , AD$1)</f>
+        <v>21296</v>
+      </c>
+      <c r="AE6" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B6, "IQ_NET_INTEREST_EXP", IQ_FY, $D6, , , "USD", , AE$1)</f>
+        <v>-733</v>
+      </c>
+      <c r="AF6" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B6, "IQ_INC_TAX", IQ_FY, $D6, , , "USD", , AF$1)</f>
+        <v>2184</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B7,"IQ_COMPANY_NAME")</f>
         <v>Ford Motor Company</v>
@@ -9097,13 +10427,37 @@
       <c r="Z7" t="s">
         <v>48</v>
       </c>
+      <c r="AA7" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B7, "IQ_ST_INVEST", IQ_FY, $D7, , , "USD", , AA$1)</f>
+        <v>18181</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B7, "IQ_NPPE", IQ_FY, $D7, , , "USD", , AB$1)</f>
+        <v>32177</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B7, "IQ_LT_INVEST", IQ_FY, $D7, , , "USD", , AC$1)</f>
+        <v>3244</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B7, "IQ_AP", IQ_FY, $D7, , , "USD", , AD$1)</f>
+        <v>20272</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B7, "IQ_NET_INTEREST_EXP", IQ_FY, $D7, , , "USD", , AE$1)</f>
+        <v>-540</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B7, "IQ_INC_TAX", IQ_FY, $D7, , , "USD", , AF$1)</f>
+        <v>2881</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B8,"IQ_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -9200,13 +10554,37 @@
       <c r="Z8" t="s">
         <v>48</v>
       </c>
+      <c r="AA8" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B8, "IQ_ST_INVEST", IQ_FY, $D8, , , "USD", , AA$1)</f>
+        <v>52927</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B8, "IQ_NPPE", IQ_FY, $D8, , , "USD", , AB$1)</f>
+        <v>45336</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B8, "IQ_LT_INVEST", IQ_FY, $D8, , , "USD", , AC$1)</f>
+        <v>100887</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B8, "IQ_AP", IQ_FY, $D8, , , "USD", , AD$1)</f>
+        <v>42296</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B8, "IQ_NET_INTEREST_EXP", IQ_FY, $D8, , , "USD", , AE$1)</f>
+        <v>890</v>
+      </c>
+      <c r="AF8" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B8, "IQ_INC_TAX", IQ_FY, $D8, , , "USD", , AF$1)</f>
+        <v>9680</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B9,"IQ_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -9304,13 +10682,37 @@
       <c r="Z9" t="s">
         <v>48</v>
       </c>
+      <c r="AA9" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B9, "IQ_ST_INVEST", IQ_FY, $D9, , , "USD", , AA$1)</f>
+        <v>51713</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B9, "IQ_NPPE", IQ_FY, $D9, , , "USD", , AB$1)</f>
+        <v>37378</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B9, "IQ_LT_INVEST", IQ_FY, $D9, , , "USD", , AC$1)</f>
+        <v>105341</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B9, "IQ_AP", IQ_FY, $D9, , , "USD", , AD$1)</f>
+        <v>46236</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B9, "IQ_NET_INTEREST_EXP", IQ_FY, $D9, , , "USD", , AE$1)</f>
+        <v>1385</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B9, "IQ_INC_TAX", IQ_FY, $D9, , , "USD", , AF$1)</f>
+        <v>10481</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B10,"IQ_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -9408,13 +10810,37 @@
       <c r="Z10" t="s">
         <v>48</v>
       </c>
+      <c r="AA10" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B10, "IQ_ST_INVEST", IQ_FY, $D10, , , "USD", , AA$1)</f>
+        <v>40388</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B10, "IQ_NPPE", IQ_FY, $D10, , , "USD", , AB$1)</f>
+        <v>41304</v>
+      </c>
+      <c r="AC10" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B10, "IQ_LT_INVEST", IQ_FY, $D10, , , "USD", , AC$1)</f>
+        <v>170799</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B10, "IQ_AP", IQ_FY, $D10, , , "USD", , AD$1)</f>
+        <v>55888</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B10, "IQ_NET_INTEREST_EXP", IQ_FY, $D10, , , "USD", , AE$1)</f>
+        <v>2446</v>
+      </c>
+      <c r="AF10" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B10, "IQ_INC_TAX", IQ_FY, $D10, , , "USD", , AF$1)</f>
+        <v>13372</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B11,"IQ_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -9512,13 +10938,37 @@
       <c r="Z11" t="s">
         <v>48</v>
       </c>
+      <c r="AA11" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B11, "IQ_ST_INVEST", IQ_FY, $D11, , , "USD", , AA$1)</f>
+        <v>53892</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B11, "IQ_NPPE", IQ_FY, $D11, , , "USD", , AB$1)</f>
+        <v>33783</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B11, "IQ_LT_INVEST", IQ_FY, $D11, , , "USD", , AC$1)</f>
+        <v>194714</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B11, "IQ_AP", IQ_FY, $D11, , , "USD", , AD$1)</f>
+        <v>44242</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B11, "IQ_NET_INTEREST_EXP", IQ_FY, $D11, , , "USD", , AE$1)</f>
+        <v>2878</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B11, "IQ_INC_TAX", IQ_FY, $D11, , , "USD", , AF$1)</f>
+        <v>15738</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B12,"IQ_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="str">
@@ -9616,13 +11066,37 @@
       <c r="Z12" t="s">
         <v>48</v>
       </c>
+      <c r="AA12" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B12, "IQ_ST_INVEST", IQ_FY, $D12, , , "USD", , AA$1)</f>
+        <v>46671</v>
+      </c>
+      <c r="AB12" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B12, "IQ_NPPE", IQ_FY, $D12, , , "USD", , AB$1)</f>
+        <v>27010</v>
+      </c>
+      <c r="AC12" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B12, "IQ_LT_INVEST", IQ_FY, $D12, , , "USD", , AC$1)</f>
+        <v>170430</v>
+      </c>
+      <c r="AD12" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B12, "IQ_AP", IQ_FY, $D12, , , "USD", , AD$1)</f>
+        <v>37294</v>
+      </c>
+      <c r="AE12" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B12, "IQ_NET_INTEREST_EXP", IQ_FY, $D12, , , "USD", , AE$1)</f>
+        <v>2543</v>
+      </c>
+      <c r="AF12" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B12, "IQ_INC_TAX", IQ_FY, $D12, , , "USD", , AF$1)</f>
+        <v>15685</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B13,"IQ_COMPANY_NAME")</f>
         <v>Apple Inc.</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="str">
@@ -9720,8 +11194,32 @@
       <c r="Z13" t="s">
         <v>48</v>
       </c>
+      <c r="AA13" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B13, "IQ_ST_INVEST", IQ_FY, $D13, , , "USD", , AA$1)</f>
+        <v>20481</v>
+      </c>
+      <c r="AB13" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B13, "IQ_NPPE", IQ_FY, $D13, , , "USD", , AB$1)</f>
+        <v>22471</v>
+      </c>
+      <c r="AC13" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B13, "IQ_LT_INVEST", IQ_FY, $D13, , , "USD", , AC$1)</f>
+        <v>164065</v>
+      </c>
+      <c r="AD13" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B13, "IQ_AP", IQ_FY, $D13, , , "USD", , AD$1)</f>
+        <v>35490</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B13, "IQ_NET_INTEREST_EXP", IQ_FY, $D13, , , "USD", , AE$1)</f>
+        <v>2188</v>
+      </c>
+      <c r="AF13" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B13, "IQ_INC_TAX", IQ_FY, $D13, , , "USD", , AF$1)</f>
+        <v>19121</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B14,"IQ_COMPANY_NAME")</f>
         <v>General Motors Company</v>
@@ -9823,8 +11321,32 @@
       <c r="Z14" t="s">
         <v>48</v>
       </c>
+      <c r="AA14" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B14, "IQ_ST_INVEST", IQ_FY, $D14, , , "USD", , AA$1)</f>
+        <v>9046</v>
+      </c>
+      <c r="AB14" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B14, "IQ_NPPE", IQ_FY, $D14, , , "USD", , AB$1)</f>
+        <v>38632</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B14, "IQ_LT_INVEST", IQ_FY, $D14, , , "USD", , AC$1)</f>
+        <v>6825</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B14, "IQ_AP", IQ_FY, $D14, , , "USD", , AD$1)</f>
+        <v>19928</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B14, "IQ_NET_INTEREST_EXP", IQ_FY, $D14, , , "USD", , AE$1)</f>
+        <v>-857</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B14, "IQ_INC_TAX", IQ_FY, $D14, , , "USD", , AF$1)</f>
+        <v>1774</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B15,"IQ_COMPANY_NAME")</f>
         <v>General Motors Company</v>
@@ -9910,7 +11432,7 @@
       </c>
       <c r="V15" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_COGS", IQ_FY, $D15, , , "USD", , V$1)</f>
-        <v>110311</v>
+        <v>110651</v>
       </c>
       <c r="W15" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_CASH_EQUIV", IQ_FY, $D15, , , "USD", , W$1)</f>
@@ -9927,8 +11449,32 @@
       <c r="Z15" t="s">
         <v>48</v>
       </c>
+      <c r="AA15" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_ST_INVEST", IQ_FY, $D15, , , "USD", , AA$1)</f>
+        <v>4174</v>
+      </c>
+      <c r="AB15" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_NPPE", IQ_FY, $D15, , , "USD", , AB$1)</f>
+        <v>39850</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_LT_INVEST", IQ_FY, $D15, , , "USD", , AC$1)</f>
+        <v>7107</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_AP", IQ_FY, $D15, , , "USD", , AD$1)</f>
+        <v>21018</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_NET_INTEREST_EXP", IQ_FY, $D15, , , "USD", , AE$1)</f>
+        <v>-353</v>
+      </c>
+      <c r="AF15" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B15, "IQ_INC_TAX", IQ_FY, $D15, , , "USD", , AF$1)</f>
+        <v>769</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B16,"IQ_COMPANY_NAME")</f>
         <v>General Motors Company</v>
@@ -10031,8 +11577,32 @@
       <c r="Z16" t="s">
         <v>48</v>
       </c>
+      <c r="AA16" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B16, "IQ_ST_INVEST", IQ_FY, $D16, , , "USD", , AA$1)</f>
+        <v>6501</v>
+      </c>
+      <c r="AB16" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B16, "IQ_NPPE", IQ_FY, $D16, , , "USD", , AB$1)</f>
+        <v>38758</v>
+      </c>
+      <c r="AC16" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B16, "IQ_LT_INVEST", IQ_FY, $D16, , , "USD", , AC$1)</f>
+        <v>8744</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B16, "IQ_AP", IQ_FY, $D16, , , "USD", , AD$1)</f>
+        <v>22297</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B16, "IQ_NET_INTEREST_EXP", IQ_FY, $D16, , , "USD", , AE$1)</f>
+        <v>-320</v>
+      </c>
+      <c r="AF16" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B16, "IQ_INC_TAX", IQ_FY, $D16, , , "USD", , AF$1)</f>
+        <v>474</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B17,"IQ_COMPANY_NAME")</f>
         <v>General Motors Company</v>
@@ -10135,8 +11705,32 @@
       <c r="Z17" t="s">
         <v>48</v>
       </c>
+      <c r="AA17" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B17, "IQ_ST_INVEST", IQ_FY, $D17, , , "USD", , AA$1)</f>
+        <v>8313</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B17, "IQ_NPPE", IQ_FY, $D17, , , "USD", , AB$1)</f>
+        <v>36253</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B17, "IQ_LT_INVEST", IQ_FY, $D17, , , "USD", , AC$1)</f>
+        <v>7886</v>
+      </c>
+      <c r="AD17" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B17, "IQ_AP", IQ_FY, $D17, , , "USD", , AD$1)</f>
+        <v>23929</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B17, "IQ_NET_INTEREST_EXP", IQ_FY, $D17, , , "USD", , AE$1)</f>
+        <v>-309</v>
+      </c>
+      <c r="AF17" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B17, "IQ_INC_TAX", IQ_FY, $D17, , , "USD", , AF$1)</f>
+        <v>11533</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B18,"IQ_COMPANY_NAME")</f>
         <v>General Motors Company</v>
@@ -10239,8 +11833,32 @@
       <c r="Z18" t="s">
         <v>48</v>
       </c>
+      <c r="AA18" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B18, "IQ_ST_INVEST", IQ_FY, $D18, , , "USD", , AA$1)</f>
+        <v>11841</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B18, "IQ_NPPE", IQ_FY, $D18, , , "USD", , AB$1)</f>
+        <v>32603</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B18, "IQ_LT_INVEST", IQ_FY, $D18, , , "USD", , AC$1)</f>
+        <v>8052</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B18, "IQ_AP", IQ_FY, $D18, , , "USD", , AD$1)</f>
+        <v>23333</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B18, "IQ_NET_INTEREST_EXP", IQ_FY, $D18, , , "USD", , AE$1)</f>
+        <v>-381</v>
+      </c>
+      <c r="AF18" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B18, "IQ_INC_TAX", IQ_FY, $D18, , , "USD", , AF$1)</f>
+        <v>2739</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B19,"IQ_COMPANY_NAME")</f>
         <v>General Motors Company</v>
@@ -10343,8 +11961,32 @@
       <c r="Z19" t="s">
         <v>48</v>
       </c>
+      <c r="AA19" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B19, "IQ_ST_INVEST", IQ_FY, $D19, , , "USD", , AA$1)</f>
+        <v>7582</v>
+      </c>
+      <c r="AB19" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B19, "IQ_NPPE", IQ_FY, $D19, , , "USD", , AB$1)</f>
+        <v>31229</v>
+      </c>
+      <c r="AC19" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B19, "IQ_LT_INVEST", IQ_FY, $D19, , , "USD", , AC$1)</f>
+        <v>8215</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B19, "IQ_AP", IQ_FY, $D19, , , "USD", , AD$1)</f>
+        <v>24062</v>
+      </c>
+      <c r="AE19" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B19, "IQ_NET_INTEREST_EXP", IQ_FY, $D19, , , "USD", , AE$1)</f>
+        <v>-256</v>
+      </c>
+      <c r="AF19" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B19, "IQ_INC_TAX", IQ_FY, $D19, , , "USD", , AF$1)</f>
+        <v>-1219</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B20,"IQ_COMPANY_NAME")</f>
         <v>Toyota Motor Corporation</v>
@@ -10369,11 +12011,11 @@
       </c>
       <c r="G20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_CASH_EQUIV", IQ_FY, $D20, , , "USD", , G$1)</f>
-        <v>38088.977859999999</v>
+        <v>24929.184659999999</v>
       </c>
       <c r="H20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_CASH_ST_INVEST", IQ_FY, $D20, , , "USD", , H$1)</f>
-        <v>57775.285750000003</v>
+        <v>25911.731500000002</v>
       </c>
       <c r="I20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_TOTAL_CA", IQ_FY, $D20, , , "USD", , I$1)</f>
@@ -10417,7 +12059,7 @@
       </c>
       <c r="S20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D20, , , "USD", , S$1)</f>
-        <v>2766.1525299999998</v>
+        <v>13830.76266</v>
       </c>
       <c r="T20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_TOTAL_DEBT", IQ_FY, $D20, , , "USD", , T$1)</f>
@@ -10433,7 +12075,7 @@
       </c>
       <c r="W20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_CASH_EQUIV", IQ_FY, $D20, , , "USD", , W$1)</f>
-        <v>38088.977859999999</v>
+        <v>24929.184659999999</v>
       </c>
       <c r="X20" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_AR", IQ_FY, $D20, , , "USD", , X$1)</f>
@@ -10446,8 +12088,32 @@
       <c r="Z20" t="s">
         <v>48</v>
       </c>
+      <c r="AA20" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_ST_INVEST", IQ_FY, $D20, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_NPPE", IQ_FY, $D20, , , "USD", , AB$1)</f>
+        <v>61016.656880000002</v>
+      </c>
+      <c r="AC20" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_LT_INVEST", IQ_FY, $D20, , , "USD", , AC$1)</f>
+        <v>39939.445419999996</v>
+      </c>
+      <c r="AD20" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_AP", IQ_FY, $D20, , , "USD", , AD$1)</f>
+        <v>21880.867569999999</v>
+      </c>
+      <c r="AE20" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_NET_INTEREST_EXP", IQ_FY, $D20, , , "USD", , AE$1)</f>
+        <v>1746.79847</v>
+      </c>
+      <c r="AF20" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B20, "IQ_INC_TAX", IQ_FY, $D20, , , "USD", , AF$1)</f>
+        <v>6336.47174</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B21,"IQ_COMPANY_NAME")</f>
         <v>Toyota Motor Corporation</v>
@@ -10521,7 +12187,7 @@
       </c>
       <c r="S21" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D21, , , "USD", , S$1)</f>
-        <v>2832.4391700000001</v>
+        <v>14162.19584</v>
       </c>
       <c r="T21" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_TOTAL_DEBT", IQ_FY, $D21, , , "USD", , T$1)</f>
@@ -10550,8 +12216,32 @@
       <c r="Z21" t="s">
         <v>48</v>
       </c>
+      <c r="AA21" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_ST_INVEST", IQ_FY, $D21, , , "USD", , AA$1)</f>
+        <v>20168.684519999999</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_NPPE", IQ_FY, $D21, , , "USD", , AB$1)</f>
+        <v>55757.628470000003</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_LT_INVEST", IQ_FY, $D21, , , "USD", , AC$1)</f>
+        <v>98441.392170000006</v>
+      </c>
+      <c r="AD21" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_AP", IQ_FY, $D21, , , "USD", , AD$1)</f>
+        <v>23878.566190000001</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_NET_INTEREST_EXP", IQ_FY, $D21, , , "USD", , AE$1)</f>
+        <v>1781.5810300000001</v>
+      </c>
+      <c r="AF21" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B21, "IQ_INC_TAX", IQ_FY, $D21, , , "USD", , AF$1)</f>
+        <v>5955.6355899999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B22,"IQ_COMPANY_NAME")</f>
         <v>Toyota Motor Corporation</v>
@@ -10625,7 +12315,7 @@
       </c>
       <c r="S22" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D22, , , "USD", , S$1)</f>
-        <v>2909.9239899999998</v>
+        <v>14549.61996</v>
       </c>
       <c r="T22" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_TOTAL_DEBT", IQ_FY, $D22, , , "USD", , T$1)</f>
@@ -10654,8 +12344,32 @@
       <c r="Z22" t="s">
         <v>48</v>
       </c>
+      <c r="AA22" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_ST_INVEST", IQ_FY, $D22, , , "USD", , AA$1)</f>
+        <v>23046.96687</v>
+      </c>
+      <c r="AB22" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_NPPE", IQ_FY, $D22, , , "USD", , AB$1)</f>
+        <v>55571.37874</v>
+      </c>
+      <c r="AC22" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_LT_INVEST", IQ_FY, $D22, , , "USD", , AC$1)</f>
+        <v>106760.92027</v>
+      </c>
+      <c r="AD22" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_AP", IQ_FY, $D22, , , "USD", , AD$1)</f>
+        <v>24355.323410000001</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_NET_INTEREST_EXP", IQ_FY, $D22, , , "USD", , AE$1)</f>
+        <v>1430.7707499999999</v>
+      </c>
+      <c r="AF22" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B22, "IQ_INC_TAX", IQ_FY, $D22, , , "USD", , AF$1)</f>
+        <v>4749.3623100000004</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B23,"IQ_COMPANY_NAME")</f>
         <v>Toyota Motor Corporation</v>
@@ -10729,7 +12443,7 @@
       </c>
       <c r="S23" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D23, , , "USD", , S$1)</f>
-        <v>2974.7228599999999</v>
+        <v>14873.61428</v>
       </c>
       <c r="T23" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_TOTAL_DEBT", IQ_FY, $D23, , , "USD", , T$1)</f>
@@ -10758,8 +12472,32 @@
       <c r="Z23" t="s">
         <v>48</v>
       </c>
+      <c r="AA23" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_ST_INVEST", IQ_FY, $D23, , , "USD", , AA$1)</f>
+        <v>22624.197649999998</v>
+      </c>
+      <c r="AB23" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_NPPE", IQ_FY, $D23, , , "USD", , AB$1)</f>
+        <v>51128.41332</v>
+      </c>
+      <c r="AC23" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_LT_INVEST", IQ_FY, $D23, , , "USD", , AC$1)</f>
+        <v>95914.987989999994</v>
+      </c>
+      <c r="AD23" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_AP", IQ_FY, $D23, , , "USD", , AD$1)</f>
+        <v>23016.879270000001</v>
+      </c>
+      <c r="AE23" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_NET_INTEREST_EXP", IQ_FY, $D23, , , "USD", , AE$1)</f>
+        <v>1162.6009100000001</v>
+      </c>
+      <c r="AF23" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B23, "IQ_INC_TAX", IQ_FY, $D23, , , "USD", , AF$1)</f>
+        <v>5640.3588300000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B24,"IQ_COMPANY_NAME")</f>
         <v>Toyota Motor Corporation</v>
@@ -10833,7 +12571,7 @@
       </c>
       <c r="S24" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D24, , , "USD", , S$1)</f>
-        <v>3037.67587</v>
+        <v>15188.379349999999</v>
       </c>
       <c r="T24" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_TOTAL_DEBT", IQ_FY, $D24, , , "USD", , T$1)</f>
@@ -10862,8 +12600,32 @@
       <c r="Z24" t="s">
         <v>48</v>
       </c>
+      <c r="AA24" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_ST_INVEST", IQ_FY, $D24, , , "USD", , AA$1)</f>
+        <v>19957.822169999999</v>
+      </c>
+      <c r="AB24" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_NPPE", IQ_FY, $D24, , , "USD", , AB$1)</f>
+        <v>48293.402959999999</v>
+      </c>
+      <c r="AC24" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_LT_INVEST", IQ_FY, $D24, , , "USD", , AC$1)</f>
+        <v>91727.550170000002</v>
+      </c>
+      <c r="AD24" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_AP", IQ_FY, $D24, , , "USD", , AD$1)</f>
+        <v>21266.59748</v>
+      </c>
+      <c r="AE24" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_NET_INTEREST_EXP", IQ_FY, $D24, , , "USD", , AE$1)</f>
+        <v>1089.88069</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B24, "IQ_INC_TAX", IQ_FY, $D24, , , "USD", , AF$1)</f>
+        <v>7816.5624799999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B25,"IQ_COMPANY_NAME")</f>
         <v>Toyota Motor Corporation</v>
@@ -10937,7 +12699,7 @@
       </c>
       <c r="S25" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D25, , , "USD", , S$1)</f>
-        <v>3146.8139999999999</v>
+        <v>15734.07</v>
       </c>
       <c r="T25" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_TOTAL_DEBT", IQ_FY, $D25, , , "USD", , T$1)</f>
@@ -10966,13 +12728,37 @@
       <c r="Z25" t="s">
         <v>48</v>
       </c>
+      <c r="AA25" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_ST_INVEST", IQ_FY, $D25, , , "USD", , AA$1)</f>
+        <v>20009.18449</v>
+      </c>
+      <c r="AB25" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_NPPE", IQ_FY, $D25, , , "USD", , AB$1)</f>
+        <v>44558.322410000001</v>
+      </c>
+      <c r="AC25" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_LT_INVEST", IQ_FY, $D25, , , "USD", , AC$1)</f>
+        <v>88081.25851</v>
+      </c>
+      <c r="AD25" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_AP", IQ_FY, $D25, , , "USD", , AD$1)</f>
+        <v>20089.907889999999</v>
+      </c>
+      <c r="AE25" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_NET_INTEREST_EXP", IQ_FY, $D25, , , "USD", , AE$1)</f>
+        <v>1035.5113100000001</v>
+      </c>
+      <c r="AF25" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B25, "IQ_INC_TAX", IQ_FY, $D25, , , "USD", , AF$1)</f>
+        <v>7446.1956600000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B26,"IQ_COMPANY_NAME")</f>
         <v>Tesla, Inc.</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="str">
@@ -11040,7 +12826,7 @@
       </c>
       <c r="S26" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D26, , , "USD", , S$1)</f>
-        <v>959.85350000000005</v>
+        <v>2879.5605099999998</v>
       </c>
       <c r="T26" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_TOTAL_DEBT", IQ_FY, $D26, , , "USD", , T$1)</f>
@@ -11069,8 +12855,32 @@
       <c r="Z26" t="s">
         <v>48</v>
       </c>
+      <c r="AA26" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_ST_INVEST", IQ_FY, $D26, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_NPPE", IQ_FY, $D26, , , "USD", , AB$1)</f>
+        <v>23375</v>
+      </c>
+      <c r="AC26" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_LT_INVEST", IQ_FY, $D26, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_AP", IQ_FY, $D26, , , "USD", , AD$1)</f>
+        <v>6051</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_NET_INTEREST_EXP", IQ_FY, $D26, , , "USD", , AE$1)</f>
+        <v>-718</v>
+      </c>
+      <c r="AF26" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B26, "IQ_INC_TAX", IQ_FY, $D26, , , "USD", , AF$1)</f>
+        <v>292</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B27,"IQ_COMPANY_NAME")</f>
         <v>Tesla, Inc.</v>
@@ -11144,7 +12954,7 @@
       </c>
       <c r="S27" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D27, , , "USD", , S$1)</f>
-        <v>906.70793000000003</v>
+        <v>2720.1237900000001</v>
       </c>
       <c r="T27" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_TOTAL_DEBT", IQ_FY, $D27, , , "USD", , T$1)</f>
@@ -11173,8 +12983,32 @@
       <c r="Z27" t="s">
         <v>48</v>
       </c>
+      <c r="AA27" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_ST_INVEST", IQ_FY, $D27, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_NPPE", IQ_FY, $D27, , , "USD", , AB$1)</f>
+        <v>20199</v>
+      </c>
+      <c r="AC27" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_LT_INVEST", IQ_FY, $D27, , , "USD", , AC$1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_AP", IQ_FY, $D27, , , "USD", , AD$1)</f>
+        <v>3771</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_NET_INTEREST_EXP", IQ_FY, $D27, , , "USD", , AE$1)</f>
+        <v>-681</v>
+      </c>
+      <c r="AF27" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B27, "IQ_INC_TAX", IQ_FY, $D27, , , "USD", , AF$1)</f>
+        <v>110</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B28,"IQ_COMPANY_NAME")</f>
         <v>Tesla, Inc.</v>
@@ -11248,7 +13082,7 @@
       </c>
       <c r="S28" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D28, , , "USD", , S$1)</f>
-        <v>863.60744</v>
+        <v>2590.82231</v>
       </c>
       <c r="T28" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_TOTAL_DEBT", IQ_FY, $D28, , , "USD", , T$1)</f>
@@ -11277,13 +13111,37 @@
       <c r="Z28" t="s">
         <v>48</v>
       </c>
+      <c r="AA28" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_ST_INVEST", IQ_FY, $D28, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_NPPE", IQ_FY, $D28, , , "USD", , AB$1)</f>
+        <v>19691</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_LT_INVEST", IQ_FY, $D28, , , "USD", , AC$1)</f>
+        <v>12</v>
+      </c>
+      <c r="AD28" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_AP", IQ_FY, $D28, , , "USD", , AD$1)</f>
+        <v>3405</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_NET_INTEREST_EXP", IQ_FY, $D28, , , "USD", , AE$1)</f>
+        <v>-629</v>
+      </c>
+      <c r="AF28" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B28, "IQ_INC_TAX", IQ_FY, $D28, , , "USD", , AF$1)</f>
+        <v>58</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B29,"IQ_COMPANY_NAME")</f>
         <v>Tesla, Inc.</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -11352,7 +13210,7 @@
       </c>
       <c r="S29" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D29, , , "USD", , S$1)</f>
-        <v>844.59970999999996</v>
+        <v>2533.7991200000001</v>
       </c>
       <c r="T29" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_TOTAL_DEBT", IQ_FY, $D29, , , "USD", , T$1)</f>
@@ -11381,8 +13239,32 @@
       <c r="Z29" t="s">
         <v>48</v>
       </c>
+      <c r="AA29" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_ST_INVEST", IQ_FY, $D29, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_NPPE", IQ_FY, $D29, , , "USD", , AB$1)</f>
+        <v>20491.616000000002</v>
+      </c>
+      <c r="AC29" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_LT_INVEST", IQ_FY, $D29, , , "USD", , AC$1)</f>
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="AD29" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_AP", IQ_FY, $D29, , , "USD", , AD$1)</f>
+        <v>2390.25</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_NET_INTEREST_EXP", IQ_FY, $D29, , , "USD", , AE$1)</f>
+        <v>-458</v>
+      </c>
+      <c r="AF29" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B29, "IQ_INC_TAX", IQ_FY, $D29, , , "USD", , AF$1)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B30,"IQ_COMPANY_NAME")</f>
         <v>Tesla, Inc.</v>
@@ -11456,7 +13338,7 @@
       </c>
       <c r="S30" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D30, , , "USD", , S$1)</f>
-        <v>808.35213999999996</v>
+        <v>2425.0564199999999</v>
       </c>
       <c r="T30" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_TOTAL_DEBT", IQ_FY, $D30, , , "USD", , T$1)</f>
@@ -11485,8 +13367,32 @@
       <c r="Z30" t="s">
         <v>48</v>
       </c>
+      <c r="AA30" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_ST_INVEST", IQ_FY, $D30, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_NPPE", IQ_FY, $D30, , , "USD", , AB$1)</f>
+        <v>15036.916999999999</v>
+      </c>
+      <c r="AC30" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_LT_INVEST", IQ_FY, $D30, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_AP", IQ_FY, $D30, , , "USD", , AD$1)</f>
+        <v>1860.3409999999999</v>
+      </c>
+      <c r="AE30" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_NET_INTEREST_EXP", IQ_FY, $D30, , , "USD", , AE$1)</f>
+        <v>-183.285</v>
+      </c>
+      <c r="AF30" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B30, "IQ_INC_TAX", IQ_FY, $D30, , , "USD", , AF$1)</f>
+        <v>26.698</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B31,"IQ_COMPANY_NAME")</f>
         <v>Tesla, Inc.</v>
@@ -11560,7 +13466,7 @@
       </c>
       <c r="S31" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D31, , , "USD", , S$1)</f>
-        <v>660.28169000000003</v>
+        <v>1980.8450700000001</v>
       </c>
       <c r="T31" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_TOTAL_DEBT", IQ_FY, $D31, , , "USD", , T$1)</f>
@@ -11589,8 +13495,32 @@
       <c r="Z31" t="s">
         <v>48</v>
       </c>
+      <c r="AA31" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_ST_INVEST", IQ_FY, $D31, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_NPPE", IQ_FY, $D31, , , "USD", , AB$1)</f>
+        <v>5194.7370000000001</v>
+      </c>
+      <c r="AC31" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_LT_INVEST", IQ_FY, $D31, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_AP", IQ_FY, $D31, , , "USD", , AD$1)</f>
+        <v>916.14800000000002</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_NET_INTEREST_EXP", IQ_FY, $D31, , , "USD", , AE$1)</f>
+        <v>-117.343</v>
+      </c>
+      <c r="AF31" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B31, "IQ_INC_TAX", IQ_FY, $D31, , , "USD", , AF$1)</f>
+        <v>13.039</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B32,"IQ_COMPANY_NAME")</f>
         <v>Mitsubishi Corporation</v>
@@ -11692,8 +13622,32 @@
       <c r="Z32" t="s">
         <v>48</v>
       </c>
+      <c r="AA32" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B32, "IQ_ST_INVEST", IQ_FY, $D32, , , "USD", , AA$1)</f>
+        <v>1397.2510500000001</v>
+      </c>
+      <c r="AB32" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B32, "IQ_NPPE", IQ_FY, $D32, , , "USD", , AB$1)</f>
+        <v>34034.954510000003</v>
+      </c>
+      <c r="AC32" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B32, "IQ_LT_INVEST", IQ_FY, $D32, , , "USD", , AC$1)</f>
+        <v>46838.109340000003</v>
+      </c>
+      <c r="AD32" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B32, "IQ_AP", IQ_FY, $D32, , , "USD", , AD$1)</f>
+        <v>23670.6764</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B32, "IQ_NET_INTEREST_EXP", IQ_FY, $D32, , , "USD", , AE$1)</f>
+        <v>959.46177</v>
+      </c>
+      <c r="AF32" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B32, "IQ_INC_TAX", IQ_FY, $D32, , , "USD", , AF$1)</f>
+        <v>527.06272000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B33,"IQ_COMPANY_NAME")</f>
         <v>Mitsubishi Corporation</v>
@@ -11796,8 +13750,32 @@
       <c r="Z33" t="s">
         <v>48</v>
       </c>
+      <c r="AA33" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B33, "IQ_ST_INVEST", IQ_FY, $D33, , , "USD", , AA$1)</f>
+        <v>1933.4897000000001</v>
+      </c>
+      <c r="AB33" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B33, "IQ_NPPE", IQ_FY, $D33, , , "USD", , AB$1)</f>
+        <v>19573.702140000001</v>
+      </c>
+      <c r="AC33" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B33, "IQ_LT_INVEST", IQ_FY, $D33, , , "USD", , AC$1)</f>
+        <v>48574.134420000002</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B33, "IQ_AP", IQ_FY, $D33, , , "USD", , AD$1)</f>
+        <v>25836.6024</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B33, "IQ_NET_INTEREST_EXP", IQ_FY, $D33, , , "USD", , AE$1)</f>
+        <v>1171.5187800000001</v>
+      </c>
+      <c r="AF33" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B33, "IQ_INC_TAX", IQ_FY, $D33, , , "USD", , AF$1)</f>
+        <v>1859.2996499999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B34,"IQ_COMPANY_NAME")</f>
         <v>Mitsubishi Corporation</v>
@@ -11900,8 +13878,32 @@
       <c r="Z34" t="s">
         <v>48</v>
       </c>
+      <c r="AA34" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B34, "IQ_ST_INVEST", IQ_FY, $D34, , , "USD", , AA$1)</f>
+        <v>2287.79259</v>
+      </c>
+      <c r="AB34" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B34, "IQ_NPPE", IQ_FY, $D34, , , "USD", , AB$1)</f>
+        <v>19831.411889999999</v>
+      </c>
+      <c r="AC34" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B34, "IQ_LT_INVEST", IQ_FY, $D34, , , "USD", , AC$1)</f>
+        <v>50195.34158</v>
+      </c>
+      <c r="AD34" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B34, "IQ_AP", IQ_FY, $D34, , , "USD", , AD$1)</f>
+        <v>25594.40826</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B34, "IQ_NET_INTEREST_EXP", IQ_FY, $D34, , , "USD", , AE$1)</f>
+        <v>1194.8684699999999</v>
+      </c>
+      <c r="AF34" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B34, "IQ_INC_TAX", IQ_FY, $D34, , , "USD", , AF$1)</f>
+        <v>1904.8633299999999</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B35,"IQ_COMPANY_NAME")</f>
         <v>Mitsubishi Corporation</v>
@@ -12004,8 +14006,32 @@
       <c r="Z35" t="s">
         <v>48</v>
       </c>
+      <c r="AA35" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B35, "IQ_ST_INVEST", IQ_FY, $D35, , , "USD", , AA$1)</f>
+        <v>2381.1390500000002</v>
+      </c>
+      <c r="AB35" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B35, "IQ_NPPE", IQ_FY, $D35, , , "USD", , AB$1)</f>
+        <v>22284.430830000001</v>
+      </c>
+      <c r="AC35" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B35, "IQ_LT_INVEST", IQ_FY, $D35, , , "USD", , AC$1)</f>
+        <v>45137.148659999999</v>
+      </c>
+      <c r="AD35" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B35, "IQ_AP", IQ_FY, $D35, , , "USD", , AD$1)</f>
+        <v>22431.92859</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B35, "IQ_NET_INTEREST_EXP", IQ_FY, $D35, , , "USD", , AE$1)</f>
+        <v>743.06727999999998</v>
+      </c>
+      <c r="AF35" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B35, "IQ_INC_TAX", IQ_FY, $D35, , , "USD", , AF$1)</f>
+        <v>1088.48432</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B36,"IQ_COMPANY_NAME")</f>
         <v>Mitsubishi Corporation</v>
@@ -12108,8 +14134,32 @@
       <c r="Z36" t="s">
         <v>48</v>
       </c>
+      <c r="AA36" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B36, "IQ_ST_INVEST", IQ_FY, $D36, , , "USD", , AA$1)</f>
+        <v>2233.1878700000002</v>
+      </c>
+      <c r="AB36" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B36, "IQ_NPPE", IQ_FY, $D36, , , "USD", , AB$1)</f>
+        <v>20446.634890000001</v>
+      </c>
+      <c r="AC36" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B36, "IQ_LT_INVEST", IQ_FY, $D36, , , "USD", , AC$1)</f>
+        <v>44324.027909999997</v>
+      </c>
+      <c r="AD36" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B36, "IQ_AP", IQ_FY, $D36, , , "USD", , AD$1)</f>
+        <v>19062.45019</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B36, "IQ_NET_INTEREST_EXP", IQ_FY, $D36, , , "USD", , AE$1)</f>
+        <v>643.12919999999997</v>
+      </c>
+      <c r="AF36" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B36, "IQ_INC_TAX", IQ_FY, $D36, , , "USD", , AF$1)</f>
+        <v>354.58346999999998</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B37,"IQ_COMPANY_NAME")</f>
         <v>Mitsubishi Corporation</v>
@@ -12212,8 +14262,32 @@
       <c r="Z37" t="s">
         <v>48</v>
       </c>
+      <c r="AA37" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B37, "IQ_ST_INVEST", IQ_FY, $D37, , , "USD", , AA$1)</f>
+        <v>3174.3979300000001</v>
+      </c>
+      <c r="AB37" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B37, "IQ_NPPE", IQ_FY, $D37, , , "USD", , AB$1)</f>
+        <v>19962.17224</v>
+      </c>
+      <c r="AC37" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B37, "IQ_LT_INVEST", IQ_FY, $D37, , , "USD", , AC$1)</f>
+        <v>46467.27319</v>
+      </c>
+      <c r="AD37" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B37, "IQ_AP", IQ_FY, $D37, , , "USD", , AD$1)</f>
+        <v>20814.751639999999</v>
+      </c>
+      <c r="AE37" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B37, "IQ_NET_INTEREST_EXP", IQ_FY, $D37, , , "USD", , AE$1)</f>
+        <v>1323.8186800000001</v>
+      </c>
+      <c r="AF37" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B37, "IQ_INC_TAX", IQ_FY, $D37, , , "USD", , AF$1)</f>
+        <v>1402.87527</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B38,"IQ_COMPANY_NAME")</f>
         <v>Hyundai Motor Company</v>
@@ -12262,11 +14336,11 @@
       </c>
       <c r="M38" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B38, "IQ_PREF_EQUITY", IQ_FY, $D38, , , "USD", , M$1)=0,"None",_xll.ciqfunctions.udf.CIQ($B38, "IQ_PREF_EQUITY", IQ_FY, $D38, , , "USD", , M$1))</f>
-        <v>304.16269999999997</v>
+        <v>188.79606000000001</v>
       </c>
       <c r="N38" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B38, "IQ_COMMON", IQ_FY, $D38, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B38, "IQ_COMMON", IQ_FY, $D38, , , "USD", , N$1))</f>
-        <v>1064.05808</v>
+        <v>1179.42472</v>
       </c>
       <c r="O38" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B38, "IQ_APIC", IQ_FY, $D38, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B38, "IQ_APIC", IQ_FY, $D38, , , "USD", , O$1))</f>
@@ -12315,8 +14389,32 @@
       <c r="Z38" t="s">
         <v>48</v>
       </c>
+      <c r="AA38" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B38, "IQ_ST_INVEST", IQ_FY, $D38, , , "USD", , AA$1)</f>
+        <v>6699.95687</v>
+      </c>
+      <c r="AB38" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B38, "IQ_NPPE", IQ_FY, $D38, , , "USD", , AB$1)</f>
+        <v>50934.296909999997</v>
+      </c>
+      <c r="AC38" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B38, "IQ_LT_INVEST", IQ_FY, $D38, , , "USD", , AC$1)</f>
+        <v>20830.96155</v>
+      </c>
+      <c r="AD38" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B38, "IQ_AP", IQ_FY, $D38, , , "USD", , AD$1)</f>
+        <v>8079.96425</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B38, "IQ_NET_INTEREST_EXP", IQ_FY, $D38, , , "USD", , AE$1)</f>
+        <v>64.892009999999999</v>
+      </c>
+      <c r="AF38" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B38, "IQ_INC_TAX", IQ_FY, $D38, , , "USD", , AF$1)</f>
+        <v>155.01949999999999</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B39,"IQ_COMPANY_NAME")</f>
         <v>Hyundai Motor Company</v>
@@ -12366,11 +14464,11 @@
       </c>
       <c r="M39" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B39, "IQ_PREF_EQUITY", IQ_FY, $D39, , , "USD", , M$1)=0,"None",_xll.ciqfunctions.udf.CIQ($B39, "IQ_PREF_EQUITY", IQ_FY, $D39, , , "USD", , M$1))</f>
-        <v>286.71609999999998</v>
+        <v>177.96682999999999</v>
       </c>
       <c r="N39" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B39, "IQ_COMMON", IQ_FY, $D39, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B39, "IQ_COMMON", IQ_FY, $D39, , , "USD", , N$1))</f>
-        <v>1003.02432</v>
+        <v>1111.7736</v>
       </c>
       <c r="O39" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B39, "IQ_APIC", IQ_FY, $D39, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B39, "IQ_APIC", IQ_FY, $D39, , , "USD", , O$1))</f>
@@ -12419,8 +14517,32 @@
       <c r="Z39" t="s">
         <v>48</v>
       </c>
+      <c r="AA39" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B39, "IQ_ST_INVEST", IQ_FY, $D39, , , "USD", , AA$1)</f>
+        <v>6393.1079</v>
+      </c>
+      <c r="AB39" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B39, "IQ_NPPE", IQ_FY, $D39, , , "USD", , AB$1)</f>
+        <v>47323.393689999997</v>
+      </c>
+      <c r="AC39" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B39, "IQ_LT_INVEST", IQ_FY, $D39, , , "USD", , AC$1)</f>
+        <v>19146.318650000001</v>
+      </c>
+      <c r="AD39" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B39, "IQ_AP", IQ_FY, $D39, , , "USD", , AD$1)</f>
+        <v>6643.1246899999996</v>
+      </c>
+      <c r="AE39" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B39, "IQ_NET_INTEREST_EXP", IQ_FY, $D39, , , "USD", , AE$1)</f>
+        <v>197.59452999999999</v>
+      </c>
+      <c r="AF39" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B39, "IQ_INC_TAX", IQ_FY, $D39, , , "USD", , AF$1)</f>
+        <v>847.23091999999997</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B40,"IQ_COMPANY_NAME")</f>
         <v>Hyundai Motor Company</v>
@@ -12470,11 +14592,11 @@
       </c>
       <c r="M40" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B40, "IQ_PREF_EQUITY", IQ_FY, $D40, , , "USD", , M$1)=0,"None",_xll.ciqfunctions.udf.CIQ($B40, "IQ_PREF_EQUITY", IQ_FY, $D40, , , "USD", , M$1))</f>
-        <v>297.33758</v>
+        <v>184.55966000000001</v>
       </c>
       <c r="N40" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B40, "IQ_COMMON", IQ_FY, $D40, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B40, "IQ_COMMON", IQ_FY, $D40, , , "USD", , N$1))</f>
-        <v>1040.18165</v>
+        <v>1152.95957</v>
       </c>
       <c r="O40" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B40, "IQ_APIC", IQ_FY, $D40, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B40, "IQ_APIC", IQ_FY, $D40, , , "USD", , O$1))</f>
@@ -12523,8 +14645,32 @@
       <c r="Z40" t="s">
         <v>48</v>
       </c>
+      <c r="AA40" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B40, "IQ_ST_INVEST", IQ_FY, $D40, , , "USD", , AA$1)</f>
+        <v>7226.5138399999996</v>
+      </c>
+      <c r="AB40" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B40, "IQ_NPPE", IQ_FY, $D40, , , "USD", , AB$1)</f>
+        <v>45786.107089999998</v>
+      </c>
+      <c r="AC40" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B40, "IQ_LT_INVEST", IQ_FY, $D40, , , "USD", , AC$1)</f>
+        <v>17472.806390000002</v>
+      </c>
+      <c r="AD40" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B40, "IQ_AP", IQ_FY, $D40, , , "USD", , AD$1)</f>
+        <v>6876.8304200000002</v>
+      </c>
+      <c r="AE40" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B40, "IQ_NET_INTEREST_EXP", IQ_FY, $D40, , , "USD", , AE$1)</f>
+        <v>212.97826000000001</v>
+      </c>
+      <c r="AF40" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B40, "IQ_INC_TAX", IQ_FY, $D40, , , "USD", , AF$1)</f>
+        <v>794.57728999999995</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B41,"IQ_COMPANY_NAME")</f>
         <v>Hyundai Motor Company</v>
@@ -12574,11 +14720,11 @@
       </c>
       <c r="M41" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B41, "IQ_PREF_EQUITY", IQ_FY, $D41, , , "USD", , M$1)=0,"None",_xll.ciqfunctions.udf.CIQ($B41, "IQ_PREF_EQUITY", IQ_FY, $D41, , , "USD", , M$1))</f>
-        <v>309.86005999999998</v>
+        <v>192.33244999999999</v>
       </c>
       <c r="N41" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B41, "IQ_COMMON", IQ_FY, $D41, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B41, "IQ_COMMON", IQ_FY, $D41, , , "USD", , N$1))</f>
-        <v>1083.98927</v>
+        <v>1201.5168699999999</v>
       </c>
       <c r="O41" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B41, "IQ_APIC", IQ_FY, $D41, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B41, "IQ_APIC", IQ_FY, $D41, , , "USD", , O$1))</f>
@@ -12627,8 +14773,32 @@
       <c r="Z41" t="s">
         <v>48</v>
       </c>
+      <c r="AA41" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B41, "IQ_ST_INVEST", IQ_FY, $D41, , , "USD", , AA$1)</f>
+        <v>7264.1796000000004</v>
+      </c>
+      <c r="AB41" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B41, "IQ_NPPE", IQ_FY, $D41, , , "USD", , AB$1)</f>
+        <v>47324.722730000001</v>
+      </c>
+      <c r="AC41" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B41, "IQ_LT_INVEST", IQ_FY, $D41, , , "USD", , AC$1)</f>
+        <v>18618.205689999999</v>
+      </c>
+      <c r="AD41" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B41, "IQ_AP", IQ_FY, $D41, , , "USD", , AD$1)</f>
+        <v>6069.5683600000002</v>
+      </c>
+      <c r="AE41" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B41, "IQ_NET_INTEREST_EXP", IQ_FY, $D41, , , "USD", , AE$1)</f>
+        <v>128.63914</v>
+      </c>
+      <c r="AF41" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B41, "IQ_INC_TAX", IQ_FY, $D41, , , "USD", , AF$1)</f>
+        <v>-100.9586</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B42,"IQ_COMPANY_NAME")</f>
         <v>Hyundai Motor Company</v>
@@ -12658,11 +14828,11 @@
       </c>
       <c r="H42" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_CASH_ST_INVEST", IQ_FY, $D42, , , "USD", , H$1)</f>
-        <v>23017.282230000001</v>
+        <v>23020.078170000001</v>
       </c>
       <c r="I42" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_TOTAL_CA", IQ_FY, $D42, , , "USD", , I$1)</f>
-        <v>39501.081259999999</v>
+        <v>60179.608189999999</v>
       </c>
       <c r="J42" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_TOTAL_ASSETS", IQ_FY, $D42, , , "USD", , J$1)</f>
@@ -12678,11 +14848,11 @@
       </c>
       <c r="M42" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B42, "IQ_PREF_EQUITY", IQ_FY, $D42, , , "USD", , M$1)=0,"None",_xll.ciqfunctions.udf.CIQ($B42, "IQ_PREF_EQUITY", IQ_FY, $D42, , , "USD", , M$1))</f>
-        <v>274.95130999999998</v>
+        <v>170.66433000000001</v>
       </c>
       <c r="N42" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B42, "IQ_COMMON", IQ_FY, $D42, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B42, "IQ_COMMON", IQ_FY, $D42, , , "USD", , N$1))</f>
-        <v>961.86733000000004</v>
+        <v>1066.1542999999999</v>
       </c>
       <c r="O42" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B42, "IQ_APIC", IQ_FY, $D42, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B42, "IQ_APIC", IQ_FY, $D42, , , "USD", , O$1))</f>
@@ -12702,15 +14872,15 @@
       </c>
       <c r="S42" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D42, , , "USD", , S$1)</f>
-        <v>207.05396999999999</v>
+        <v>229.96189000000001</v>
       </c>
       <c r="T42" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_TOTAL_DEBT", IQ_FY, $D42, , , "USD", , T$1)</f>
         <v>61005.614220000003</v>
       </c>
-      <c r="U42" s="1" t="str">
+      <c r="U42" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B42, "IQ_PREF_DIV_OTHER", IQ_FY, $D42, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B42, "IQ_PREF_DIV_OTHER", IQ_FY, $D42, , , "USD", , U$1))</f>
-        <v>na</v>
+        <v>649.28963999999996</v>
       </c>
       <c r="V42" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_COGS", IQ_FY, $D42, , , "USD", , V$1)</f>
@@ -12731,8 +14901,32 @@
       <c r="Z42" t="s">
         <v>48</v>
       </c>
+      <c r="AA42" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_ST_INVEST", IQ_FY, $D42, , , "USD", , AA$1)</f>
+        <v>6121.0034999999998</v>
+      </c>
+      <c r="AB42" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_NPPE", IQ_FY, $D42, , , "USD", , AB$1)</f>
+        <v>42132.583509999997</v>
+      </c>
+      <c r="AC42" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_LT_INVEST", IQ_FY, $D42, , , "USD", , AC$1)</f>
+        <v>17097.022239999998</v>
+      </c>
+      <c r="AD42" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_AP", IQ_FY, $D42, , , "USD", , AD$1)</f>
+        <v>5802.8098499999996</v>
+      </c>
+      <c r="AE42" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_NET_INTEREST_EXP", IQ_FY, $D42, , , "USD", , AE$1)</f>
+        <v>116.7848</v>
+      </c>
+      <c r="AF42" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B42, "IQ_INC_TAX", IQ_FY, $D42, , , "USD", , AF$1)</f>
+        <v>1318.5753099999999</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B43,"IQ_COMPANY_NAME")</f>
         <v>Hyundai Motor Company</v>
@@ -12782,11 +14976,11 @@
       </c>
       <c r="M43" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B43, "IQ_PREF_EQUITY", IQ_FY, $D43, , , "USD", , M$1)=0,"None",_xll.ciqfunctions.udf.CIQ($B43, "IQ_PREF_EQUITY", IQ_FY, $D43, , , "USD", , M$1))</f>
-        <v>281.29248999999999</v>
+        <v>174.60034999999999</v>
       </c>
       <c r="N43" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B43, "IQ_COMMON", IQ_FY, $D43, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B43, "IQ_COMMON", IQ_FY, $D43, , , "USD", , N$1))</f>
-        <v>984.05079000000001</v>
+        <v>1090.7429299999999</v>
       </c>
       <c r="O43" s="1">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B43, "IQ_APIC", IQ_FY, $D43, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B43, "IQ_APIC", IQ_FY, $D43, , , "USD", , O$1))</f>
@@ -12835,8 +15029,32 @@
       <c r="Z43" t="s">
         <v>48</v>
       </c>
+      <c r="AA43" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B43, "IQ_ST_INVEST", IQ_FY, $D43, , , "USD", , AA$1)</f>
+        <v>5876.5103799999997</v>
+      </c>
+      <c r="AB43" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B43, "IQ_NPPE", IQ_FY, $D43, , , "USD", , AB$1)</f>
+        <v>39446.376510000002</v>
+      </c>
+      <c r="AC43" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B43, "IQ_LT_INVEST", IQ_FY, $D43, , , "USD", , AC$1)</f>
+        <v>16658.91992</v>
+      </c>
+      <c r="AD43" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B43, "IQ_AP", IQ_FY, $D43, , , "USD", , AD$1)</f>
+        <v>6017.5250100000003</v>
+      </c>
+      <c r="AE43" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B43, "IQ_NET_INTEREST_EXP", IQ_FY, $D43, , , "USD", , AE$1)</f>
+        <v>208.58206999999999</v>
+      </c>
+      <c r="AF43" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B43, "IQ_INC_TAX", IQ_FY, $D43, , , "USD", , AF$1)</f>
+        <v>1657.28286</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B44,"IQ_COMPANY_NAME")</f>
         <v>Kia Corporation</v>
@@ -12938,8 +15156,32 @@
       <c r="Z44" t="s">
         <v>48</v>
       </c>
+      <c r="AA44" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B44, "IQ_ST_INVEST", IQ_FY, $D44, , , "USD", , AA$1)</f>
+        <v>2786.4594999999999</v>
+      </c>
+      <c r="AB44" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B44, "IQ_NPPE", IQ_FY, $D44, , , "USD", , AB$1)</f>
+        <v>14316.044320000001</v>
+      </c>
+      <c r="AC44" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B44, "IQ_LT_INVEST", IQ_FY, $D44, , , "USD", , AC$1)</f>
+        <v>13977.358</v>
+      </c>
+      <c r="AD44" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B44, "IQ_AP", IQ_FY, $D44, , , "USD", , AD$1)</f>
+        <v>6710.1069299999999</v>
+      </c>
+      <c r="AE44" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B44, "IQ_NET_INTEREST_EXP", IQ_FY, $D44, , , "USD", , AE$1)</f>
+        <v>-55.949370000000002</v>
+      </c>
+      <c r="AF44" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B44, "IQ_INC_TAX", IQ_FY, $D44, , , "USD", , AF$1)</f>
+        <v>325.07846999999998</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B45,"IQ_COMPANY_NAME")</f>
         <v>Kia Corporation</v>
@@ -13042,8 +15284,32 @@
       <c r="Z45" t="s">
         <v>48</v>
       </c>
+      <c r="AA45" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B45, "IQ_ST_INVEST", IQ_FY, $D45, , , "USD", , AA$1)</f>
+        <v>2746.8014199999998</v>
+      </c>
+      <c r="AB45" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B45, "IQ_NPPE", IQ_FY, $D45, , , "USD", , AB$1)</f>
+        <v>13639.502189999999</v>
+      </c>
+      <c r="AC45" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B45, "IQ_LT_INVEST", IQ_FY, $D45, , , "USD", , AC$1)</f>
+        <v>12596.9115</v>
+      </c>
+      <c r="AD45" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B45, "IQ_AP", IQ_FY, $D45, , , "USD", , AD$1)</f>
+        <v>5861.2490100000005</v>
+      </c>
+      <c r="AE45" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B45, "IQ_NET_INTEREST_EXP", IQ_FY, $D45, , , "USD", , AE$1)</f>
+        <v>3.6873399999999998</v>
+      </c>
+      <c r="AF45" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B45, "IQ_INC_TAX", IQ_FY, $D45, , , "USD", , AF$1)</f>
+        <v>610.17827999999997</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B46,"IQ_COMPANY_NAME")</f>
         <v>Kia Corporation</v>
@@ -13146,8 +15412,32 @@
       <c r="Z46" t="s">
         <v>48</v>
       </c>
+      <c r="AA46" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B46, "IQ_ST_INVEST", IQ_FY, $D46, , , "USD", , AA$1)</f>
+        <v>4194.1539599999996</v>
+      </c>
+      <c r="AB46" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B46, "IQ_NPPE", IQ_FY, $D46, , , "USD", , AB$1)</f>
+        <v>13297.37509</v>
+      </c>
+      <c r="AC46" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B46, "IQ_LT_INVEST", IQ_FY, $D46, , , "USD", , AC$1)</f>
+        <v>12303.716700000001</v>
+      </c>
+      <c r="AD46" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B46, "IQ_AP", IQ_FY, $D46, , , "USD", , AD$1)</f>
+        <v>5609.6503000000002</v>
+      </c>
+      <c r="AE46" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B46, "IQ_NET_INTEREST_EXP", IQ_FY, $D46, , , "USD", , AE$1)</f>
+        <v>11.670339999999999</v>
+      </c>
+      <c r="AF46" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B46, "IQ_INC_TAX", IQ_FY, $D46, , , "USD", , AF$1)</f>
+        <v>280.89024000000001</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B47,"IQ_COMPANY_NAME")</f>
         <v>Kia Corporation</v>
@@ -13250,8 +15540,32 @@
       <c r="Z47" t="s">
         <v>48</v>
       </c>
+      <c r="AA47" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B47, "IQ_ST_INVEST", IQ_FY, $D47, , , "USD", , AA$1)</f>
+        <v>7308.9393200000004</v>
+      </c>
+      <c r="AB47" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B47, "IQ_NPPE", IQ_FY, $D47, , , "USD", , AB$1)</f>
+        <v>12780.50887</v>
+      </c>
+      <c r="AC47" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B47, "IQ_LT_INVEST", IQ_FY, $D47, , , "USD", , AC$1)</f>
+        <v>12607.03793</v>
+      </c>
+      <c r="AD47" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B47, "IQ_AP", IQ_FY, $D47, , , "USD", , AD$1)</f>
+        <v>4786.5544399999999</v>
+      </c>
+      <c r="AE47" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B47, "IQ_NET_INTEREST_EXP", IQ_FY, $D47, , , "USD", , AE$1)</f>
+        <v>-38.530889999999999</v>
+      </c>
+      <c r="AF47" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B47, "IQ_INC_TAX", IQ_FY, $D47, , , "USD", , AF$1)</f>
+        <v>161.04230999999999</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B48,"IQ_COMPANY_NAME")</f>
         <v>Kia Corporation</v>
@@ -13354,8 +15668,32 @@
       <c r="Z48" t="s">
         <v>48</v>
       </c>
+      <c r="AA48" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B48, "IQ_ST_INVEST", IQ_FY, $D48, , , "USD", , AA$1)</f>
+        <v>4392.9661999999998</v>
+      </c>
+      <c r="AB48" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B48, "IQ_NPPE", IQ_FY, $D48, , , "USD", , AB$1)</f>
+        <v>11208.00763</v>
+      </c>
+      <c r="AC48" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B48, "IQ_LT_INVEST", IQ_FY, $D48, , , "USD", , AC$1)</f>
+        <v>11033.903619999999</v>
+      </c>
+      <c r="AD48" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B48, "IQ_AP", IQ_FY, $D48, , , "USD", , AD$1)</f>
+        <v>5090.2087499999998</v>
+      </c>
+      <c r="AE48" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B48, "IQ_NET_INTEREST_EXP", IQ_FY, $D48, , , "USD", , AE$1)</f>
+        <v>14.2347</v>
+      </c>
+      <c r="AF48" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B48, "IQ_INC_TAX", IQ_FY, $D48, , , "USD", , AF$1)</f>
+        <v>570.97763999999995</v>
+      </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B49,"IQ_COMPANY_NAME")</f>
         <v>Kia Corporation</v>
@@ -13458,13 +15796,37 @@
       <c r="Z49" t="s">
         <v>48</v>
       </c>
+      <c r="AA49" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B49, "IQ_ST_INVEST", IQ_FY, $D49, , , "USD", , AA$1)</f>
+        <v>4884.4604499999996</v>
+      </c>
+      <c r="AB49" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B49, "IQ_NPPE", IQ_FY, $D49, , , "USD", , AB$1)</f>
+        <v>11083.16834</v>
+      </c>
+      <c r="AC49" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B49, "IQ_LT_INVEST", IQ_FY, $D49, , , "USD", , AC$1)</f>
+        <v>10018.448780000001</v>
+      </c>
+      <c r="AD49" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B49, "IQ_AP", IQ_FY, $D49, , , "USD", , AD$1)</f>
+        <v>5001.61445</v>
+      </c>
+      <c r="AE49" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B49, "IQ_NET_INTEREST_EXP", IQ_FY, $D49, , , "USD", , AE$1)</f>
+        <v>77.05968</v>
+      </c>
+      <c r="AF49" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B49, "IQ_INC_TAX", IQ_FY, $D49, , , "USD", , AF$1)</f>
+        <v>399.12123000000003</v>
+      </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B50,"IQ_COMPANY_NAME")</f>
         <v>The Home Depot, Inc.</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="1" t="str">
@@ -13561,13 +15923,37 @@
       <c r="Z50" t="s">
         <v>48</v>
       </c>
+      <c r="AA50" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B50, "IQ_ST_INVEST", IQ_FY, $D50, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B50, "IQ_NPPE", IQ_FY, $D50, , , "USD", , AB$1)</f>
+        <v>28365</v>
+      </c>
+      <c r="AC50" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B50, "IQ_LT_INVEST", IQ_FY, $D50, , , "USD", , AC$1)</f>
+        <v>120</v>
+      </c>
+      <c r="AD50" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B50, "IQ_AP", IQ_FY, $D50, , , "USD", , AD$1)</f>
+        <v>7787</v>
+      </c>
+      <c r="AE50" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B50, "IQ_NET_INTEREST_EXP", IQ_FY, $D50, , , "USD", , AE$1)</f>
+        <v>-1128</v>
+      </c>
+      <c r="AF50" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B50, "IQ_INC_TAX", IQ_FY, $D50, , , "USD", , AF$1)</f>
+        <v>3473</v>
+      </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B51,"IQ_COMPANY_NAME")</f>
         <v>The Home Depot, Inc.</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="1" t="str">
@@ -13665,13 +16051,37 @@
       <c r="Z51" t="s">
         <v>48</v>
       </c>
+      <c r="AA51" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B51, "IQ_ST_INVEST", IQ_FY, $D51, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B51, "IQ_NPPE", IQ_FY, $D51, , , "USD", , AB$1)</f>
+        <v>22375</v>
+      </c>
+      <c r="AC51" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B51, "IQ_LT_INVEST", IQ_FY, $D51, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B51, "IQ_AP", IQ_FY, $D51, , , "USD", , AD$1)</f>
+        <v>7755</v>
+      </c>
+      <c r="AE51" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B51, "IQ_NET_INTEREST_EXP", IQ_FY, $D51, , , "USD", , AE$1)</f>
+        <v>-958</v>
+      </c>
+      <c r="AF51" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B51, "IQ_INC_TAX", IQ_FY, $D51, , , "USD", , AF$1)</f>
+        <v>3435</v>
+      </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B52,"IQ_COMPANY_NAME")</f>
         <v>The Home Depot, Inc.</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="1" t="str">
@@ -13769,13 +16179,37 @@
       <c r="Z52" t="s">
         <v>48</v>
       </c>
+      <c r="AA52" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B52, "IQ_ST_INVEST", IQ_FY, $D52, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B52, "IQ_NPPE", IQ_FY, $D52, , , "USD", , AB$1)</f>
+        <v>22075</v>
+      </c>
+      <c r="AC52" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B52, "IQ_LT_INVEST", IQ_FY, $D52, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B52, "IQ_AP", IQ_FY, $D52, , , "USD", , AD$1)</f>
+        <v>7244</v>
+      </c>
+      <c r="AE52" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B52, "IQ_NET_INTEREST_EXP", IQ_FY, $D52, , , "USD", , AE$1)</f>
+        <v>-983</v>
+      </c>
+      <c r="AF52" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B52, "IQ_INC_TAX", IQ_FY, $D52, , , "USD", , AF$1)</f>
+        <v>5068</v>
+      </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B53,"IQ_COMPANY_NAME")</f>
         <v>The Home Depot, Inc.</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="str">
@@ -13873,13 +16307,37 @@
       <c r="Z53" t="s">
         <v>48</v>
       </c>
+      <c r="AA53" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B53, "IQ_ST_INVEST", IQ_FY, $D53, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B53, "IQ_NPPE", IQ_FY, $D53, , , "USD", , AB$1)</f>
+        <v>21914</v>
+      </c>
+      <c r="AC53" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B53, "IQ_LT_INVEST", IQ_FY, $D53, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B53, "IQ_AP", IQ_FY, $D53, , , "USD", , AD$1)</f>
+        <v>7000</v>
+      </c>
+      <c r="AE53" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B53, "IQ_NET_INTEREST_EXP", IQ_FY, $D53, , , "USD", , AE$1)</f>
+        <v>-936</v>
+      </c>
+      <c r="AF53" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B53, "IQ_INC_TAX", IQ_FY, $D53, , , "USD", , AF$1)</f>
+        <v>4534</v>
+      </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B54,"IQ_COMPANY_NAME")</f>
         <v>The Home Depot, Inc.</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="str">
@@ -13977,13 +16435,37 @@
       <c r="Z54" t="s">
         <v>48</v>
       </c>
+      <c r="AA54" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B54, "IQ_ST_INVEST", IQ_FY, $D54, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B54, "IQ_NPPE", IQ_FY, $D54, , , "USD", , AB$1)</f>
+        <v>22191</v>
+      </c>
+      <c r="AC54" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B54, "IQ_LT_INVEST", IQ_FY, $D54, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B54, "IQ_AP", IQ_FY, $D54, , , "USD", , AD$1)</f>
+        <v>6565</v>
+      </c>
+      <c r="AE54" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B54, "IQ_NET_INTEREST_EXP", IQ_FY, $D54, , , "USD", , AE$1)</f>
+        <v>-753</v>
+      </c>
+      <c r="AF54" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B54, "IQ_INC_TAX", IQ_FY, $D54, , , "USD", , AF$1)</f>
+        <v>4012</v>
+      </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B55,"IQ_COMPANY_NAME")</f>
         <v>The Home Depot, Inc.</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="1" t="str">
@@ -14081,13 +16563,37 @@
       <c r="Z55" t="s">
         <v>48</v>
       </c>
+      <c r="AA55" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B55, "IQ_ST_INVEST", IQ_FY, $D55, , , "USD", , AA$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B55, "IQ_NPPE", IQ_FY, $D55, , , "USD", , AB$1)</f>
+        <v>22720</v>
+      </c>
+      <c r="AC55" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B55, "IQ_LT_INVEST", IQ_FY, $D55, , , "USD", , AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B55, "IQ_AP", IQ_FY, $D55, , , "USD", , AD$1)</f>
+        <v>5807</v>
+      </c>
+      <c r="AE55" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B55, "IQ_NET_INTEREST_EXP", IQ_FY, $D55, , , "USD", , AE$1)</f>
+        <v>-493</v>
+      </c>
+      <c r="AF55" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B55, "IQ_INC_TAX", IQ_FY, $D55, , , "USD", , AF$1)</f>
+        <v>3631</v>
+      </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B56,"IQ_COMPANY_NAME")</f>
         <v>Honda Motor Co., Ltd.</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="1" t="str">
@@ -14155,7 +16661,7 @@
       </c>
       <c r="S56" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D56, , , "USD", , S$1)</f>
-        <v>1726.60979</v>
+        <v>5179.8293599999997</v>
       </c>
       <c r="T56" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_TOTAL_DEBT", IQ_FY, $D56, , , "USD", , T$1)</f>
@@ -14184,13 +16690,37 @@
       <c r="Z56" t="s">
         <v>48</v>
       </c>
+      <c r="AA56" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_ST_INVEST", IQ_FY, $D56, , , "USD", , AA$1)</f>
+        <v>1766.25908</v>
+      </c>
+      <c r="AB56" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_NPPE", IQ_FY, $D56, , , "USD", , AB$1)</f>
+        <v>28361.035540000001</v>
+      </c>
+      <c r="AC56" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_LT_INVEST", IQ_FY, $D56, , , "USD", , AC$1)</f>
+        <v>10196.82768</v>
+      </c>
+      <c r="AD56" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_AP", IQ_FY, $D56, , , "USD", , AD$1)</f>
+        <v>8907.5393199999999</v>
+      </c>
+      <c r="AE56" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_NET_INTEREST_EXP", IQ_FY, $D56, , , "USD", , AE$1)</f>
+        <v>278.03388000000001</v>
+      </c>
+      <c r="AF56" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B56, "IQ_INC_TAX", IQ_FY, $D56, , , "USD", , AF$1)</f>
+        <v>2602.05213</v>
+      </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B57,"IQ_COMPANY_NAME")</f>
         <v>Honda Motor Co., Ltd.</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="1" t="str">
@@ -14259,7 +16789,7 @@
       </c>
       <c r="S57" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D57, , , "USD", , S$1)</f>
-        <v>1759.5613900000001</v>
+        <v>5278.6841599999998</v>
       </c>
       <c r="T57" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_TOTAL_DEBT", IQ_FY, $D57, , , "USD", , T$1)</f>
@@ -14288,13 +16818,37 @@
       <c r="Z57" t="s">
         <v>48</v>
       </c>
+      <c r="AA57" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_ST_INVEST", IQ_FY, $D57, , , "USD", , AA$1)</f>
+        <v>1473.45903</v>
+      </c>
+      <c r="AB57" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_NPPE", IQ_FY, $D57, , , "USD", , AB$1)</f>
+        <v>26909.48388</v>
+      </c>
+      <c r="AC57" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_LT_INVEST", IQ_FY, $D57, , , "USD", , AC$1)</f>
+        <v>10199.33188</v>
+      </c>
+      <c r="AD57" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_AP", IQ_FY, $D57, , , "USD", , AD$1)</f>
+        <v>10692.91547</v>
+      </c>
+      <c r="AE57" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_NET_INTEREST_EXP", IQ_FY, $D57, , , "USD", , AE$1)</f>
+        <v>365.29192999999998</v>
+      </c>
+      <c r="AF57" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B57, "IQ_INC_TAX", IQ_FY, $D57, , , "USD", , AF$1)</f>
+        <v>2735.21335</v>
+      </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B58,"IQ_COMPANY_NAME")</f>
         <v>Honda Motor Co., Ltd.</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="1" t="str">
@@ -14363,7 +16917,7 @@
       </c>
       <c r="S58" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D58, , , "USD", , S$1)</f>
-        <v>1778.27782</v>
+        <v>5334.8334500000001</v>
       </c>
       <c r="T58" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_TOTAL_DEBT", IQ_FY, $D58, , , "USD", , T$1)</f>
@@ -14392,13 +16946,37 @@
       <c r="Z58" t="s">
         <v>48</v>
       </c>
+      <c r="AA58" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_ST_INVEST", IQ_FY, $D58, , , "USD", , AA$1)</f>
+        <v>2007.22198</v>
+      </c>
+      <c r="AB58" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_NPPE", IQ_FY, $D58, , , "USD", , AB$1)</f>
+        <v>28835.112710000001</v>
+      </c>
+      <c r="AC58" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_LT_INVEST", IQ_FY, $D58, , , "USD", , AC$1)</f>
+        <v>10508.65828</v>
+      </c>
+      <c r="AD58" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_AP", IQ_FY, $D58, , , "USD", , AD$1)</f>
+        <v>11530.78535</v>
+      </c>
+      <c r="AE58" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_NET_INTEREST_EXP", IQ_FY, $D58, , , "USD", , AE$1)</f>
+        <v>310.19256999999999</v>
+      </c>
+      <c r="AF58" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B58, "IQ_INC_TAX", IQ_FY, $D58, , , "USD", , AF$1)</f>
+        <v>-128.67568</v>
+      </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B59,"IQ_COMPANY_NAME")</f>
         <v>Honda Motor Co., Ltd.</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="1" t="str">
@@ -14467,7 +17045,7 @@
       </c>
       <c r="S59" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D59, , , "USD", , S$1)</f>
-        <v>1802.2804000000001</v>
+        <v>5406.8411900000001</v>
       </c>
       <c r="T59" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_TOTAL_DEBT", IQ_FY, $D59, , , "USD", , T$1)</f>
@@ -14496,13 +17074,37 @@
       <c r="Z59" t="s">
         <v>48</v>
       </c>
+      <c r="AA59" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_ST_INVEST", IQ_FY, $D59, , , "USD", , AA$1)</f>
+        <v>1340.1524899999999</v>
+      </c>
+      <c r="AB59" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_NPPE", IQ_FY, $D59, , , "USD", , AB$1)</f>
+        <v>28702.942139999999</v>
+      </c>
+      <c r="AC59" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_LT_INVEST", IQ_FY, $D59, , , "USD", , AC$1)</f>
+        <v>8626.6727800000008</v>
+      </c>
+      <c r="AD59" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_AP", IQ_FY, $D59, , , "USD", , AD$1)</f>
+        <v>10612.95083</v>
+      </c>
+      <c r="AE59" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_NET_INTEREST_EXP", IQ_FY, $D59, , , "USD", , AE$1)</f>
+        <v>222.87893</v>
+      </c>
+      <c r="AF59" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B59, "IQ_INC_TAX", IQ_FY, $D59, , , "USD", , AF$1)</f>
+        <v>2938.0448900000001</v>
+      </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B60,"IQ_COMPANY_NAME")</f>
         <v>Honda Motor Co., Ltd.</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="1" t="str">
@@ -14571,7 +17173,7 @@
       </c>
       <c r="S60" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D60, , , "USD", , S$1)</f>
-        <v>1802.28352</v>
+        <v>5406.8505599999999</v>
       </c>
       <c r="T60" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_TOTAL_DEBT", IQ_FY, $D60, , , "USD", , T$1)</f>
@@ -14600,13 +17202,37 @@
       <c r="Z60" t="s">
         <v>48</v>
       </c>
+      <c r="AA60" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_ST_INVEST", IQ_FY, $D60, , , "USD", , AA$1)</f>
+        <v>917.00779</v>
+      </c>
+      <c r="AB60" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_NPPE", IQ_FY, $D60, , , "USD", , AB$1)</f>
+        <v>27942.006580000001</v>
+      </c>
+      <c r="AC60" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_LT_INVEST", IQ_FY, $D60, , , "USD", , AC$1)</f>
+        <v>8260.9910899999995</v>
+      </c>
+      <c r="AD60" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_AP", IQ_FY, $D60, , , "USD", , AD$1)</f>
+        <v>10039.524289999999</v>
+      </c>
+      <c r="AE60" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_NET_INTEREST_EXP", IQ_FY, $D60, , , "USD", , AE$1)</f>
+        <v>127.09148999999999</v>
+      </c>
+      <c r="AF60" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B60, "IQ_INC_TAX", IQ_FY, $D60, , , "USD", , AF$1)</f>
+        <v>2038.9105500000001</v>
+      </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B61,"IQ_COMPANY_NAME")</f>
         <v>Honda Motor Co., Ltd.</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="1" t="str">
@@ -14675,7 +17301,7 @@
       </c>
       <c r="S61" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D61, , , "USD", , S$1)</f>
-        <v>1802.28693</v>
+        <v>5406.86078</v>
       </c>
       <c r="T61" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_TOTAL_DEBT", IQ_FY, $D61, , , "USD", , T$1)</f>
@@ -14704,8 +17330,32 @@
       <c r="Z61" t="s">
         <v>48</v>
       </c>
+      <c r="AA61" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_ST_INVEST", IQ_FY, $D61, , , "USD", , AA$1)</f>
+        <v>772.63107000000002</v>
+      </c>
+      <c r="AB61" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_NPPE", IQ_FY, $D61, , , "USD", , AB$1)</f>
+        <v>26581.473979999999</v>
+      </c>
+      <c r="AC61" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_LT_INVEST", IQ_FY, $D61, , , "USD", , AC$1)</f>
+        <v>8046.9540699999998</v>
+      </c>
+      <c r="AD61" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_AP", IQ_FY, $D61, , , "USD", , AD$1)</f>
+        <v>9648.6209099999996</v>
+      </c>
+      <c r="AE61" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_NET_INTEREST_EXP", IQ_FY, $D61, , , "USD", , AE$1)</f>
+        <v>102.89191</v>
+      </c>
+      <c r="AF61" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B61, "IQ_INC_TAX", IQ_FY, $D61, , , "USD", , AF$1)</f>
+        <v>2042.9952900000001</v>
+      </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B62,"IQ_COMPANY_NAME")</f>
         <v>Suzuki Motor Corporation</v>
@@ -14807,8 +17457,32 @@
       <c r="Z62" t="s">
         <v>48</v>
       </c>
+      <c r="AA62" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B62, "IQ_ST_INVEST", IQ_FY, $D62, , , "USD", , AA$1)</f>
+        <v>1102.0613499999999</v>
+      </c>
+      <c r="AB62" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B62, "IQ_NPPE", IQ_FY, $D62, , , "USD", , AB$1)</f>
+        <v>8551.3656300000002</v>
+      </c>
+      <c r="AC62" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B62, "IQ_LT_INVEST", IQ_FY, $D62, , , "USD", , AC$1)</f>
+        <v>6537.4531500000003</v>
+      </c>
+      <c r="AD62" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B62, "IQ_AP", IQ_FY, $D62, , , "USD", , AD$1)</f>
+        <v>3065.60302</v>
+      </c>
+      <c r="AE62" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B62, "IQ_NET_INTEREST_EXP", IQ_FY, $D62, , , "USD", , AE$1)</f>
+        <v>215.79526000000001</v>
+      </c>
+      <c r="AF62" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B62, "IQ_INC_TAX", IQ_FY, $D62, , , "USD", , AF$1)</f>
+        <v>775.24585000000002</v>
+      </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B63,"IQ_COMPANY_NAME")</f>
         <v>Suzuki Motor Corporation</v>
@@ -14911,8 +17585,32 @@
       <c r="Z63" t="s">
         <v>48</v>
       </c>
+      <c r="AA63" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B63, "IQ_ST_INVEST", IQ_FY, $D63, , , "USD", , AA$1)</f>
+        <v>1706.0373099999999</v>
+      </c>
+      <c r="AB63" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B63, "IQ_NPPE", IQ_FY, $D63, , , "USD", , AB$1)</f>
+        <v>8160.59897</v>
+      </c>
+      <c r="AC63" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B63, "IQ_LT_INVEST", IQ_FY, $D63, , , "USD", , AC$1)</f>
+        <v>6082.0772399999996</v>
+      </c>
+      <c r="AD63" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B63, "IQ_AP", IQ_FY, $D63, , , "USD", , AD$1)</f>
+        <v>3599.9006199999999</v>
+      </c>
+      <c r="AE63" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B63, "IQ_NET_INTEREST_EXP", IQ_FY, $D63, , , "USD", , AE$1)</f>
+        <v>457.11577</v>
+      </c>
+      <c r="AF63" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B63, "IQ_INC_TAX", IQ_FY, $D63, , , "USD", , AF$1)</f>
+        <v>555.02209000000005</v>
+      </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B64,"IQ_COMPANY_NAME")</f>
         <v>Suzuki Motor Corporation</v>
@@ -15015,8 +17713,32 @@
       <c r="Z64" t="s">
         <v>48</v>
       </c>
+      <c r="AA64" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B64, "IQ_ST_INVEST", IQ_FY, $D64, , , "USD", , AA$1)</f>
+        <v>2416.9767200000001</v>
+      </c>
+      <c r="AB64" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B64, "IQ_NPPE", IQ_FY, $D64, , , "USD", , AB$1)</f>
+        <v>7572.7605899999999</v>
+      </c>
+      <c r="AC64" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B64, "IQ_LT_INVEST", IQ_FY, $D64, , , "USD", , AC$1)</f>
+        <v>5354.7010700000001</v>
+      </c>
+      <c r="AD64" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B64, "IQ_AP", IQ_FY, $D64, , , "USD", , AD$1)</f>
+        <v>4823.1064900000001</v>
+      </c>
+      <c r="AE64" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B64, "IQ_NET_INTEREST_EXP", IQ_FY, $D64, , , "USD", , AE$1)</f>
+        <v>258.74489</v>
+      </c>
+      <c r="AF64" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B64, "IQ_INC_TAX", IQ_FY, $D64, , , "USD", , AF$1)</f>
+        <v>1022.48487</v>
+      </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B65,"IQ_COMPANY_NAME")</f>
         <v>Suzuki Motor Corporation</v>
@@ -15119,8 +17841,32 @@
       <c r="Z65" t="s">
         <v>48</v>
       </c>
+      <c r="AA65" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B65, "IQ_ST_INVEST", IQ_FY, $D65, , , "USD", , AA$1)</f>
+        <v>3038.1704500000001</v>
+      </c>
+      <c r="AB65" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B65, "IQ_NPPE", IQ_FY, $D65, , , "USD", , AB$1)</f>
+        <v>6783.3543600000003</v>
+      </c>
+      <c r="AC65" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B65, "IQ_LT_INVEST", IQ_FY, $D65, , , "USD", , AC$1)</f>
+        <v>3399.51575</v>
+      </c>
+      <c r="AD65" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B65, "IQ_AP", IQ_FY, $D65, , , "USD", , AD$1)</f>
+        <v>4584.15254</v>
+      </c>
+      <c r="AE65" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B65, "IQ_NET_INTEREST_EXP", IQ_FY, $D65, , , "USD", , AE$1)</f>
+        <v>108.11659</v>
+      </c>
+      <c r="AF65" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B65, "IQ_INC_TAX", IQ_FY, $D65, , , "USD", , AF$1)</f>
+        <v>875.18386999999996</v>
+      </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B66,"IQ_COMPANY_NAME")</f>
         <v>Suzuki Motor Corporation</v>
@@ -15223,8 +17969,32 @@
       <c r="Z66" t="s">
         <v>48</v>
       </c>
+      <c r="AA66" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B66, "IQ_ST_INVEST", IQ_FY, $D66, , , "USD", , AA$1)</f>
+        <v>2488.17184</v>
+      </c>
+      <c r="AB66" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B66, "IQ_NPPE", IQ_FY, $D66, , , "USD", , AB$1)</f>
+        <v>6737.9491500000004</v>
+      </c>
+      <c r="AC66" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B66, "IQ_LT_INVEST", IQ_FY, $D66, , , "USD", , AC$1)</f>
+        <v>2604.2184699999998</v>
+      </c>
+      <c r="AD66" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B66, "IQ_AP", IQ_FY, $D66, , , "USD", , AD$1)</f>
+        <v>4153.4263000000001</v>
+      </c>
+      <c r="AE66" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B66, "IQ_NET_INTEREST_EXP", IQ_FY, $D66, , , "USD", , AE$1)</f>
+        <v>129.08508</v>
+      </c>
+      <c r="AF66" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B66, "IQ_INC_TAX", IQ_FY, $D66, , , "USD", , AF$1)</f>
+        <v>821.73368000000005</v>
+      </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B67,"IQ_COMPANY_NAME")</f>
         <v>Suzuki Motor Corporation</v>
@@ -15327,8 +18097,32 @@
       <c r="Z67" t="s">
         <v>48</v>
       </c>
+      <c r="AA67" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B67, "IQ_ST_INVEST", IQ_FY, $D67, , , "USD", , AA$1)</f>
+        <v>5714.2012999999997</v>
+      </c>
+      <c r="AB67" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B67, "IQ_NPPE", IQ_FY, $D67, , , "USD", , AB$1)</f>
+        <v>6632.98621</v>
+      </c>
+      <c r="AC67" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B67, "IQ_LT_INVEST", IQ_FY, $D67, , , "USD", , AC$1)</f>
+        <v>3514.23459</v>
+      </c>
+      <c r="AD67" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B67, "IQ_AP", IQ_FY, $D67, , , "USD", , AD$1)</f>
+        <v>3999.9167400000001</v>
+      </c>
+      <c r="AE67" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B67, "IQ_NET_INTEREST_EXP", IQ_FY, $D67, , , "USD", , AE$1)</f>
+        <v>131.89433</v>
+      </c>
+      <c r="AF67" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B67, "IQ_INC_TAX", IQ_FY, $D67, , , "USD", , AF$1)</f>
+        <v>546.87058000000002</v>
+      </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B68,"IQ_COMPANY_NAME")</f>
         <v>Subaru Corporation</v>
@@ -15430,8 +18224,32 @@
       <c r="Z68" t="s">
         <v>48</v>
       </c>
+      <c r="AA68" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B68, "IQ_ST_INVEST", IQ_FY, $D68, , , "USD", , AA$1)</f>
+        <v>1899.34211</v>
+      </c>
+      <c r="AB68" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B68, "IQ_NPPE", IQ_FY, $D68, , , "USD", , AB$1)</f>
+        <v>7625.2396699999999</v>
+      </c>
+      <c r="AC68" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B68, "IQ_LT_INVEST", IQ_FY, $D68, , , "USD", , AC$1)</f>
+        <v>1546.3468</v>
+      </c>
+      <c r="AD68" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B68, "IQ_AP", IQ_FY, $D68, , , "USD", , AD$1)</f>
+        <v>3124.6911399999999</v>
+      </c>
+      <c r="AE68" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B68, "IQ_NET_INTEREST_EXP", IQ_FY, $D68, , , "USD", , AE$1)</f>
+        <v>107.30284</v>
+      </c>
+      <c r="AF68" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B68, "IQ_INC_TAX", IQ_FY, $D68, , , "USD", , AF$1)</f>
+        <v>511.74702000000002</v>
+      </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B69,"IQ_COMPANY_NAME")</f>
         <v>Subaru Corporation</v>
@@ -15534,8 +18352,32 @@
       <c r="Z69" t="s">
         <v>48</v>
       </c>
+      <c r="AA69" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B69, "IQ_ST_INVEST", IQ_FY, $D69, , , "USD", , AA$1)</f>
+        <v>1082.6008200000001</v>
+      </c>
+      <c r="AB69" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B69, "IQ_NPPE", IQ_FY, $D69, , , "USD", , AB$1)</f>
+        <v>6474.0905899999998</v>
+      </c>
+      <c r="AC69" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B69, "IQ_LT_INVEST", IQ_FY, $D69, , , "USD", , AC$1)</f>
+        <v>2295.2711199999999</v>
+      </c>
+      <c r="AD69" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B69, "IQ_AP", IQ_FY, $D69, , , "USD", , AD$1)</f>
+        <v>3418.4458800000002</v>
+      </c>
+      <c r="AE69" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B69, "IQ_NET_INTEREST_EXP", IQ_FY, $D69, , , "USD", , AE$1)</f>
+        <v>116.07255000000001</v>
+      </c>
+      <c r="AF69" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B69, "IQ_INC_TAX", IQ_FY, $D69, , , "USD", , AF$1)</f>
+        <v>437.67709000000002</v>
+      </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B70,"IQ_COMPANY_NAME")</f>
         <v>Subaru Corporation</v>
@@ -15638,8 +18480,32 @@
       <c r="Z70" t="s">
         <v>48</v>
       </c>
+      <c r="AA70" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B70, "IQ_ST_INVEST", IQ_FY, $D70, , , "USD", , AA$1)</f>
+        <v>2284.0074500000001</v>
+      </c>
+      <c r="AB70" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B70, "IQ_NPPE", IQ_FY, $D70, , , "USD", , AB$1)</f>
+        <v>6620.29126</v>
+      </c>
+      <c r="AC70" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B70, "IQ_LT_INVEST", IQ_FY, $D70, , , "USD", , AC$1)</f>
+        <v>2122.8568399999999</v>
+      </c>
+      <c r="AD70" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B70, "IQ_AP", IQ_FY, $D70, , , "USD", , AD$1)</f>
+        <v>3625.0649100000001</v>
+      </c>
+      <c r="AE70" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B70, "IQ_NET_INTEREST_EXP", IQ_FY, $D70, , , "USD", , AE$1)</f>
+        <v>64.093029999999999</v>
+      </c>
+      <c r="AF70" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B70, "IQ_INC_TAX", IQ_FY, $D70, , , "USD", , AF$1)</f>
+        <v>711.84033999999997</v>
+      </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B71,"IQ_COMPANY_NAME")</f>
         <v>Subaru Corporation</v>
@@ -15742,8 +18608,32 @@
       <c r="Z71" t="s">
         <v>48</v>
       </c>
+      <c r="AA71" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B71, "IQ_ST_INVEST", IQ_FY, $D71, , , "USD", , AA$1)</f>
+        <v>2875.1480299999998</v>
+      </c>
+      <c r="AB71" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B71, "IQ_NPPE", IQ_FY, $D71, , , "USD", , AB$1)</f>
+        <v>5894.7534500000002</v>
+      </c>
+      <c r="AC71" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B71, "IQ_LT_INVEST", IQ_FY, $D71, , , "USD", , AC$1)</f>
+        <v>971.15697</v>
+      </c>
+      <c r="AD71" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B71, "IQ_AP", IQ_FY, $D71, , , "USD", , AD$1)</f>
+        <v>3136.6547599999999</v>
+      </c>
+      <c r="AE71" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B71, "IQ_NET_INTEREST_EXP", IQ_FY, $D71, , , "USD", , AE$1)</f>
+        <v>24.843050000000002</v>
+      </c>
+      <c r="AF71" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B71, "IQ_INC_TAX", IQ_FY, $D71, , , "USD", , AF$1)</f>
+        <v>996.79822000000001</v>
+      </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B72,"IQ_COMPANY_NAME")</f>
         <v>Subaru Corporation</v>
@@ -15846,8 +18736,32 @@
       <c r="Z72" t="s">
         <v>48</v>
       </c>
+      <c r="AA72" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B72, "IQ_ST_INVEST", IQ_FY, $D72, , , "USD", , AA$1)</f>
+        <v>4455.0727800000004</v>
+      </c>
+      <c r="AB72" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B72, "IQ_NPPE", IQ_FY, $D72, , , "USD", , AB$1)</f>
+        <v>5096.41309</v>
+      </c>
+      <c r="AC72" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B72, "IQ_LT_INVEST", IQ_FY, $D72, , , "USD", , AC$1)</f>
+        <v>1000.37375</v>
+      </c>
+      <c r="AD72" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B72, "IQ_AP", IQ_FY, $D72, , , "USD", , AD$1)</f>
+        <v>2906.9507400000002</v>
+      </c>
+      <c r="AE72" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B72, "IQ_NET_INTEREST_EXP", IQ_FY, $D72, , , "USD", , AE$1)</f>
+        <v>23.9498</v>
+      </c>
+      <c r="AF72" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B72, "IQ_INC_TAX", IQ_FY, $D72, , , "USD", , AF$1)</f>
+        <v>1625.52503</v>
+      </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B73,"IQ_COMPANY_NAME")</f>
         <v>Subaru Corporation</v>
@@ -15950,636 +18864,804 @@
       <c r="Z73" t="s">
         <v>48</v>
       </c>
+      <c r="AA73" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B73, "IQ_ST_INVEST", IQ_FY, $D73, , , "USD", , AA$1)</f>
+        <v>3706.4506099999999</v>
+      </c>
+      <c r="AB73" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B73, "IQ_NPPE", IQ_FY, $D73, , , "USD", , AB$1)</f>
+        <v>4289.4992099999999</v>
+      </c>
+      <c r="AC73" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B73, "IQ_LT_INVEST", IQ_FY, $D73, , , "USD", , AC$1)</f>
+        <v>1515.0096100000001</v>
+      </c>
+      <c r="AD73" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B73, "IQ_AP", IQ_FY, $D73, , , "USD", , AD$1)</f>
+        <v>3268.7808</v>
+      </c>
+      <c r="AE73" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B73, "IQ_NET_INTEREST_EXP", IQ_FY, $D73, , , "USD", , AE$1)</f>
+        <v>10.200850000000001</v>
+      </c>
+      <c r="AF73" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B73, "IQ_INC_TAX", IQ_FY, $D73, , , "USD", , AF$1)</f>
+        <v>1058.8966</v>
+      </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B74,"IQ_COMPANY_NAME")</f>
-        <v>Daimler AG</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_INDUSTRY", IQ_FY, $D74, ,, "USD", , C$1)</f>
-        <v>Automobiles</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="D74" s="2">
         <v>44197</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_REV", IQ_FY, $D74, ,, "USD", , E$1)</f>
-        <v>188757.18651</v>
-      </c>
-      <c r="F74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="F74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_NI", IQ_FY, $D74, ,, "USD", , F$1)</f>
-        <v>4436.6972500000002</v>
-      </c>
-      <c r="G74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="G74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_CASH_EQUIV", IQ_FY, $D74, , , "USD", , G$1)</f>
-        <v>24885.626909999999</v>
-      </c>
-      <c r="H74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="H74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_CASH_ST_INVEST", IQ_FY, $D74, , , "USD", , H$1)</f>
-        <v>31203.669720000002</v>
-      </c>
-      <c r="I74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="I74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_CA", IQ_FY, $D74, , , "USD", , I$1)</f>
-        <v>140995.71862999999</v>
-      </c>
-      <c r="J74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="J74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_ASSETS", IQ_FY, $D74, , , "USD", , J$1)</f>
-        <v>349525.38219999999</v>
-      </c>
-      <c r="K74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="K74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_CL", IQ_FY, $D74, , , "USD", , K$1)</f>
-        <v>122090.51986</v>
-      </c>
-      <c r="L74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="L74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_LIAB", IQ_FY, $D74, ,, "USD", , L$1)</f>
-        <v>273381.03970999998</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="M74" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B74, "IQ_PREF_EQUITY", IQ_FY, $D74, , , "USD", , M$1)=0,"",_xll.ciqfunctions.udf.CIQ($B74, "IQ_PREF_EQUITY", IQ_FY, $D74, , , "USD", , M$1))</f>
-        <v/>
-      </c>
-      <c r="N74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="N74" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B74, "IQ_COMMON", IQ_FY, $D74, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B74, "IQ_COMMON", IQ_FY, $D74, , , "USD", , N$1))</f>
-        <v>3755.3516800000002</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="O74" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B74, "IQ_APIC", IQ_FY, $D74, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B74, "IQ_APIC", IQ_FY, $D74, , , "USD", , O$1))</f>
-        <v/>
-      </c>
-      <c r="P74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="P74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_ASSETS", IQ_FY, $D74, , , "USD", , P$1)</f>
-        <v>349525.38219999999</v>
-      </c>
-      <c r="Q74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Q74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_RE", IQ_FY, $D74, , , "USD", , Q$1)</f>
-        <v>57628.134550000002</v>
-      </c>
-      <c r="R74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="R74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_EQUITY", IQ_FY, $D74, , , "USD", , R$1)</f>
-        <v>76144.342489999995</v>
-      </c>
-      <c r="S74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="S74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D74, , , "USD", , S$1)</f>
-        <v>1069.83745</v>
-      </c>
-      <c r="T74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="T74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_TOTAL_DEBT", IQ_FY, $D74, , , "USD", , T$1)</f>
-        <v>178399.99997</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="U74" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B74, "IQ_PREF_DIV_OTHER", IQ_FY, $D74, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B74, "IQ_PREF_DIV_OTHER", IQ_FY, $D74, , , "USD", , U$1))</f>
-        <v>na</v>
-      </c>
-      <c r="V74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="V74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_COGS", IQ_FY, $D74, , , "USD", , V$1)</f>
-        <v>125111.92658</v>
-      </c>
-      <c r="W74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="W74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_CASH_EQUIV", IQ_FY, $D74, , , "USD", , W$1)</f>
-        <v>24885.626909999999</v>
-      </c>
-      <c r="X74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="X74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_AR", IQ_FY, $D74, , , "USD", , X$1)</f>
-        <v>12145.56575</v>
-      </c>
-      <c r="Y74" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Y74" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_INVENTORY", IQ_FY, $D74, , , "USD", , Y$1)</f>
-        <v>30945.565739999998</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="Z74" t="s">
         <v>48</v>
       </c>
+      <c r="AA74" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_ST_INVEST", IQ_FY, $D74, , , "USD", , AA$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AB74" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_NPPE", IQ_FY, $D74, , , "USD", , AB$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AC74" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_LT_INVEST", IQ_FY, $D74, , , "USD", , AC$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AD74" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_AP", IQ_FY, $D74, , , "USD", , AD$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AE74" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_NET_INTEREST_EXP", IQ_FY, $D74, , , "USD", , AE$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AF74" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B74, "IQ_INC_TAX", IQ_FY, $D74, , , "USD", , AF$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B75,"IQ_COMPANY_NAME")</f>
-        <v>Daimler AG</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_INDUSTRY", IQ_FY, $D75, ,, "USD", , C$1)</f>
-        <v>Automobiles</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="D75" s="2">
         <f>DATE(YEAR(D74) -1, MONTH(D74), DAY(D74))</f>
         <v>43831</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_REV", IQ_FY, $D75, ,, "USD", , E$1)</f>
-        <v>193855.90836999999</v>
-      </c>
-      <c r="F75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="F75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_NI", IQ_FY, $D75, ,, "USD", , F$1)</f>
-        <v>2667.4896199999998</v>
-      </c>
-      <c r="G75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="G75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_CASH_EQUIV", IQ_FY, $D75, , , "USD", , G$1)</f>
-        <v>18125.911789999998</v>
-      </c>
-      <c r="H75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="H75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_CASH_ST_INVEST", IQ_FY, $D75, , , "USD", , H$1)</f>
-        <v>26452.698899999999</v>
-      </c>
-      <c r="I75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="I75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_CA", IQ_FY, $D75, , , "USD", , I$1)</f>
-        <v>143418.24707000001</v>
-      </c>
-      <c r="J75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="J75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_ASSETS", IQ_FY, $D75, , , "USD", , J$1)</f>
-        <v>339398.49614</v>
-      </c>
-      <c r="K75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="K75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_CL", IQ_FY, $D75, , , "USD", , K$1)</f>
-        <v>118731.90435</v>
-      </c>
-      <c r="L75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="L75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_LIAB", IQ_FY, $D75, ,, "USD", , L$1)</f>
-        <v>268877.79141000001</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="M75" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B75, "IQ_PREF_EQUITY", IQ_FY, $D75, , , "USD", , M$1)=0,"",_xll.ciqfunctions.udf.CIQ($B75, "IQ_PREF_EQUITY", IQ_FY, $D75, , , "USD", , M$1))</f>
-        <v/>
-      </c>
-      <c r="N75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="N75" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B75, "IQ_COMMON", IQ_FY, $D75, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B75, "IQ_COMMON", IQ_FY, $D75, , , "USD", , N$1))</f>
-        <v>3445.1801099999998</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="O75" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B75, "IQ_APIC", IQ_FY, $D75, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B75, "IQ_APIC", IQ_FY, $D75, , , "USD", , O$1))</f>
-        <v/>
-      </c>
-      <c r="P75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="P75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_ASSETS", IQ_FY, $D75, , , "USD", , P$1)</f>
-        <v>339398.49614</v>
-      </c>
-      <c r="Q75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Q75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_RE", IQ_FY, $D75, , , "USD", , Q$1)</f>
-        <v>51990.797870000002</v>
-      </c>
-      <c r="R75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="R75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_EQUITY", IQ_FY, $D75, , , "USD", , R$1)</f>
-        <v>70520.704729999998</v>
-      </c>
-      <c r="S75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="S75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D75, , , "USD", , S$1)</f>
-        <v>1069.83745</v>
-      </c>
-      <c r="T75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="T75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_TOTAL_DEBT", IQ_FY, $D75, , , "USD", , T$1)</f>
-        <v>181550.8921</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="U75" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B75, "IQ_PREF_DIV_OTHER", IQ_FY, $D75, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B75, "IQ_PREF_DIV_OTHER", IQ_FY, $D75, , , "USD", , U$1))</f>
-        <v>na</v>
-      </c>
-      <c r="V75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="V75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_COGS", IQ_FY, $D75, , , "USD", , V$1)</f>
-        <v>133123.10623</v>
-      </c>
-      <c r="W75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="W75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_CASH_EQUIV", IQ_FY, $D75, , , "USD", , W$1)</f>
-        <v>18125.911789999998</v>
-      </c>
-      <c r="X75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="X75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_AR", IQ_FY, $D75, , , "USD", , X$1)</f>
-        <v>12394.792949999999</v>
-      </c>
-      <c r="Y75" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Y75" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_INVENTORY", IQ_FY, $D75, , , "USD", , Y$1)</f>
-        <v>31893.16574</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="Z75" t="s">
         <v>48</v>
       </c>
+      <c r="AA75" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_ST_INVEST", IQ_FY, $D75, , , "USD", , AA$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AB75" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_NPPE", IQ_FY, $D75, , , "USD", , AB$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AC75" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_LT_INVEST", IQ_FY, $D75, , , "USD", , AC$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AD75" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_AP", IQ_FY, $D75, , , "USD", , AD$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AE75" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_NET_INTEREST_EXP", IQ_FY, $D75, , , "USD", , AE$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AF75" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B75, "IQ_INC_TAX", IQ_FY, $D75, , , "USD", , AF$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B76,"IQ_COMPANY_NAME")</f>
-        <v>Daimler AG</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_INDUSTRY", IQ_FY, $D76, ,, "USD", , C$1)</f>
-        <v>Automobiles</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="D76" s="2">
         <f>DATE(YEAR(D75) -1, MONTH(D75), DAY(D75))</f>
         <v>43466</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_REV", IQ_FY, $D76, ,, "USD", , E$1)</f>
-        <v>191621.25026999999</v>
-      </c>
-      <c r="F76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="F76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_NI", IQ_FY, $D76, ,, "USD", , F$1)</f>
-        <v>8299.7481100000005</v>
-      </c>
-      <c r="G76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="G76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_CASH_EQUIV", IQ_FY, $D76, , , "USD", , G$1)</f>
-        <v>14654.22487</v>
-      </c>
-      <c r="H76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="H76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_CASH_ST_INVEST", IQ_FY, $D76, , , "USD", , H$1)</f>
-        <v>24228.303179999999</v>
-      </c>
-      <c r="I76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="I76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_CA", IQ_FY, $D76, , , "USD", , I$1)</f>
-        <v>139240.89762999999</v>
-      </c>
-      <c r="J76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="J76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_ASSETS", IQ_FY, $D76, , , "USD", , J$1)</f>
-        <v>322439.89004999999</v>
-      </c>
-      <c r="K76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="K76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_CL", IQ_FY, $D76, , , "USD", , K$1)</f>
-        <v>112150.21752999999</v>
-      </c>
-      <c r="L76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="L76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_LIAB", IQ_FY, $D76, ,, "USD", , L$1)</f>
-        <v>246812.45704000001</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="M76" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B76, "IQ_PREF_EQUITY", IQ_FY, $D76, , , "USD", , M$1)=0,"",_xll.ciqfunctions.udf.CIQ($B76, "IQ_PREF_EQUITY", IQ_FY, $D76, , , "USD", , M$1))</f>
-        <v/>
-      </c>
-      <c r="N76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="N76" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B76, "IQ_COMMON", IQ_FY, $D76, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B76, "IQ_COMMON", IQ_FY, $D76, , , "USD", , N$1))</f>
-        <v>3514.9988600000001</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="O76" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B76, "IQ_APIC", IQ_FY, $D76, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B76, "IQ_APIC", IQ_FY, $D76, , , "USD", , O$1))</f>
-        <v/>
-      </c>
-      <c r="P76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="P76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_ASSETS", IQ_FY, $D76, , , "USD", , P$1)</f>
-        <v>322439.89004999999</v>
-      </c>
-      <c r="Q76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Q76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_RE", IQ_FY, $D76, , , "USD", , Q$1)</f>
-        <v>46339.592389999998</v>
-      </c>
-      <c r="R76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="R76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_EQUITY", IQ_FY, $D76, , , "USD", , R$1)</f>
-        <v>75627.433009999993</v>
-      </c>
-      <c r="S76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="S76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D76, , , "USD", , S$1)</f>
-        <v>1069.83745</v>
-      </c>
-      <c r="T76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="T76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_TOTAL_DEBT", IQ_FY, $D76, , , "USD", , T$1)</f>
-        <v>165905.65604</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="U76" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B76, "IQ_PREF_DIV_OTHER", IQ_FY, $D76, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B76, "IQ_PREF_DIV_OTHER", IQ_FY, $D76, , , "USD", , U$1))</f>
-        <v>na</v>
-      </c>
-      <c r="V76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="V76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_COGS", IQ_FY, $D76, , , "USD", , V$1)</f>
-        <v>127763.91114</v>
-      </c>
-      <c r="W76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="W76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_CASH_EQUIV", IQ_FY, $D76, , , "USD", , W$1)</f>
-        <v>14654.22487</v>
-      </c>
-      <c r="X76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="X76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_AR", IQ_FY, $D76, , , "USD", , X$1)</f>
-        <v>12073.50584</v>
-      </c>
-      <c r="Y76" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Y76" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_INVENTORY", IQ_FY, $D76, , , "USD", , Y$1)</f>
-        <v>32168.536749999999</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="Z76" t="s">
         <v>48</v>
       </c>
+      <c r="AA76" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_ST_INVEST", IQ_FY, $D76, , , "USD", , AA$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AB76" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_NPPE", IQ_FY, $D76, , , "USD", , AB$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AC76" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_LT_INVEST", IQ_FY, $D76, , , "USD", , AC$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AD76" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_AP", IQ_FY, $D76, , , "USD", , AD$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AE76" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_NET_INTEREST_EXP", IQ_FY, $D76, , , "USD", , AE$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AF76" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B76, "IQ_INC_TAX", IQ_FY, $D76, , , "USD", , AF$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B77,"IQ_COMPANY_NAME")</f>
-        <v>Daimler AG</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_INDUSTRY", IQ_FY, $D77, ,, "USD", , C$1)</f>
-        <v>Automobiles</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="D77" s="2">
         <f>DATE(YEAR(D76) -1, MONTH(D76), DAY(D76))</f>
         <v>43101</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_REV", IQ_FY, $D77, ,, "USD", , E$1)</f>
-        <v>197110.95104000001</v>
-      </c>
-      <c r="F77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="F77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_NI", IQ_FY, $D77, ,, "USD", , F$1)</f>
-        <v>12341.49856</v>
-      </c>
-      <c r="G77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="G77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_CASH_EQUIV", IQ_FY, $D77, , , "USD", , G$1)</f>
-        <v>11425.3122</v>
-      </c>
-      <c r="H77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="H77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_CASH_ST_INVEST", IQ_FY, $D77, , , "USD", , H$1)</f>
-        <v>22103.7464</v>
-      </c>
-      <c r="I77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="I77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_CA", IQ_FY, $D77, , , "USD", , I$1)</f>
-        <v>128357.34871999999</v>
-      </c>
-      <c r="J77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="J77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_ASSETS", IQ_FY, $D77, , , "USD", , J$1)</f>
-        <v>306610.23058999999</v>
-      </c>
-      <c r="K77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="K77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_CL", IQ_FY, $D77, , , "USD", , K$1)</f>
-        <v>105216.13834</v>
-      </c>
-      <c r="L77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="L77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_LIAB", IQ_FY, $D77, ,, "USD", , L$1)</f>
-        <v>228369.35642</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="M77" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B77, "IQ_PREF_EQUITY", IQ_FY, $D77, , , "USD", , M$1)=0,"",_xll.ciqfunctions.udf.CIQ($B77, "IQ_PREF_EQUITY", IQ_FY, $D77, , , "USD", , M$1))</f>
-        <v/>
-      </c>
-      <c r="N77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="N77" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B77, "IQ_COMMON", IQ_FY, $D77, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B77, "IQ_COMMON", IQ_FY, $D77, , , "USD", , N$1))</f>
-        <v>3686.3592699999999</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="O77" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B77, "IQ_APIC", IQ_FY, $D77, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B77, "IQ_APIC", IQ_FY, $D77, , , "USD", , O$1))</f>
-        <v/>
-      </c>
-      <c r="P77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="P77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_ASSETS", IQ_FY, $D77, , , "USD", , P$1)</f>
-        <v>306610.23058999999</v>
-      </c>
-      <c r="Q77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Q77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_RE", IQ_FY, $D77, , , "USD", , Q$1)</f>
-        <v>66180.355439999999</v>
-      </c>
-      <c r="R77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="R77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_EQUITY", IQ_FY, $D77, , , "USD", , R$1)</f>
-        <v>78240.874169999996</v>
-      </c>
-      <c r="S77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="S77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D77, , , "USD", , S$1)</f>
-        <v>1069.83745</v>
-      </c>
-      <c r="T77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="T77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_TOTAL_DEBT", IQ_FY, $D77, , , "USD", , T$1)</f>
-        <v>152646.49377999999</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="U77" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B77, "IQ_PREF_DIV_OTHER", IQ_FY, $D77, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B77, "IQ_PREF_DIV_OTHER", IQ_FY, $D77, , , "USD", , U$1))</f>
-        <v>na</v>
-      </c>
-      <c r="V77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="V77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_COGS", IQ_FY, $D77, , , "USD", , V$1)</f>
-        <v>130451.48897000001</v>
-      </c>
-      <c r="W77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="W77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_CASH_EQUIV", IQ_FY, $D77, , , "USD", , W$1)</f>
-        <v>11425.3122</v>
-      </c>
-      <c r="X77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="X77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_AR", IQ_FY, $D77, , , "USD", , X$1)</f>
-        <v>11697.88665</v>
-      </c>
-      <c r="Y77" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Y77" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_INVENTORY", IQ_FY, $D77, , , "USD", , Y$1)</f>
-        <v>29409.22191</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="Z77" t="s">
         <v>48</v>
       </c>
+      <c r="AA77" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_ST_INVEST", IQ_FY, $D77, , , "USD", , AA$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AB77" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_NPPE", IQ_FY, $D77, , , "USD", , AB$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AC77" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_LT_INVEST", IQ_FY, $D77, , , "USD", , AC$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AD77" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_AP", IQ_FY, $D77, , , "USD", , AD$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AE77" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_NET_INTEREST_EXP", IQ_FY, $D77, , , "USD", , AE$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AF77" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B77, "IQ_INC_TAX", IQ_FY, $D77, , , "USD", , AF$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B78,"IQ_COMPANY_NAME")</f>
-        <v>Daimler AG</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_INDUSTRY", IQ_FY, $D78, ,, "USD", , C$1)</f>
-        <v>Automobiles</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="D78" s="2">
         <f>DATE(YEAR(D77) -1, MONTH(D77), DAY(D77))</f>
         <v>42736</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_REV", IQ_FY, $D78, ,, "USD", , E$1)</f>
-        <v>161787.18468999999</v>
-      </c>
-      <c r="F78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="F78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_NI", IQ_FY, $D78, ,, "USD", , F$1)</f>
-        <v>9000.3166899999997</v>
-      </c>
-      <c r="G78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="G78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_CASH_EQUIV", IQ_FY, $D78, , , "USD", , G$1)</f>
-        <v>9237.8338500000009</v>
-      </c>
-      <c r="H78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="H78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_CASH_ST_INVEST", IQ_FY, $D78, , , "USD", , H$1)</f>
-        <v>19263.169010000001</v>
-      </c>
-      <c r="I78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="I78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_CA", IQ_FY, $D78, , , "USD", , I$1)</f>
-        <v>107729.33605</v>
-      </c>
-      <c r="J78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="J78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_ASSETS", IQ_FY, $D78, , , "USD", , J$1)</f>
-        <v>256505.85884999999</v>
-      </c>
-      <c r="K78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="K78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_CL", IQ_FY, $D78, , , "USD", , K$1)</f>
-        <v>89155.494600000005</v>
-      </c>
-      <c r="L78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="L78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_LIAB", IQ_FY, $D78, ,, "USD", , L$1)</f>
-        <v>194083.18385</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="M78" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B78, "IQ_PREF_EQUITY", IQ_FY, $D78, , , "USD", , M$1)=0,"",_xll.ciqfunctions.udf.CIQ($B78, "IQ_PREF_EQUITY", IQ_FY, $D78, , , "USD", , M$1))</f>
-        <v/>
-      </c>
-      <c r="N78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="N78" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B78, "IQ_COMMON", IQ_FY, $D78, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B78, "IQ_COMMON", IQ_FY, $D78, , , "USD", , N$1))</f>
-        <v>3240.7896099999998</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="O78" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B78, "IQ_APIC", IQ_FY, $D78, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B78, "IQ_APIC", IQ_FY, $D78, , , "USD", , O$1))</f>
-        <v/>
-      </c>
-      <c r="P78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="P78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_ASSETS", IQ_FY, $D78, , , "USD", , P$1)</f>
-        <v>256505.85884999999</v>
-      </c>
-      <c r="Q78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Q78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_RE", IQ_FY, $D78, , , "USD", , Q$1)</f>
-        <v>50914.177150000003</v>
-      </c>
-      <c r="R78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="R78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_EQUITY", IQ_FY, $D78, , , "USD", , R$1)</f>
-        <v>62422.67499</v>
-      </c>
-      <c r="S78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="S78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D78, , , "USD", , S$1)</f>
-        <v>1069.8</v>
-      </c>
-      <c r="T78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="T78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_TOTAL_DEBT", IQ_FY, $D78, , , "USD", , T$1)</f>
-        <v>124233.08354000001</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="U78" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B78, "IQ_PREF_DIV_OTHER", IQ_FY, $D78, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B78, "IQ_PREF_DIV_OTHER", IQ_FY, $D78, , , "USD", , U$1))</f>
-        <v>na</v>
-      </c>
-      <c r="V78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="V78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_COGS", IQ_FY, $D78, , , "USD", , V$1)</f>
-        <v>109229.38883</v>
-      </c>
-      <c r="W78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="W78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_CASH_EQUIV", IQ_FY, $D78, , , "USD", , W$1)</f>
-        <v>9237.8338500000009</v>
-      </c>
-      <c r="X78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="X78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_AR", IQ_FY, $D78, , , "USD", , X$1)</f>
-        <v>9476.4066299999995</v>
-      </c>
-      <c r="Y78" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Y78" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_INVENTORY", IQ_FY, $D78, , , "USD", , Y$1)</f>
-        <v>25784.862249999998</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="Z78" t="s">
         <v>48</v>
       </c>
+      <c r="AA78" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_ST_INVEST", IQ_FY, $D78, , , "USD", , AA$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AB78" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_NPPE", IQ_FY, $D78, , , "USD", , AB$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AC78" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_LT_INVEST", IQ_FY, $D78, , , "USD", , AC$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AD78" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_AP", IQ_FY, $D78, , , "USD", , AD$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AE78" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_NET_INTEREST_EXP", IQ_FY, $D78, , , "USD", , AE$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AF78" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B78, "IQ_INC_TAX", IQ_FY, $D78, , , "USD", , AF$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B79,"IQ_COMPANY_NAME")</f>
-        <v>Daimler AG</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_INDUSTRY", IQ_FY, $D79, ,, "USD", , C$1)</f>
-        <v>Automobiles</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="D79" s="2">
         <f>DATE(YEAR(D78) -1, MONTH(D78), DAY(D78))</f>
         <v>42370</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_REV", IQ_FY, $D79, ,, "USD", , E$1)</f>
-        <v>162331.79478</v>
-      </c>
-      <c r="F79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="F79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_NI", IQ_FY, $D79, ,, "USD", , F$1)</f>
-        <v>9149.0632700000006</v>
-      </c>
-      <c r="G79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="G79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_CASH_EQUIV", IQ_FY, $D79, , , "USD", , G$1)</f>
-        <v>9089.32935</v>
-      </c>
-      <c r="H79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="H79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_CASH_ST_INVEST", IQ_FY, $D79, , , "USD", , H$1)</f>
-        <v>16689.655180000002</v>
-      </c>
-      <c r="I79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="I79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_CA", IQ_FY, $D79, , , "USD", , I$1)</f>
-        <v>99752.375809999998</v>
-      </c>
-      <c r="J79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="J79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_ASSETS", IQ_FY, $D79, , , "USD", , J$1)</f>
-        <v>235857.72476000001</v>
-      </c>
-      <c r="K79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="K79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_CL", IQ_FY, $D79, , , "USD", , K$1)</f>
-        <v>83715.449389999994</v>
-      </c>
-      <c r="L79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="L79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_LIAB", IQ_FY, $D79, ,, "USD", , L$1)</f>
-        <v>176532.17491</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="M79" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B79, "IQ_PREF_EQUITY", IQ_FY, $D79, , , "USD", , M$1)=0,"",_xll.ciqfunctions.udf.CIQ($B79, "IQ_PREF_EQUITY", IQ_FY, $D79, , , "USD", , M$1))</f>
-        <v/>
-      </c>
-      <c r="N79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="N79" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B79, "IQ_COMMON", IQ_FY, $D79, , , "USD", , N$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B79, "IQ_COMMON", IQ_FY, $D79, , , "USD", , N$1))</f>
-        <v>3334.23839</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="O79" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B79, "IQ_APIC", IQ_FY, $D79, , , "USD", , O$1)=0,"",_xll.ciqfunctions.udf.CIQ($B79, "IQ_APIC", IQ_FY, $D79, , , "USD", , O$1))</f>
-        <v/>
-      </c>
-      <c r="P79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="P79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_ASSETS", IQ_FY, $D79, , , "USD", , P$1)</f>
-        <v>235857.72476000001</v>
-      </c>
-      <c r="Q79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Q79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_RE", IQ_FY, $D79, , , "USD", , Q$1)</f>
-        <v>46898.723879999998</v>
-      </c>
-      <c r="R79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="R79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_EQUITY", IQ_FY, $D79, , , "USD", , R$1)</f>
-        <v>59325.54984</v>
-      </c>
-      <c r="S79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="S79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_OUTSTANDING_FILING_DATE", IQ_FY, $D79, , , "USD", , S$1)</f>
-        <v>1069.83745</v>
-      </c>
-      <c r="T79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="T79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_TOTAL_DEBT", IQ_FY, $D79, , , "USD", , T$1)</f>
-        <v>109847.40704000001</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="U79" s="1" t="str">
         <f>IF(_xll.ciqfunctions.udf.CIQ($B79, "IQ_PREF_DIV_OTHER", IQ_FY, $D79, , , "USD", , U$1)=0,"na",_xll.ciqfunctions.udf.CIQ($B79, "IQ_PREF_DIV_OTHER", IQ_FY, $D79, , , "USD", , U$1))</f>
-        <v>na</v>
-      </c>
-      <c r="V79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="V79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_COGS", IQ_FY, $D79, , , "USD", , V$1)</f>
-        <v>110587.02149</v>
-      </c>
-      <c r="W79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="W79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_CASH_EQUIV", IQ_FY, $D79, , , "USD", , W$1)</f>
-        <v>9089.32935</v>
-      </c>
-      <c r="X79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="X79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_AR", IQ_FY, $D79, , , "USD", , X$1)</f>
-        <v>8922.0743999999995</v>
-      </c>
-      <c r="Y79" s="1">
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="Y79" s="1" t="str">
         <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_INVENTORY", IQ_FY, $D79, , , "USD", , Y$1)</f>
-        <v>24829.75836</v>
+        <v>(Invalid Identifier)</v>
       </c>
       <c r="Z79" t="s">
         <v>48</v>
       </c>
+      <c r="AA79" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_ST_INVEST", IQ_FY, $D79, , , "USD", , AA$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AB79" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_NPPE", IQ_FY, $D79, , , "USD", , AB$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AC79" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_LT_INVEST", IQ_FY, $D79, , , "USD", , AC$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AD79" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_AP", IQ_FY, $D79, , , "USD", , AD$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AE79" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_NET_INTEREST_EXP", IQ_FY, $D79, , , "USD", , AE$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
+      <c r="AF79" s="1" t="str">
+        <f>_xll.ciqfunctions.udf.CIQ($B79, "IQ_INC_TAX", IQ_FY, $D79, , , "USD", , AF$1)</f>
+        <v>(Invalid Identifier)</v>
+      </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B80,"IQ_COMPANY_NAME")</f>
         <v>AB Volvo (publ)</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="1" t="str">
@@ -16667,7 +19749,7 @@
       </c>
       <c r="X80" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_AR", IQ_FY, $D80, , , "USD", , X$1)</f>
-        <v>4606.5128100000002</v>
+        <v>4641.8238899999997</v>
       </c>
       <c r="Y80" s="1">
         <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_INVENTORY", IQ_FY, $D80, , , "USD", , Y$1)</f>
@@ -16676,13 +19758,37 @@
       <c r="Z80" t="s">
         <v>48</v>
       </c>
+      <c r="AA80" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_ST_INVEST", IQ_FY, $D80, , , "USD", , AA$1)</f>
+        <v>25.935379999999999</v>
+      </c>
+      <c r="AB80" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_NPPE", IQ_FY, $D80, , , "USD", , AB$1)</f>
+        <v>10594.17583</v>
+      </c>
+      <c r="AC80" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_LT_INVEST", IQ_FY, $D80, , , "USD", , AC$1)</f>
+        <v>2174.3100899999999</v>
+      </c>
+      <c r="AD80" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_AP", IQ_FY, $D80, , , "USD", , AD$1)</f>
+        <v>7185.5609100000001</v>
+      </c>
+      <c r="AE80" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_NET_INTEREST_EXP", IQ_FY, $D80, , , "USD", , AE$1)</f>
+        <v>-127.85046</v>
+      </c>
+      <c r="AF80" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B80, "IQ_INC_TAX", IQ_FY, $D80, , , "USD", , AF$1)</f>
+        <v>711.45735000000002</v>
+      </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B81,"IQ_COMPANY_NAME")</f>
         <v>AB Volvo (publ)</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="1" t="str">
@@ -16780,13 +19886,37 @@
       <c r="Z81" t="s">
         <v>48</v>
       </c>
+      <c r="AA81" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B81, "IQ_ST_INVEST", IQ_FY, $D81, , , "USD", , AA$1)</f>
+        <v>21.408989999999999</v>
+      </c>
+      <c r="AB81" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B81, "IQ_NPPE", IQ_FY, $D81, , , "USD", , AB$1)</f>
+        <v>10355.100189999999</v>
+      </c>
+      <c r="AC81" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B81, "IQ_LT_INVEST", IQ_FY, $D81, , , "USD", , AC$1)</f>
+        <v>1520.03828</v>
+      </c>
+      <c r="AD81" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B81, "IQ_AP", IQ_FY, $D81, , , "USD", , AD$1)</f>
+        <v>7128.1231500000004</v>
+      </c>
+      <c r="AE81" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B81, "IQ_NET_INTEREST_EXP", IQ_FY, $D81, , , "USD", , AE$1)</f>
+        <v>-114.43105</v>
+      </c>
+      <c r="AF81" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B81, "IQ_INC_TAX", IQ_FY, $D81, , , "USD", , AF$1)</f>
+        <v>1106.5236399999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B82,"IQ_COMPANY_NAME")</f>
         <v>AB Volvo (publ)</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="1" t="str">
@@ -16884,13 +20014,37 @@
       <c r="Z82" t="s">
         <v>48</v>
       </c>
+      <c r="AA82" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B82, "IQ_ST_INVEST", IQ_FY, $D82, , , "USD", , AA$1)</f>
+        <v>18.004110000000001</v>
+      </c>
+      <c r="AB82" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B82, "IQ_NPPE", IQ_FY, $D82, , , "USD", , AB$1)</f>
+        <v>11110.11088</v>
+      </c>
+      <c r="AC82" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B82, "IQ_LT_INVEST", IQ_FY, $D82, , , "USD", , AC$1)</f>
+        <v>1518.0840000000001</v>
+      </c>
+      <c r="AD82" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B82, "IQ_AP", IQ_FY, $D82, , , "USD", , AD$1)</f>
+        <v>8178.7042899999997</v>
+      </c>
+      <c r="AE82" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B82, "IQ_NET_INTEREST_EXP", IQ_FY, $D82, , , "USD", , AE$1)</f>
+        <v>-160.46163000000001</v>
+      </c>
+      <c r="AF82" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B82, "IQ_INC_TAX", IQ_FY, $D82, , , "USD", , AF$1)</f>
+        <v>763.48676999999998</v>
+      </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B83,"IQ_COMPANY_NAME")</f>
         <v>AB Volvo (publ)</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="1" t="str">
@@ -16988,13 +20142,37 @@
       <c r="Z83" t="s">
         <v>48</v>
       </c>
+      <c r="AA83" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B83, "IQ_ST_INVEST", IQ_FY, $D83, , , "USD", , AA$1)</f>
+        <v>21.745480000000001</v>
+      </c>
+      <c r="AB83" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B83, "IQ_NPPE", IQ_FY, $D83, , , "USD", , AB$1)</f>
+        <v>11593.271580000001</v>
+      </c>
+      <c r="AC83" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B83, "IQ_LT_INVEST", IQ_FY, $D83, , , "USD", , AC$1)</f>
+        <v>1708.11949</v>
+      </c>
+      <c r="AD83" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B83, "IQ_AP", IQ_FY, $D83, , , "USD", , AD$1)</f>
+        <v>7928.66993</v>
+      </c>
+      <c r="AE83" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B83, "IQ_NET_INTEREST_EXP", IQ_FY, $D83, , , "USD", , AE$1)</f>
+        <v>-189.72318999999999</v>
+      </c>
+      <c r="AF83" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B83, "IQ_INC_TAX", IQ_FY, $D83, , , "USD", , AF$1)</f>
+        <v>832.92510000000004</v>
+      </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B84,"IQ_COMPANY_NAME")</f>
         <v>AB Volvo (publ)</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="1" t="str">
@@ -17092,13 +20270,37 @@
       <c r="Z84" t="s">
         <v>48</v>
       </c>
+      <c r="AA84" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B84, "IQ_ST_INVEST", IQ_FY, $D84, , , "USD", , AA$1)</f>
+        <v>134.73392000000001</v>
+      </c>
+      <c r="AB84" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B84, "IQ_NPPE", IQ_FY, $D84, , , "USD", , AB$1)</f>
+        <v>9970.5303700000004</v>
+      </c>
+      <c r="AC84" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B84, "IQ_LT_INVEST", IQ_FY, $D84, , , "USD", , AC$1)</f>
+        <v>1548.61382</v>
+      </c>
+      <c r="AD84" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B84, "IQ_AP", IQ_FY, $D84, , , "USD", , AD$1)</f>
+        <v>6036.0355200000004</v>
+      </c>
+      <c r="AE84" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B84, "IQ_NET_INTEREST_EXP", IQ_FY, $D84, , , "USD", , AE$1)</f>
+        <v>-164.69927000000001</v>
+      </c>
+      <c r="AF84" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B84, "IQ_INC_TAX", IQ_FY, $D84, , , "USD", , AF$1)</f>
+        <v>661.88175999999999</v>
+      </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>_xll.ciqfunctions.udf.CIQ(B85,"IQ_COMPANY_NAME")</f>
         <v>AB Volvo (publ)</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="1" t="str">
@@ -17195,6 +20397,30 @@
       </c>
       <c r="Z85" t="s">
         <v>48</v>
+      </c>
+      <c r="AA85" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B85, "IQ_ST_INVEST", IQ_FY, $D85, , , "USD", , AA$1)</f>
+        <v>396.13342999999998</v>
+      </c>
+      <c r="AB85" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B85, "IQ_NPPE", IQ_FY, $D85, , , "USD", , AB$1)</f>
+        <v>10197.711310000001</v>
+      </c>
+      <c r="AC85" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B85, "IQ_LT_INVEST", IQ_FY, $D85, , , "USD", , AC$1)</f>
+        <v>1549.11391</v>
+      </c>
+      <c r="AD85" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B85, "IQ_AP", IQ_FY, $D85, , , "USD", , AD$1)</f>
+        <v>6544.9677600000005</v>
+      </c>
+      <c r="AE85" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B85, "IQ_NET_INTEREST_EXP", IQ_FY, $D85, , , "USD", , AE$1)</f>
+        <v>296.38931000000002</v>
+      </c>
+      <c r="AF85" s="1">
+        <f>_xll.ciqfunctions.udf.CIQ($B85, "IQ_INC_TAX", IQ_FY, $D85, , , "USD", , AF$1)</f>
+        <v>630.21227999999996</v>
       </c>
     </row>
   </sheetData>
